--- a/Robak/doc/Makra.xlsx
+++ b/Robak/doc/Makra.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="152">
   <si>
     <t>Działanie</t>
   </si>
@@ -78,9 +78,6 @@
     <t>2L</t>
   </si>
   <si>
-    <t>AV_1</t>
-  </si>
-  <si>
     <t>3L</t>
   </si>
   <si>
@@ -321,9 +318,6 @@
     <t>Tymczasowo oświetlenie podłogowe (75_TOG)</t>
   </si>
   <si>
-    <t>60_TOG</t>
-  </si>
-  <si>
     <t>rol_006_up</t>
   </si>
   <si>
@@ -469,6 +463,15 @@
   </si>
   <si>
     <t>tymczasowo jedyny obwód (5_TOG)</t>
+  </si>
+  <si>
+    <t>Tymczasowo Ekran Dół</t>
+  </si>
+  <si>
+    <t>Tymczasowo Ekran Góra</t>
+  </si>
+  <si>
+    <t>rol_008 tymczasowo zakomentowana z powodu usterki</t>
   </si>
 </sst>
 </file>
@@ -691,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -744,136 +747,139 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1179,8 +1185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1196,2409 +1202,2365 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="43"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="4"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="46"/>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="43">
         <v>1</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="21">
         <v>3</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="56"/>
+      <c r="E3" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="44">
+      <c r="A4" s="44"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="21">
         <v>4</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="51" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="56"/>
+      <c r="E4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="41">
+      <c r="A5" s="44"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="56">
         <v>6</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="56"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="41"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="56"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="41"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="56"/>
       <c r="D7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="E7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="56"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="41"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="56"/>
       <c r="D8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="56"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="41"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="56"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="41"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="56"/>
+      <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="41"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="E11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="56"/>
+      <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="50" t="s">
+      <c r="E12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="59"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="25">
+      <c r="A13" s="49">
         <v>2</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="38">
+      <c r="C13" s="46">
         <v>7</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="F13" s="56"/>
+      <c r="E13" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" s="30"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="39"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="56"/>
+      <c r="E14" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="30"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="39"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="47"/>
       <c r="D15" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="49" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="56"/>
+      <c r="E15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="30"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="39"/>
+      <c r="A16" s="50"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="56"/>
+      <c r="E16" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="30"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="39"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="49" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="56"/>
+      <c r="E17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="39"/>
+      <c r="A18" s="50"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="47"/>
       <c r="D18" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="56"/>
+      <c r="E18" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="39"/>
+      <c r="A19" s="50"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="57" t="s">
-        <v>100</v>
+      <c r="E19" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="31" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="39"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="56"/>
+      <c r="E20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="40"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" s="59"/>
+      <c r="E21" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="33"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="45">
+      <c r="A22" s="50"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="52">
         <v>13</v>
       </c>
       <c r="D22" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="56"/>
+      <c r="E22" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="42"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="53"/>
       <c r="D23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="59"/>
+      <c r="E23" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="44">
+      <c r="A24" s="50"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="21">
         <v>17</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="51" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="46"/>
+      <c r="E24" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="32">
+      <c r="A25" s="43">
         <v>3</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="38">
+      <c r="C25" s="46">
         <v>12</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="58"/>
+      <c r="F25" s="32"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="39"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="56"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="56"/>
+      <c r="E27" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="31" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="10" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="49" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="56"/>
+      <c r="E28" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="31" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="39"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F29" s="56"/>
+      <c r="E29" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="39"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="49" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="56"/>
+      <c r="E30" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="35" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="39"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="56"/>
+      <c r="E31" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="39"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="49" t="s">
-        <v>89</v>
-      </c>
-      <c r="F32" s="56"/>
+      <c r="E32" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="39"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="56"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="39"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="F34" s="56"/>
+      <c r="E34" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="39"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="59"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
+      <c r="A36" s="59">
         <v>4</v>
       </c>
-      <c r="B36" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="45">
+      <c r="B36" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="52">
         <v>10</v>
       </c>
       <c r="D36" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="56"/>
+      <c r="E36" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="41"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="F37" s="56"/>
+      <c r="E37" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="41"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="56"/>
+      <c r="E38" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="41"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="56"/>
+      <c r="E39" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="30"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="41"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40" s="56"/>
+      <c r="E40" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="41"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41" s="56"/>
+      <c r="E41" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="41"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="49" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="56"/>
+      <c r="E42" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="41"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="56"/>
       <c r="D43" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43" s="56"/>
+      <c r="E43" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="F43" s="30"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="41"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="56"/>
+      <c r="E44" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="42"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" s="59"/>
+      <c r="E45" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="23">
+      <c r="A46" s="60"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="38">
         <v>11</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F46" s="56"/>
+      <c r="E46" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="23"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="38"/>
       <c r="D47" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E47" s="52"/>
-      <c r="F47" s="56"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="30"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="23"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="38"/>
       <c r="D48" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="56"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="36"/>
-      <c r="C49" s="23"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="38"/>
       <c r="D49" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="56"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="36"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="38"/>
       <c r="D50" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="56"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="23"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="38"/>
       <c r="D51" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="56"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="30"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="36"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="38"/>
       <c r="D52" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="56"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="30"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="37"/>
-      <c r="C53" s="24"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="39"/>
       <c r="D53" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E53" s="53"/>
-      <c r="F53" s="59"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="33"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="32">
+      <c r="A54" s="43">
         <v>5</v>
       </c>
-      <c r="B54" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="23">
+      <c r="B54" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="38">
         <v>9</v>
       </c>
       <c r="D54" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="56"/>
+      <c r="E54" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="33"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="23"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="38"/>
       <c r="D55" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="F55" s="56"/>
+      <c r="E55" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="36"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="38"/>
       <c r="D56" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F56" s="56"/>
+      <c r="E56" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="33"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="23"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="38"/>
       <c r="D57" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F57" s="56"/>
+      <c r="E57" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="33"/>
-      <c r="B58" s="36"/>
-      <c r="C58" s="23"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="38"/>
       <c r="D58" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F58" s="56"/>
+      <c r="E58" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="33"/>
-      <c r="B59" s="36"/>
-      <c r="C59" s="23"/>
+      <c r="A59" s="44"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="38"/>
       <c r="D59" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" s="56"/>
+      <c r="E59" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" s="30"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="33"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="23"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="38"/>
       <c r="D60" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E60" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="F60" s="56"/>
+      <c r="E60" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="30"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="33"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="23"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="38"/>
       <c r="D61" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="F61" s="56"/>
+      <c r="E61" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="30"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="33"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="23"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="38"/>
       <c r="D62" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E62" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="F62" s="56"/>
+      <c r="E62" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F62" s="30"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="33"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="38"/>
       <c r="D63" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E63" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="F63" s="56"/>
+      <c r="E63" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" s="30"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="33"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="23"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="38"/>
       <c r="D64" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E64" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F64" s="56"/>
+        <v>20</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="34"/>
-      <c r="B65" s="37"/>
-      <c r="C65" s="24"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="39"/>
       <c r="D65" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E65" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="F65" s="59"/>
+        <v>50</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F65" s="33"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>6</v>
       </c>
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="18">
+        <v>16</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="F66" s="22"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="43">
+        <v>7</v>
+      </c>
+      <c r="B67" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C66" s="30">
-        <v>16</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="F66" s="46"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="32">
-        <v>7</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C67" s="23">
+      <c r="C67" s="38">
         <v>18</v>
       </c>
       <c r="D67" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="49" t="s">
-        <v>108</v>
-      </c>
-      <c r="F67" s="56"/>
+      <c r="E67" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67" s="30"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="33"/>
-      <c r="B68" s="36"/>
-      <c r="C68" s="23"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="38"/>
       <c r="D68" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E68" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="F68" s="56"/>
+      <c r="E68" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F68" s="30"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="33"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="23"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="38"/>
       <c r="D69" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E69" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F69" s="56"/>
+      <c r="E69" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="30"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="33"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="23"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="38"/>
       <c r="D70" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E70" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F70" s="56"/>
+      <c r="E70" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="33"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="23"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E71" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F71" s="56"/>
+      <c r="E71" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="23"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="38"/>
       <c r="D72" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E72" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F72" s="56"/>
+      <c r="E72" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="30"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="23"/>
+      <c r="A73" s="44"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="38"/>
       <c r="D73" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E73" s="49" t="s">
-        <v>109</v>
-      </c>
-      <c r="F73" s="56"/>
+      <c r="E73" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="36"/>
-      <c r="C74" s="23"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="38"/>
       <c r="D74" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E74" s="49" t="s">
-        <v>110</v>
-      </c>
-      <c r="F74" s="56"/>
+      <c r="E74" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-      <c r="B75" s="36"/>
-      <c r="C75" s="23"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="38"/>
       <c r="D75" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="49" t="s">
+      <c r="E75" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" s="30"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="44"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F75" s="56"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="33"/>
-      <c r="B76" s="36"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" s="48" t="s">
+      <c r="F76" s="30"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="45"/>
+      <c r="B77" s="42"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F76" s="56"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="37"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E77" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="F77" s="59"/>
+      <c r="E77" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="33"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="32">
+      <c r="A78" s="43">
         <v>8</v>
       </c>
-      <c r="B78" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C78" s="23">
+      <c r="B78" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="38">
         <v>19</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="F78" s="56"/>
+      <c r="E78" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F78" s="30"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="33"/>
-      <c r="B79" s="36"/>
-      <c r="C79" s="23"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="38"/>
       <c r="D79" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E79" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F79" s="56"/>
+      <c r="E79" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F79" s="30"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="33"/>
-      <c r="B80" s="36"/>
-      <c r="C80" s="23"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="38"/>
       <c r="D80" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E80" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="F80" s="56"/>
+      <c r="E80" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="30"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="33"/>
-      <c r="B81" s="36"/>
-      <c r="C81" s="23"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="38"/>
       <c r="D81" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E81" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="F81" s="56"/>
+      <c r="E81" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="33"/>
-      <c r="B82" s="36"/>
-      <c r="C82" s="23"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="38"/>
       <c r="D82" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E82" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="F82" s="56"/>
+      <c r="E82" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" s="30"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="33"/>
-      <c r="B83" s="36"/>
-      <c r="C83" s="23"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="38"/>
       <c r="D83" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E83" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F83" s="56"/>
+      <c r="E83" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="33"/>
-      <c r="B84" s="36"/>
-      <c r="C84" s="23"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="38"/>
       <c r="D84" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E84" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F84" s="56"/>
+      <c r="E84" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F84" s="30"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="33"/>
-      <c r="B85" s="36"/>
-      <c r="C85" s="23"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="38"/>
       <c r="D85" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F85" s="56"/>
+      <c r="E85" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
-      <c r="B86" s="36"/>
-      <c r="C86" s="23"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="38"/>
       <c r="D86" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E86" s="48" t="s">
+      <c r="E86" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F86" s="30"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="44"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F86" s="56"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="33"/>
-      <c r="B87" s="36"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E87" s="48" t="s">
+      <c r="F87" s="30"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="44"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F87" s="56"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="33"/>
-      <c r="B88" s="36"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="9" t="s">
+      <c r="E88" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F88" s="30"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="45"/>
+      <c r="B89" s="42"/>
+      <c r="C89" s="39"/>
+      <c r="D89" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E88" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F88" s="56"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="34"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="24"/>
-      <c r="D89" s="11" t="s">
+      <c r="E89" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="33"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="43">
+        <v>9</v>
+      </c>
+      <c r="B90" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E89" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="F89" s="59"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="32">
-        <v>9</v>
-      </c>
-      <c r="B90" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" s="20">
+      <c r="C90" s="54">
         <v>14</v>
       </c>
       <c r="D90" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="F90" s="56"/>
+      <c r="E90" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F90" s="30"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="34"/>
-      <c r="B91" s="37"/>
-      <c r="C91" s="21"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="55"/>
       <c r="D91" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="F91" s="59"/>
+      <c r="E91" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="F91" s="33"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="32">
+      <c r="A92" s="43">
         <v>10</v>
       </c>
-      <c r="B92" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C92" s="23">
+      <c r="B92" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" s="38">
         <v>5</v>
       </c>
       <c r="D92" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="F92" s="56"/>
+      <c r="E92" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F92" s="30"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="33"/>
-      <c r="B93" s="36"/>
-      <c r="C93" s="23"/>
+      <c r="A93" s="44"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="38"/>
       <c r="D93" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E93" s="49" t="s">
-        <v>65</v>
-      </c>
-      <c r="F93" s="56"/>
+      <c r="E93" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F93" s="30"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="33"/>
-      <c r="B94" s="36"/>
-      <c r="C94" s="23"/>
+      <c r="A94" s="44"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="38"/>
       <c r="D94" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E94" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F94" s="56"/>
+      <c r="E94" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="30"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="33"/>
-      <c r="B95" s="36"/>
-      <c r="C95" s="23"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="38"/>
       <c r="D95" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E95" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F95" s="56"/>
+      <c r="E95" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F95" s="30"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="33"/>
-      <c r="B96" s="36"/>
-      <c r="C96" s="23"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="38"/>
       <c r="D96" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E96" s="49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F96" s="56"/>
+      <c r="E96" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="F96" s="30"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
-      <c r="B97" s="36"/>
-      <c r="C97" s="23"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="38"/>
       <c r="D97" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E97" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="F97" s="56"/>
+      <c r="E97" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" s="30"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="33"/>
-      <c r="B98" s="36"/>
-      <c r="C98" s="23"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="38"/>
       <c r="D98" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E98" s="49" t="s">
-        <v>66</v>
-      </c>
-      <c r="F98" s="56"/>
+      <c r="E98" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="F98" s="30"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="34"/>
-      <c r="B99" s="37"/>
-      <c r="C99" s="24"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="39"/>
       <c r="D99" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E99" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" s="59"/>
+      <c r="E99" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F99" s="33"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="18">
+      <c r="A100" s="50">
         <v>11</v>
       </c>
-      <c r="B100" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C100" s="45">
+      <c r="B100" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C100" s="52">
         <v>8</v>
       </c>
       <c r="D100" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="49" t="s">
-        <v>90</v>
-      </c>
-      <c r="F100" s="56"/>
+      <c r="E100" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="F100" s="30"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="19"/>
-      <c r="B101" s="19"/>
-      <c r="C101" s="42"/>
+      <c r="A101" s="51"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="53"/>
       <c r="D101" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E101" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="F101" s="59"/>
+      <c r="E101" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="F101" s="33"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="32">
+      <c r="A102" s="43">
         <v>12</v>
       </c>
-      <c r="B102" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C102" s="38">
+      <c r="B102" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="C102" s="46">
         <v>1</v>
       </c>
       <c r="D102" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="49" t="s">
-        <v>70</v>
-      </c>
-      <c r="F102" s="56"/>
+      <c r="E102" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" s="30"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="33"/>
-      <c r="B103" s="18"/>
-      <c r="C103" s="39"/>
+      <c r="A103" s="44"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="47"/>
       <c r="D103" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E103" s="49" t="s">
-        <v>71</v>
-      </c>
-      <c r="F103" s="56"/>
+      <c r="E103" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="33"/>
-      <c r="B104" s="18"/>
-      <c r="C104" s="39"/>
+      <c r="A104" s="44"/>
+      <c r="B104" s="50"/>
+      <c r="C104" s="47"/>
       <c r="D104" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E104" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F104" s="56"/>
+      <c r="E104" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F104" s="30"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="33"/>
-      <c r="B105" s="18"/>
-      <c r="C105" s="39"/>
+      <c r="A105" s="44"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="47"/>
       <c r="D105" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E105" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="F105" s="56"/>
+      <c r="E105" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F105" s="30"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="33"/>
-      <c r="B106" s="18"/>
-      <c r="C106" s="39"/>
+      <c r="A106" s="44"/>
+      <c r="B106" s="50"/>
+      <c r="C106" s="47"/>
       <c r="D106" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E106" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="F106" s="56"/>
+      <c r="E106" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F106" s="30"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="33"/>
-      <c r="B107" s="18"/>
-      <c r="C107" s="39"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="47"/>
       <c r="D107" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="F107" s="56"/>
+      <c r="E107" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F107" s="30"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="33"/>
-      <c r="B108" s="18"/>
-      <c r="C108" s="39"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="50"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E108" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="F108" s="56"/>
+      <c r="E108" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F108" s="30"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
-      <c r="B109" s="19"/>
-      <c r="C109" s="40"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="48"/>
       <c r="D109" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E109" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="F109" s="59"/>
+      <c r="E109" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="F109" s="33"/>
     </row>
     <row r="110" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>13</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C110" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D110" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E110" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D110" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E110" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="F110" s="46"/>
+      <c r="F110" s="22"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="32">
+      <c r="A111" s="43">
         <v>14</v>
       </c>
-      <c r="B111" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="C111" s="45">
+      <c r="B111" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" s="52">
         <v>20</v>
       </c>
       <c r="D111" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="F111" s="56"/>
+      <c r="E111" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F111" s="30"/>
     </row>
     <row r="112" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="33"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="42"/>
+      <c r="A112" s="44"/>
+      <c r="B112" s="50"/>
+      <c r="C112" s="53"/>
       <c r="D112" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E112" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F112" s="59"/>
+      <c r="E112" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F112" s="33"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="33"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="45">
+      <c r="A113" s="44"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="52">
         <v>27</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E113" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="F113" s="56"/>
+      <c r="E113" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F113" s="30"/>
     </row>
     <row r="114" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="33"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="42"/>
+      <c r="A114" s="44"/>
+      <c r="B114" s="50"/>
+      <c r="C114" s="53"/>
       <c r="D114" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E114" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F114" s="59"/>
+      <c r="E114" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F114" s="33"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="33"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="45">
+      <c r="A115" s="44"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="52">
         <v>30</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="49" t="s">
-        <v>114</v>
-      </c>
-      <c r="F115" s="56"/>
+      <c r="E115" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F115" s="30"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
-      <c r="B116" s="19"/>
-      <c r="C116" s="42"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="53"/>
       <c r="D116" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E116" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F116" s="59"/>
+      <c r="E116" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F116" s="33"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="35">
+      <c r="A117" s="40">
         <v>15</v>
       </c>
-      <c r="B117" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C117" s="38">
+      <c r="B117" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C117" s="46">
         <v>28</v>
       </c>
       <c r="D117" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E117" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F117" s="56"/>
+      <c r="E117" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" s="30"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="36"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="39"/>
+      <c r="A118" s="41"/>
+      <c r="B118" s="50"/>
+      <c r="C118" s="47"/>
       <c r="D118" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E118" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F118" s="56"/>
+      <c r="E118" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F118" s="30"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="36"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="39"/>
+      <c r="A119" s="41"/>
+      <c r="B119" s="50"/>
+      <c r="C119" s="47"/>
       <c r="D119" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E119" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F119" s="56"/>
+      <c r="E119" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F119" s="30"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="36"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="39"/>
+      <c r="A120" s="41"/>
+      <c r="B120" s="50"/>
+      <c r="C120" s="47"/>
       <c r="D120" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E120" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F120" s="56"/>
+      <c r="E120" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F120" s="30"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="36"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="39"/>
+      <c r="A121" s="41"/>
+      <c r="B121" s="50"/>
+      <c r="C121" s="47"/>
       <c r="D121" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E121" s="49" t="s">
-        <v>118</v>
-      </c>
-      <c r="F121" s="57" t="s">
-        <v>119</v>
+      <c r="E121" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="F121" s="31" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="37"/>
-      <c r="B122" s="19"/>
-      <c r="C122" s="40"/>
+      <c r="A122" s="42"/>
+      <c r="B122" s="51"/>
+      <c r="C122" s="48"/>
       <c r="D122" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E122" s="50" t="s">
+      <c r="E122" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="F122" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="F122" s="61" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="123" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="32">
+      <c r="A123" s="43">
         <v>16</v>
       </c>
-      <c r="B123" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="C123" s="38">
+      <c r="B123" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C123" s="46">
         <v>31</v>
       </c>
       <c r="D123" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E123" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F123" s="56"/>
+      <c r="E123" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F123" s="30"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="33"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="39"/>
+      <c r="A124" s="44"/>
+      <c r="B124" s="50"/>
+      <c r="C124" s="47"/>
       <c r="D124" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E124" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F124" s="56"/>
+      <c r="E124" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" s="30"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="33"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="39"/>
+      <c r="A125" s="44"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="47"/>
       <c r="D125" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E125" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F125" s="56"/>
+      <c r="E125" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F125" s="30"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="33"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="39"/>
+      <c r="A126" s="44"/>
+      <c r="B126" s="50"/>
+      <c r="C126" s="47"/>
       <c r="D126" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E126" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F126" s="56"/>
+      <c r="E126" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F126" s="30"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="33"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="39"/>
+      <c r="A127" s="44"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="47"/>
       <c r="D127" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E127" s="49" t="s">
-        <v>121</v>
-      </c>
-      <c r="F127" s="56"/>
+      <c r="E127" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="F127" s="30"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="33"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="40"/>
+      <c r="A128" s="44"/>
+      <c r="B128" s="50"/>
+      <c r="C128" s="48"/>
       <c r="D128" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E128" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="F128" s="59"/>
+      <c r="E128" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="F128" s="33"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="33"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="38">
+      <c r="A129" s="44"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="46">
         <v>32</v>
       </c>
       <c r="D129" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E129" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F129" s="56"/>
+      <c r="E129" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F129" s="30"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="33"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="40"/>
+      <c r="A130" s="44"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="48"/>
       <c r="D130" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E130" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="F130" s="59"/>
+      <c r="E130" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F130" s="33"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="33"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="38">
+      <c r="A131" s="44"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="46">
         <v>33</v>
       </c>
       <c r="D131" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E131" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F131" s="56"/>
+      <c r="E131" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F131" s="30"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="34"/>
-      <c r="B132" s="19"/>
-      <c r="C132" s="40"/>
+      <c r="A132" s="45"/>
+      <c r="B132" s="51"/>
+      <c r="C132" s="48"/>
       <c r="D132" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E132" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="F132" s="59"/>
+      <c r="E132" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" s="33"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="32">
+      <c r="A133" s="43">
         <v>17</v>
       </c>
-      <c r="B133" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C133" s="22">
+      <c r="B133" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C133" s="37">
         <v>29</v>
       </c>
       <c r="D133" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E133" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="F133" s="56"/>
+      <c r="E133" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="F133" s="30"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="33"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="23"/>
+      <c r="A134" s="44"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="38"/>
       <c r="D134" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E134" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="F134" s="56"/>
+      <c r="E134" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="F134" s="30"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="33"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="23"/>
+      <c r="A135" s="44"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="38"/>
       <c r="D135" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E135" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F135" s="56"/>
+      <c r="E135" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F135" s="30"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="33"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="23"/>
+      <c r="A136" s="44"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="38"/>
       <c r="D136" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E136" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F136" s="56"/>
+      <c r="E136" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F136" s="30"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="33"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="23"/>
+      <c r="A137" s="44"/>
+      <c r="B137" s="44"/>
+      <c r="C137" s="38"/>
       <c r="D137" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E137" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F137" s="56"/>
+      <c r="E137" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F137" s="30"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="33"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="23"/>
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="38"/>
       <c r="D138" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E138" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F138" s="57" t="s">
-        <v>127</v>
+      <c r="E138" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F138" s="31" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="139" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="33"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="23"/>
+      <c r="A139" s="44"/>
+      <c r="B139" s="44"/>
+      <c r="C139" s="38"/>
       <c r="D139" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E139" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F139" s="60"/>
+      <c r="E139" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F139" s="34"/>
     </row>
     <row r="140" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="33"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="23"/>
+      <c r="A140" s="44"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="38"/>
       <c r="D140" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E140" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F140" s="60"/>
+        <v>20</v>
+      </c>
+      <c r="E140" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F140" s="34"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="34"/>
-      <c r="B141" s="34"/>
-      <c r="C141" s="24"/>
+      <c r="A141" s="45"/>
+      <c r="B141" s="45"/>
+      <c r="C141" s="39"/>
       <c r="D141" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E141" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="F141" s="59"/>
+        <v>50</v>
+      </c>
+      <c r="E141" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F141" s="33"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="32">
+      <c r="A142" s="43">
         <v>18</v>
       </c>
-      <c r="B142" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C142" s="22">
+      <c r="B142" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C142" s="37">
         <v>21</v>
       </c>
       <c r="D142" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E142" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="F142" s="56"/>
+      <c r="E142" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F142" s="30"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="33"/>
-      <c r="B143" s="33"/>
-      <c r="C143" s="23"/>
+      <c r="A143" s="44"/>
+      <c r="B143" s="44"/>
+      <c r="C143" s="38"/>
       <c r="D143" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E143" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="F143" s="56"/>
+      <c r="E143" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F143" s="30"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="33"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="23"/>
+      <c r="A144" s="44"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="38"/>
       <c r="D144" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E144" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F144" s="57" t="s">
-        <v>135</v>
+      <c r="E144" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="31" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="33"/>
-      <c r="B145" s="33"/>
-      <c r="C145" s="23"/>
+      <c r="A145" s="44"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="38"/>
       <c r="D145" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E145" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F145" s="56"/>
+      <c r="E145" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" s="30"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="33"/>
-      <c r="B146" s="33"/>
-      <c r="C146" s="23"/>
+      <c r="A146" s="44"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="38"/>
       <c r="D146" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E146" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F146" s="56"/>
+      <c r="E146" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" s="30"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="33"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="23"/>
+      <c r="A147" s="44"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="38"/>
       <c r="D147" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E147" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F147" s="56"/>
+      <c r="E147" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F147" s="30"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="33"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="23"/>
+      <c r="A148" s="44"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="38"/>
       <c r="D148" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E148" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="F148" s="56"/>
+      <c r="E148" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F148" s="30"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="33"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="23"/>
+      <c r="A149" s="44"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="38"/>
       <c r="D149" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E149" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="F149" s="56"/>
+      <c r="E149" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F149" s="30"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="33"/>
-      <c r="B150" s="33"/>
-      <c r="C150" s="23"/>
+      <c r="A150" s="44"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="38"/>
       <c r="D150" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E150" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="F150" s="56"/>
+      <c r="E150" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F150" s="30"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="33"/>
-      <c r="B151" s="33"/>
-      <c r="C151" s="24"/>
+      <c r="A151" s="44"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="39"/>
       <c r="D151" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E151" s="50" t="s">
-        <v>131</v>
-      </c>
-      <c r="F151" s="59"/>
+      <c r="E151" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="F151" s="33"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="33"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="23">
+      <c r="A152" s="44"/>
+      <c r="B152" s="44"/>
+      <c r="C152" s="38">
         <v>23</v>
       </c>
       <c r="D152" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E152" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="F152" s="58"/>
+      <c r="E152" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="F152" s="32"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="33"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="23"/>
+      <c r="A153" s="44"/>
+      <c r="B153" s="44"/>
+      <c r="C153" s="38"/>
       <c r="D153" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E153" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="F153" s="56"/>
+      <c r="E153" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F153" s="30"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="33"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="23"/>
+      <c r="A154" s="44"/>
+      <c r="B154" s="44"/>
+      <c r="C154" s="38"/>
       <c r="D154" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E154" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F154" s="57" t="s">
-        <v>136</v>
+      <c r="E154" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F154" s="31" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="33"/>
-      <c r="B155" s="33"/>
-      <c r="C155" s="23"/>
+      <c r="A155" s="44"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="38"/>
       <c r="D155" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E155" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F155" s="56"/>
+      <c r="E155" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F155" s="30"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="33"/>
-      <c r="B156" s="33"/>
-      <c r="C156" s="23"/>
+      <c r="A156" s="44"/>
+      <c r="B156" s="44"/>
+      <c r="C156" s="38"/>
       <c r="D156" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E156" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F156" s="56"/>
+      <c r="E156" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F156" s="30"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="33"/>
-      <c r="B157" s="33"/>
-      <c r="C157" s="23"/>
+      <c r="A157" s="44"/>
+      <c r="B157" s="44"/>
+      <c r="C157" s="38"/>
       <c r="D157" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E157" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F157" s="56"/>
+      <c r="E157" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F157" s="30"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="33"/>
-      <c r="B158" s="33"/>
-      <c r="C158" s="23"/>
+      <c r="A158" s="44"/>
+      <c r="B158" s="44"/>
+      <c r="C158" s="38"/>
       <c r="D158" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E158" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="F158" s="56"/>
+      <c r="E158" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F158" s="30"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="33"/>
-      <c r="B159" s="33"/>
-      <c r="C159" s="23"/>
+      <c r="A159" s="44"/>
+      <c r="B159" s="44"/>
+      <c r="C159" s="38"/>
       <c r="D159" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E159" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="F159" s="56"/>
+      <c r="E159" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F159" s="30"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="33"/>
-      <c r="B160" s="33"/>
-      <c r="C160" s="23"/>
+      <c r="A160" s="44"/>
+      <c r="B160" s="44"/>
+      <c r="C160" s="38"/>
       <c r="D160" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E160" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="F160" s="56"/>
+      <c r="E160" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F160" s="30"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="33"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="24"/>
+      <c r="A161" s="44"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="39"/>
       <c r="D161" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E161" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="F161" s="59"/>
+      <c r="E161" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F161" s="33"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="33"/>
-      <c r="B162" s="33"/>
-      <c r="C162" s="31">
+      <c r="A162" s="44"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="19">
         <v>2</v>
       </c>
-      <c r="D162" s="31" t="s">
+      <c r="D162" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E162" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="F162" s="46"/>
+      <c r="E162" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F162" s="22"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="34"/>
-      <c r="B163" s="34"/>
+      <c r="A163" s="45"/>
+      <c r="B163" s="45"/>
       <c r="C163" s="13">
         <v>26</v>
       </c>
       <c r="D163" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E163" s="55" t="s">
-        <v>138</v>
-      </c>
-      <c r="F163" s="46"/>
+      <c r="E163" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="F163" s="22"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="32">
+      <c r="A164" s="43">
         <v>19</v>
       </c>
-      <c r="B164" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="C164" s="22">
+      <c r="B164" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C164" s="37">
         <v>25</v>
       </c>
       <c r="D164" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E164" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="F164" s="57" t="s">
-        <v>148</v>
+      <c r="E164" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F164" s="31" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="33"/>
-      <c r="B165" s="36"/>
-      <c r="C165" s="23"/>
+      <c r="A165" s="44"/>
+      <c r="B165" s="41"/>
+      <c r="C165" s="38"/>
       <c r="D165" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E165" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="F165" s="56"/>
+      <c r="E165" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="F165" s="30"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="33"/>
-      <c r="B166" s="36"/>
-      <c r="C166" s="23"/>
+      <c r="A166" s="44"/>
+      <c r="B166" s="41"/>
+      <c r="C166" s="38"/>
       <c r="D166" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E166" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="F166" s="56"/>
+      <c r="E166" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F166" s="30"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="33"/>
-      <c r="B167" s="36"/>
-      <c r="C167" s="23"/>
+      <c r="A167" s="44"/>
+      <c r="B167" s="41"/>
+      <c r="C167" s="38"/>
       <c r="D167" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E167" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="F167" s="56"/>
+      <c r="E167" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F167" s="30"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="33"/>
-      <c r="B168" s="36"/>
-      <c r="C168" s="23"/>
+      <c r="A168" s="44"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="38"/>
       <c r="D168" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E168" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="F168" s="56"/>
+      <c r="E168" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F168" s="30"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="33"/>
-      <c r="B169" s="36"/>
-      <c r="C169" s="23"/>
+      <c r="A169" s="44"/>
+      <c r="B169" s="41"/>
+      <c r="C169" s="38"/>
       <c r="D169" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E169" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F169" s="56"/>
+      <c r="E169" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169" s="30"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="33"/>
-      <c r="B170" s="36"/>
-      <c r="C170" s="23"/>
+      <c r="A170" s="44"/>
+      <c r="B170" s="41"/>
+      <c r="C170" s="38"/>
       <c r="D170" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E170" s="49" t="s">
+      <c r="E170" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F170" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="F170" s="57" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="33"/>
-      <c r="B171" s="36"/>
-      <c r="C171" s="23"/>
+      <c r="A171" s="44"/>
+      <c r="B171" s="41"/>
+      <c r="C171" s="38"/>
       <c r="D171" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E171" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="F171" s="57" t="s">
-        <v>147</v>
+      <c r="E171" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F171" s="31" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="33"/>
-      <c r="B172" s="36"/>
-      <c r="C172" s="23"/>
+      <c r="A172" s="44"/>
+      <c r="B172" s="41"/>
+      <c r="C172" s="38"/>
       <c r="D172" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E172" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="F172" s="56"/>
+      <c r="E172" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F172" s="30"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="33"/>
-      <c r="B173" s="36"/>
-      <c r="C173" s="23"/>
+      <c r="A173" s="44"/>
+      <c r="B173" s="41"/>
+      <c r="C173" s="38"/>
       <c r="D173" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E173" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F173" s="56"/>
+        <v>20</v>
+      </c>
+      <c r="E173" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F173" s="30"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="34"/>
-      <c r="B174" s="37"/>
-      <c r="C174" s="24"/>
+      <c r="A174" s="45"/>
+      <c r="B174" s="42"/>
+      <c r="C174" s="39"/>
       <c r="D174" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E174" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="F174" s="59"/>
+        <v>50</v>
+      </c>
+      <c r="E174" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F174" s="33"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="35">
+      <c r="A175" s="40">
         <v>20</v>
       </c>
-      <c r="B175" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="C175" s="22">
+      <c r="B175" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C175" s="37">
         <v>22</v>
       </c>
       <c r="D175" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E175" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F175" s="57" t="s">
-        <v>150</v>
+      <c r="E175" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F175" s="31" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="36"/>
-      <c r="B176" s="36"/>
-      <c r="C176" s="23"/>
+      <c r="A176" s="41"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="38"/>
       <c r="D176" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E176" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F176" s="56"/>
+      <c r="E176" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F176" s="30"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="36"/>
-      <c r="B177" s="36"/>
-      <c r="C177" s="23"/>
+      <c r="A177" s="41"/>
+      <c r="B177" s="41"/>
+      <c r="C177" s="38"/>
       <c r="D177" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E177" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F177" s="56"/>
+      <c r="E177" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F177" s="30"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="36"/>
-      <c r="B178" s="36"/>
-      <c r="C178" s="23"/>
+      <c r="A178" s="41"/>
+      <c r="B178" s="41"/>
+      <c r="C178" s="38"/>
       <c r="D178" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E178" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F178" s="56"/>
+      <c r="E178" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F178" s="30"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="36"/>
-      <c r="B179" s="36"/>
-      <c r="C179" s="23"/>
+      <c r="A179" s="41"/>
+      <c r="B179" s="41"/>
+      <c r="C179" s="38"/>
       <c r="D179" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E179" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F179" s="56"/>
+      <c r="E179" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F179" s="30"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="36"/>
-      <c r="B180" s="36"/>
-      <c r="C180" s="23"/>
+      <c r="A180" s="41"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="38"/>
       <c r="D180" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E180" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="F180" s="56"/>
+      <c r="E180" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F180" s="30"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="36"/>
-      <c r="B181" s="36"/>
-      <c r="C181" s="23"/>
+      <c r="A181" s="41"/>
+      <c r="B181" s="41"/>
+      <c r="C181" s="38"/>
       <c r="D181" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E181" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="F181" s="56"/>
+      <c r="E181" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F181" s="30"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="36"/>
-      <c r="B182" s="36"/>
-      <c r="C182" s="23"/>
+      <c r="A182" s="41"/>
+      <c r="B182" s="41"/>
+      <c r="C182" s="38"/>
       <c r="D182" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E182" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="F182" s="56"/>
+      <c r="E182" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F182" s="30"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="37"/>
-      <c r="B183" s="37"/>
-      <c r="C183" s="24"/>
+      <c r="A183" s="42"/>
+      <c r="B183" s="42"/>
+      <c r="C183" s="39"/>
       <c r="D183" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E183" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="F183" s="59"/>
+      <c r="E183" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F183" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="C175:C183"/>
-    <mergeCell ref="B175:B183"/>
-    <mergeCell ref="A175:A183"/>
-    <mergeCell ref="C152:C161"/>
-    <mergeCell ref="B142:B163"/>
-    <mergeCell ref="A142:A163"/>
-    <mergeCell ref="C164:C174"/>
-    <mergeCell ref="B164:B174"/>
-    <mergeCell ref="A164:A174"/>
-    <mergeCell ref="C133:C141"/>
-    <mergeCell ref="B133:B141"/>
-    <mergeCell ref="A133:A141"/>
-    <mergeCell ref="C142:C151"/>
-    <mergeCell ref="C123:C128"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="B123:B132"/>
-    <mergeCell ref="A123:A132"/>
-    <mergeCell ref="C113:C114"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="B111:B116"/>
-    <mergeCell ref="A111:A116"/>
-    <mergeCell ref="C117:C122"/>
-    <mergeCell ref="B117:B122"/>
-    <mergeCell ref="A117:A122"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="C102:C109"/>
-    <mergeCell ref="B102:B109"/>
-    <mergeCell ref="A102:A109"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C67:C77"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="A67:A77"/>
-    <mergeCell ref="C78:C89"/>
-    <mergeCell ref="B78:B89"/>
-    <mergeCell ref="A78:A89"/>
-    <mergeCell ref="C54:C65"/>
-    <mergeCell ref="B54:B65"/>
-    <mergeCell ref="A54:A65"/>
-    <mergeCell ref="C36:C45"/>
-    <mergeCell ref="E46:E53"/>
-    <mergeCell ref="C46:C53"/>
-    <mergeCell ref="B36:B53"/>
-    <mergeCell ref="A36:A53"/>
     <mergeCell ref="C25:C35"/>
     <mergeCell ref="C5:C12"/>
     <mergeCell ref="A25:A35"/>
@@ -3609,6 +3571,58 @@
     <mergeCell ref="C13:C21"/>
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="B13:B24"/>
+    <mergeCell ref="C54:C65"/>
+    <mergeCell ref="B54:B65"/>
+    <mergeCell ref="A54:A65"/>
+    <mergeCell ref="C36:C45"/>
+    <mergeCell ref="E46:E53"/>
+    <mergeCell ref="C46:C53"/>
+    <mergeCell ref="B36:B53"/>
+    <mergeCell ref="A36:A53"/>
+    <mergeCell ref="C67:C77"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="A67:A77"/>
+    <mergeCell ref="C78:C89"/>
+    <mergeCell ref="B78:B89"/>
+    <mergeCell ref="A78:A89"/>
+    <mergeCell ref="C102:C109"/>
+    <mergeCell ref="B102:B109"/>
+    <mergeCell ref="A102:A109"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="B111:B116"/>
+    <mergeCell ref="A111:A116"/>
+    <mergeCell ref="C117:C122"/>
+    <mergeCell ref="B117:B122"/>
+    <mergeCell ref="A117:A122"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C133:C141"/>
+    <mergeCell ref="B133:B141"/>
+    <mergeCell ref="A133:A141"/>
+    <mergeCell ref="C142:C151"/>
+    <mergeCell ref="C123:C128"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="B123:B132"/>
+    <mergeCell ref="A123:A132"/>
+    <mergeCell ref="C175:C183"/>
+    <mergeCell ref="B175:B183"/>
+    <mergeCell ref="A175:A183"/>
+    <mergeCell ref="C152:C161"/>
+    <mergeCell ref="B142:B163"/>
+    <mergeCell ref="A142:A163"/>
+    <mergeCell ref="C164:C174"/>
+    <mergeCell ref="B164:B174"/>
+    <mergeCell ref="A164:A174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Robak/doc/Makra.xlsx
+++ b/Robak/doc/Makra.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
-    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
+    <sheet name="Makra Przycisków" sheetId="1" r:id="rId1"/>
+    <sheet name="Legenda" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="179">
   <si>
     <t>Działanie</t>
   </si>
@@ -520,13 +519,46 @@
   </si>
   <si>
     <t>gn_101_TOG</t>
+  </si>
+  <si>
+    <t>Zaprogramowane</t>
+  </si>
+  <si>
+    <t>Niezaprogramowane</t>
+  </si>
+  <si>
+    <t>Wyjątek / Komentarz / Uwaga</t>
+  </si>
+  <si>
+    <t>Brak klawiatury</t>
+  </si>
+  <si>
+    <t>S = Short = krótke kliknięcie</t>
+  </si>
+  <si>
+    <t>L = Long = dłuższe przytrzymanie</t>
+  </si>
+  <si>
+    <t>Np.: 3S = krótkie kliknięcie przyckisku nr 3 na klawiaturze</t>
+  </si>
+  <si>
+    <t>Np.: 4L = dłuższe przytrzymanie przyckisku nr 4 na klawiaturze</t>
+  </si>
+  <si>
+    <t>on, off, up, down = wiadomo</t>
+  </si>
+  <si>
+    <t>tog = toggle = przełączenie</t>
+  </si>
+  <si>
+    <t>np.: 61_TOG = przełączenie obwodu nr 61</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,8 +575,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +611,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +802,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -939,77 +984,92 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1314,7 +1374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
       <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
@@ -1363,10 +1423,10 @@
       <c r="G2" s="30"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="63">
+      <c r="A3" s="67">
         <v>1</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="74" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="15">
@@ -1382,8 +1442,8 @@
       <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="64"/>
-      <c r="B4" s="68"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="74"/>
       <c r="C4" s="15">
         <v>4</v>
       </c>
@@ -1397,9 +1457,9 @@
       <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="62">
+      <c r="A5" s="68"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="80">
         <v>24</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1412,9 +1472,9 @@
       <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="64"/>
-      <c r="B6" s="68"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="37" t="s">
         <v>4</v>
       </c>
@@ -1425,9 +1485,9 @@
       <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="80"/>
       <c r="D7" s="37" t="s">
         <v>5</v>
       </c>
@@ -1438,9 +1498,9 @@
       <c r="G7" s="30"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="80"/>
       <c r="D8" s="37" t="s">
         <v>6</v>
       </c>
@@ -1451,9 +1511,9 @@
       <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="62"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="80"/>
       <c r="D9" s="37" t="s">
         <v>7</v>
       </c>
@@ -1464,9 +1524,9 @@
       <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="38" t="s">
         <v>8</v>
       </c>
@@ -1477,10 +1537,10 @@
       <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="66">
+      <c r="A11" s="73">
         <v>2</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="81" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="70">
@@ -1496,8 +1556,8 @@
       <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="68"/>
-      <c r="B12" s="74"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="82"/>
       <c r="C12" s="71"/>
       <c r="D12" s="6" t="s">
         <v>4</v>
@@ -1509,8 +1569,8 @@
       <c r="G12" s="30"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="74"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="82"/>
       <c r="C13" s="71"/>
       <c r="D13" s="6" t="s">
         <v>5</v>
@@ -1522,8 +1582,8 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="74"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="71"/>
       <c r="D14" s="6" t="s">
         <v>6</v>
@@ -1535,8 +1595,8 @@
       <c r="G14" s="30"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="74"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="71"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
@@ -1548,8 +1608,8 @@
       <c r="G15" s="30"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="74"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="71"/>
       <c r="D16" s="6" t="s">
         <v>8</v>
@@ -1561,8 +1621,8 @@
       <c r="G16" s="30"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="74"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="71"/>
       <c r="D17" s="5" t="s">
         <v>9</v>
@@ -1576,8 +1636,8 @@
       <c r="G17" s="30"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
-      <c r="B18" s="74"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="71"/>
       <c r="D18" s="11" t="s">
         <v>10</v>
@@ -1589,8 +1649,8 @@
       <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="74"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="72"/>
       <c r="D19" s="8" t="s">
         <v>13</v>
@@ -1602,9 +1662,9 @@
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="61">
+      <c r="A20" s="74"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="76">
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1617,9 +1677,9 @@
       <c r="G20" s="30"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="69"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="77"/>
       <c r="D21" s="8" t="s">
         <v>4</v>
       </c>
@@ -1630,8 +1690,8 @@
       <c r="G21" s="30"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="68"/>
-      <c r="B22" s="75"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="15">
         <v>17</v>
       </c>
@@ -1645,13 +1705,13 @@
       <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="63">
+      <c r="A23" s="67">
         <v>3</v>
       </c>
-      <c r="B23" s="66" t="s">
+      <c r="B23" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="61">
+      <c r="C23" s="76">
         <v>12</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1665,9 +1725,9 @@
       <c r="H23" s="54"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="67"/>
-      <c r="C24" s="62"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="80"/>
       <c r="D24" s="6" t="s">
         <v>4</v>
       </c>
@@ -1678,9 +1738,9 @@
       <c r="G24" s="30"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="67"/>
-      <c r="C25" s="62"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="80"/>
       <c r="D25" s="6" t="s">
         <v>5</v>
       </c>
@@ -1691,9 +1751,9 @@
       <c r="G25" s="30"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="67"/>
-      <c r="C26" s="62"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="80"/>
       <c r="D26" s="6" t="s">
         <v>6</v>
       </c>
@@ -1704,9 +1764,9 @@
       <c r="G26" s="30"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="62"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="80"/>
       <c r="D27" s="6" t="s">
         <v>7</v>
       </c>
@@ -1719,9 +1779,9 @@
       <c r="G27" s="30"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="67"/>
-      <c r="C28" s="62"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="80"/>
       <c r="D28" s="6" t="s">
         <v>8</v>
       </c>
@@ -1734,9 +1794,9 @@
       <c r="G28" s="30"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="67"/>
-      <c r="C29" s="62"/>
+      <c r="A29" s="68"/>
+      <c r="B29" s="83"/>
+      <c r="C29" s="80"/>
       <c r="D29" s="6" t="s">
         <v>9</v>
       </c>
@@ -1747,9 +1807,9 @@
       <c r="G29" s="30"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="83"/>
+      <c r="C30" s="80"/>
       <c r="D30" s="10" t="s">
         <v>10</v>
       </c>
@@ -1760,9 +1820,9 @@
       <c r="G30" s="30"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="67"/>
-      <c r="C31" s="62"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="80"/>
       <c r="D31" s="6" t="s">
         <v>13</v>
       </c>
@@ -1773,9 +1833,9 @@
       <c r="G31" s="30"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="67"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="80"/>
       <c r="D32" s="6" t="s">
         <v>14</v>
       </c>
@@ -1786,9 +1846,9 @@
       <c r="G32" s="30"/>
     </row>
     <row r="33" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="67"/>
-      <c r="C33" s="62"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="80"/>
       <c r="D33" s="6" t="s">
         <v>15</v>
       </c>
@@ -1799,9 +1859,9 @@
       <c r="G33" s="30"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="67"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="69"/>
+      <c r="B34" s="83"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="6" t="s">
         <v>44</v>
       </c>
@@ -1812,13 +1872,13 @@
       <c r="G34" s="30"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="73">
+      <c r="A35" s="81">
         <v>4</v>
       </c>
-      <c r="B35" s="73" t="s">
+      <c r="B35" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="61">
+      <c r="C35" s="76">
         <v>10</v>
       </c>
       <c r="D35" s="12" t="s">
@@ -1831,9 +1891,9 @@
       <c r="G35" s="30"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="80"/>
       <c r="D36" s="10" t="s">
         <v>4</v>
       </c>
@@ -1844,9 +1904,9 @@
       <c r="G36" s="30"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="74"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="62"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="80"/>
       <c r="D37" s="10" t="s">
         <v>5</v>
       </c>
@@ -1857,9 +1917,9 @@
       <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="62"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="80"/>
       <c r="D38" s="10" t="s">
         <v>6</v>
       </c>
@@ -1870,9 +1930,9 @@
       <c r="G38" s="30"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="62"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="80"/>
       <c r="D39" s="10" t="s">
         <v>7</v>
       </c>
@@ -1883,9 +1943,9 @@
       <c r="G39" s="30"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="62"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="80"/>
       <c r="D40" s="10" t="s">
         <v>8</v>
       </c>
@@ -1896,9 +1956,9 @@
       <c r="G40" s="30"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="74"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="62"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="80"/>
       <c r="D41" s="10" t="s">
         <v>9</v>
       </c>
@@ -1909,9 +1969,9 @@
       <c r="G41" s="30"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="80"/>
       <c r="D42" s="10" t="s">
         <v>10</v>
       </c>
@@ -1922,9 +1982,9 @@
       <c r="G42" s="30"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="62"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="80"/>
       <c r="D43" s="10" t="s">
         <v>13</v>
       </c>
@@ -1935,9 +1995,9 @@
       <c r="G43" s="30"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="69"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="77"/>
       <c r="D44" s="8" t="s">
         <v>14</v>
       </c>
@@ -1948,13 +2008,13 @@
       <c r="G44" s="30"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="63">
+      <c r="A45" s="67">
         <v>5</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="76">
+      <c r="C45" s="62">
         <v>9</v>
       </c>
       <c r="D45" s="6" t="s">
@@ -1967,9 +2027,9 @@
       <c r="G45" s="30"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="76"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="6" t="s">
         <v>4</v>
       </c>
@@ -1980,9 +2040,9 @@
       <c r="G46" s="30"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="76"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="5" t="s">
         <v>5</v>
       </c>
@@ -1993,9 +2053,9 @@
       <c r="G47" s="30"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="76"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="5" t="s">
         <v>6</v>
       </c>
@@ -2006,9 +2066,9 @@
       <c r="G48" s="30"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="76"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="5" t="s">
         <v>7</v>
       </c>
@@ -2019,9 +2079,9 @@
       <c r="G49" s="30"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="76"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="5" t="s">
         <v>8</v>
       </c>
@@ -2032,9 +2092,9 @@
       <c r="G50" s="30"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="76"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="6" t="s">
         <v>9</v>
       </c>
@@ -2045,9 +2105,9 @@
       <c r="G51" s="30"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="64"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="76"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="10" t="s">
         <v>10</v>
       </c>
@@ -2058,9 +2118,9 @@
       <c r="G52" s="30"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="76"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="6" t="s">
         <v>13</v>
       </c>
@@ -2071,9 +2131,9 @@
       <c r="G53" s="30"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="76"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="6" t="s">
         <v>14</v>
       </c>
@@ -2084,9 +2144,9 @@
       <c r="G54" s="30"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="79"/>
-      <c r="C55" s="76"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="5" t="s">
         <v>15</v>
       </c>
@@ -2097,9 +2157,9 @@
       <c r="G55" s="30"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="77"/>
+      <c r="A56" s="69"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="7" t="s">
         <v>44</v>
       </c>
@@ -2129,13 +2189,13 @@
       <c r="G57" s="30"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="63">
+      <c r="A58" s="67">
         <v>7</v>
       </c>
-      <c r="B58" s="78" t="s">
+      <c r="B58" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="62">
         <v>18</v>
       </c>
       <c r="D58" s="6" t="s">
@@ -2148,9 +2208,9 @@
       <c r="G58" s="30"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
-      <c r="B59" s="79"/>
-      <c r="C59" s="76"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="62"/>
       <c r="D59" s="6" t="s">
         <v>4</v>
       </c>
@@ -2161,9 +2221,9 @@
       <c r="G59" s="30"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="76"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="5" t="s">
         <v>5</v>
       </c>
@@ -2174,9 +2234,9 @@
       <c r="G60" s="30"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="64"/>
-      <c r="B61" s="79"/>
-      <c r="C61" s="76"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="62"/>
       <c r="D61" s="5" t="s">
         <v>6</v>
       </c>
@@ -2187,9 +2247,9 @@
       <c r="G61" s="30"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
-      <c r="B62" s="79"/>
-      <c r="C62" s="76"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="62"/>
       <c r="D62" s="5" t="s">
         <v>7</v>
       </c>
@@ -2200,9 +2260,9 @@
       <c r="G62" s="30"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
-      <c r="B63" s="79"/>
-      <c r="C63" s="76"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="62"/>
       <c r="D63" s="5" t="s">
         <v>8</v>
       </c>
@@ -2213,9 +2273,9 @@
       <c r="G63" s="30"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="64"/>
-      <c r="B64" s="79"/>
-      <c r="C64" s="76"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="62"/>
       <c r="D64" s="6" t="s">
         <v>9</v>
       </c>
@@ -2226,9 +2286,9 @@
       <c r="G64" s="30"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
-      <c r="B65" s="79"/>
-      <c r="C65" s="76"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="62"/>
       <c r="D65" s="10" t="s">
         <v>10</v>
       </c>
@@ -2239,9 +2299,9 @@
       <c r="G65" s="30"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
-      <c r="B66" s="79"/>
-      <c r="C66" s="76"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="62"/>
       <c r="D66" s="6" t="s">
         <v>13</v>
       </c>
@@ -2252,9 +2312,9 @@
       <c r="G66" s="30"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
-      <c r="B67" s="79"/>
-      <c r="C67" s="76"/>
+      <c r="A67" s="68"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="62"/>
       <c r="D67" s="5" t="s">
         <v>15</v>
       </c>
@@ -2265,9 +2325,9 @@
       <c r="G67" s="30"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="65"/>
-      <c r="B68" s="80"/>
-      <c r="C68" s="77"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="63"/>
       <c r="D68" s="7" t="s">
         <v>44</v>
       </c>
@@ -2278,13 +2338,13 @@
       <c r="G68" s="30"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="63">
+      <c r="A69" s="67">
         <v>8</v>
       </c>
-      <c r="B69" s="78" t="s">
+      <c r="B69" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="76">
+      <c r="C69" s="62">
         <v>19</v>
       </c>
       <c r="D69" s="6" t="s">
@@ -2299,9 +2359,9 @@
       <c r="G69" s="30"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
-      <c r="B70" s="79"/>
-      <c r="C70" s="76"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="6" t="s">
         <v>4</v>
       </c>
@@ -2314,9 +2374,9 @@
       <c r="G70" s="30"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
-      <c r="B71" s="79"/>
-      <c r="C71" s="76"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="6" t="s">
         <v>5</v>
       </c>
@@ -2327,9 +2387,9 @@
       <c r="G71" s="30"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="64"/>
-      <c r="B72" s="79"/>
-      <c r="C72" s="76"/>
+      <c r="A72" s="68"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="62"/>
       <c r="D72" s="6" t="s">
         <v>6</v>
       </c>
@@ -2340,9 +2400,9 @@
       <c r="G72" s="30"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="64"/>
-      <c r="B73" s="79"/>
-      <c r="C73" s="76"/>
+      <c r="A73" s="68"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="62"/>
       <c r="D73" s="5" t="s">
         <v>7</v>
       </c>
@@ -2355,9 +2415,9 @@
       <c r="G73" s="30"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="64"/>
-      <c r="B74" s="79"/>
-      <c r="C74" s="76"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="62"/>
       <c r="D74" s="5" t="s">
         <v>8</v>
       </c>
@@ -2368,9 +2428,9 @@
       <c r="G74" s="30"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="64"/>
-      <c r="B75" s="79"/>
-      <c r="C75" s="76"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2383,9 +2443,9 @@
       <c r="G75" s="30"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="64"/>
-      <c r="B76" s="79"/>
-      <c r="C76" s="76"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="11" t="s">
         <v>10</v>
       </c>
@@ -2398,9 +2458,9 @@
       <c r="G76" s="30"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="64"/>
-      <c r="B77" s="79"/>
-      <c r="C77" s="76"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="6" t="s">
         <v>13</v>
       </c>
@@ -2413,9 +2473,9 @@
       <c r="G77" s="30"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="64"/>
-      <c r="B78" s="79"/>
-      <c r="C78" s="76"/>
+      <c r="A78" s="68"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="62"/>
       <c r="D78" s="6" t="s">
         <v>15</v>
       </c>
@@ -2426,9 +2486,9 @@
       <c r="G78" s="30"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="64"/>
-      <c r="B79" s="79"/>
-      <c r="C79" s="76"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="62"/>
       <c r="D79" s="5" t="s">
         <v>47</v>
       </c>
@@ -2439,9 +2499,9 @@
       <c r="G79" s="30"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="65"/>
-      <c r="B80" s="80"/>
-      <c r="C80" s="77"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="63"/>
       <c r="D80" s="7" t="s">
         <v>48</v>
       </c>
@@ -2452,13 +2512,13 @@
       <c r="G80" s="30"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="63">
+      <c r="A81" s="67">
         <v>9</v>
       </c>
-      <c r="B81" s="79" t="s">
+      <c r="B81" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C81" s="82">
+      <c r="C81" s="78">
         <v>14</v>
       </c>
       <c r="D81" s="6" t="s">
@@ -2471,9 +2531,9 @@
       <c r="G81" s="30"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="65"/>
-      <c r="B82" s="80"/>
-      <c r="C82" s="83"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="79"/>
       <c r="D82" s="8" t="s">
         <v>4</v>
       </c>
@@ -2484,13 +2544,13 @@
       <c r="G82" s="30"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="63">
+      <c r="A83" s="67">
         <v>10</v>
       </c>
-      <c r="B83" s="78" t="s">
+      <c r="B83" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C83" s="76">
+      <c r="C83" s="62">
         <v>5</v>
       </c>
       <c r="D83" s="6" t="s">
@@ -2503,9 +2563,9 @@
       <c r="G83" s="30"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="64"/>
-      <c r="B84" s="79"/>
-      <c r="C84" s="76"/>
+      <c r="A84" s="68"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="62"/>
       <c r="D84" s="6" t="s">
         <v>4</v>
       </c>
@@ -2516,9 +2576,9 @@
       <c r="G84" s="30"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="64"/>
-      <c r="B85" s="79"/>
-      <c r="C85" s="76"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="62"/>
       <c r="D85" s="5" t="s">
         <v>5</v>
       </c>
@@ -2529,9 +2589,9 @@
       <c r="G85" s="30"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="64"/>
-      <c r="B86" s="79"/>
-      <c r="C86" s="76"/>
+      <c r="A86" s="68"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="62"/>
       <c r="D86" s="5" t="s">
         <v>6</v>
       </c>
@@ -2542,9 +2602,9 @@
       <c r="G86" s="30"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="64"/>
-      <c r="B87" s="79"/>
-      <c r="C87" s="76"/>
+      <c r="A87" s="68"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="62"/>
       <c r="D87" s="6" t="s">
         <v>7</v>
       </c>
@@ -2555,9 +2615,9 @@
       <c r="G87" s="30"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="64"/>
-      <c r="B88" s="79"/>
-      <c r="C88" s="76"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="62"/>
       <c r="D88" s="6" t="s">
         <v>8</v>
       </c>
@@ -2568,9 +2628,9 @@
       <c r="G88" s="30"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="64"/>
-      <c r="B89" s="79"/>
-      <c r="C89" s="76"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="62"/>
       <c r="D89" s="6" t="s">
         <v>13</v>
       </c>
@@ -2581,9 +2641,9 @@
       <c r="G89" s="30"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="65"/>
-      <c r="B90" s="80"/>
-      <c r="C90" s="77"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="63"/>
       <c r="D90" s="7" t="s">
         <v>14</v>
       </c>
@@ -2594,13 +2654,13 @@
       <c r="G90" s="30"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="68">
+      <c r="A91" s="74">
         <v>11</v>
       </c>
-      <c r="B91" s="78" t="s">
+      <c r="B91" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C91" s="61">
+      <c r="C91" s="76">
         <v>8</v>
       </c>
       <c r="D91" s="6" t="s">
@@ -2613,9 +2673,9 @@
       <c r="G91" s="30"/>
     </row>
     <row r="92" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="68"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="62"/>
+      <c r="A92" s="74"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="80"/>
       <c r="D92" s="56" t="s">
         <v>4</v>
       </c>
@@ -2626,9 +2686,9 @@
       <c r="G92" s="30"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="81"/>
-      <c r="B93" s="80"/>
-      <c r="C93" s="69"/>
+      <c r="A93" s="75"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="77"/>
       <c r="D93" s="8" t="s">
         <v>13</v>
       </c>
@@ -2639,10 +2699,10 @@
       <c r="G93" s="30"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="63">
+      <c r="A94" s="67">
         <v>12</v>
       </c>
-      <c r="B94" s="68" t="s">
+      <c r="B94" s="74" t="s">
         <v>56</v>
       </c>
       <c r="C94" s="70">
@@ -2658,8 +2718,8 @@
       <c r="G94" s="30"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="64"/>
-      <c r="B95" s="68"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="74"/>
       <c r="C95" s="71"/>
       <c r="D95" s="6" t="s">
         <v>4</v>
@@ -2671,8 +2731,8 @@
       <c r="G95" s="30"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="64"/>
-      <c r="B96" s="68"/>
+      <c r="A96" s="68"/>
+      <c r="B96" s="74"/>
       <c r="C96" s="71"/>
       <c r="D96" s="5" t="s">
         <v>5</v>
@@ -2684,8 +2744,8 @@
       <c r="G96" s="30"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="64"/>
-      <c r="B97" s="68"/>
+      <c r="A97" s="68"/>
+      <c r="B97" s="74"/>
       <c r="C97" s="71"/>
       <c r="D97" s="5" t="s">
         <v>6</v>
@@ -2697,8 +2757,8 @@
       <c r="G97" s="30"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="64"/>
-      <c r="B98" s="68"/>
+      <c r="A98" s="68"/>
+      <c r="B98" s="74"/>
       <c r="C98" s="71"/>
       <c r="D98" s="5" t="s">
         <v>7</v>
@@ -2710,8 +2770,8 @@
       <c r="G98" s="30"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="64"/>
-      <c r="B99" s="68"/>
+      <c r="A99" s="68"/>
+      <c r="B99" s="74"/>
       <c r="C99" s="71"/>
       <c r="D99" s="5" t="s">
         <v>8</v>
@@ -2723,8 +2783,8 @@
       <c r="G99" s="30"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="64"/>
-      <c r="B100" s="68"/>
+      <c r="A100" s="68"/>
+      <c r="B100" s="74"/>
       <c r="C100" s="71"/>
       <c r="D100" s="5" t="s">
         <v>13</v>
@@ -2736,8 +2796,8 @@
       <c r="G100" s="30"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="65"/>
-      <c r="B101" s="81"/>
+      <c r="A101" s="69"/>
+      <c r="B101" s="75"/>
       <c r="C101" s="72"/>
       <c r="D101" s="7" t="s">
         <v>14</v>
@@ -2806,13 +2866,13 @@
       <c r="G104" s="30"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="63">
+      <c r="A105" s="67">
         <v>21</v>
       </c>
-      <c r="B105" s="66" t="s">
+      <c r="B105" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="61">
+      <c r="C105" s="76">
         <v>20</v>
       </c>
       <c r="D105" s="6" t="s">
@@ -2825,9 +2885,9 @@
       <c r="G105" s="30"/>
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="64"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="69"/>
+      <c r="A106" s="68"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="77"/>
       <c r="D106" s="8" t="s">
         <v>4</v>
       </c>
@@ -2838,9 +2898,9 @@
       <c r="G106" s="30"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="64"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="61">
+      <c r="A107" s="68"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="76">
         <v>27</v>
       </c>
       <c r="D107" s="6" t="s">
@@ -2853,9 +2913,9 @@
       <c r="G107" s="30"/>
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="64"/>
-      <c r="B108" s="68"/>
-      <c r="C108" s="69"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="77"/>
       <c r="D108" s="8" t="s">
         <v>13</v>
       </c>
@@ -2866,9 +2926,9 @@
       <c r="G108" s="30"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="64"/>
-      <c r="B109" s="68"/>
-      <c r="C109" s="61">
+      <c r="A109" s="68"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="76">
         <v>30</v>
       </c>
       <c r="D109" s="6" t="s">
@@ -2881,9 +2941,9 @@
       <c r="G109" s="30"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="65"/>
-      <c r="B110" s="81"/>
-      <c r="C110" s="69"/>
+      <c r="A110" s="69"/>
+      <c r="B110" s="75"/>
+      <c r="C110" s="77"/>
       <c r="D110" s="8" t="s">
         <v>13</v>
       </c>
@@ -2894,10 +2954,10 @@
       <c r="G110" s="30"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="78">
+      <c r="A111" s="64">
         <v>22</v>
       </c>
-      <c r="B111" s="66" t="s">
+      <c r="B111" s="73" t="s">
         <v>98</v>
       </c>
       <c r="C111" s="70">
@@ -2913,8 +2973,8 @@
       <c r="G111" s="30"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="79"/>
-      <c r="B112" s="68"/>
+      <c r="A112" s="65"/>
+      <c r="B112" s="74"/>
       <c r="C112" s="71"/>
       <c r="D112" s="48" t="s">
         <v>4</v>
@@ -2926,8 +2986,8 @@
       <c r="G112" s="30"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="79"/>
-      <c r="B113" s="68"/>
+      <c r="A113" s="65"/>
+      <c r="B113" s="74"/>
       <c r="C113" s="71"/>
       <c r="D113" s="11" t="s">
         <v>5</v>
@@ -2939,8 +2999,8 @@
       <c r="G113" s="30"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="79"/>
-      <c r="B114" s="68"/>
+      <c r="A114" s="65"/>
+      <c r="B114" s="74"/>
       <c r="C114" s="71"/>
       <c r="D114" s="11" t="s">
         <v>6</v>
@@ -2952,8 +3012,8 @@
       <c r="G114" s="30"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="79"/>
-      <c r="B115" s="68"/>
+      <c r="A115" s="65"/>
+      <c r="B115" s="74"/>
       <c r="C115" s="71"/>
       <c r="D115" s="10" t="s">
         <v>7</v>
@@ -2967,8 +3027,8 @@
       <c r="G115" s="30"/>
     </row>
     <row r="116" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="79"/>
-      <c r="B116" s="68"/>
+      <c r="A116" s="65"/>
+      <c r="B116" s="74"/>
       <c r="C116" s="71"/>
       <c r="D116" s="48" t="s">
         <v>8</v>
@@ -2982,8 +3042,8 @@
       <c r="G116" s="30"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="80"/>
-      <c r="B117" s="81"/>
+      <c r="A117" s="66"/>
+      <c r="B117" s="75"/>
       <c r="C117" s="72"/>
       <c r="D117" s="6" t="s">
         <v>13</v>
@@ -2995,10 +3055,10 @@
       <c r="G117" s="30"/>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="63">
+      <c r="A118" s="67">
         <v>23</v>
       </c>
-      <c r="B118" s="66" t="s">
+      <c r="B118" s="73" t="s">
         <v>101</v>
       </c>
       <c r="C118" s="70">
@@ -3014,8 +3074,8 @@
       <c r="G118" s="30"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="64"/>
-      <c r="B119" s="68"/>
+      <c r="A119" s="68"/>
+      <c r="B119" s="74"/>
       <c r="C119" s="71"/>
       <c r="D119" s="48" t="s">
         <v>4</v>
@@ -3027,8 +3087,8 @@
       <c r="G119" s="30"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="64"/>
-      <c r="B120" s="68"/>
+      <c r="A120" s="68"/>
+      <c r="B120" s="74"/>
       <c r="C120" s="71"/>
       <c r="D120" s="48" t="s">
         <v>5</v>
@@ -3040,8 +3100,8 @@
       <c r="G120" s="30"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="64"/>
-      <c r="B121" s="68"/>
+      <c r="A121" s="68"/>
+      <c r="B121" s="74"/>
       <c r="C121" s="71"/>
       <c r="D121" s="48" t="s">
         <v>6</v>
@@ -3053,8 +3113,8 @@
       <c r="G121" s="30"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="64"/>
-      <c r="B122" s="68"/>
+      <c r="A122" s="68"/>
+      <c r="B122" s="74"/>
       <c r="C122" s="71"/>
       <c r="D122" s="48" t="s">
         <v>7</v>
@@ -3066,8 +3126,8 @@
       <c r="G122" s="30"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="64"/>
-      <c r="B123" s="68"/>
+      <c r="A123" s="68"/>
+      <c r="B123" s="74"/>
       <c r="C123" s="71"/>
       <c r="D123" s="48" t="s">
         <v>8</v>
@@ -3079,8 +3139,8 @@
       <c r="G123" s="30"/>
     </row>
     <row r="124" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="64"/>
-      <c r="B124" s="68"/>
+      <c r="A124" s="68"/>
+      <c r="B124" s="74"/>
       <c r="C124" s="71"/>
       <c r="D124" s="48" t="s">
         <v>13</v>
@@ -3092,8 +3152,8 @@
       <c r="G124" s="30"/>
     </row>
     <row r="125" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="64"/>
-      <c r="B125" s="68"/>
+      <c r="A125" s="68"/>
+      <c r="B125" s="74"/>
       <c r="C125" s="72"/>
       <c r="D125" s="49" t="s">
         <v>14</v>
@@ -3107,8 +3167,8 @@
       <c r="G125" s="30"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="64"/>
-      <c r="B126" s="68"/>
+      <c r="A126" s="68"/>
+      <c r="B126" s="74"/>
       <c r="C126" s="70">
         <v>32</v>
       </c>
@@ -3122,8 +3182,8 @@
       <c r="G126" s="30"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="64"/>
-      <c r="B127" s="68"/>
+      <c r="A127" s="68"/>
+      <c r="B127" s="74"/>
       <c r="C127" s="72"/>
       <c r="D127" s="49" t="s">
         <v>4</v>
@@ -3137,8 +3197,8 @@
       <c r="G127" s="30"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="64"/>
-      <c r="B128" s="68"/>
+      <c r="A128" s="68"/>
+      <c r="B128" s="74"/>
       <c r="C128" s="70">
         <v>33</v>
       </c>
@@ -3152,8 +3212,8 @@
       <c r="G128" s="30"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="65"/>
-      <c r="B129" s="81"/>
+      <c r="A129" s="69"/>
+      <c r="B129" s="75"/>
       <c r="C129" s="72"/>
       <c r="D129" s="49" t="s">
         <v>4</v>
@@ -3167,13 +3227,13 @@
       <c r="G129" s="30"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="63">
+      <c r="A130" s="67">
         <v>24</v>
       </c>
-      <c r="B130" s="63" t="s">
+      <c r="B130" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="C130" s="84">
+      <c r="C130" s="61">
         <v>29</v>
       </c>
       <c r="D130" s="6" t="s">
@@ -3186,9 +3246,9 @@
       <c r="G130" s="30"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="64"/>
-      <c r="B131" s="64"/>
-      <c r="C131" s="76"/>
+      <c r="A131" s="68"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="62"/>
       <c r="D131" s="6" t="s">
         <v>4</v>
       </c>
@@ -3199,9 +3259,9 @@
       <c r="G131" s="30"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="64"/>
-      <c r="B132" s="64"/>
-      <c r="C132" s="76"/>
+      <c r="A132" s="68"/>
+      <c r="B132" s="68"/>
+      <c r="C132" s="62"/>
       <c r="D132" s="5" t="s">
         <v>5</v>
       </c>
@@ -3212,9 +3272,9 @@
       <c r="G132" s="30"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="64"/>
-      <c r="B133" s="64"/>
-      <c r="C133" s="76"/>
+      <c r="A133" s="68"/>
+      <c r="B133" s="68"/>
+      <c r="C133" s="62"/>
       <c r="D133" s="5" t="s">
         <v>6</v>
       </c>
@@ -3225,9 +3285,9 @@
       <c r="G133" s="30"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="64"/>
-      <c r="B134" s="64"/>
-      <c r="C134" s="76"/>
+      <c r="A134" s="68"/>
+      <c r="B134" s="68"/>
+      <c r="C134" s="62"/>
       <c r="D134" s="5" t="s">
         <v>7</v>
       </c>
@@ -3240,9 +3300,9 @@
       <c r="G134" s="30"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="64"/>
-      <c r="B135" s="64"/>
-      <c r="C135" s="76"/>
+      <c r="A135" s="68"/>
+      <c r="B135" s="68"/>
+      <c r="C135" s="62"/>
       <c r="D135" s="5" t="s">
         <v>8</v>
       </c>
@@ -3255,9 +3315,9 @@
       <c r="G135" s="30"/>
     </row>
     <row r="136" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="64"/>
-      <c r="B136" s="64"/>
-      <c r="C136" s="76"/>
+      <c r="A136" s="68"/>
+      <c r="B136" s="68"/>
+      <c r="C136" s="62"/>
       <c r="D136" s="10" t="s">
         <v>13</v>
       </c>
@@ -3268,9 +3328,9 @@
       <c r="G136" s="30"/>
     </row>
     <row r="137" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="64"/>
-      <c r="B137" s="64"/>
-      <c r="C137" s="76"/>
+      <c r="A137" s="68"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="62"/>
       <c r="D137" s="5" t="s">
         <v>15</v>
       </c>
@@ -3281,9 +3341,9 @@
       <c r="G137" s="30"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="65"/>
-      <c r="B138" s="65"/>
-      <c r="C138" s="77"/>
+      <c r="A138" s="69"/>
+      <c r="B138" s="69"/>
+      <c r="C138" s="63"/>
       <c r="D138" s="9" t="s">
         <v>44</v>
       </c>
@@ -3294,10 +3354,10 @@
       <c r="G138" s="30"/>
     </row>
     <row r="139" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="63">
+      <c r="A139" s="67">
         <v>25</v>
       </c>
-      <c r="B139" s="78" t="s">
+      <c r="B139" s="64" t="s">
         <v>108</v>
       </c>
       <c r="C139" s="70">
@@ -3313,8 +3373,8 @@
       <c r="G139" s="30"/>
     </row>
     <row r="140" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="64"/>
-      <c r="B140" s="79"/>
+      <c r="A140" s="68"/>
+      <c r="B140" s="65"/>
       <c r="C140" s="71"/>
       <c r="D140" s="6" t="s">
         <v>4</v>
@@ -3326,8 +3386,8 @@
       <c r="G140" s="30"/>
     </row>
     <row r="141" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="64"/>
-      <c r="B141" s="79"/>
+      <c r="A141" s="68"/>
+      <c r="B141" s="65"/>
       <c r="C141" s="71"/>
       <c r="D141" s="6" t="s">
         <v>5</v>
@@ -3339,8 +3399,8 @@
       <c r="G141" s="30"/>
     </row>
     <row r="142" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="64"/>
-      <c r="B142" s="79"/>
+      <c r="A142" s="68"/>
+      <c r="B142" s="65"/>
       <c r="C142" s="71"/>
       <c r="D142" s="6" t="s">
         <v>6</v>
@@ -3352,8 +3412,8 @@
       <c r="G142" s="30"/>
     </row>
     <row r="143" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="64"/>
-      <c r="B143" s="79"/>
+      <c r="A143" s="68"/>
+      <c r="B143" s="65"/>
       <c r="C143" s="71"/>
       <c r="D143" s="5" t="s">
         <v>7</v>
@@ -3365,8 +3425,8 @@
       <c r="G143" s="30"/>
     </row>
     <row r="144" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="64"/>
-      <c r="B144" s="79"/>
+      <c r="A144" s="68"/>
+      <c r="B144" s="65"/>
       <c r="C144" s="71"/>
       <c r="D144" s="5" t="s">
         <v>8</v>
@@ -3378,8 +3438,8 @@
       <c r="G144" s="30"/>
     </row>
     <row r="145" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="64"/>
-      <c r="B145" s="79"/>
+      <c r="A145" s="68"/>
+      <c r="B145" s="65"/>
       <c r="C145" s="71"/>
       <c r="D145" s="6" t="s">
         <v>9</v>
@@ -3391,8 +3451,8 @@
       <c r="G145" s="30"/>
     </row>
     <row r="146" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="64"/>
-      <c r="B146" s="79"/>
+      <c r="A146" s="68"/>
+      <c r="B146" s="65"/>
       <c r="C146" s="71"/>
       <c r="D146" s="37" t="s">
         <v>10</v>
@@ -3404,8 +3464,8 @@
       <c r="G146" s="30"/>
     </row>
     <row r="147" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="64"/>
-      <c r="B147" s="79"/>
+      <c r="A147" s="68"/>
+      <c r="B147" s="65"/>
       <c r="C147" s="71"/>
       <c r="D147" s="6" t="s">
         <v>13</v>
@@ -3417,8 +3477,8 @@
       <c r="G147" s="30"/>
     </row>
     <row r="148" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="64"/>
-      <c r="B148" s="79"/>
+      <c r="A148" s="68"/>
+      <c r="B148" s="65"/>
       <c r="C148" s="72"/>
       <c r="D148" s="37" t="s">
         <v>14</v>
@@ -3430,9 +3490,9 @@
       <c r="G148" s="30"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="64"/>
-      <c r="B149" s="79"/>
-      <c r="C149" s="84">
+      <c r="A149" s="68"/>
+      <c r="B149" s="65"/>
+      <c r="C149" s="61">
         <v>21</v>
       </c>
       <c r="D149" s="12" t="s">
@@ -3445,9 +3505,9 @@
       <c r="G149" s="30"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="64"/>
-      <c r="B150" s="79"/>
-      <c r="C150" s="76"/>
+      <c r="A150" s="68"/>
+      <c r="B150" s="65"/>
+      <c r="C150" s="62"/>
       <c r="D150" s="6" t="s">
         <v>4</v>
       </c>
@@ -3458,9 +3518,9 @@
       <c r="G150" s="30"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="64"/>
-      <c r="B151" s="79"/>
-      <c r="C151" s="76"/>
+      <c r="A151" s="68"/>
+      <c r="B151" s="65"/>
+      <c r="C151" s="62"/>
       <c r="D151" s="6" t="s">
         <v>5</v>
       </c>
@@ -3471,9 +3531,9 @@
       <c r="G151" s="30"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="64"/>
-      <c r="B152" s="79"/>
-      <c r="C152" s="76"/>
+      <c r="A152" s="68"/>
+      <c r="B152" s="65"/>
+      <c r="C152" s="62"/>
       <c r="D152" s="5" t="s">
         <v>6</v>
       </c>
@@ -3484,9 +3544,9 @@
       <c r="G152" s="30"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="64"/>
-      <c r="B153" s="79"/>
-      <c r="C153" s="76"/>
+      <c r="A153" s="68"/>
+      <c r="B153" s="65"/>
+      <c r="C153" s="62"/>
       <c r="D153" s="5" t="s">
         <v>7</v>
       </c>
@@ -3497,9 +3557,9 @@
       <c r="G153" s="30"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="64"/>
-      <c r="B154" s="79"/>
-      <c r="C154" s="76"/>
+      <c r="A154" s="68"/>
+      <c r="B154" s="65"/>
+      <c r="C154" s="62"/>
       <c r="D154" s="5" t="s">
         <v>8</v>
       </c>
@@ -3510,9 +3570,9 @@
       <c r="G154" s="30"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="64"/>
-      <c r="B155" s="79"/>
-      <c r="C155" s="76"/>
+      <c r="A155" s="68"/>
+      <c r="B155" s="65"/>
+      <c r="C155" s="62"/>
       <c r="D155" s="6" t="s">
         <v>9</v>
       </c>
@@ -3523,9 +3583,9 @@
       <c r="G155" s="30"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="64"/>
-      <c r="B156" s="79"/>
-      <c r="C156" s="76"/>
+      <c r="A156" s="68"/>
+      <c r="B156" s="65"/>
+      <c r="C156" s="62"/>
       <c r="D156" s="10" t="s">
         <v>10</v>
       </c>
@@ -3536,9 +3596,9 @@
       <c r="G156" s="30"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="64"/>
-      <c r="B157" s="79"/>
-      <c r="C157" s="76"/>
+      <c r="A157" s="68"/>
+      <c r="B157" s="65"/>
+      <c r="C157" s="62"/>
       <c r="D157" s="6" t="s">
         <v>13</v>
       </c>
@@ -3549,9 +3609,9 @@
       <c r="G157" s="30"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="64"/>
-      <c r="B158" s="79"/>
-      <c r="C158" s="77"/>
+      <c r="A158" s="68"/>
+      <c r="B158" s="65"/>
+      <c r="C158" s="63"/>
       <c r="D158" s="8" t="s">
         <v>14</v>
       </c>
@@ -3562,9 +3622,9 @@
       <c r="G158" s="30"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="64"/>
-      <c r="B159" s="79"/>
-      <c r="C159" s="76">
+      <c r="A159" s="68"/>
+      <c r="B159" s="65"/>
+      <c r="C159" s="62">
         <v>23</v>
       </c>
       <c r="D159" s="6" t="s">
@@ -3577,9 +3637,9 @@
       <c r="G159" s="30"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="64"/>
-      <c r="B160" s="79"/>
-      <c r="C160" s="76"/>
+      <c r="A160" s="68"/>
+      <c r="B160" s="65"/>
+      <c r="C160" s="62"/>
       <c r="D160" s="6" t="s">
         <v>4</v>
       </c>
@@ -3590,9 +3650,9 @@
       <c r="G160" s="30"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="64"/>
-      <c r="B161" s="79"/>
-      <c r="C161" s="76"/>
+      <c r="A161" s="68"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="62"/>
       <c r="D161" s="6" t="s">
         <v>5</v>
       </c>
@@ -3603,9 +3663,9 @@
       <c r="G161" s="30"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="64"/>
-      <c r="B162" s="79"/>
-      <c r="C162" s="76"/>
+      <c r="A162" s="68"/>
+      <c r="B162" s="65"/>
+      <c r="C162" s="62"/>
       <c r="D162" s="5" t="s">
         <v>6</v>
       </c>
@@ -3616,9 +3676,9 @@
       <c r="G162" s="30"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="64"/>
-      <c r="B163" s="79"/>
-      <c r="C163" s="76"/>
+      <c r="A163" s="68"/>
+      <c r="B163" s="65"/>
+      <c r="C163" s="62"/>
       <c r="D163" s="5" t="s">
         <v>7</v>
       </c>
@@ -3629,9 +3689,9 @@
       <c r="G163" s="30"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="64"/>
-      <c r="B164" s="79"/>
-      <c r="C164" s="76"/>
+      <c r="A164" s="68"/>
+      <c r="B164" s="65"/>
+      <c r="C164" s="62"/>
       <c r="D164" s="5" t="s">
         <v>8</v>
       </c>
@@ -3642,9 +3702,9 @@
       <c r="G164" s="30"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="64"/>
-      <c r="B165" s="79"/>
-      <c r="C165" s="76"/>
+      <c r="A165" s="68"/>
+      <c r="B165" s="65"/>
+      <c r="C165" s="62"/>
       <c r="D165" s="6" t="s">
         <v>9</v>
       </c>
@@ -3655,9 +3715,9 @@
       <c r="G165" s="30"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="64"/>
-      <c r="B166" s="79"/>
-      <c r="C166" s="76"/>
+      <c r="A166" s="68"/>
+      <c r="B166" s="65"/>
+      <c r="C166" s="62"/>
       <c r="D166" s="10" t="s">
         <v>10</v>
       </c>
@@ -3668,9 +3728,9 @@
       <c r="G166" s="30"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="64"/>
-      <c r="B167" s="79"/>
-      <c r="C167" s="76"/>
+      <c r="A167" s="68"/>
+      <c r="B167" s="65"/>
+      <c r="C167" s="62"/>
       <c r="D167" s="6" t="s">
         <v>13</v>
       </c>
@@ -3681,9 +3741,9 @@
       <c r="G167" s="30"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="64"/>
-      <c r="B168" s="79"/>
-      <c r="C168" s="77"/>
+      <c r="A168" s="68"/>
+      <c r="B168" s="65"/>
+      <c r="C168" s="63"/>
       <c r="D168" s="8" t="s">
         <v>14</v>
       </c>
@@ -3694,13 +3754,13 @@
       <c r="G168" s="30"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="63">
+      <c r="A169" s="67">
         <v>26</v>
       </c>
-      <c r="B169" s="78" t="s">
+      <c r="B169" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="C169" s="84">
+      <c r="C169" s="61">
         <v>25</v>
       </c>
       <c r="D169" s="6" t="s">
@@ -3713,9 +3773,9 @@
       <c r="G169" s="30"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="64"/>
-      <c r="B170" s="79"/>
-      <c r="C170" s="76"/>
+      <c r="A170" s="68"/>
+      <c r="B170" s="65"/>
+      <c r="C170" s="62"/>
       <c r="D170" s="6" t="s">
         <v>4</v>
       </c>
@@ -3726,9 +3786,9 @@
       <c r="G170" s="30"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="64"/>
-      <c r="B171" s="79"/>
-      <c r="C171" s="76"/>
+      <c r="A171" s="68"/>
+      <c r="B171" s="65"/>
+      <c r="C171" s="62"/>
       <c r="D171" s="5" t="s">
         <v>5</v>
       </c>
@@ -3739,9 +3799,9 @@
       <c r="G171" s="30"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="64"/>
-      <c r="B172" s="79"/>
-      <c r="C172" s="76"/>
+      <c r="A172" s="68"/>
+      <c r="B172" s="65"/>
+      <c r="C172" s="62"/>
       <c r="D172" s="5" t="s">
         <v>6</v>
       </c>
@@ -3752,9 +3812,9 @@
       <c r="G172" s="30"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="64"/>
-      <c r="B173" s="79"/>
-      <c r="C173" s="76"/>
+      <c r="A173" s="68"/>
+      <c r="B173" s="65"/>
+      <c r="C173" s="62"/>
       <c r="D173" s="5" t="s">
         <v>7</v>
       </c>
@@ -3765,9 +3825,9 @@
       <c r="G173" s="30"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="64"/>
-      <c r="B174" s="79"/>
-      <c r="C174" s="76"/>
+      <c r="A174" s="68"/>
+      <c r="B174" s="65"/>
+      <c r="C174" s="62"/>
       <c r="D174" s="5" t="s">
         <v>8</v>
       </c>
@@ -3778,9 +3838,9 @@
       <c r="G174" s="30"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="64"/>
-      <c r="B175" s="79"/>
-      <c r="C175" s="76"/>
+      <c r="A175" s="68"/>
+      <c r="B175" s="65"/>
+      <c r="C175" s="62"/>
       <c r="D175" s="6" t="s">
         <v>9</v>
       </c>
@@ -3793,9 +3853,9 @@
       <c r="G175" s="30"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="64"/>
-      <c r="B176" s="79"/>
-      <c r="C176" s="76"/>
+      <c r="A176" s="68"/>
+      <c r="B176" s="65"/>
+      <c r="C176" s="62"/>
       <c r="D176" s="10" t="s">
         <v>10</v>
       </c>
@@ -3808,9 +3868,9 @@
       <c r="G176" s="30"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="64"/>
-      <c r="B177" s="79"/>
-      <c r="C177" s="76"/>
+      <c r="A177" s="68"/>
+      <c r="B177" s="65"/>
+      <c r="C177" s="62"/>
       <c r="D177" s="6" t="s">
         <v>13</v>
       </c>
@@ -3821,9 +3881,9 @@
       <c r="G177" s="30"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="64"/>
-      <c r="B178" s="79"/>
-      <c r="C178" s="76"/>
+      <c r="A178" s="68"/>
+      <c r="B178" s="65"/>
+      <c r="C178" s="62"/>
       <c r="D178" s="5" t="s">
         <v>15</v>
       </c>
@@ -3834,9 +3894,9 @@
       <c r="G178" s="30"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="65"/>
-      <c r="B179" s="80"/>
-      <c r="C179" s="77"/>
+      <c r="A179" s="69"/>
+      <c r="B179" s="66"/>
+      <c r="C179" s="63"/>
       <c r="D179" s="9" t="s">
         <v>44</v>
       </c>
@@ -3886,54 +3946,6 @@
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="C169:C179"/>
-    <mergeCell ref="B169:B179"/>
-    <mergeCell ref="A169:A179"/>
-    <mergeCell ref="C139:C148"/>
-    <mergeCell ref="B139:B168"/>
-    <mergeCell ref="C130:C138"/>
-    <mergeCell ref="B130:B138"/>
-    <mergeCell ref="A130:A138"/>
-    <mergeCell ref="C149:C158"/>
-    <mergeCell ref="A139:A168"/>
-    <mergeCell ref="C159:C168"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="B118:B129"/>
-    <mergeCell ref="A118:A129"/>
-    <mergeCell ref="C118:C125"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="C111:C117"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="A111:A117"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="C83:C90"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="C94:C101"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="A94:A101"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="C58:C68"/>
-    <mergeCell ref="B58:B68"/>
-    <mergeCell ref="A58:A68"/>
-    <mergeCell ref="C69:C80"/>
-    <mergeCell ref="B69:B80"/>
-    <mergeCell ref="A69:A80"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="B45:B56"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="C35:C44"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="A35:A44"/>
     <mergeCell ref="C23:C34"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="A23:A34"/>
@@ -3944,6 +3956,54 @@
     <mergeCell ref="C11:C19"/>
     <mergeCell ref="A11:A22"/>
     <mergeCell ref="B11:B22"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="B45:B56"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="C35:C44"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="A35:A44"/>
+    <mergeCell ref="C58:C68"/>
+    <mergeCell ref="B58:B68"/>
+    <mergeCell ref="A58:A68"/>
+    <mergeCell ref="C69:C80"/>
+    <mergeCell ref="B69:B80"/>
+    <mergeCell ref="A69:A80"/>
+    <mergeCell ref="C94:C101"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="A94:A101"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="C111:C117"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="B118:B129"/>
+    <mergeCell ref="A118:A129"/>
+    <mergeCell ref="C118:C125"/>
+    <mergeCell ref="C130:C138"/>
+    <mergeCell ref="B130:B138"/>
+    <mergeCell ref="A130:A138"/>
+    <mergeCell ref="C149:C158"/>
+    <mergeCell ref="A139:A168"/>
+    <mergeCell ref="C159:C168"/>
+    <mergeCell ref="C169:C179"/>
+    <mergeCell ref="B169:B179"/>
+    <mergeCell ref="A169:A179"/>
+    <mergeCell ref="C139:C148"/>
+    <mergeCell ref="B139:B168"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3952,24 +4012,71 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Robak/doc/Makra.xlsx
+++ b/Robak/doc/Makra.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="185">
   <si>
     <t>Działanie</t>
   </si>
@@ -452,12 +452,6 @@
     <t>Balkon/Zew.</t>
   </si>
   <si>
-    <t>77_off, 78_off</t>
-  </si>
-  <si>
-    <t>77_on, 78_on</t>
-  </si>
-  <si>
     <t>79_off, 80_on</t>
   </si>
   <si>
@@ -552,6 +546,30 @@
   </si>
   <si>
     <t>np.: 61_TOG = przełączenie obwodu nr 61</t>
+  </si>
+  <si>
+    <t>Vol+ &lt;rol_028_up&gt;</t>
+  </si>
+  <si>
+    <t>Vol- &lt;rol_028_down&gt;</t>
+  </si>
+  <si>
+    <t>77_on, 78_on &lt;78 nie ma&gt;</t>
+  </si>
+  <si>
+    <t>Vol+ &lt;rol_012_up&gt;</t>
+  </si>
+  <si>
+    <t>Vol- &lt;rol_012_down&gt;</t>
+  </si>
+  <si>
+    <t>Radio_on &lt;gn_102_TOG&gt;</t>
+  </si>
+  <si>
+    <t>77_off, 78_off &lt;78 nie ma&gt;</t>
+  </si>
+  <si>
+    <t>? schody ? &lt;75_TOG&gt;</t>
   </si>
 </sst>
 </file>
@@ -802,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -843,9 +861,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -969,91 +984,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1070,6 +1022,105 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1374,15 +1425,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B88" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E181" sqref="A1:E181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="38.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="47.140625" style="1" customWidth="1"/>
@@ -1391,1422 +1442,1422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>123</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="33" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="14"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="3"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="30"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="29"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="67">
+      <c r="A3" s="70">
         <v>1</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="92">
         <v>3</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="30"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="68"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="15">
+      <c r="A4" s="71"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="92">
         <v>4</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="30"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="80">
+      <c r="A5" s="71"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="95">
         <v>24</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="30"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="37" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="37" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="30"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="29"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="37" t="s">
+      <c r="A8" s="71"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="36"/>
-      <c r="G8" s="30"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="29"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="37" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="36"/>
-      <c r="G9" s="30"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="29"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="38" t="s">
+      <c r="A10" s="71"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="29"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="73">
         <v>2</v>
       </c>
-      <c r="B11" s="81" t="s">
+      <c r="B11" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="70">
+      <c r="C11" s="96">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="30"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="71"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="97"/>
       <c r="D12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="30"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="71"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="30"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="71"/>
+      <c r="A14" s="75"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="97"/>
       <c r="D14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="30"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="71"/>
+      <c r="A15" s="75"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="97"/>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="30"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="71"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="97"/>
       <c r="D16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="30"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="71"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="97"/>
       <c r="D17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="24" t="s">
+      <c r="E17" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="F17" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="30"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="71"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="17" t="s">
+      <c r="E18" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="23"/>
-      <c r="G18" s="30"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="29"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="72"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="29"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="76">
+      <c r="A20" s="75"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="93">
         <v>13</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="30"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="29"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="74"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="77"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="94"/>
       <c r="D21" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="30"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="74"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="15">
+      <c r="A22" s="75"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="92">
         <v>17</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="53"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="67">
+      <c r="A23" s="70">
         <v>3</v>
       </c>
       <c r="B23" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="76">
+      <c r="C23" s="93">
         <v>12</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="54"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="53"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="80"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="30"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="29"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="80"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="95"/>
       <c r="D25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="30"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="29"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="80"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="95"/>
       <c r="D26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="30"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="80"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="95"/>
       <c r="D27" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G27" s="30"/>
+      <c r="G27" s="29"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="68"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="80"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="95"/>
       <c r="D28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="24" t="s">
+      <c r="F28" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="G28" s="30"/>
+      <c r="G28" s="29"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="68"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="80"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="95"/>
       <c r="D29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="23"/>
-      <c r="G29" s="30"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="29"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="68"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="80"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="95"/>
       <c r="D30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="30"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="68"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="80"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="95"/>
       <c r="D31" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="F31" s="23"/>
-      <c r="G31" s="30"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="29"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="68"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="80"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="95"/>
       <c r="D32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="68"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="80"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="71"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="95"/>
       <c r="D33" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="18" t="s">
+      <c r="E33" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="30"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="80"/>
+      <c r="A34" s="72"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="95"/>
       <c r="D34" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F34" s="26"/>
-      <c r="G34" s="30"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="29"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="81">
+      <c r="A35" s="80">
         <v>4</v>
       </c>
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="76">
+      <c r="C35" s="93">
         <v>10</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="30"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="29"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="80"/>
+      <c r="A36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="95"/>
       <c r="D36" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="30"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="29"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="80"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="95"/>
       <c r="D37" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="18" t="s">
+      <c r="E37" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="30"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="80"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="95"/>
       <c r="D38" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="18" t="s">
+      <c r="E38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="30"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="29"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="80"/>
+      <c r="A39" s="81"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="95"/>
       <c r="D39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="30"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="29"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="80"/>
+      <c r="A40" s="81"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="95"/>
       <c r="D40" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="30"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="80"/>
+      <c r="A41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="95"/>
       <c r="D41" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="30"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="80"/>
+      <c r="A42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="95"/>
       <c r="D42" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="23"/>
-      <c r="G42" s="30"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="29"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="80"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F43" s="23"/>
-      <c r="G43" s="30"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="77"/>
+      <c r="A44" s="81"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="94"/>
       <c r="D44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="F44" s="26"/>
-      <c r="G44" s="30"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="29"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="67">
+      <c r="A45" s="70">
         <v>5</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="62">
+      <c r="C45" s="96">
         <v>9</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="18" t="s">
+      <c r="E45" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F45" s="23"/>
-      <c r="G45" s="30"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="68"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="62"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="86"/>
+      <c r="C46" s="97"/>
       <c r="D46" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="23"/>
-      <c r="G46" s="30"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="68"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="62"/>
+      <c r="A47" s="71"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="97"/>
       <c r="D47" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="23"/>
-      <c r="G47" s="30"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="29"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="68"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="62"/>
+      <c r="A48" s="71"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="97"/>
       <c r="D48" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="17" t="s">
+      <c r="E48" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="30"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="29"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="68"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="62"/>
+      <c r="A49" s="71"/>
+      <c r="B49" s="86"/>
+      <c r="C49" s="97"/>
       <c r="D49" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F49" s="23"/>
-      <c r="G49" s="30"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="68"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="62"/>
+      <c r="A50" s="71"/>
+      <c r="B50" s="86"/>
+      <c r="C50" s="97"/>
       <c r="D50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="23"/>
-      <c r="G50" s="30"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="29"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="68"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="62"/>
+      <c r="A51" s="71"/>
+      <c r="B51" s="86"/>
+      <c r="C51" s="97"/>
       <c r="D51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="E51" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="23"/>
-      <c r="G51" s="30"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="29"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="68"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="62"/>
+      <c r="A52" s="71"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="97"/>
       <c r="D52" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="30"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="29"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="68"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="62"/>
+      <c r="A53" s="71"/>
+      <c r="B53" s="86"/>
+      <c r="C53" s="97"/>
       <c r="D53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E53" s="18" t="s">
+      <c r="E53" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="30"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="68"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="62"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="97"/>
       <c r="D54" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="18" t="s">
+      <c r="E54" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="23"/>
-      <c r="G54" s="30"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="29"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="68"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="62"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="97"/>
       <c r="D55" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="17" t="s">
+      <c r="E55" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F55" s="23"/>
-      <c r="G55" s="30"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="29"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="69"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="63"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E56" s="21" t="s">
+      <c r="E56" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F56" s="26"/>
-      <c r="G56" s="30"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>6</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="92">
         <v>16</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="20" t="s">
+      <c r="E57" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="30"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="29"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="67">
+      <c r="A58" s="70">
         <v>7</v>
       </c>
-      <c r="B58" s="64" t="s">
+      <c r="B58" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="62">
+      <c r="C58" s="83">
         <v>18</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="18" t="s">
+      <c r="E58" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="30"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="29"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="68"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="6" t="s">
+      <c r="A59" s="71"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E59" s="18" t="s">
+      <c r="E59" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F59" s="23"/>
-      <c r="G59" s="30"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="29"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="68"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="5" t="s">
+      <c r="A60" s="71"/>
+      <c r="B60" s="86"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="17" t="s">
+      <c r="E60" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="30"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="29"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="68"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="5" t="s">
+      <c r="A61" s="71"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="83"/>
+      <c r="D61" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E61" s="17" t="s">
+      <c r="E61" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F61" s="23"/>
-      <c r="G61" s="30"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="29"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="68"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="5" t="s">
+      <c r="A62" s="71"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="17" t="s">
+      <c r="E62" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F62" s="23"/>
-      <c r="G62" s="30"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="29"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="68"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="5" t="s">
+      <c r="A63" s="71"/>
+      <c r="B63" s="86"/>
+      <c r="C63" s="83"/>
+      <c r="D63" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="17" t="s">
+      <c r="E63" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F63" s="23"/>
-      <c r="G63" s="30"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="29"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="6" t="s">
+      <c r="A64" s="71"/>
+      <c r="B64" s="86"/>
+      <c r="C64" s="83"/>
+      <c r="D64" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="23"/>
-      <c r="G64" s="30"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="29"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="68"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="10" t="s">
+      <c r="A65" s="71"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="83"/>
+      <c r="D65" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="F65" s="23"/>
-      <c r="G65" s="30"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="29"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="68"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="6" t="s">
+      <c r="A66" s="71"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="83"/>
+      <c r="D66" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E66" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="F66" s="23"/>
-      <c r="G66" s="30"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="29"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="68"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="5" t="s">
+      <c r="A67" s="71"/>
+      <c r="B67" s="86"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="30"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="29"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="69"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="7" t="s">
+      <c r="A68" s="72"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E68" s="21" t="s">
+      <c r="E68" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F68" s="26"/>
-      <c r="G68" s="30"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="67">
+      <c r="A69" s="70">
         <v>8</v>
       </c>
-      <c r="B69" s="64" t="s">
+      <c r="B69" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="62">
+      <c r="C69" s="83">
         <v>19</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="18" t="s">
+      <c r="E69" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G69" s="29"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="71"/>
+      <c r="B70" s="86"/>
+      <c r="C70" s="83"/>
+      <c r="D70" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G70" s="29"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="71"/>
+      <c r="B71" s="86"/>
+      <c r="C71" s="83"/>
+      <c r="D71" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F71" s="22"/>
+      <c r="G71" s="29"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="71"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="83"/>
+      <c r="D72" s="62" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F69" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G69" s="30"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="68"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="6" t="s">
+      <c r="F72" s="22"/>
+      <c r="G72" s="29"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="71"/>
+      <c r="B73" s="86"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73" s="29"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="71"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="22"/>
+      <c r="G74" s="29"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="71"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="83"/>
+      <c r="D75" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F75" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G75" s="29"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="71"/>
+      <c r="B76" s="86"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G76" s="29"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="71"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F77" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G77" s="29"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="71"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="83"/>
+      <c r="D78" s="62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E78" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="F78" s="22"/>
+      <c r="G78" s="29"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="71"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="83"/>
+      <c r="D79" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="22"/>
+      <c r="G79" s="29"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="72"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="84"/>
+      <c r="D80" s="59" t="s">
+        <v>48</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F80" s="25"/>
+      <c r="G80" s="29"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="70">
+        <v>9</v>
+      </c>
+      <c r="B81" s="86" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="89">
+        <v>14</v>
+      </c>
+      <c r="D81" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="22"/>
+      <c r="G81" s="29"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="72"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="90"/>
+      <c r="D82" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E70" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G70" s="30"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="68"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="62"/>
-      <c r="D71" s="6" t="s">
+      <c r="E82" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="F82" s="25"/>
+      <c r="G82" s="29"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="70">
+        <v>10</v>
+      </c>
+      <c r="B83" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="83">
         <v>5</v>
       </c>
-      <c r="E71" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F71" s="23"/>
-      <c r="G71" s="30"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="68"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="6" t="s">
+      <c r="D83" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" s="22"/>
+      <c r="G83" s="29"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="71"/>
+      <c r="B84" s="86"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="22"/>
+      <c r="G84" s="29"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="71"/>
+      <c r="B85" s="86"/>
+      <c r="C85" s="83"/>
+      <c r="D85" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85" s="22"/>
+      <c r="G85" s="29"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="71"/>
+      <c r="B86" s="86"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E72" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="30"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="68"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="5" t="s">
+      <c r="E86" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="22"/>
+      <c r="G86" s="29"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="71"/>
+      <c r="B87" s="86"/>
+      <c r="C87" s="83"/>
+      <c r="D87" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E73" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="G73" s="30"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="68"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="5" t="s">
+      <c r="E87" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F87" s="22"/>
+      <c r="G87" s="29"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="71"/>
+      <c r="B88" s="86"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="E74" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" s="23"/>
-      <c r="G74" s="30"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="68"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="G75" s="30"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="68"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F76" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="G76" s="30"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="68"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="62"/>
-      <c r="D77" s="6" t="s">
+      <c r="E88" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F88" s="22"/>
+      <c r="G88" s="29"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="71"/>
+      <c r="B89" s="86"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E77" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="G77" s="30"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="68"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="F78" s="23"/>
-      <c r="G78" s="30"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="68"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F79" s="23"/>
-      <c r="G79" s="30"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="69"/>
-      <c r="B80" s="66"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F80" s="26"/>
-      <c r="G80" s="30"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="67">
-        <v>9</v>
-      </c>
-      <c r="B81" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="78">
+      <c r="E89" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" s="22"/>
+      <c r="G89" s="29"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="72"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="84"/>
+      <c r="D90" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="E90" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F90" s="25"/>
+      <c r="G90" s="29"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="75">
+        <v>11</v>
+      </c>
+      <c r="B91" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="68">
+        <v>8</v>
+      </c>
+      <c r="D91" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="30"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="69"/>
-      <c r="B82" s="66"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="8" t="s">
+      <c r="E91" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F91" s="22"/>
+      <c r="G91" s="29"/>
+    </row>
+    <row r="92" spans="1:7" s="55" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="75"/>
+      <c r="B92" s="86"/>
+      <c r="C92" s="69"/>
+      <c r="D92" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E82" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F82" s="26"/>
-      <c r="G82" s="30"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="67">
-        <v>10</v>
-      </c>
-      <c r="B83" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C83" s="62">
+      <c r="E92" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F92" s="54"/>
+      <c r="G92" s="29"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="88"/>
+      <c r="B93" s="87"/>
+      <c r="C93" s="76"/>
+      <c r="D93" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F93" s="25"/>
+      <c r="G93" s="29"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="70">
+        <v>12</v>
+      </c>
+      <c r="B94" s="75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C94" s="77">
+        <v>1</v>
+      </c>
+      <c r="D94" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F94" s="22"/>
+      <c r="G94" s="29"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="71"/>
+      <c r="B95" s="75"/>
+      <c r="C95" s="78"/>
+      <c r="D95" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F95" s="22"/>
+      <c r="G95" s="29"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="71"/>
+      <c r="B96" s="75"/>
+      <c r="C96" s="78"/>
+      <c r="D96" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="30"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="30"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="68"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="62"/>
-      <c r="D85" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="30"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="68"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="5" t="s">
+      <c r="E96" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="22"/>
+      <c r="G96" s="29"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="71"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="78"/>
+      <c r="D97" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86" s="23"/>
-      <c r="G86" s="30"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="68"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="62"/>
-      <c r="D87" s="6" t="s">
+      <c r="E97" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F97" s="22"/>
+      <c r="G97" s="29"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="71"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F87" s="23"/>
-      <c r="G87" s="30"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="68"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="6" t="s">
+      <c r="E98" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F98" s="22"/>
+      <c r="G98" s="29"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="71"/>
+      <c r="B99" s="75"/>
+      <c r="C99" s="78"/>
+      <c r="D99" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F88" s="23"/>
-      <c r="G88" s="30"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="68"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="6" t="s">
+      <c r="E99" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F99" s="22"/>
+      <c r="G99" s="29"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="71"/>
+      <c r="B100" s="75"/>
+      <c r="C100" s="78"/>
+      <c r="D100" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="30"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="69"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="7" t="s">
+      <c r="E100" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F100" s="22"/>
+      <c r="G100" s="29"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="72"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="F90" s="26"/>
-      <c r="G90" s="30"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="74">
-        <v>11</v>
-      </c>
-      <c r="B91" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C91" s="76">
-        <v>8</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="30"/>
-    </row>
-    <row r="92" spans="1:7" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="74"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="F92" s="55"/>
-      <c r="G92" s="30"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="75"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="77"/>
-      <c r="D93" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E93" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="F93" s="26"/>
-      <c r="G93" s="30"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="67">
-        <v>12</v>
-      </c>
-      <c r="B94" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="C94" s="70">
-        <v>1</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="F94" s="23"/>
-      <c r="G94" s="30"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="68"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="71"/>
-      <c r="D95" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E95" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F95" s="23"/>
-      <c r="G95" s="30"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="68"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="71"/>
-      <c r="D96" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F96" s="23"/>
-      <c r="G96" s="30"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="68"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="71"/>
-      <c r="D97" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F97" s="23"/>
-      <c r="G97" s="30"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="68"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="71"/>
-      <c r="D98" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F98" s="23"/>
-      <c r="G98" s="30"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="68"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="71"/>
-      <c r="D99" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F99" s="23"/>
-      <c r="G99" s="30"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="68"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="71"/>
-      <c r="D100" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E100" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="F100" s="23"/>
-      <c r="G100" s="30"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="69"/>
-      <c r="B101" s="75"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E101" s="21" t="s">
+      <c r="E101" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="F101" s="26"/>
-      <c r="G101" s="30"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="29"/>
     </row>
     <row r="102" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
@@ -2815,1137 +2866,1185 @@
       <c r="B102" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C102" s="15">
+      <c r="C102" s="14">
         <v>41</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D102" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="20" t="s">
+      <c r="E102" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="F102" s="16"/>
-      <c r="G102" s="30"/>
-    </row>
-    <row r="103" spans="1:7" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="42">
+      <c r="F102" s="15"/>
+      <c r="G102" s="29"/>
+    </row>
+    <row r="103" spans="1:7" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="41">
         <v>14</v>
       </c>
-      <c r="B103" s="43" t="s">
+      <c r="B103" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="59" t="s">
+      <c r="D103" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E103" s="60" t="s">
+      <c r="E103" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="16"/>
-      <c r="G103" s="30"/>
-    </row>
-    <row r="104" spans="1:7" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="42">
+      <c r="F103" s="15"/>
+      <c r="G103" s="29"/>
+    </row>
+    <row r="104" spans="1:7" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="41">
         <v>15</v>
       </c>
-      <c r="B104" s="43" t="s">
+      <c r="B104" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="C104" s="58" t="s">
+      <c r="C104" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="59" t="s">
+      <c r="D104" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="60" t="s">
+      <c r="E104" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="16"/>
-      <c r="G104" s="30"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="29"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="67">
+      <c r="A105" s="70">
         <v>21</v>
       </c>
       <c r="B105" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="C105" s="76">
+      <c r="C105" s="68">
         <v>20</v>
       </c>
-      <c r="D105" s="6" t="s">
+      <c r="D105" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E105" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="F105" s="23"/>
-      <c r="G105" s="30"/>
+      <c r="F105" s="22"/>
+      <c r="G105" s="29"/>
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="68"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="8" t="s">
+      <c r="A106" s="71"/>
+      <c r="B106" s="75"/>
+      <c r="C106" s="76"/>
+      <c r="D106" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="19" t="s">
+      <c r="E106" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="F106" s="26"/>
-      <c r="G106" s="30"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="29"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="68"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="76">
+      <c r="A107" s="71"/>
+      <c r="B107" s="75"/>
+      <c r="C107" s="68">
         <v>27</v>
       </c>
-      <c r="D107" s="6" t="s">
+      <c r="D107" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="E107" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F107" s="23"/>
-      <c r="G107" s="30"/>
+      <c r="F107" s="22"/>
+      <c r="G107" s="29"/>
     </row>
     <row r="108" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="68"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="8" t="s">
+      <c r="A108" s="71"/>
+      <c r="B108" s="75"/>
+      <c r="C108" s="76"/>
+      <c r="D108" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="19" t="s">
+      <c r="E108" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F108" s="26"/>
-      <c r="G108" s="30"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="29"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="68"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="76">
+      <c r="A109" s="71"/>
+      <c r="B109" s="75"/>
+      <c r="C109" s="68">
         <v>30</v>
       </c>
-      <c r="D109" s="6" t="s">
+      <c r="D109" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E109" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F109" s="23"/>
-      <c r="G109" s="30"/>
+      <c r="F109" s="22"/>
+      <c r="G109" s="29"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="69"/>
-      <c r="B110" s="75"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="8" t="s">
+      <c r="A110" s="72"/>
+      <c r="B110" s="88"/>
+      <c r="C110" s="76"/>
+      <c r="D110" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="E110" s="19" t="s">
+      <c r="E110" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F110" s="26"/>
-      <c r="G110" s="30"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="29"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="64">
+      <c r="A111" s="85">
         <v>22</v>
       </c>
       <c r="B111" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="C111" s="70">
+      <c r="C111" s="96">
         <v>28</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="F111" s="23"/>
-      <c r="G111" s="30"/>
+      <c r="E111" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F111" s="22"/>
+      <c r="G111" s="29"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="65"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="71"/>
-      <c r="D112" s="48" t="s">
+      <c r="A112" s="86"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="97"/>
+      <c r="D112" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="E112" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="F112" s="23"/>
-      <c r="G112" s="30"/>
+      <c r="E112" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="F112" s="22"/>
+      <c r="G112" s="29"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="65"/>
-      <c r="B113" s="74"/>
-      <c r="C113" s="71"/>
+      <c r="A113" s="86"/>
+      <c r="B113" s="75"/>
+      <c r="C113" s="97"/>
       <c r="D113" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E113" s="17" t="s">
+      <c r="E113" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F113" s="23"/>
-      <c r="G113" s="30"/>
+      <c r="F113" s="22"/>
+      <c r="G113" s="29"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="65"/>
-      <c r="B114" s="74"/>
-      <c r="C114" s="71"/>
+      <c r="A114" s="86"/>
+      <c r="B114" s="75"/>
+      <c r="C114" s="97"/>
       <c r="D114" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E114" s="17" t="s">
+      <c r="E114" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F114" s="23"/>
-      <c r="G114" s="30"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="29"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="65"/>
-      <c r="B115" s="74"/>
-      <c r="C115" s="71"/>
+      <c r="A115" s="86"/>
+      <c r="B115" s="75"/>
+      <c r="C115" s="97"/>
       <c r="D115" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E115" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F115" s="24" t="s">
+      <c r="F115" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G115" s="30"/>
-    </row>
-    <row r="116" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="65"/>
-      <c r="B116" s="74"/>
-      <c r="C116" s="71"/>
-      <c r="D116" s="48" t="s">
+      <c r="G115" s="29"/>
+    </row>
+    <row r="116" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="86"/>
+      <c r="B116" s="75"/>
+      <c r="C116" s="97"/>
+      <c r="D116" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E116" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="F116" s="24" t="s">
+      <c r="F116" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="G116" s="30"/>
+      <c r="G116" s="29"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="66"/>
-      <c r="B117" s="75"/>
-      <c r="C117" s="72"/>
+      <c r="A117" s="87"/>
+      <c r="B117" s="88"/>
+      <c r="C117" s="98"/>
       <c r="D117" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E117" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="F117" s="47"/>
-      <c r="G117" s="30"/>
+      <c r="E117" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F117" s="46"/>
+      <c r="G117" s="29"/>
     </row>
     <row r="118" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="67">
+      <c r="A118" s="70">
         <v>23</v>
       </c>
       <c r="B118" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="C118" s="70">
+      <c r="C118" s="96">
         <v>31</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="E118" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F118" s="45"/>
+      <c r="G118" s="29"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="71"/>
+      <c r="B119" s="75"/>
+      <c r="C119" s="97"/>
+      <c r="D119" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F119" s="22"/>
+      <c r="G119" s="29"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="71"/>
+      <c r="B120" s="75"/>
+      <c r="C120" s="97"/>
+      <c r="D120" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F120" s="22"/>
+      <c r="G120" s="29"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="71"/>
+      <c r="B121" s="75"/>
+      <c r="C121" s="97"/>
+      <c r="D121" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="F118" s="46"/>
-      <c r="G118" s="30"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="68"/>
-      <c r="B119" s="74"/>
-      <c r="C119" s="71"/>
-      <c r="D119" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E119" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F119" s="23"/>
-      <c r="G119" s="30"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="68"/>
-      <c r="B120" s="74"/>
-      <c r="C120" s="71"/>
-      <c r="D120" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E120" s="18" t="s">
+      <c r="F121" s="22"/>
+      <c r="G121" s="29"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="71"/>
+      <c r="B122" s="75"/>
+      <c r="C122" s="97"/>
+      <c r="D122" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E122" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F122" s="22"/>
+      <c r="G122" s="29"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="71"/>
+      <c r="B123" s="75"/>
+      <c r="C123" s="97"/>
+      <c r="D123" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F123" s="45"/>
+      <c r="G123" s="29"/>
+    </row>
+    <row r="124" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="71"/>
+      <c r="B124" s="75"/>
+      <c r="C124" s="97"/>
+      <c r="D124" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F124" s="45"/>
+      <c r="G124" s="29"/>
+    </row>
+    <row r="125" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="71"/>
+      <c r="B125" s="75"/>
+      <c r="C125" s="98"/>
+      <c r="D125" s="48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F120" s="23"/>
-      <c r="G120" s="30"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="68"/>
-      <c r="B121" s="74"/>
-      <c r="C121" s="71"/>
-      <c r="D121" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F121" s="23"/>
-      <c r="G121" s="30"/>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="68"/>
-      <c r="B122" s="74"/>
-      <c r="C122" s="71"/>
-      <c r="D122" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E122" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F122" s="23"/>
-      <c r="G122" s="30"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="68"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="71"/>
-      <c r="D123" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="F123" s="46"/>
-      <c r="G123" s="30"/>
-    </row>
-    <row r="124" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="68"/>
-      <c r="B124" s="74"/>
-      <c r="C124" s="71"/>
-      <c r="D124" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E124" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F124" s="46"/>
-      <c r="G124" s="30"/>
-    </row>
-    <row r="125" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="68"/>
-      <c r="B125" s="74"/>
-      <c r="C125" s="72"/>
-      <c r="D125" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="19" t="s">
+      <c r="F125" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="F125" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="G125" s="30"/>
+      <c r="G125" s="29"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="68"/>
-      <c r="B126" s="74"/>
-      <c r="C126" s="70">
+      <c r="A126" s="71"/>
+      <c r="B126" s="75"/>
+      <c r="C126" s="96">
         <v>32</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F126" s="23"/>
-      <c r="G126" s="30"/>
+      <c r="E126" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F126" s="22"/>
+      <c r="G126" s="29"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="68"/>
-      <c r="B127" s="74"/>
-      <c r="C127" s="72"/>
-      <c r="D127" s="49" t="s">
+      <c r="A127" s="71"/>
+      <c r="B127" s="75"/>
+      <c r="C127" s="98"/>
+      <c r="D127" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E127" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="F127" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="G127" s="30"/>
+      <c r="E127" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F127" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="G127" s="29"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="68"/>
-      <c r="B128" s="74"/>
-      <c r="C128" s="70">
+      <c r="A128" s="71"/>
+      <c r="B128" s="75"/>
+      <c r="C128" s="96">
         <v>33</v>
       </c>
       <c r="D128" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E128" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="F128" s="23"/>
-      <c r="G128" s="30"/>
+      <c r="E128" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F128" s="22"/>
+      <c r="G128" s="29"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="69"/>
-      <c r="B129" s="75"/>
-      <c r="C129" s="72"/>
-      <c r="D129" s="49" t="s">
+      <c r="A129" s="72"/>
+      <c r="B129" s="88"/>
+      <c r="C129" s="98"/>
+      <c r="D129" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E129" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="F129" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="G129" s="30"/>
+      <c r="E129" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="F129" s="46" t="s">
+        <v>161</v>
+      </c>
+      <c r="G129" s="29"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="67">
+      <c r="A130" s="70">
         <v>24</v>
       </c>
-      <c r="B130" s="67" t="s">
+      <c r="B130" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="C130" s="61">
+      <c r="C130" s="96">
         <v>29</v>
       </c>
       <c r="D130" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="18" t="s">
+      <c r="E130" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="F130" s="23"/>
-      <c r="G130" s="30"/>
+      <c r="F130" s="22"/>
+      <c r="G130" s="29"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="68"/>
-      <c r="B131" s="68"/>
-      <c r="C131" s="62"/>
+      <c r="A131" s="71"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="97"/>
       <c r="D131" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E131" s="18" t="s">
+      <c r="E131" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="F131" s="23"/>
-      <c r="G131" s="30"/>
+      <c r="F131" s="22"/>
+      <c r="G131" s="29"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="68"/>
-      <c r="B132" s="68"/>
-      <c r="C132" s="62"/>
+      <c r="A132" s="71"/>
+      <c r="B132" s="71"/>
+      <c r="C132" s="97"/>
       <c r="D132" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E132" s="17" t="s">
+      <c r="E132" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F132" s="23"/>
-      <c r="G132" s="30"/>
+      <c r="F132" s="22"/>
+      <c r="G132" s="29"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="68"/>
-      <c r="B133" s="68"/>
-      <c r="C133" s="62"/>
+      <c r="A133" s="71"/>
+      <c r="B133" s="71"/>
+      <c r="C133" s="97"/>
       <c r="D133" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E133" s="17" t="s">
+      <c r="E133" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F133" s="23"/>
-      <c r="G133" s="30"/>
+      <c r="F133" s="22"/>
+      <c r="G133" s="29"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="68"/>
-      <c r="B134" s="68"/>
-      <c r="C134" s="62"/>
+      <c r="A134" s="71"/>
+      <c r="B134" s="71"/>
+      <c r="C134" s="97"/>
       <c r="D134" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E134" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F134" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G134" s="30"/>
+      <c r="E134" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="G134" s="29"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="68"/>
-      <c r="B135" s="68"/>
-      <c r="C135" s="62"/>
+      <c r="A135" s="71"/>
+      <c r="B135" s="71"/>
+      <c r="C135" s="97"/>
       <c r="D135" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E135" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F135" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="G135" s="30"/>
+      <c r="E135" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G135" s="29"/>
     </row>
     <row r="136" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="68"/>
-      <c r="B136" s="68"/>
-      <c r="C136" s="62"/>
+      <c r="A136" s="71"/>
+      <c r="B136" s="71"/>
+      <c r="C136" s="97"/>
       <c r="D136" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="F136" s="27"/>
-      <c r="G136" s="30"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="29"/>
     </row>
     <row r="137" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="68"/>
-      <c r="B137" s="68"/>
-      <c r="C137" s="62"/>
+      <c r="A137" s="71"/>
+      <c r="B137" s="71"/>
+      <c r="C137" s="97"/>
       <c r="D137" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E137" s="17" t="s">
+      <c r="E137" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F137" s="27"/>
-      <c r="G137" s="30"/>
+      <c r="F137" s="26"/>
+      <c r="G137" s="29"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="69"/>
-      <c r="B138" s="69"/>
-      <c r="C138" s="63"/>
+      <c r="A138" s="72"/>
+      <c r="B138" s="72"/>
+      <c r="C138" s="98"/>
       <c r="D138" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E138" s="21" t="s">
+      <c r="E138" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F138" s="26"/>
-      <c r="G138" s="30"/>
-    </row>
-    <row r="139" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="67">
+      <c r="F138" s="25"/>
+      <c r="G138" s="29"/>
+    </row>
+    <row r="139" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="70">
         <v>25</v>
       </c>
-      <c r="B139" s="64" t="s">
+      <c r="B139" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C139" s="70">
+      <c r="C139" s="77">
         <v>11</v>
       </c>
-      <c r="D139" s="6" t="s">
+      <c r="D139" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E139" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F139" s="35"/>
-      <c r="G139" s="30"/>
-    </row>
-    <row r="140" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="68"/>
-      <c r="B140" s="65"/>
-      <c r="C140" s="71"/>
-      <c r="D140" s="6" t="s">
+      <c r="F139" s="34"/>
+      <c r="G139" s="29"/>
+    </row>
+    <row r="140" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="71"/>
+      <c r="B140" s="86"/>
+      <c r="C140" s="78"/>
+      <c r="D140" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E140" s="18" t="s">
+      <c r="E140" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F140" s="35"/>
-      <c r="G140" s="30"/>
-    </row>
-    <row r="141" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="68"/>
-      <c r="B141" s="65"/>
-      <c r="C141" s="71"/>
-      <c r="D141" s="6" t="s">
+      <c r="F140" s="34"/>
+      <c r="G140" s="29"/>
+    </row>
+    <row r="141" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="71"/>
+      <c r="B141" s="86"/>
+      <c r="C141" s="78"/>
+      <c r="D141" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E141" s="18" t="s">
+      <c r="E141" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F141" s="35"/>
-      <c r="G141" s="30"/>
-    </row>
-    <row r="142" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="68"/>
-      <c r="B142" s="65"/>
-      <c r="C142" s="71"/>
-      <c r="D142" s="6" t="s">
+      <c r="F141" s="34"/>
+      <c r="G141" s="29"/>
+    </row>
+    <row r="142" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="71"/>
+      <c r="B142" s="86"/>
+      <c r="C142" s="78"/>
+      <c r="D142" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E142" s="18" t="s">
+      <c r="E142" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F142" s="35"/>
-      <c r="G142" s="30"/>
-    </row>
-    <row r="143" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="68"/>
-      <c r="B143" s="65"/>
-      <c r="C143" s="71"/>
-      <c r="D143" s="5" t="s">
+      <c r="F142" s="34"/>
+      <c r="G142" s="29"/>
+    </row>
+    <row r="143" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="71"/>
+      <c r="B143" s="86"/>
+      <c r="C143" s="78"/>
+      <c r="D143" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E143" s="39" t="s">
+      <c r="E143" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F143" s="35"/>
-      <c r="G143" s="30"/>
-    </row>
-    <row r="144" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="68"/>
-      <c r="B144" s="65"/>
-      <c r="C144" s="71"/>
-      <c r="D144" s="5" t="s">
+      <c r="F143" s="34"/>
+      <c r="G143" s="29"/>
+    </row>
+    <row r="144" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="71"/>
+      <c r="B144" s="86"/>
+      <c r="C144" s="78"/>
+      <c r="D144" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E144" s="39" t="s">
+      <c r="E144" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F144" s="35"/>
-      <c r="G144" s="30"/>
-    </row>
-    <row r="145" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="68"/>
-      <c r="B145" s="65"/>
-      <c r="C145" s="71"/>
-      <c r="D145" s="6" t="s">
+      <c r="F144" s="34"/>
+      <c r="G144" s="29"/>
+    </row>
+    <row r="145" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="71"/>
+      <c r="B145" s="86"/>
+      <c r="C145" s="78"/>
+      <c r="D145" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E145" s="18" t="s">
+      <c r="E145" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F145" s="35"/>
-      <c r="G145" s="30"/>
-    </row>
-    <row r="146" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="68"/>
-      <c r="B146" s="65"/>
-      <c r="C146" s="71"/>
-      <c r="D146" s="37" t="s">
+      <c r="F145" s="34"/>
+      <c r="G145" s="29"/>
+    </row>
+    <row r="146" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="71"/>
+      <c r="B146" s="86"/>
+      <c r="C146" s="78"/>
+      <c r="D146" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F146" s="35"/>
-      <c r="G146" s="30"/>
-    </row>
-    <row r="147" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="68"/>
-      <c r="B147" s="65"/>
-      <c r="C147" s="71"/>
-      <c r="D147" s="6" t="s">
+      <c r="F146" s="34"/>
+      <c r="G146" s="29"/>
+    </row>
+    <row r="147" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="71"/>
+      <c r="B147" s="86"/>
+      <c r="C147" s="78"/>
+      <c r="D147" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E147" s="18" t="s">
+      <c r="E147" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F147" s="35"/>
-      <c r="G147" s="30"/>
-    </row>
-    <row r="148" spans="1:7" s="41" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="68"/>
-      <c r="B148" s="65"/>
-      <c r="C148" s="72"/>
-      <c r="D148" s="37" t="s">
+      <c r="F147" s="34"/>
+      <c r="G147" s="29"/>
+    </row>
+    <row r="148" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="71"/>
+      <c r="B148" s="86"/>
+      <c r="C148" s="79"/>
+      <c r="D148" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E148" s="19" t="s">
+      <c r="E148" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F148" s="35"/>
-      <c r="G148" s="30"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="29"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="68"/>
-      <c r="B149" s="65"/>
-      <c r="C149" s="61">
+      <c r="A149" s="71"/>
+      <c r="B149" s="86"/>
+      <c r="C149" s="91">
         <v>21</v>
       </c>
-      <c r="D149" s="12" t="s">
+      <c r="D149" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E149" s="18" t="s">
+      <c r="E149" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F149" s="23"/>
-      <c r="G149" s="30"/>
+      <c r="F149" s="22"/>
+      <c r="G149" s="29"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="68"/>
-      <c r="B150" s="65"/>
-      <c r="C150" s="62"/>
-      <c r="D150" s="6" t="s">
+      <c r="A150" s="71"/>
+      <c r="B150" s="86"/>
+      <c r="C150" s="83"/>
+      <c r="D150" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E150" s="18" t="s">
+      <c r="E150" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F150" s="23"/>
-      <c r="G150" s="30"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="29"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="68"/>
-      <c r="B151" s="65"/>
-      <c r="C151" s="62"/>
-      <c r="D151" s="6" t="s">
+      <c r="A151" s="71"/>
+      <c r="B151" s="86"/>
+      <c r="C151" s="83"/>
+      <c r="D151" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E151" s="18" t="s">
+      <c r="E151" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F151" s="27"/>
-      <c r="G151" s="30"/>
+      <c r="F151" s="26"/>
+      <c r="G151" s="29"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="68"/>
-      <c r="B152" s="65"/>
-      <c r="C152" s="62"/>
-      <c r="D152" s="5" t="s">
+      <c r="A152" s="71"/>
+      <c r="B152" s="86"/>
+      <c r="C152" s="83"/>
+      <c r="D152" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E152" s="17" t="s">
+      <c r="E152" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F152" s="27"/>
-      <c r="G152" s="30"/>
+      <c r="F152" s="26"/>
+      <c r="G152" s="29"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="68"/>
-      <c r="B153" s="65"/>
-      <c r="C153" s="62"/>
-      <c r="D153" s="5" t="s">
+      <c r="A153" s="71"/>
+      <c r="B153" s="86"/>
+      <c r="C153" s="83"/>
+      <c r="D153" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E153" s="17" t="s">
+      <c r="E153" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F153" s="27"/>
-      <c r="G153" s="30"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="29"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="68"/>
-      <c r="B154" s="65"/>
-      <c r="C154" s="62"/>
-      <c r="D154" s="5" t="s">
+      <c r="A154" s="71"/>
+      <c r="B154" s="86"/>
+      <c r="C154" s="83"/>
+      <c r="D154" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E154" s="17" t="s">
+      <c r="E154" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F154" s="27"/>
-      <c r="G154" s="30"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="29"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="68"/>
-      <c r="B155" s="65"/>
-      <c r="C155" s="62"/>
-      <c r="D155" s="6" t="s">
+      <c r="A155" s="71"/>
+      <c r="B155" s="86"/>
+      <c r="C155" s="83"/>
+      <c r="D155" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E155" s="18" t="s">
+      <c r="E155" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F155" s="27"/>
-      <c r="G155" s="30"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="29"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="68"/>
-      <c r="B156" s="65"/>
-      <c r="C156" s="62"/>
-      <c r="D156" s="10" t="s">
+      <c r="A156" s="71"/>
+      <c r="B156" s="86"/>
+      <c r="C156" s="83"/>
+      <c r="D156" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E156" s="18" t="s">
+      <c r="E156" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F156" s="27"/>
-      <c r="G156" s="30"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="29"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="68"/>
-      <c r="B157" s="65"/>
-      <c r="C157" s="62"/>
-      <c r="D157" s="6" t="s">
+      <c r="A157" s="71"/>
+      <c r="B157" s="86"/>
+      <c r="C157" s="83"/>
+      <c r="D157" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E157" s="18" t="s">
+      <c r="E157" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F157" s="27"/>
-      <c r="G157" s="30"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="29"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="68"/>
-      <c r="B158" s="65"/>
-      <c r="C158" s="63"/>
-      <c r="D158" s="8" t="s">
+      <c r="A158" s="71"/>
+      <c r="B158" s="86"/>
+      <c r="C158" s="84"/>
+      <c r="D158" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E158" s="19" t="s">
+      <c r="E158" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="F158" s="50"/>
-      <c r="G158" s="30"/>
+      <c r="F158" s="49"/>
+      <c r="G158" s="29"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="68"/>
-      <c r="B159" s="65"/>
-      <c r="C159" s="62">
+      <c r="A159" s="71"/>
+      <c r="B159" s="86"/>
+      <c r="C159" s="83">
         <v>23</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D159" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E159" s="18" t="s">
+      <c r="E159" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="F159" s="51"/>
-      <c r="G159" s="30"/>
+      <c r="F159" s="50"/>
+      <c r="G159" s="29"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="68"/>
-      <c r="B160" s="65"/>
-      <c r="C160" s="62"/>
-      <c r="D160" s="6" t="s">
+      <c r="A160" s="71"/>
+      <c r="B160" s="86"/>
+      <c r="C160" s="83"/>
+      <c r="D160" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E160" s="18" t="s">
+      <c r="E160" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F160" s="27"/>
-      <c r="G160" s="30"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="29"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="68"/>
-      <c r="B161" s="65"/>
-      <c r="C161" s="62"/>
-      <c r="D161" s="6" t="s">
+      <c r="A161" s="71"/>
+      <c r="B161" s="86"/>
+      <c r="C161" s="83"/>
+      <c r="D161" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="E161" s="18" t="s">
+      <c r="E161" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="F161" s="27"/>
-      <c r="G161" s="30"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="29"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="68"/>
-      <c r="B162" s="65"/>
-      <c r="C162" s="62"/>
-      <c r="D162" s="5" t="s">
+      <c r="A162" s="71"/>
+      <c r="B162" s="86"/>
+      <c r="C162" s="83"/>
+      <c r="D162" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E162" s="17" t="s">
+      <c r="E162" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F162" s="23"/>
-      <c r="G162" s="30"/>
+      <c r="F162" s="22"/>
+      <c r="G162" s="29"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="68"/>
-      <c r="B163" s="65"/>
-      <c r="C163" s="62"/>
-      <c r="D163" s="5" t="s">
+      <c r="A163" s="71"/>
+      <c r="B163" s="86"/>
+      <c r="C163" s="83"/>
+      <c r="D163" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E163" s="17" t="s">
+      <c r="E163" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F163" s="23"/>
-      <c r="G163" s="30"/>
+      <c r="F163" s="22"/>
+      <c r="G163" s="29"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="68"/>
-      <c r="B164" s="65"/>
-      <c r="C164" s="62"/>
-      <c r="D164" s="5" t="s">
+      <c r="A164" s="71"/>
+      <c r="B164" s="86"/>
+      <c r="C164" s="83"/>
+      <c r="D164" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E164" s="17" t="s">
+      <c r="E164" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="F164" s="23"/>
-      <c r="G164" s="30"/>
+      <c r="F164" s="22"/>
+      <c r="G164" s="29"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="68"/>
-      <c r="B165" s="65"/>
-      <c r="C165" s="62"/>
-      <c r="D165" s="6" t="s">
+      <c r="A165" s="71"/>
+      <c r="B165" s="86"/>
+      <c r="C165" s="83"/>
+      <c r="D165" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E165" s="18" t="s">
+      <c r="E165" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="F165" s="23"/>
-      <c r="G165" s="30"/>
+      <c r="F165" s="22"/>
+      <c r="G165" s="29"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="68"/>
-      <c r="B166" s="65"/>
-      <c r="C166" s="62"/>
-      <c r="D166" s="10" t="s">
+      <c r="A166" s="71"/>
+      <c r="B166" s="86"/>
+      <c r="C166" s="83"/>
+      <c r="D166" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E166" s="18" t="s">
+      <c r="E166" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="F166" s="23"/>
-      <c r="G166" s="30"/>
+      <c r="F166" s="22"/>
+      <c r="G166" s="29"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="68"/>
-      <c r="B167" s="65"/>
-      <c r="C167" s="62"/>
-      <c r="D167" s="6" t="s">
+      <c r="A167" s="71"/>
+      <c r="B167" s="86"/>
+      <c r="C167" s="83"/>
+      <c r="D167" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E167" s="18" t="s">
+      <c r="E167" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="F167" s="23"/>
-      <c r="G167" s="30"/>
+      <c r="F167" s="22"/>
+      <c r="G167" s="29"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="68"/>
-      <c r="B168" s="65"/>
-      <c r="C168" s="63"/>
-      <c r="D168" s="8" t="s">
+      <c r="A168" s="71"/>
+      <c r="B168" s="86"/>
+      <c r="C168" s="84"/>
+      <c r="D168" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="E168" s="19" t="s">
+      <c r="E168" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="F168" s="26"/>
-      <c r="G168" s="30"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="29"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="67">
+      <c r="A169" s="70">
         <v>26</v>
       </c>
-      <c r="B169" s="64" t="s">
+      <c r="B169" s="85" t="s">
         <v>116</v>
       </c>
-      <c r="C169" s="61">
+      <c r="C169" s="91">
         <v>25</v>
       </c>
-      <c r="D169" s="6" t="s">
+      <c r="D169" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="E169" s="18" t="s">
+      <c r="E169" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="F169" s="27"/>
-      <c r="G169" s="30"/>
+      <c r="F169" s="26"/>
+      <c r="G169" s="29"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="68"/>
-      <c r="B170" s="65"/>
-      <c r="C170" s="62"/>
-      <c r="D170" s="6" t="s">
+      <c r="A170" s="71"/>
+      <c r="B170" s="86"/>
+      <c r="C170" s="83"/>
+      <c r="D170" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="E170" s="18" t="s">
+      <c r="E170" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="F170" s="23"/>
-      <c r="G170" s="30"/>
+      <c r="F170" s="22"/>
+      <c r="G170" s="29"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="68"/>
-      <c r="B171" s="65"/>
-      <c r="C171" s="62"/>
-      <c r="D171" s="5" t="s">
+      <c r="A171" s="71"/>
+      <c r="B171" s="86"/>
+      <c r="C171" s="83"/>
+      <c r="D171" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="E171" s="17" t="s">
+      <c r="E171" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F171" s="23"/>
-      <c r="G171" s="30"/>
+      <c r="F171" s="22"/>
+      <c r="G171" s="29"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="68"/>
-      <c r="B172" s="65"/>
-      <c r="C172" s="62"/>
-      <c r="D172" s="5" t="s">
+      <c r="A172" s="71"/>
+      <c r="B172" s="86"/>
+      <c r="C172" s="83"/>
+      <c r="D172" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E172" s="17" t="s">
+      <c r="E172" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F172" s="23"/>
-      <c r="G172" s="30"/>
+      <c r="F172" s="22"/>
+      <c r="G172" s="29"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="68"/>
-      <c r="B173" s="65"/>
-      <c r="C173" s="62"/>
-      <c r="D173" s="5" t="s">
+      <c r="A173" s="71"/>
+      <c r="B173" s="86"/>
+      <c r="C173" s="83"/>
+      <c r="D173" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="E173" s="17" t="s">
+      <c r="E173" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F173" s="23"/>
-      <c r="G173" s="30"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="29"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="68"/>
-      <c r="B174" s="65"/>
-      <c r="C174" s="62"/>
-      <c r="D174" s="5" t="s">
+      <c r="A174" s="71"/>
+      <c r="B174" s="86"/>
+      <c r="C174" s="83"/>
+      <c r="D174" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="E174" s="17" t="s">
+      <c r="E174" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F174" s="23"/>
-      <c r="G174" s="30"/>
+      <c r="F174" s="22"/>
+      <c r="G174" s="29"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="68"/>
-      <c r="B175" s="65"/>
-      <c r="C175" s="62"/>
-      <c r="D175" s="6" t="s">
+      <c r="A175" s="71"/>
+      <c r="B175" s="86"/>
+      <c r="C175" s="83"/>
+      <c r="D175" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E175" s="18" t="s">
+      <c r="E175" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="F175" s="24" t="s">
+      <c r="F175" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="G175" s="30"/>
+      <c r="G175" s="29"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="68"/>
-      <c r="B176" s="65"/>
-      <c r="C176" s="62"/>
-      <c r="D176" s="10" t="s">
+      <c r="A176" s="71"/>
+      <c r="B176" s="86"/>
+      <c r="C176" s="83"/>
+      <c r="D176" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="E176" s="18" t="s">
+      <c r="E176" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="F176" s="24" t="s">
+      <c r="F176" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="G176" s="30"/>
+      <c r="G176" s="29"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="68"/>
-      <c r="B177" s="65"/>
-      <c r="C177" s="62"/>
-      <c r="D177" s="6" t="s">
+      <c r="A177" s="71"/>
+      <c r="B177" s="86"/>
+      <c r="C177" s="83"/>
+      <c r="D177" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="18" t="s">
+      <c r="E177" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="F177" s="23"/>
-      <c r="G177" s="30"/>
+      <c r="F177" s="22"/>
+      <c r="G177" s="29"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="68"/>
-      <c r="B178" s="65"/>
-      <c r="C178" s="62"/>
-      <c r="D178" s="5" t="s">
+      <c r="A178" s="71"/>
+      <c r="B178" s="86"/>
+      <c r="C178" s="83"/>
+      <c r="D178" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="E178" s="17" t="s">
+      <c r="E178" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F178" s="23"/>
-      <c r="G178" s="30"/>
+      <c r="F178" s="22"/>
+      <c r="G178" s="29"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="69"/>
-      <c r="B179" s="66"/>
-      <c r="C179" s="63"/>
-      <c r="D179" s="9" t="s">
+      <c r="A179" s="72"/>
+      <c r="B179" s="87"/>
+      <c r="C179" s="84"/>
+      <c r="D179" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E179" s="21" t="s">
+      <c r="E179" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F179" s="26"/>
-      <c r="G179" s="30"/>
+      <c r="F179" s="25"/>
+      <c r="G179" s="29"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="16">
+      <c r="A180" s="15">
         <v>27</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="B180" s="15" t="s">
         <v>119</v>
       </c>
       <c r="C180" s="13">
         <v>2</v>
       </c>
-      <c r="D180" s="13" t="s">
+      <c r="D180" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E180" s="20" t="s">
+      <c r="E180" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="F180" s="52"/>
-      <c r="G180" s="30"/>
-    </row>
-    <row r="181" spans="1:7" s="44" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="16">
+      <c r="F180" s="51"/>
+      <c r="G180" s="29"/>
+    </row>
+    <row r="181" spans="1:7" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="15">
         <v>28</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="B181" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C181" s="45">
+      <c r="C181" s="44">
         <v>26</v>
       </c>
-      <c r="D181" s="45" t="s">
+      <c r="D181" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="E181" s="22" t="s">
+      <c r="E181" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F181" s="52"/>
-      <c r="G181" s="30"/>
+      <c r="F181" s="51"/>
+      <c r="G181" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="C169:C179"/>
+    <mergeCell ref="B169:B179"/>
+    <mergeCell ref="A169:A179"/>
+    <mergeCell ref="C139:C148"/>
+    <mergeCell ref="B139:B168"/>
+    <mergeCell ref="C130:C138"/>
+    <mergeCell ref="B130:B138"/>
+    <mergeCell ref="A130:A138"/>
+    <mergeCell ref="C149:C158"/>
+    <mergeCell ref="A139:A168"/>
+    <mergeCell ref="C159:C168"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="B118:B129"/>
+    <mergeCell ref="A118:A129"/>
+    <mergeCell ref="C118:C125"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="B105:B110"/>
+    <mergeCell ref="A105:A110"/>
+    <mergeCell ref="C111:C117"/>
+    <mergeCell ref="B111:B117"/>
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B83:B90"/>
+    <mergeCell ref="C83:C90"/>
+    <mergeCell ref="A83:A90"/>
+    <mergeCell ref="C94:C101"/>
+    <mergeCell ref="B94:B101"/>
+    <mergeCell ref="A94:A101"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="C58:C68"/>
+    <mergeCell ref="B58:B68"/>
+    <mergeCell ref="A58:A68"/>
+    <mergeCell ref="C69:C80"/>
+    <mergeCell ref="B69:B80"/>
+    <mergeCell ref="A69:A80"/>
+    <mergeCell ref="C45:C56"/>
+    <mergeCell ref="B45:B56"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="C35:C44"/>
+    <mergeCell ref="B35:B44"/>
+    <mergeCell ref="A35:A44"/>
     <mergeCell ref="C23:C34"/>
     <mergeCell ref="C5:C10"/>
     <mergeCell ref="A23:A34"/>
@@ -3956,57 +4055,10 @@
     <mergeCell ref="C11:C19"/>
     <mergeCell ref="A11:A22"/>
     <mergeCell ref="B11:B22"/>
-    <mergeCell ref="C45:C56"/>
-    <mergeCell ref="B45:B56"/>
-    <mergeCell ref="A45:A56"/>
-    <mergeCell ref="C35:C44"/>
-    <mergeCell ref="B35:B44"/>
-    <mergeCell ref="A35:A44"/>
-    <mergeCell ref="C58:C68"/>
-    <mergeCell ref="B58:B68"/>
-    <mergeCell ref="A58:A68"/>
-    <mergeCell ref="C69:C80"/>
-    <mergeCell ref="B69:B80"/>
-    <mergeCell ref="A69:A80"/>
-    <mergeCell ref="C94:C101"/>
-    <mergeCell ref="B94:B101"/>
-    <mergeCell ref="A94:A101"/>
-    <mergeCell ref="C91:C93"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B83:B90"/>
-    <mergeCell ref="C83:C90"/>
-    <mergeCell ref="A83:A90"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="A105:A110"/>
-    <mergeCell ref="C111:C117"/>
-    <mergeCell ref="B111:B117"/>
-    <mergeCell ref="A111:A117"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="B118:B129"/>
-    <mergeCell ref="A118:A129"/>
-    <mergeCell ref="C118:C125"/>
-    <mergeCell ref="C130:C138"/>
-    <mergeCell ref="B130:B138"/>
-    <mergeCell ref="A130:A138"/>
-    <mergeCell ref="C149:C158"/>
-    <mergeCell ref="A139:A168"/>
-    <mergeCell ref="C159:C168"/>
-    <mergeCell ref="C169:C179"/>
-    <mergeCell ref="B169:B179"/>
-    <mergeCell ref="A169:A179"/>
-    <mergeCell ref="C139:C148"/>
-    <mergeCell ref="B139:B168"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" blackAndWhite="1" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4025,58 +4077,59 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="63" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="65"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
         <v>172</v>
-      </c>
-      <c r="B10" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" t="s">
         <v>173</v>
-      </c>
-      <c r="B11" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Robak/doc/Makra.xlsx
+++ b/Robak/doc/Makra.xlsx
@@ -820,7 +820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -996,157 +996,178 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1452,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,7 +1496,7 @@
       <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="71" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="26" t="s">
@@ -1501,13 +1522,13 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="84">
+      <c r="A3" s="89">
         <v>1</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="71">
+      <c r="C3" s="70">
         <v>3</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -1520,9 +1541,9 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="71">
+      <c r="A4" s="90"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="70">
         <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -1535,9 +1556,9 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="83">
+      <c r="A5" s="90"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="102">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1550,26 +1571,26 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="63" t="s">
+      <c r="A6" s="90"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="62" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="61"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="86">
+      <c r="A7" s="104">
         <v>2</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="113" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="101">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1582,9 +1603,9 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="83"/>
+      <c r="A8" s="105"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1595,9 +1616,9 @@
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="83"/>
+      <c r="A9" s="105"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="102"/>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1608,9 +1629,9 @@
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="83"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="102"/>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1621,9 +1642,9 @@
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="83"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="102"/>
       <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1634,9 +1655,9 @@
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="83"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="102"/>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1647,9 +1668,9 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="83"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="102"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1660,9 +1681,9 @@
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="83"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
@@ -1672,50 +1693,50 @@
       <c r="F14" s="19"/>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
-      <c r="B15" s="91"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="60" t="s">
+    <row r="15" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="105"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="59" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F15" s="67"/>
+      <c r="F15" s="66"/>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" s="62" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="69" t="s">
+    <row r="16" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="105"/>
+      <c r="B16" s="114"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="68" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="F16" s="67"/>
+      <c r="F16" s="66"/>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="69" t="s">
+    <row r="17" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="105"/>
+      <c r="B17" s="114"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="68" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="67"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="63" t="s">
+      <c r="A18" s="105"/>
+      <c r="B18" s="114"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="62" t="s">
         <v>33</v>
       </c>
       <c r="E18" s="16" t="s">
@@ -1725,9 +1746,9 @@
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="88"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="82">
+      <c r="A19" s="105"/>
+      <c r="B19" s="114"/>
+      <c r="C19" s="101">
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1740,9 +1761,9 @@
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="88"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="89"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="103"/>
       <c r="D20" s="7" t="s">
         <v>4</v>
       </c>
@@ -1753,9 +1774,9 @@
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="88"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="71">
+      <c r="A21" s="105"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="70">
         <v>17</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -1768,13 +1789,13 @@
       <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="84">
+      <c r="A22" s="89">
         <v>3</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="82">
+      <c r="C22" s="101">
         <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1788,9 +1809,9 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="83"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="102"/>
       <c r="D23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1801,9 +1822,9 @@
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="83"/>
+      <c r="A24" s="90"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="102"/>
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1814,9 +1835,9 @@
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="83"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="102"/>
       <c r="D25" s="6" t="s">
         <v>6</v>
       </c>
@@ -1827,9 +1848,9 @@
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="85"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="83"/>
+      <c r="A26" s="90"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="102"/>
       <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
@@ -1840,9 +1861,9 @@
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="85"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="83"/>
+      <c r="A27" s="90"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="102"/>
       <c r="D27" s="6" t="s">
         <v>8</v>
       </c>
@@ -1853,9 +1874,9 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="85"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="83"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="102"/>
       <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
@@ -1866,9 +1887,9 @@
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="85"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="83"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="102"/>
       <c r="D29" s="9" t="s">
         <v>10</v>
       </c>
@@ -1879,9 +1900,9 @@
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="85"/>
-      <c r="B30" s="87"/>
-      <c r="C30" s="83"/>
+      <c r="A30" s="90"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="102"/>
       <c r="D30" s="6" t="s">
         <v>13</v>
       </c>
@@ -1892,9 +1913,9 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="85"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="83"/>
+      <c r="A31" s="90"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="102"/>
       <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
@@ -1905,26 +1926,26 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="85"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="83"/>
+      <c r="A32" s="90"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="102"/>
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="68"/>
+      <c r="F32" s="67"/>
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="90">
+      <c r="A33" s="113">
         <v>4</v>
       </c>
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="82">
+      <c r="C33" s="101">
         <v>10</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -1937,9 +1958,9 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="91"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="83"/>
+      <c r="A34" s="114"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="102"/>
       <c r="D34" s="9" t="s">
         <v>4</v>
       </c>
@@ -1950,9 +1971,9 @@
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="91"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="83"/>
+      <c r="A35" s="114"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="102"/>
       <c r="D35" s="9" t="s">
         <v>5</v>
       </c>
@@ -1965,9 +1986,9 @@
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="91"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="83"/>
+      <c r="A36" s="114"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="102"/>
       <c r="D36" s="9" t="s">
         <v>6</v>
       </c>
@@ -1978,9 +1999,9 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="91"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="83"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="102"/>
       <c r="D37" s="9" t="s">
         <v>7</v>
       </c>
@@ -1991,9 +2012,9 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="91"/>
-      <c r="B38" s="91"/>
-      <c r="C38" s="83"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="114"/>
+      <c r="C38" s="102"/>
       <c r="D38" s="9" t="s">
         <v>8</v>
       </c>
@@ -2004,9 +2025,9 @@
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="91"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="83"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="114"/>
+      <c r="C39" s="102"/>
       <c r="D39" s="9" t="s">
         <v>9</v>
       </c>
@@ -2017,9 +2038,9 @@
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="91"/>
-      <c r="B40" s="91"/>
-      <c r="C40" s="83"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="102"/>
       <c r="D40" s="9" t="s">
         <v>10</v>
       </c>
@@ -2030,9 +2051,9 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="91"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="83"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="102"/>
       <c r="D41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2045,9 +2066,9 @@
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="91"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="89"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="7" t="s">
         <v>14</v>
       </c>
@@ -2058,13 +2079,13 @@
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="84">
+      <c r="A43" s="89">
         <v>5</v>
       </c>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="79">
+      <c r="C43" s="95">
         <v>9</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -2077,9 +2098,9 @@
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="85"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="93"/>
+      <c r="A44" s="90"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="96"/>
       <c r="D44" s="6" t="s">
         <v>4</v>
       </c>
@@ -2090,9 +2111,9 @@
       <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="85"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="93"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="96"/>
       <c r="D45" s="5" t="s">
         <v>5</v>
       </c>
@@ -2103,9 +2124,9 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="85"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="93"/>
+      <c r="A46" s="90"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="96"/>
       <c r="D46" s="5" t="s">
         <v>6</v>
       </c>
@@ -2116,9 +2137,9 @@
       <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="85"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="93"/>
+      <c r="A47" s="90"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="96"/>
       <c r="D47" s="5" t="s">
         <v>7</v>
       </c>
@@ -2129,9 +2150,9 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="85"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="93"/>
+      <c r="A48" s="90"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="96"/>
       <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
@@ -2142,9 +2163,9 @@
       <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="85"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="93"/>
+      <c r="A49" s="90"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="96"/>
       <c r="D49" s="6" t="s">
         <v>9</v>
       </c>
@@ -2155,9 +2176,9 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="85"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="93"/>
+      <c r="A50" s="90"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="96"/>
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
@@ -2168,9 +2189,9 @@
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="85"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="93"/>
+      <c r="A51" s="90"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="96"/>
       <c r="D51" s="6" t="s">
         <v>13</v>
       </c>
@@ -2181,9 +2202,9 @@
       <c r="G51" s="24"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="85"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="93"/>
+      <c r="A52" s="90"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="96"/>
       <c r="D52" s="6" t="s">
         <v>14</v>
       </c>
@@ -2194,9 +2215,9 @@
       <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="85"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="93"/>
+      <c r="A53" s="90"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="96"/>
       <c r="D53" s="5" t="s">
         <v>15</v>
       </c>
@@ -2207,10 +2228,10 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="95"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="66" t="s">
+      <c r="A54" s="91"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="65" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="18" t="s">
@@ -2226,7 +2247,7 @@
       <c r="B55" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="71">
+      <c r="C55" s="70">
         <v>16</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -2239,13 +2260,13 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="84">
+      <c r="A56" s="89">
         <v>7</v>
       </c>
-      <c r="B56" s="76" t="s">
+      <c r="B56" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="96">
+      <c r="C56" s="84">
         <v>18</v>
       </c>
       <c r="D56" s="51" t="s">
@@ -2258,9 +2279,9 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="85"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="96"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="84"/>
       <c r="D57" s="53" t="s">
         <v>4</v>
       </c>
@@ -2271,10 +2292,10 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="85"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="64" t="s">
+      <c r="A58" s="90"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="84"/>
+      <c r="D58" s="63" t="s">
         <v>5</v>
       </c>
       <c r="E58" s="30" t="s">
@@ -2284,10 +2305,10 @@
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="85"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="64" t="s">
+      <c r="A59" s="90"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="84"/>
+      <c r="D59" s="63" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="30" t="s">
@@ -2297,10 +2318,10 @@
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="85"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="64" t="s">
+      <c r="A60" s="90"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="84"/>
+      <c r="D60" s="63" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="30" t="s">
@@ -2310,10 +2331,10 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="85"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="64" t="s">
+      <c r="A61" s="90"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="84"/>
+      <c r="D61" s="63" t="s">
         <v>8</v>
       </c>
       <c r="E61" s="30" t="s">
@@ -2323,10 +2344,10 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="85"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="60" t="s">
+      <c r="A62" s="90"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="84"/>
+      <c r="D62" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="15" t="s">
@@ -2336,10 +2357,10 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="85"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="60" t="s">
+      <c r="A63" s="90"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="59" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="15" t="s">
@@ -2349,10 +2370,10 @@
       <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="85"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="60" t="s">
+      <c r="A64" s="90"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="59" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="15" t="s">
@@ -2362,10 +2383,10 @@
       <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="85"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="96"/>
-      <c r="D65" s="64" t="s">
+      <c r="A65" s="90"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="63" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="30" t="s">
@@ -2375,10 +2396,10 @@
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="95"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="65" t="s">
+      <c r="A66" s="91"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="64" t="s">
         <v>31</v>
       </c>
       <c r="E66" s="18" t="s">
@@ -2388,13 +2409,13 @@
       <c r="G66" s="24"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="84">
+      <c r="A67" s="89">
         <v>8</v>
       </c>
-      <c r="B67" s="76" t="s">
+      <c r="B67" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="98">
+      <c r="C67" s="107">
         <v>19</v>
       </c>
       <c r="D67" s="53" t="s">
@@ -2407,9 +2428,9 @@
       <c r="G67" s="24"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="85"/>
-      <c r="B68" s="77"/>
-      <c r="C68" s="99"/>
+      <c r="A68" s="90"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="108"/>
       <c r="D68" s="53" t="s">
         <v>4</v>
       </c>
@@ -2420,10 +2441,10 @@
       <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="85"/>
-      <c r="B69" s="77"/>
-      <c r="C69" s="99"/>
-      <c r="D69" s="64" t="s">
+      <c r="A69" s="90"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="63" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="30" t="s">
@@ -2433,10 +2454,10 @@
       <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="85"/>
-      <c r="B70" s="77"/>
-      <c r="C70" s="99"/>
-      <c r="D70" s="64" t="s">
+      <c r="A70" s="90"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="108"/>
+      <c r="D70" s="63" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="30" t="s">
@@ -2446,10 +2467,10 @@
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="85"/>
-      <c r="B71" s="77"/>
-      <c r="C71" s="99"/>
-      <c r="D71" s="64" t="s">
+      <c r="A71" s="90"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="108"/>
+      <c r="D71" s="63" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="30" t="s">
@@ -2459,10 +2480,10 @@
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="85"/>
-      <c r="B72" s="77"/>
-      <c r="C72" s="99"/>
-      <c r="D72" s="64" t="s">
+      <c r="A72" s="90"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="108"/>
+      <c r="D72" s="63" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="30" t="s">
@@ -2472,10 +2493,10 @@
       <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="85"/>
-      <c r="B73" s="77"/>
-      <c r="C73" s="99"/>
-      <c r="D73" s="60" t="s">
+      <c r="A73" s="90"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="15" t="s">
@@ -2485,10 +2506,10 @@
       <c r="G73" s="24"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="85"/>
-      <c r="B74" s="77"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="60" t="s">
+      <c r="A74" s="90"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="108"/>
+      <c r="D74" s="59" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="15" t="s">
@@ -2498,10 +2519,10 @@
       <c r="G74" s="24"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="85"/>
-      <c r="B75" s="77"/>
-      <c r="C75" s="99"/>
-      <c r="D75" s="60" t="s">
+      <c r="A75" s="90"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="108"/>
+      <c r="D75" s="59" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="15" t="s">
@@ -2511,10 +2532,10 @@
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="85"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="99"/>
-      <c r="D76" s="64" t="s">
+      <c r="A76" s="90"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="108"/>
+      <c r="D76" s="63" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="30" t="s">
@@ -2524,26 +2545,26 @@
       <c r="G76" s="24"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="85"/>
-      <c r="B77" s="78"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="65" t="s">
+      <c r="A77" s="90"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="64" t="s">
         <v>31</v>
       </c>
       <c r="E77" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="F77" s="68"/>
+      <c r="F77" s="67"/>
       <c r="G77" s="24"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="84">
+      <c r="A78" s="89">
         <v>9</v>
       </c>
-      <c r="B78" s="77" t="s">
+      <c r="B78" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="106">
+      <c r="C78" s="99">
         <v>26</v>
       </c>
       <c r="D78" s="53" t="s">
@@ -2556,9 +2577,9 @@
       <c r="G78" s="24"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="95"/>
-      <c r="B79" s="78"/>
-      <c r="C79" s="107"/>
+      <c r="A79" s="91"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="100"/>
       <c r="D79" s="52" t="s">
         <v>13</v>
       </c>
@@ -2569,13 +2590,13 @@
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="84">
+      <c r="A80" s="89">
         <v>10</v>
       </c>
-      <c r="B80" s="76" t="s">
+      <c r="B80" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C80" s="96">
+      <c r="C80" s="84">
         <v>5</v>
       </c>
       <c r="D80" s="53" t="s">
@@ -2588,9 +2609,9 @@
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="85"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="96"/>
+      <c r="A81" s="90"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="84"/>
       <c r="D81" s="53" t="s">
         <v>4</v>
       </c>
@@ -2601,9 +2622,9 @@
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="85"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="96"/>
+      <c r="A82" s="90"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="84"/>
       <c r="D82" s="49" t="s">
         <v>5</v>
       </c>
@@ -2614,9 +2635,9 @@
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="85"/>
-      <c r="B83" s="77"/>
-      <c r="C83" s="96"/>
+      <c r="A83" s="90"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="84"/>
       <c r="D83" s="49" t="s">
         <v>6</v>
       </c>
@@ -2627,9 +2648,9 @@
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="85"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="96"/>
+      <c r="A84" s="90"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="84"/>
       <c r="D84" s="53" t="s">
         <v>7</v>
       </c>
@@ -2640,9 +2661,9 @@
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="85"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="96"/>
+      <c r="A85" s="90"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="84"/>
       <c r="D85" s="53" t="s">
         <v>8</v>
       </c>
@@ -2653,9 +2674,9 @@
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="85"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="96"/>
+      <c r="A86" s="90"/>
+      <c r="B86" s="87"/>
+      <c r="C86" s="84"/>
       <c r="D86" s="53" t="s">
         <v>13</v>
       </c>
@@ -2666,9 +2687,9 @@
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="95"/>
-      <c r="B87" s="78"/>
-      <c r="C87" s="97"/>
+      <c r="A87" s="91"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="85"/>
       <c r="D87" s="50" t="s">
         <v>14</v>
       </c>
@@ -2679,13 +2700,13 @@
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="88">
+      <c r="A88" s="105">
         <v>11</v>
       </c>
-      <c r="B88" s="76" t="s">
+      <c r="B88" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="C88" s="103">
+      <c r="C88" s="92">
         <v>8</v>
       </c>
       <c r="D88" s="53" t="s">
@@ -2698,9 +2719,9 @@
       <c r="G88" s="24"/>
     </row>
     <row r="89" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="88"/>
-      <c r="B89" s="77"/>
-      <c r="C89" s="104"/>
+      <c r="A89" s="105"/>
+      <c r="B89" s="87"/>
+      <c r="C89" s="93"/>
       <c r="D89" s="53" t="s">
         <v>4</v>
       </c>
@@ -2711,9 +2732,9 @@
       <c r="G89" s="24"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="102"/>
-      <c r="B90" s="78"/>
-      <c r="C90" s="105"/>
+      <c r="A90" s="106"/>
+      <c r="B90" s="88"/>
+      <c r="C90" s="94"/>
       <c r="D90" s="52" t="s">
         <v>13</v>
       </c>
@@ -2724,13 +2745,13 @@
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="84">
+      <c r="A91" s="89">
         <v>12</v>
       </c>
-      <c r="B91" s="88" t="s">
+      <c r="B91" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="101">
+      <c r="C91" s="110">
         <v>1</v>
       </c>
       <c r="D91" s="53" t="s">
@@ -2743,9 +2764,9 @@
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="85"/>
-      <c r="B92" s="88"/>
-      <c r="C92" s="80"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="105"/>
+      <c r="C92" s="111"/>
       <c r="D92" s="53" t="s">
         <v>4</v>
       </c>
@@ -2756,10 +2777,10 @@
       <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="85"/>
-      <c r="B93" s="88"/>
-      <c r="C93" s="80"/>
-      <c r="D93" s="60" t="s">
+      <c r="A93" s="90"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="111"/>
+      <c r="D93" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E93" s="15" t="s">
@@ -2769,10 +2790,10 @@
       <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="85"/>
-      <c r="B94" s="88"/>
-      <c r="C94" s="80"/>
-      <c r="D94" s="60" t="s">
+      <c r="A94" s="90"/>
+      <c r="B94" s="105"/>
+      <c r="C94" s="111"/>
+      <c r="D94" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E94" s="15" t="s">
@@ -2782,9 +2803,9 @@
       <c r="G94" s="24"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="85"/>
-      <c r="B95" s="88"/>
-      <c r="C95" s="80"/>
+      <c r="A95" s="90"/>
+      <c r="B95" s="105"/>
+      <c r="C95" s="111"/>
       <c r="D95" s="49" t="s">
         <v>7</v>
       </c>
@@ -2795,9 +2816,9 @@
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="85"/>
-      <c r="B96" s="88"/>
-      <c r="C96" s="80"/>
+      <c r="A96" s="90"/>
+      <c r="B96" s="105"/>
+      <c r="C96" s="111"/>
       <c r="D96" s="49" t="s">
         <v>8</v>
       </c>
@@ -2808,9 +2829,9 @@
       <c r="G96" s="24"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="85"/>
-      <c r="B97" s="88"/>
-      <c r="C97" s="80"/>
+      <c r="A97" s="90"/>
+      <c r="B97" s="105"/>
+      <c r="C97" s="111"/>
       <c r="D97" s="49" t="s">
         <v>13</v>
       </c>
@@ -2821,9 +2842,9 @@
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="95"/>
-      <c r="B98" s="102"/>
-      <c r="C98" s="81"/>
+      <c r="A98" s="91"/>
+      <c r="B98" s="106"/>
+      <c r="C98" s="112"/>
       <c r="D98" s="50" t="s">
         <v>14</v>
       </c>
@@ -2862,7 +2883,7 @@
       <c r="C100" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D100" s="73" t="s">
+      <c r="D100" s="72" t="s">
         <v>16</v>
       </c>
       <c r="E100" s="48" t="s">
@@ -2881,7 +2902,7 @@
       <c r="C101" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="73" t="s">
+      <c r="D101" s="72" t="s">
         <v>16</v>
       </c>
       <c r="E101" s="48" t="s">
@@ -2891,13 +2912,13 @@
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="84">
+      <c r="A102" s="89">
         <v>21</v>
       </c>
-      <c r="B102" s="86" t="s">
+      <c r="B102" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="C102" s="103">
+      <c r="C102" s="92">
         <v>20</v>
       </c>
       <c r="D102" s="53" t="s">
@@ -2910,9 +2931,9 @@
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="85"/>
-      <c r="B103" s="88"/>
-      <c r="C103" s="105"/>
+      <c r="A103" s="90"/>
+      <c r="B103" s="105"/>
+      <c r="C103" s="94"/>
       <c r="D103" s="52" t="s">
         <v>4</v>
       </c>
@@ -2923,9 +2944,9 @@
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="85"/>
-      <c r="B104" s="88"/>
-      <c r="C104" s="103">
+      <c r="A104" s="90"/>
+      <c r="B104" s="105"/>
+      <c r="C104" s="92">
         <v>27</v>
       </c>
       <c r="D104" s="53" t="s">
@@ -2938,9 +2959,9 @@
       <c r="G104" s="24"/>
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="85"/>
-      <c r="B105" s="88"/>
-      <c r="C105" s="105"/>
+      <c r="A105" s="90"/>
+      <c r="B105" s="105"/>
+      <c r="C105" s="94"/>
       <c r="D105" s="52" t="s">
         <v>13</v>
       </c>
@@ -2951,9 +2972,9 @@
       <c r="G105" s="24"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="85"/>
-      <c r="B106" s="88"/>
-      <c r="C106" s="103">
+      <c r="A106" s="90"/>
+      <c r="B106" s="105"/>
+      <c r="C106" s="92">
         <v>30</v>
       </c>
       <c r="D106" s="53" t="s">
@@ -2966,9 +2987,9 @@
       <c r="G106" s="24"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="95"/>
-      <c r="B107" s="102"/>
-      <c r="C107" s="105"/>
+      <c r="A107" s="91"/>
+      <c r="B107" s="106"/>
+      <c r="C107" s="94"/>
       <c r="D107" s="52" t="s">
         <v>13</v>
       </c>
@@ -2979,13 +3000,13 @@
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="76">
+      <c r="A108" s="86">
         <v>22</v>
       </c>
-      <c r="B108" s="86" t="s">
+      <c r="B108" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="82">
+      <c r="C108" s="101">
         <v>28</v>
       </c>
       <c r="D108" s="10" t="s">
@@ -2998,9 +3019,9 @@
       <c r="G108" s="24"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="77"/>
-      <c r="B109" s="88"/>
-      <c r="C109" s="83"/>
+      <c r="A109" s="87"/>
+      <c r="B109" s="105"/>
+      <c r="C109" s="102"/>
       <c r="D109" s="39" t="s">
         <v>4</v>
       </c>
@@ -3011,10 +3032,10 @@
       <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="77"/>
-      <c r="B110" s="88"/>
-      <c r="C110" s="83"/>
-      <c r="D110" s="69" t="s">
+      <c r="A110" s="87"/>
+      <c r="B110" s="105"/>
+      <c r="C110" s="102"/>
+      <c r="D110" s="68" t="s">
         <v>5</v>
       </c>
       <c r="E110" s="15" t="s">
@@ -3024,10 +3045,10 @@
       <c r="G110" s="24"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="77"/>
-      <c r="B111" s="88"/>
-      <c r="C111" s="83"/>
-      <c r="D111" s="69" t="s">
+      <c r="A111" s="87"/>
+      <c r="B111" s="105"/>
+      <c r="C111" s="102"/>
+      <c r="D111" s="68" t="s">
         <v>6</v>
       </c>
       <c r="E111" s="15" t="s">
@@ -3037,9 +3058,9 @@
       <c r="G111" s="24"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="77"/>
-      <c r="B112" s="88"/>
-      <c r="C112" s="83"/>
+      <c r="A112" s="87"/>
+      <c r="B112" s="105"/>
+      <c r="C112" s="102"/>
       <c r="D112" s="9" t="s">
         <v>7</v>
       </c>
@@ -3050,9 +3071,9 @@
       <c r="G112" s="24"/>
     </row>
     <row r="113" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="77"/>
-      <c r="B113" s="88"/>
-      <c r="C113" s="83"/>
+      <c r="A113" s="87"/>
+      <c r="B113" s="105"/>
+      <c r="C113" s="102"/>
       <c r="D113" s="39" t="s">
         <v>8</v>
       </c>
@@ -3063,9 +3084,9 @@
       <c r="G113" s="24"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="78"/>
-      <c r="B114" s="102"/>
-      <c r="C114" s="89"/>
+      <c r="A114" s="88"/>
+      <c r="B114" s="106"/>
+      <c r="C114" s="103"/>
       <c r="D114" s="6" t="s">
         <v>13</v>
       </c>
@@ -3076,13 +3097,13 @@
       <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="84">
+      <c r="A115" s="89">
         <v>23</v>
       </c>
-      <c r="B115" s="86" t="s">
+      <c r="B115" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="C115" s="82">
+      <c r="C115" s="101">
         <v>31</v>
       </c>
       <c r="D115" s="10" t="s">
@@ -3095,9 +3116,9 @@
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="85"/>
-      <c r="B116" s="88"/>
-      <c r="C116" s="83"/>
+      <c r="A116" s="90"/>
+      <c r="B116" s="105"/>
+      <c r="C116" s="102"/>
       <c r="D116" s="39" t="s">
         <v>4</v>
       </c>
@@ -3108,9 +3129,9 @@
       <c r="G116" s="24"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="85"/>
-      <c r="B117" s="88"/>
-      <c r="C117" s="83"/>
+      <c r="A117" s="90"/>
+      <c r="B117" s="105"/>
+      <c r="C117" s="102"/>
       <c r="D117" s="39" t="s">
         <v>5</v>
       </c>
@@ -3121,9 +3142,9 @@
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="85"/>
-      <c r="B118" s="88"/>
-      <c r="C118" s="83"/>
+      <c r="A118" s="90"/>
+      <c r="B118" s="105"/>
+      <c r="C118" s="102"/>
       <c r="D118" s="39" t="s">
         <v>6</v>
       </c>
@@ -3134,9 +3155,9 @@
       <c r="G118" s="24"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="85"/>
-      <c r="B119" s="88"/>
-      <c r="C119" s="83"/>
+      <c r="A119" s="90"/>
+      <c r="B119" s="105"/>
+      <c r="C119" s="102"/>
       <c r="D119" s="39" t="s">
         <v>7</v>
       </c>
@@ -3147,9 +3168,9 @@
       <c r="G119" s="24"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="85"/>
-      <c r="B120" s="88"/>
-      <c r="C120" s="83"/>
+      <c r="A120" s="90"/>
+      <c r="B120" s="105"/>
+      <c r="C120" s="102"/>
       <c r="D120" s="39" t="s">
         <v>8</v>
       </c>
@@ -3160,9 +3181,9 @@
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="85"/>
-      <c r="B121" s="88"/>
-      <c r="C121" s="83"/>
+      <c r="A121" s="90"/>
+      <c r="B121" s="105"/>
+      <c r="C121" s="102"/>
       <c r="D121" s="39" t="s">
         <v>13</v>
       </c>
@@ -3173,9 +3194,9 @@
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="85"/>
-      <c r="B122" s="88"/>
-      <c r="C122" s="89"/>
+      <c r="A122" s="90"/>
+      <c r="B122" s="105"/>
+      <c r="C122" s="103"/>
       <c r="D122" s="40" t="s">
         <v>14</v>
       </c>
@@ -3186,9 +3207,9 @@
       <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="85"/>
-      <c r="B123" s="88"/>
-      <c r="C123" s="82">
+      <c r="A123" s="90"/>
+      <c r="B123" s="105"/>
+      <c r="C123" s="101">
         <v>32</v>
       </c>
       <c r="D123" s="6" t="s">
@@ -3200,24 +3221,24 @@
       <c r="F123" s="19"/>
       <c r="G123" s="24"/>
     </row>
-    <row r="124" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="85"/>
-      <c r="B124" s="88"/>
-      <c r="C124" s="83"/>
-      <c r="D124" s="60" t="s">
+    <row r="124" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="90"/>
+      <c r="B124" s="105"/>
+      <c r="C124" s="102"/>
+      <c r="D124" s="59" t="s">
         <v>4</v>
       </c>
       <c r="E124" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F124" s="67"/>
+      <c r="F124" s="66"/>
       <c r="G124" s="24"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="85"/>
-      <c r="B125" s="88"/>
-      <c r="C125" s="89"/>
-      <c r="D125" s="70" t="s">
+      <c r="A125" s="90"/>
+      <c r="B125" s="105"/>
+      <c r="C125" s="103"/>
+      <c r="D125" s="69" t="s">
         <v>14</v>
       </c>
       <c r="E125" s="16" t="s">
@@ -3227,9 +3248,9 @@
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="85"/>
-      <c r="B126" s="88"/>
-      <c r="C126" s="82">
+      <c r="A126" s="90"/>
+      <c r="B126" s="105"/>
+      <c r="C126" s="101">
         <v>33</v>
       </c>
       <c r="D126" s="6" t="s">
@@ -3241,25 +3262,25 @@
       <c r="F126" s="19"/>
       <c r="G126" s="24"/>
     </row>
-    <row r="127" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="85"/>
-      <c r="B127" s="88"/>
-      <c r="C127" s="83"/>
-      <c r="D127" s="60" t="s">
+    <row r="127" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="90"/>
+      <c r="B127" s="105"/>
+      <c r="C127" s="102"/>
+      <c r="D127" s="59" t="s">
         <v>4</v>
       </c>
       <c r="E127" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F127" s="67"/>
+      <c r="F127" s="66"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="95"/>
-      <c r="B128" s="102"/>
-      <c r="C128" s="89"/>
+      <c r="A128" s="91"/>
+      <c r="B128" s="106"/>
+      <c r="C128" s="103"/>
       <c r="D128" s="40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
         <v>114</v>
@@ -3268,13 +3289,13 @@
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="84">
+      <c r="A129" s="89">
         <v>24</v>
       </c>
-      <c r="B129" s="84" t="s">
+      <c r="B129" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="79">
+      <c r="C129" s="95">
         <v>11</v>
       </c>
       <c r="D129" s="6" t="s">
@@ -3287,9 +3308,9 @@
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="85"/>
-      <c r="B130" s="85"/>
-      <c r="C130" s="93"/>
+      <c r="A130" s="90"/>
+      <c r="B130" s="90"/>
+      <c r="C130" s="96"/>
       <c r="D130" s="6" t="s">
         <v>4</v>
       </c>
@@ -3300,9 +3321,9 @@
       <c r="G130" s="24"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="85"/>
-      <c r="B131" s="85"/>
-      <c r="C131" s="93"/>
+      <c r="A131" s="90"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="96"/>
       <c r="D131" s="5" t="s">
         <v>5</v>
       </c>
@@ -3313,9 +3334,9 @@
       <c r="G131" s="24"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="85"/>
-      <c r="B132" s="85"/>
-      <c r="C132" s="93"/>
+      <c r="A132" s="90"/>
+      <c r="B132" s="90"/>
+      <c r="C132" s="96"/>
       <c r="D132" s="5" t="s">
         <v>6</v>
       </c>
@@ -3326,9 +3347,9 @@
       <c r="G132" s="24"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="85"/>
-      <c r="B133" s="85"/>
-      <c r="C133" s="93"/>
+      <c r="A133" s="90"/>
+      <c r="B133" s="90"/>
+      <c r="C133" s="96"/>
       <c r="D133" s="5" t="s">
         <v>7</v>
       </c>
@@ -3338,10 +3359,10 @@
       <c r="F133" s="22"/>
       <c r="G133" s="24"/>
     </row>
-    <row r="134" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="85"/>
-      <c r="B134" s="85"/>
-      <c r="C134" s="93"/>
+    <row r="134" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="90"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="96"/>
       <c r="D134" s="5" t="s">
         <v>8</v>
       </c>
@@ -3351,10 +3372,10 @@
       <c r="F134" s="22"/>
       <c r="G134" s="24"/>
     </row>
-    <row r="135" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="85"/>
-      <c r="B135" s="85"/>
-      <c r="C135" s="93"/>
+    <row r="135" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="90"/>
+      <c r="B135" s="90"/>
+      <c r="C135" s="96"/>
       <c r="D135" s="6" t="s">
         <v>9</v>
       </c>
@@ -3365,9 +3386,9 @@
       <c r="G135" s="24"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="85"/>
-      <c r="B136" s="85"/>
-      <c r="C136" s="93"/>
+      <c r="A136" s="90"/>
+      <c r="B136" s="90"/>
+      <c r="C136" s="96"/>
       <c r="D136" s="6" t="s">
         <v>10</v>
       </c>
@@ -3378,9 +3399,9 @@
       <c r="G136" s="24"/>
     </row>
     <row r="137" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="85"/>
-      <c r="B137" s="85"/>
-      <c r="C137" s="93"/>
+      <c r="A137" s="90"/>
+      <c r="B137" s="90"/>
+      <c r="C137" s="96"/>
       <c r="D137" s="9" t="s">
         <v>13</v>
       </c>
@@ -3391,9 +3412,9 @@
       <c r="G137" s="24"/>
     </row>
     <row r="138" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="85"/>
-      <c r="B138" s="85"/>
-      <c r="C138" s="93"/>
+      <c r="A138" s="90"/>
+      <c r="B138" s="90"/>
+      <c r="C138" s="96"/>
       <c r="D138" s="5" t="s">
         <v>15</v>
       </c>
@@ -3404,9 +3425,9 @@
       <c r="G138" s="24"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="95"/>
-      <c r="B139" s="95"/>
-      <c r="C139" s="94"/>
+      <c r="A139" s="91"/>
+      <c r="B139" s="91"/>
+      <c r="C139" s="97"/>
       <c r="D139" s="8" t="s">
         <v>31</v>
       </c>
@@ -3417,13 +3438,13 @@
       <c r="G139" s="24"/>
     </row>
     <row r="140" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="84">
+      <c r="A140" s="89">
         <v>25</v>
       </c>
-      <c r="B140" s="76" t="s">
+      <c r="B140" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="C140" s="103">
+      <c r="C140" s="92">
         <v>29</v>
       </c>
       <c r="D140" s="51" t="s">
@@ -3436,9 +3457,9 @@
       <c r="G140" s="24"/>
     </row>
     <row r="141" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="85"/>
-      <c r="B141" s="77"/>
-      <c r="C141" s="104"/>
+      <c r="A141" s="90"/>
+      <c r="B141" s="87"/>
+      <c r="C141" s="93"/>
       <c r="D141" s="53" t="s">
         <v>4</v>
       </c>
@@ -3449,9 +3470,9 @@
       <c r="G141" s="24"/>
     </row>
     <row r="142" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="85"/>
-      <c r="B142" s="77"/>
-      <c r="C142" s="104"/>
+      <c r="A142" s="90"/>
+      <c r="B142" s="87"/>
+      <c r="C142" s="93"/>
       <c r="D142" s="53" t="s">
         <v>5</v>
       </c>
@@ -3462,9 +3483,9 @@
       <c r="G142" s="24"/>
     </row>
     <row r="143" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="85"/>
-      <c r="B143" s="77"/>
-      <c r="C143" s="104"/>
+      <c r="A143" s="90"/>
+      <c r="B143" s="87"/>
+      <c r="C143" s="93"/>
       <c r="D143" s="53" t="s">
         <v>6</v>
       </c>
@@ -3475,10 +3496,10 @@
       <c r="G143" s="24"/>
     </row>
     <row r="144" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="85"/>
-      <c r="B144" s="77"/>
-      <c r="C144" s="104"/>
-      <c r="D144" s="60" t="s">
+      <c r="A144" s="90"/>
+      <c r="B144" s="87"/>
+      <c r="C144" s="93"/>
+      <c r="D144" s="59" t="s">
         <v>7</v>
       </c>
       <c r="E144" s="15" t="s">
@@ -3488,10 +3509,10 @@
       <c r="G144" s="24"/>
     </row>
     <row r="145" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="85"/>
-      <c r="B145" s="77"/>
-      <c r="C145" s="104"/>
-      <c r="D145" s="60" t="s">
+      <c r="A145" s="90"/>
+      <c r="B145" s="87"/>
+      <c r="C145" s="93"/>
+      <c r="D145" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E145" s="15" t="s">
@@ -3501,9 +3522,9 @@
       <c r="G145" s="24"/>
     </row>
     <row r="146" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="85"/>
-      <c r="B146" s="77"/>
-      <c r="C146" s="104"/>
+      <c r="A146" s="90"/>
+      <c r="B146" s="87"/>
+      <c r="C146" s="93"/>
       <c r="D146" s="53" t="s">
         <v>13</v>
       </c>
@@ -3514,9 +3535,9 @@
       <c r="G146" s="24"/>
     </row>
     <row r="147" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="85"/>
-      <c r="B147" s="77"/>
-      <c r="C147" s="105"/>
+      <c r="A147" s="90"/>
+      <c r="B147" s="87"/>
+      <c r="C147" s="94"/>
       <c r="D147" s="53" t="s">
         <v>14</v>
       </c>
@@ -3527,9 +3548,9 @@
       <c r="G147" s="24"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="85"/>
-      <c r="B148" s="77"/>
-      <c r="C148" s="108">
+      <c r="A148" s="90"/>
+      <c r="B148" s="87"/>
+      <c r="C148" s="98">
         <v>21</v>
       </c>
       <c r="D148" s="51" t="s">
@@ -3542,9 +3563,9 @@
       <c r="G148" s="24"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="85"/>
-      <c r="B149" s="77"/>
-      <c r="C149" s="106"/>
+      <c r="A149" s="90"/>
+      <c r="B149" s="87"/>
+      <c r="C149" s="99"/>
       <c r="D149" s="53" t="s">
         <v>4</v>
       </c>
@@ -3555,9 +3576,9 @@
       <c r="G149" s="24"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="85"/>
-      <c r="B150" s="77"/>
-      <c r="C150" s="106"/>
+      <c r="A150" s="90"/>
+      <c r="B150" s="87"/>
+      <c r="C150" s="99"/>
       <c r="D150" s="53" t="s">
         <v>5</v>
       </c>
@@ -3568,10 +3589,10 @@
       <c r="G150" s="24"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="85"/>
-      <c r="B151" s="77"/>
-      <c r="C151" s="106"/>
-      <c r="D151" s="60" t="s">
+      <c r="A151" s="90"/>
+      <c r="B151" s="87"/>
+      <c r="C151" s="99"/>
+      <c r="D151" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E151" s="15" t="s">
@@ -3581,10 +3602,10 @@
       <c r="G151" s="24"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="85"/>
-      <c r="B152" s="77"/>
-      <c r="C152" s="106"/>
-      <c r="D152" s="60" t="s">
+      <c r="A152" s="90"/>
+      <c r="B152" s="87"/>
+      <c r="C152" s="99"/>
+      <c r="D152" s="59" t="s">
         <v>7</v>
       </c>
       <c r="E152" s="15" t="s">
@@ -3594,10 +3615,10 @@
       <c r="G152" s="24"/>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="85"/>
-      <c r="B153" s="77"/>
-      <c r="C153" s="106"/>
-      <c r="D153" s="60" t="s">
+      <c r="A153" s="90"/>
+      <c r="B153" s="87"/>
+      <c r="C153" s="99"/>
+      <c r="D153" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E153" s="15" t="s">
@@ -3607,9 +3628,9 @@
       <c r="G153" s="24"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="85"/>
-      <c r="B154" s="77"/>
-      <c r="C154" s="106"/>
+      <c r="A154" s="90"/>
+      <c r="B154" s="87"/>
+      <c r="C154" s="99"/>
       <c r="D154" s="53" t="s">
         <v>9</v>
       </c>
@@ -3620,9 +3641,9 @@
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="85"/>
-      <c r="B155" s="77"/>
-      <c r="C155" s="106"/>
+      <c r="A155" s="90"/>
+      <c r="B155" s="87"/>
+      <c r="C155" s="99"/>
       <c r="D155" s="53" t="s">
         <v>10</v>
       </c>
@@ -3633,9 +3654,9 @@
       <c r="G155" s="24"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="85"/>
-      <c r="B156" s="77"/>
-      <c r="C156" s="106"/>
+      <c r="A156" s="90"/>
+      <c r="B156" s="87"/>
+      <c r="C156" s="99"/>
       <c r="D156" s="53" t="s">
         <v>13</v>
       </c>
@@ -3646,9 +3667,9 @@
       <c r="G156" s="24"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="85"/>
-      <c r="B157" s="77"/>
-      <c r="C157" s="107"/>
+      <c r="A157" s="90"/>
+      <c r="B157" s="87"/>
+      <c r="C157" s="100"/>
       <c r="D157" s="52" t="s">
         <v>14</v>
       </c>
@@ -3659,9 +3680,9 @@
       <c r="G157" s="24"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="85"/>
-      <c r="B158" s="77"/>
-      <c r="C158" s="106">
+      <c r="A158" s="90"/>
+      <c r="B158" s="87"/>
+      <c r="C158" s="99">
         <v>23</v>
       </c>
       <c r="D158" s="53" t="s">
@@ -3674,9 +3695,9 @@
       <c r="G158" s="24"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="85"/>
-      <c r="B159" s="77"/>
-      <c r="C159" s="106"/>
+      <c r="A159" s="90"/>
+      <c r="B159" s="87"/>
+      <c r="C159" s="99"/>
       <c r="D159" s="53" t="s">
         <v>4</v>
       </c>
@@ -3687,9 +3708,9 @@
       <c r="G159" s="24"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="85"/>
-      <c r="B160" s="77"/>
-      <c r="C160" s="106"/>
+      <c r="A160" s="90"/>
+      <c r="B160" s="87"/>
+      <c r="C160" s="99"/>
       <c r="D160" s="53" t="s">
         <v>5</v>
       </c>
@@ -3700,10 +3721,10 @@
       <c r="G160" s="24"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="85"/>
-      <c r="B161" s="77"/>
-      <c r="C161" s="106"/>
-      <c r="D161" s="60" t="s">
+      <c r="A161" s="90"/>
+      <c r="B161" s="87"/>
+      <c r="C161" s="99"/>
+      <c r="D161" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E161" s="15" t="s">
@@ -3713,10 +3734,10 @@
       <c r="G161" s="24"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="85"/>
-      <c r="B162" s="77"/>
-      <c r="C162" s="106"/>
-      <c r="D162" s="60" t="s">
+      <c r="A162" s="90"/>
+      <c r="B162" s="87"/>
+      <c r="C162" s="99"/>
+      <c r="D162" s="59" t="s">
         <v>7</v>
       </c>
       <c r="E162" s="15" t="s">
@@ -3726,10 +3747,10 @@
       <c r="G162" s="24"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="85"/>
-      <c r="B163" s="77"/>
-      <c r="C163" s="106"/>
-      <c r="D163" s="60" t="s">
+      <c r="A163" s="90"/>
+      <c r="B163" s="87"/>
+      <c r="C163" s="99"/>
+      <c r="D163" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E163" s="15" t="s">
@@ -3739,9 +3760,9 @@
       <c r="G163" s="24"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="85"/>
-      <c r="B164" s="77"/>
-      <c r="C164" s="106"/>
+      <c r="A164" s="90"/>
+      <c r="B164" s="87"/>
+      <c r="C164" s="99"/>
       <c r="D164" s="53" t="s">
         <v>9</v>
       </c>
@@ -3752,9 +3773,9 @@
       <c r="G164" s="24"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="85"/>
-      <c r="B165" s="77"/>
-      <c r="C165" s="106"/>
+      <c r="A165" s="90"/>
+      <c r="B165" s="87"/>
+      <c r="C165" s="99"/>
       <c r="D165" s="53" t="s">
         <v>10</v>
       </c>
@@ -3765,9 +3786,9 @@
       <c r="G165" s="24"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="85"/>
-      <c r="B166" s="77"/>
-      <c r="C166" s="106"/>
+      <c r="A166" s="90"/>
+      <c r="B166" s="87"/>
+      <c r="C166" s="99"/>
       <c r="D166" s="53" t="s">
         <v>13</v>
       </c>
@@ -3778,9 +3799,9 @@
       <c r="G166" s="24"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="85"/>
-      <c r="B167" s="77"/>
-      <c r="C167" s="107"/>
+      <c r="A167" s="90"/>
+      <c r="B167" s="87"/>
+      <c r="C167" s="100"/>
       <c r="D167" s="52" t="s">
         <v>14</v>
       </c>
@@ -3791,13 +3812,13 @@
       <c r="G167" s="24"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="84">
+      <c r="A168" s="89">
         <v>26</v>
       </c>
-      <c r="B168" s="76" t="s">
+      <c r="B168" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="C168" s="109">
+      <c r="C168" s="83">
         <v>25</v>
       </c>
       <c r="D168" s="53" t="s">
@@ -3810,9 +3831,9 @@
       <c r="G168" s="24"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="85"/>
-      <c r="B169" s="77"/>
-      <c r="C169" s="96"/>
+      <c r="A169" s="90"/>
+      <c r="B169" s="87"/>
+      <c r="C169" s="84"/>
       <c r="D169" s="53" t="s">
         <v>4</v>
       </c>
@@ -3823,10 +3844,10 @@
       <c r="G169" s="24"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="85"/>
-      <c r="B170" s="77"/>
-      <c r="C170" s="96"/>
-      <c r="D170" s="64" t="s">
+      <c r="A170" s="90"/>
+      <c r="B170" s="87"/>
+      <c r="C170" s="84"/>
+      <c r="D170" s="63" t="s">
         <v>5</v>
       </c>
       <c r="E170" s="30" t="s">
@@ -3836,10 +3857,10 @@
       <c r="G170" s="24"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="85"/>
-      <c r="B171" s="77"/>
-      <c r="C171" s="96"/>
-      <c r="D171" s="64" t="s">
+      <c r="A171" s="90"/>
+      <c r="B171" s="87"/>
+      <c r="C171" s="84"/>
+      <c r="D171" s="63" t="s">
         <v>6</v>
       </c>
       <c r="E171" s="30" t="s">
@@ -3849,10 +3870,10 @@
       <c r="G171" s="24"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="85"/>
-      <c r="B172" s="77"/>
-      <c r="C172" s="96"/>
-      <c r="D172" s="64" t="s">
+      <c r="A172" s="90"/>
+      <c r="B172" s="87"/>
+      <c r="C172" s="84"/>
+      <c r="D172" s="63" t="s">
         <v>7</v>
       </c>
       <c r="E172" s="30" t="s">
@@ -3862,10 +3883,10 @@
       <c r="G172" s="24"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="85"/>
-      <c r="B173" s="77"/>
-      <c r="C173" s="96"/>
-      <c r="D173" s="64" t="s">
+      <c r="A173" s="90"/>
+      <c r="B173" s="87"/>
+      <c r="C173" s="84"/>
+      <c r="D173" s="63" t="s">
         <v>8</v>
       </c>
       <c r="E173" s="30" t="s">
@@ -3875,10 +3896,10 @@
       <c r="G173" s="24"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="85"/>
-      <c r="B174" s="77"/>
-      <c r="C174" s="96"/>
-      <c r="D174" s="60" t="s">
+      <c r="A174" s="90"/>
+      <c r="B174" s="87"/>
+      <c r="C174" s="84"/>
+      <c r="D174" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E174" s="15" t="s">
@@ -3888,10 +3909,10 @@
       <c r="G174" s="24"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="85"/>
-      <c r="B175" s="77"/>
-      <c r="C175" s="96"/>
-      <c r="D175" s="60" t="s">
+      <c r="A175" s="90"/>
+      <c r="B175" s="87"/>
+      <c r="C175" s="84"/>
+      <c r="D175" s="59" t="s">
         <v>10</v>
       </c>
       <c r="E175" s="15" t="s">
@@ -3901,10 +3922,10 @@
       <c r="G175" s="24"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="85"/>
-      <c r="B176" s="77"/>
-      <c r="C176" s="96"/>
-      <c r="D176" s="60" t="s">
+      <c r="A176" s="90"/>
+      <c r="B176" s="87"/>
+      <c r="C176" s="84"/>
+      <c r="D176" s="59" t="s">
         <v>13</v>
       </c>
       <c r="E176" s="15" t="s">
@@ -3914,10 +3935,10 @@
       <c r="G176" s="24"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="85"/>
-      <c r="B177" s="77"/>
-      <c r="C177" s="96"/>
-      <c r="D177" s="64" t="s">
+      <c r="A177" s="90"/>
+      <c r="B177" s="87"/>
+      <c r="C177" s="84"/>
+      <c r="D177" s="63" t="s">
         <v>15</v>
       </c>
       <c r="E177" s="30" t="s">
@@ -3927,10 +3948,10 @@
       <c r="G177" s="24"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="95"/>
-      <c r="B178" s="78"/>
-      <c r="C178" s="97"/>
-      <c r="D178" s="65" t="s">
+      <c r="A178" s="91"/>
+      <c r="B178" s="88"/>
+      <c r="C178" s="85"/>
+      <c r="D178" s="78" t="s">
         <v>31</v>
       </c>
       <c r="E178" s="18" t="s">
@@ -3940,29 +3961,29 @@
       <c r="G178" s="24"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="76">
+      <c r="A179" s="86">
         <v>27</v>
       </c>
-      <c r="B179" s="76" t="s">
+      <c r="B179" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="C179" s="79">
+      <c r="C179" s="95">
         <v>24</v>
       </c>
-      <c r="D179" s="59" t="s">
+      <c r="D179" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E179" s="74" t="s">
+      <c r="E179" s="73" t="s">
         <v>129</v>
       </c>
       <c r="F179" s="42"/>
       <c r="G179" s="24"/>
     </row>
-    <row r="180" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="77"/>
-      <c r="B180" s="77"/>
-      <c r="C180" s="80"/>
-      <c r="D180" s="60" t="s">
+    <row r="180" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="87"/>
+      <c r="B180" s="87"/>
+      <c r="C180" s="111"/>
+      <c r="D180" s="81" t="s">
         <v>4</v>
       </c>
       <c r="E180" s="15" t="s">
@@ -3971,56 +3992,56 @@
       <c r="F180" s="22"/>
       <c r="G180" s="24"/>
     </row>
-    <row r="181" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="77"/>
-      <c r="B181" s="77"/>
-      <c r="C181" s="80"/>
-      <c r="D181" s="60" t="s">
+    <row r="181" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="87"/>
+      <c r="B181" s="87"/>
+      <c r="C181" s="111"/>
+      <c r="D181" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E181" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="F181" s="75"/>
+      <c r="E181" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="F181" s="74"/>
       <c r="G181" s="24"/>
     </row>
-    <row r="182" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="77"/>
-      <c r="B182" s="77"/>
-      <c r="C182" s="80"/>
-      <c r="D182" s="60" t="s">
+    <row r="182" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="87"/>
+      <c r="B182" s="87"/>
+      <c r="C182" s="111"/>
+      <c r="D182" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E182" s="15" t="s">
-        <v>132</v>
+      <c r="E182" s="79" t="s">
+        <v>134</v>
       </c>
       <c r="F182" s="22"/>
       <c r="G182" s="24"/>
     </row>
-    <row r="183" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="77"/>
-      <c r="B183" s="77"/>
-      <c r="C183" s="80"/>
-      <c r="D183" s="64" t="s">
+    <row r="183" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="87"/>
+      <c r="B183" s="87"/>
+      <c r="C183" s="111"/>
+      <c r="D183" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="E183" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="F183" s="22"/>
+      <c r="E183" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F183" s="75"/>
       <c r="G183" s="24"/>
     </row>
-    <row r="184" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="78"/>
-      <c r="B184" s="78"/>
-      <c r="C184" s="81"/>
-      <c r="D184" s="65" t="s">
+    <row r="184" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="88"/>
+      <c r="B184" s="88"/>
+      <c r="C184" s="112"/>
+      <c r="D184" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E184" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="F184" s="22"/>
+      <c r="E184" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F184" s="76"/>
       <c r="G184" s="24"/>
     </row>
     <row r="185" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -4044,51 +4065,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C168:C178"/>
-    <mergeCell ref="B168:B178"/>
-    <mergeCell ref="A168:A178"/>
-    <mergeCell ref="C140:C147"/>
-    <mergeCell ref="B140:B167"/>
-    <mergeCell ref="C129:C139"/>
-    <mergeCell ref="B129:B139"/>
-    <mergeCell ref="A129:A139"/>
-    <mergeCell ref="C148:C157"/>
-    <mergeCell ref="A140:A167"/>
-    <mergeCell ref="C158:C167"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="C115:C122"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="C108:C114"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C67:C77"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="A67:A77"/>
-    <mergeCell ref="C91:C98"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="C80:C87"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="C56:C66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="A56:A66"/>
     <mergeCell ref="B179:B184"/>
     <mergeCell ref="A179:A184"/>
     <mergeCell ref="C179:C184"/>
@@ -4105,6 +4081,51 @@
     <mergeCell ref="C43:C54"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="A43:A54"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="C56:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="A56:A66"/>
+    <mergeCell ref="C67:C77"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="A67:A77"/>
+    <mergeCell ref="C91:C98"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="C80:C87"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="C108:C114"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="C115:C122"/>
+    <mergeCell ref="C129:C139"/>
+    <mergeCell ref="B129:B139"/>
+    <mergeCell ref="A129:A139"/>
+    <mergeCell ref="C148:C157"/>
+    <mergeCell ref="A140:A167"/>
+    <mergeCell ref="C158:C167"/>
+    <mergeCell ref="C168:C178"/>
+    <mergeCell ref="B168:B178"/>
+    <mergeCell ref="A168:A178"/>
+    <mergeCell ref="C140:C147"/>
+    <mergeCell ref="B140:B167"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Robak/doc/Makra.xlsx
+++ b/Robak/doc/Makra.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Makra Przycisków" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="190">
   <si>
     <t>Działanie</t>
   </si>
@@ -570,6 +570,21 @@
   </si>
   <si>
     <t>OFF (51, 52, 54, 59, 60, 62, 63, 64, 65, 66, 67, 68, 69, 70, 75)</t>
+  </si>
+  <si>
+    <t>6 Przycisków</t>
+  </si>
+  <si>
+    <t>8 Przycisków</t>
+  </si>
+  <si>
+    <t>2 Przyciski</t>
+  </si>
+  <si>
+    <t>1 Przycisk</t>
+  </si>
+  <si>
+    <t>Układy klawiatur</t>
   </si>
 </sst>
 </file>
@@ -820,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1068,107 +1083,113 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1473,7 +1494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A154" workbookViewId="0">
       <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
@@ -1522,10 +1543,10 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="89">
+      <c r="A3" s="91">
         <v>1</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="95" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="70">
@@ -1541,8 +1562,8 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
-      <c r="B4" s="105"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="70">
         <v>4</v>
       </c>
@@ -1556,9 +1577,9 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="102">
+      <c r="A5" s="92"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="90">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1571,9 +1592,9 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="90"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="102"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="62" t="s">
         <v>13</v>
       </c>
@@ -1584,13 +1605,13 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="104">
+      <c r="A7" s="93">
         <v>2</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="89">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1603,9 +1624,9 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="105"/>
-      <c r="B8" s="114"/>
-      <c r="C8" s="102"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1616,9 +1637,9 @@
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="105"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="102"/>
+      <c r="A9" s="95"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1629,9 +1650,9 @@
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="105"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="102"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1642,9 +1663,9 @@
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="105"/>
-      <c r="B11" s="114"/>
-      <c r="C11" s="102"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1655,9 +1676,9 @@
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="105"/>
-      <c r="B12" s="114"/>
-      <c r="C12" s="102"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1668,9 +1689,9 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="105"/>
-      <c r="B13" s="114"/>
-      <c r="C13" s="102"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1681,9 +1702,9 @@
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="105"/>
-      <c r="B14" s="114"/>
-      <c r="C14" s="102"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
@@ -1694,9 +1715,9 @@
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="105"/>
-      <c r="B15" s="114"/>
-      <c r="C15" s="102"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="59" t="s">
         <v>13</v>
       </c>
@@ -1707,9 +1728,9 @@
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="105"/>
-      <c r="B16" s="114"/>
-      <c r="C16" s="102"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="68" t="s">
         <v>14</v>
       </c>
@@ -1720,9 +1741,9 @@
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="105"/>
-      <c r="B17" s="114"/>
-      <c r="C17" s="102"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="68" t="s">
         <v>15</v>
       </c>
@@ -1733,9 +1754,9 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="105"/>
-      <c r="B18" s="114"/>
-      <c r="C18" s="103"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="62" t="s">
         <v>33</v>
       </c>
@@ -1746,9 +1767,9 @@
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="105"/>
-      <c r="B19" s="114"/>
-      <c r="C19" s="101">
+      <c r="A19" s="95"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="89">
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1761,9 +1782,9 @@
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="105"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="103"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="96"/>
       <c r="D20" s="7" t="s">
         <v>4</v>
       </c>
@@ -1774,8 +1795,8 @@
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="70">
         <v>17</v>
       </c>
@@ -1789,13 +1810,13 @@
       <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="89">
+      <c r="A22" s="91">
         <v>3</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="101">
+      <c r="C22" s="89">
         <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1809,9 +1830,9 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="102"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1822,9 +1843,9 @@
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="90"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="102"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1835,9 +1856,9 @@
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="90"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="102"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="6" t="s">
         <v>6</v>
       </c>
@@ -1848,9 +1869,9 @@
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="90"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="102"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
@@ -1861,9 +1882,9 @@
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="90"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="102"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="6" t="s">
         <v>8</v>
       </c>
@@ -1874,9 +1895,9 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="102"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
@@ -1887,9 +1908,9 @@
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="102"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="9" t="s">
         <v>10</v>
       </c>
@@ -1900,9 +1921,9 @@
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="102"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="6" t="s">
         <v>13</v>
       </c>
@@ -1913,9 +1934,9 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="102"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
@@ -1926,9 +1947,9 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="90"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="102"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
@@ -1939,13 +1960,13 @@
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="113">
+      <c r="A33" s="97">
         <v>4</v>
       </c>
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="101">
+      <c r="C33" s="89">
         <v>10</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -1958,9 +1979,9 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="114"/>
-      <c r="B34" s="114"/>
-      <c r="C34" s="102"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="9" t="s">
         <v>4</v>
       </c>
@@ -1971,9 +1992,9 @@
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="114"/>
-      <c r="B35" s="114"/>
-      <c r="C35" s="102"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="9" t="s">
         <v>5</v>
       </c>
@@ -1986,9 +2007,9 @@
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="114"/>
-      <c r="B36" s="114"/>
-      <c r="C36" s="102"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="9" t="s">
         <v>6</v>
       </c>
@@ -1999,9 +2020,9 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
-      <c r="B37" s="114"/>
-      <c r="C37" s="102"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="9" t="s">
         <v>7</v>
       </c>
@@ -2012,9 +2033,9 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
-      <c r="B38" s="114"/>
-      <c r="C38" s="102"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="9" t="s">
         <v>8</v>
       </c>
@@ -2025,9 +2046,9 @@
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="114"/>
-      <c r="B39" s="114"/>
-      <c r="C39" s="102"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="9" t="s">
         <v>9</v>
       </c>
@@ -2038,9 +2059,9 @@
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="114"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="102"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="9" t="s">
         <v>10</v>
       </c>
@@ -2051,9 +2072,9 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="114"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="102"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2066,9 +2087,9 @@
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
-      <c r="B42" s="114"/>
-      <c r="C42" s="103"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="7" t="s">
         <v>14</v>
       </c>
@@ -2079,13 +2100,13 @@
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="89">
+      <c r="A43" s="91">
         <v>5</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="95">
+      <c r="C43" s="86">
         <v>9</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -2098,9 +2119,9 @@
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="96"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="100"/>
       <c r="D44" s="6" t="s">
         <v>4</v>
       </c>
@@ -2111,9 +2132,9 @@
       <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="90"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="96"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="84"/>
+      <c r="C45" s="100"/>
       <c r="D45" s="5" t="s">
         <v>5</v>
       </c>
@@ -2124,9 +2145,9 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="96"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="84"/>
+      <c r="C46" s="100"/>
       <c r="D46" s="5" t="s">
         <v>6</v>
       </c>
@@ -2137,9 +2158,9 @@
       <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="90"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="96"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="100"/>
       <c r="D47" s="5" t="s">
         <v>7</v>
       </c>
@@ -2150,9 +2171,9 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="90"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="96"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="84"/>
+      <c r="C48" s="100"/>
       <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
@@ -2163,9 +2184,9 @@
       <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="90"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="96"/>
+      <c r="A49" s="92"/>
+      <c r="B49" s="84"/>
+      <c r="C49" s="100"/>
       <c r="D49" s="6" t="s">
         <v>9</v>
       </c>
@@ -2176,9 +2197,9 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="90"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="96"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="84"/>
+      <c r="C50" s="100"/>
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
@@ -2189,9 +2210,9 @@
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="90"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="96"/>
+      <c r="A51" s="92"/>
+      <c r="B51" s="84"/>
+      <c r="C51" s="100"/>
       <c r="D51" s="6" t="s">
         <v>13</v>
       </c>
@@ -2202,9 +2223,9 @@
       <c r="G51" s="24"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="90"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="96"/>
+      <c r="A52" s="92"/>
+      <c r="B52" s="84"/>
+      <c r="C52" s="100"/>
       <c r="D52" s="6" t="s">
         <v>14</v>
       </c>
@@ -2215,9 +2236,9 @@
       <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="90"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="96"/>
+      <c r="A53" s="92"/>
+      <c r="B53" s="84"/>
+      <c r="C53" s="100"/>
       <c r="D53" s="5" t="s">
         <v>15</v>
       </c>
@@ -2228,9 +2249,9 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="91"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="97"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="101"/>
       <c r="D54" s="65" t="s">
         <v>31</v>
       </c>
@@ -2260,13 +2281,13 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="89">
+      <c r="A56" s="91">
         <v>7</v>
       </c>
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="84">
+      <c r="C56" s="103">
         <v>18</v>
       </c>
       <c r="D56" s="51" t="s">
@@ -2279,9 +2300,9 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="90"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="84"/>
+      <c r="A57" s="92"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="53" t="s">
         <v>4</v>
       </c>
@@ -2292,9 +2313,9 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="90"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="84"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="63" t="s">
         <v>5</v>
       </c>
@@ -2305,9 +2326,9 @@
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="90"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="84"/>
+      <c r="A59" s="92"/>
+      <c r="B59" s="84"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="63" t="s">
         <v>6</v>
       </c>
@@ -2318,9 +2339,9 @@
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="90"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="84"/>
+      <c r="A60" s="92"/>
+      <c r="B60" s="84"/>
+      <c r="C60" s="103"/>
       <c r="D60" s="63" t="s">
         <v>7</v>
       </c>
@@ -2331,9 +2352,9 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="90"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="84"/>
+      <c r="A61" s="92"/>
+      <c r="B61" s="84"/>
+      <c r="C61" s="103"/>
       <c r="D61" s="63" t="s">
         <v>8</v>
       </c>
@@ -2344,9 +2365,9 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="90"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="84"/>
+      <c r="A62" s="92"/>
+      <c r="B62" s="84"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="59" t="s">
         <v>9</v>
       </c>
@@ -2357,9 +2378,9 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="90"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="84"/>
+      <c r="A63" s="92"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="59" t="s">
         <v>10</v>
       </c>
@@ -2370,9 +2391,9 @@
       <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="90"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="84"/>
+      <c r="A64" s="92"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="59" t="s">
         <v>13</v>
       </c>
@@ -2383,9 +2404,9 @@
       <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="90"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="84"/>
+      <c r="A65" s="92"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="103"/>
       <c r="D65" s="63" t="s">
         <v>15</v>
       </c>
@@ -2396,9 +2417,9 @@
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="85"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="104"/>
       <c r="D66" s="64" t="s">
         <v>31</v>
       </c>
@@ -2409,13 +2430,13 @@
       <c r="G66" s="24"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="89">
+      <c r="A67" s="91">
         <v>8</v>
       </c>
-      <c r="B67" s="86" t="s">
+      <c r="B67" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="C67" s="107">
+      <c r="C67" s="105">
         <v>19</v>
       </c>
       <c r="D67" s="53" t="s">
@@ -2428,9 +2449,9 @@
       <c r="G67" s="24"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
-      <c r="B68" s="87"/>
-      <c r="C68" s="108"/>
+      <c r="A68" s="92"/>
+      <c r="B68" s="84"/>
+      <c r="C68" s="106"/>
       <c r="D68" s="53" t="s">
         <v>4</v>
       </c>
@@ -2441,9 +2462,9 @@
       <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="90"/>
-      <c r="B69" s="87"/>
-      <c r="C69" s="108"/>
+      <c r="A69" s="92"/>
+      <c r="B69" s="84"/>
+      <c r="C69" s="106"/>
       <c r="D69" s="63" t="s">
         <v>5</v>
       </c>
@@ -2454,9 +2475,9 @@
       <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="90"/>
-      <c r="B70" s="87"/>
-      <c r="C70" s="108"/>
+      <c r="A70" s="92"/>
+      <c r="B70" s="84"/>
+      <c r="C70" s="106"/>
       <c r="D70" s="63" t="s">
         <v>6</v>
       </c>
@@ -2467,9 +2488,9 @@
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="90"/>
-      <c r="B71" s="87"/>
-      <c r="C71" s="108"/>
+      <c r="A71" s="92"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="106"/>
       <c r="D71" s="63" t="s">
         <v>7</v>
       </c>
@@ -2480,9 +2501,9 @@
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="90"/>
-      <c r="B72" s="87"/>
-      <c r="C72" s="108"/>
+      <c r="A72" s="92"/>
+      <c r="B72" s="84"/>
+      <c r="C72" s="106"/>
       <c r="D72" s="63" t="s">
         <v>8</v>
       </c>
@@ -2493,9 +2514,9 @@
       <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="90"/>
-      <c r="B73" s="87"/>
-      <c r="C73" s="108"/>
+      <c r="A73" s="92"/>
+      <c r="B73" s="84"/>
+      <c r="C73" s="106"/>
       <c r="D73" s="59" t="s">
         <v>9</v>
       </c>
@@ -2506,9 +2527,9 @@
       <c r="G73" s="24"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="90"/>
-      <c r="B74" s="87"/>
-      <c r="C74" s="108"/>
+      <c r="A74" s="92"/>
+      <c r="B74" s="84"/>
+      <c r="C74" s="106"/>
       <c r="D74" s="59" t="s">
         <v>10</v>
       </c>
@@ -2519,9 +2540,9 @@
       <c r="G74" s="24"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="90"/>
-      <c r="B75" s="87"/>
-      <c r="C75" s="108"/>
+      <c r="A75" s="92"/>
+      <c r="B75" s="84"/>
+      <c r="C75" s="106"/>
       <c r="D75" s="59" t="s">
         <v>14</v>
       </c>
@@ -2532,9 +2553,9 @@
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="90"/>
-      <c r="B76" s="87"/>
-      <c r="C76" s="108"/>
+      <c r="A76" s="92"/>
+      <c r="B76" s="84"/>
+      <c r="C76" s="106"/>
       <c r="D76" s="63" t="s">
         <v>15</v>
       </c>
@@ -2545,9 +2566,9 @@
       <c r="G76" s="24"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="90"/>
-      <c r="B77" s="88"/>
-      <c r="C77" s="109"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="107"/>
       <c r="D77" s="64" t="s">
         <v>31</v>
       </c>
@@ -2558,13 +2579,13 @@
       <c r="G77" s="24"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="89">
+      <c r="A78" s="91">
         <v>9</v>
       </c>
-      <c r="B78" s="87" t="s">
+      <c r="B78" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="C78" s="99">
+      <c r="C78" s="113">
         <v>26</v>
       </c>
       <c r="D78" s="53" t="s">
@@ -2577,9 +2598,9 @@
       <c r="G78" s="24"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="91"/>
-      <c r="B79" s="88"/>
-      <c r="C79" s="100"/>
+      <c r="A79" s="102"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="114"/>
       <c r="D79" s="52" t="s">
         <v>13</v>
       </c>
@@ -2590,13 +2611,13 @@
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="89">
+      <c r="A80" s="91">
         <v>10</v>
       </c>
-      <c r="B80" s="86" t="s">
+      <c r="B80" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="C80" s="84">
+      <c r="C80" s="103">
         <v>5</v>
       </c>
       <c r="D80" s="53" t="s">
@@ -2609,9 +2630,9 @@
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="90"/>
-      <c r="B81" s="87"/>
-      <c r="C81" s="84"/>
+      <c r="A81" s="92"/>
+      <c r="B81" s="84"/>
+      <c r="C81" s="103"/>
       <c r="D81" s="53" t="s">
         <v>4</v>
       </c>
@@ -2622,9 +2643,9 @@
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="90"/>
-      <c r="B82" s="87"/>
-      <c r="C82" s="84"/>
+      <c r="A82" s="92"/>
+      <c r="B82" s="84"/>
+      <c r="C82" s="103"/>
       <c r="D82" s="49" t="s">
         <v>5</v>
       </c>
@@ -2635,9 +2656,9 @@
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="90"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="84"/>
+      <c r="A83" s="92"/>
+      <c r="B83" s="84"/>
+      <c r="C83" s="103"/>
       <c r="D83" s="49" t="s">
         <v>6</v>
       </c>
@@ -2648,9 +2669,9 @@
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="90"/>
-      <c r="B84" s="87"/>
-      <c r="C84" s="84"/>
+      <c r="A84" s="92"/>
+      <c r="B84" s="84"/>
+      <c r="C84" s="103"/>
       <c r="D84" s="53" t="s">
         <v>7</v>
       </c>
@@ -2661,9 +2682,9 @@
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="90"/>
-      <c r="B85" s="87"/>
-      <c r="C85" s="84"/>
+      <c r="A85" s="92"/>
+      <c r="B85" s="84"/>
+      <c r="C85" s="103"/>
       <c r="D85" s="53" t="s">
         <v>8</v>
       </c>
@@ -2674,9 +2695,9 @@
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="90"/>
-      <c r="B86" s="87"/>
-      <c r="C86" s="84"/>
+      <c r="A86" s="92"/>
+      <c r="B86" s="84"/>
+      <c r="C86" s="103"/>
       <c r="D86" s="53" t="s">
         <v>13</v>
       </c>
@@ -2687,9 +2708,9 @@
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="91"/>
-      <c r="B87" s="88"/>
-      <c r="C87" s="85"/>
+      <c r="A87" s="102"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="104"/>
       <c r="D87" s="50" t="s">
         <v>14</v>
       </c>
@@ -2700,13 +2721,13 @@
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="105">
+      <c r="A88" s="95">
         <v>11</v>
       </c>
-      <c r="B88" s="86" t="s">
+      <c r="B88" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C88" s="92">
+      <c r="C88" s="110">
         <v>8</v>
       </c>
       <c r="D88" s="53" t="s">
@@ -2719,9 +2740,9 @@
       <c r="G88" s="24"/>
     </row>
     <row r="89" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="105"/>
-      <c r="B89" s="87"/>
-      <c r="C89" s="93"/>
+      <c r="A89" s="95"/>
+      <c r="B89" s="84"/>
+      <c r="C89" s="111"/>
       <c r="D89" s="53" t="s">
         <v>4</v>
       </c>
@@ -2732,9 +2753,9 @@
       <c r="G89" s="24"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="106"/>
-      <c r="B90" s="88"/>
-      <c r="C90" s="94"/>
+      <c r="A90" s="109"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="112"/>
       <c r="D90" s="52" t="s">
         <v>13</v>
       </c>
@@ -2745,13 +2766,13 @@
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="89">
+      <c r="A91" s="91">
         <v>12</v>
       </c>
-      <c r="B91" s="105" t="s">
+      <c r="B91" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="110">
+      <c r="C91" s="108">
         <v>1</v>
       </c>
       <c r="D91" s="53" t="s">
@@ -2764,9 +2785,9 @@
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="90"/>
-      <c r="B92" s="105"/>
-      <c r="C92" s="111"/>
+      <c r="A92" s="92"/>
+      <c r="B92" s="95"/>
+      <c r="C92" s="87"/>
       <c r="D92" s="53" t="s">
         <v>4</v>
       </c>
@@ -2777,9 +2798,9 @@
       <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="90"/>
-      <c r="B93" s="105"/>
-      <c r="C93" s="111"/>
+      <c r="A93" s="92"/>
+      <c r="B93" s="95"/>
+      <c r="C93" s="87"/>
       <c r="D93" s="59" t="s">
         <v>5</v>
       </c>
@@ -2790,9 +2811,9 @@
       <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="90"/>
-      <c r="B94" s="105"/>
-      <c r="C94" s="111"/>
+      <c r="A94" s="92"/>
+      <c r="B94" s="95"/>
+      <c r="C94" s="87"/>
       <c r="D94" s="59" t="s">
         <v>6</v>
       </c>
@@ -2803,9 +2824,9 @@
       <c r="G94" s="24"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="90"/>
-      <c r="B95" s="105"/>
-      <c r="C95" s="111"/>
+      <c r="A95" s="92"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="87"/>
       <c r="D95" s="49" t="s">
         <v>7</v>
       </c>
@@ -2816,9 +2837,9 @@
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="90"/>
-      <c r="B96" s="105"/>
-      <c r="C96" s="111"/>
+      <c r="A96" s="92"/>
+      <c r="B96" s="95"/>
+      <c r="C96" s="87"/>
       <c r="D96" s="49" t="s">
         <v>8</v>
       </c>
@@ -2829,9 +2850,9 @@
       <c r="G96" s="24"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="90"/>
-      <c r="B97" s="105"/>
-      <c r="C97" s="111"/>
+      <c r="A97" s="92"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="87"/>
       <c r="D97" s="49" t="s">
         <v>13</v>
       </c>
@@ -2842,9 +2863,9 @@
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="91"/>
-      <c r="B98" s="106"/>
-      <c r="C98" s="112"/>
+      <c r="A98" s="102"/>
+      <c r="B98" s="109"/>
+      <c r="C98" s="88"/>
       <c r="D98" s="50" t="s">
         <v>14</v>
       </c>
@@ -2912,13 +2933,13 @@
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="89">
+      <c r="A102" s="91">
         <v>21</v>
       </c>
-      <c r="B102" s="104" t="s">
+      <c r="B102" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C102" s="92">
+      <c r="C102" s="110">
         <v>20</v>
       </c>
       <c r="D102" s="53" t="s">
@@ -2931,9 +2952,9 @@
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="90"/>
-      <c r="B103" s="105"/>
-      <c r="C103" s="94"/>
+      <c r="A103" s="92"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="112"/>
       <c r="D103" s="52" t="s">
         <v>4</v>
       </c>
@@ -2944,9 +2965,9 @@
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="90"/>
-      <c r="B104" s="105"/>
-      <c r="C104" s="92">
+      <c r="A104" s="92"/>
+      <c r="B104" s="95"/>
+      <c r="C104" s="110">
         <v>27</v>
       </c>
       <c r="D104" s="53" t="s">
@@ -2959,9 +2980,9 @@
       <c r="G104" s="24"/>
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="90"/>
-      <c r="B105" s="105"/>
-      <c r="C105" s="94"/>
+      <c r="A105" s="92"/>
+      <c r="B105" s="95"/>
+      <c r="C105" s="112"/>
       <c r="D105" s="52" t="s">
         <v>13</v>
       </c>
@@ -2972,9 +2993,9 @@
       <c r="G105" s="24"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="90"/>
-      <c r="B106" s="105"/>
-      <c r="C106" s="92">
+      <c r="A106" s="92"/>
+      <c r="B106" s="95"/>
+      <c r="C106" s="110">
         <v>30</v>
       </c>
       <c r="D106" s="53" t="s">
@@ -2987,9 +3008,9 @@
       <c r="G106" s="24"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="91"/>
-      <c r="B107" s="106"/>
-      <c r="C107" s="94"/>
+      <c r="A107" s="102"/>
+      <c r="B107" s="109"/>
+      <c r="C107" s="112"/>
       <c r="D107" s="52" t="s">
         <v>13</v>
       </c>
@@ -3000,13 +3021,13 @@
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="86">
+      <c r="A108" s="83">
         <v>22</v>
       </c>
-      <c r="B108" s="104" t="s">
+      <c r="B108" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="101">
+      <c r="C108" s="89">
         <v>28</v>
       </c>
       <c r="D108" s="10" t="s">
@@ -3019,9 +3040,9 @@
       <c r="G108" s="24"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="87"/>
-      <c r="B109" s="105"/>
-      <c r="C109" s="102"/>
+      <c r="A109" s="84"/>
+      <c r="B109" s="95"/>
+      <c r="C109" s="90"/>
       <c r="D109" s="39" t="s">
         <v>4</v>
       </c>
@@ -3032,9 +3053,9 @@
       <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="87"/>
-      <c r="B110" s="105"/>
-      <c r="C110" s="102"/>
+      <c r="A110" s="84"/>
+      <c r="B110" s="95"/>
+      <c r="C110" s="90"/>
       <c r="D110" s="68" t="s">
         <v>5</v>
       </c>
@@ -3045,9 +3066,9 @@
       <c r="G110" s="24"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="87"/>
-      <c r="B111" s="105"/>
-      <c r="C111" s="102"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="95"/>
+      <c r="C111" s="90"/>
       <c r="D111" s="68" t="s">
         <v>6</v>
       </c>
@@ -3058,9 +3079,9 @@
       <c r="G111" s="24"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="87"/>
-      <c r="B112" s="105"/>
-      <c r="C112" s="102"/>
+      <c r="A112" s="84"/>
+      <c r="B112" s="95"/>
+      <c r="C112" s="90"/>
       <c r="D112" s="9" t="s">
         <v>7</v>
       </c>
@@ -3071,9 +3092,9 @@
       <c r="G112" s="24"/>
     </row>
     <row r="113" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="87"/>
-      <c r="B113" s="105"/>
-      <c r="C113" s="102"/>
+      <c r="A113" s="84"/>
+      <c r="B113" s="95"/>
+      <c r="C113" s="90"/>
       <c r="D113" s="39" t="s">
         <v>8</v>
       </c>
@@ -3084,9 +3105,9 @@
       <c r="G113" s="24"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="88"/>
-      <c r="B114" s="106"/>
-      <c r="C114" s="103"/>
+      <c r="A114" s="85"/>
+      <c r="B114" s="109"/>
+      <c r="C114" s="96"/>
       <c r="D114" s="6" t="s">
         <v>13</v>
       </c>
@@ -3097,13 +3118,13 @@
       <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="89">
+      <c r="A115" s="91">
         <v>23</v>
       </c>
-      <c r="B115" s="104" t="s">
+      <c r="B115" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="C115" s="101">
+      <c r="C115" s="89">
         <v>31</v>
       </c>
       <c r="D115" s="10" t="s">
@@ -3116,9 +3137,9 @@
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="90"/>
-      <c r="B116" s="105"/>
-      <c r="C116" s="102"/>
+      <c r="A116" s="92"/>
+      <c r="B116" s="95"/>
+      <c r="C116" s="90"/>
       <c r="D116" s="39" t="s">
         <v>4</v>
       </c>
@@ -3129,9 +3150,9 @@
       <c r="G116" s="24"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="90"/>
-      <c r="B117" s="105"/>
-      <c r="C117" s="102"/>
+      <c r="A117" s="92"/>
+      <c r="B117" s="95"/>
+      <c r="C117" s="90"/>
       <c r="D117" s="39" t="s">
         <v>5</v>
       </c>
@@ -3142,9 +3163,9 @@
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="90"/>
-      <c r="B118" s="105"/>
-      <c r="C118" s="102"/>
+      <c r="A118" s="92"/>
+      <c r="B118" s="95"/>
+      <c r="C118" s="90"/>
       <c r="D118" s="39" t="s">
         <v>6</v>
       </c>
@@ -3155,9 +3176,9 @@
       <c r="G118" s="24"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="90"/>
-      <c r="B119" s="105"/>
-      <c r="C119" s="102"/>
+      <c r="A119" s="92"/>
+      <c r="B119" s="95"/>
+      <c r="C119" s="90"/>
       <c r="D119" s="39" t="s">
         <v>7</v>
       </c>
@@ -3168,9 +3189,9 @@
       <c r="G119" s="24"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="90"/>
-      <c r="B120" s="105"/>
-      <c r="C120" s="102"/>
+      <c r="A120" s="92"/>
+      <c r="B120" s="95"/>
+      <c r="C120" s="90"/>
       <c r="D120" s="39" t="s">
         <v>8</v>
       </c>
@@ -3181,9 +3202,9 @@
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="90"/>
-      <c r="B121" s="105"/>
-      <c r="C121" s="102"/>
+      <c r="A121" s="92"/>
+      <c r="B121" s="95"/>
+      <c r="C121" s="90"/>
       <c r="D121" s="39" t="s">
         <v>13</v>
       </c>
@@ -3194,9 +3215,9 @@
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="90"/>
-      <c r="B122" s="105"/>
-      <c r="C122" s="103"/>
+      <c r="A122" s="92"/>
+      <c r="B122" s="95"/>
+      <c r="C122" s="96"/>
       <c r="D122" s="40" t="s">
         <v>14</v>
       </c>
@@ -3207,9 +3228,9 @@
       <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="90"/>
-      <c r="B123" s="105"/>
-      <c r="C123" s="101">
+      <c r="A123" s="92"/>
+      <c r="B123" s="95"/>
+      <c r="C123" s="89">
         <v>32</v>
       </c>
       <c r="D123" s="6" t="s">
@@ -3222,9 +3243,9 @@
       <c r="G123" s="24"/>
     </row>
     <row r="124" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="90"/>
-      <c r="B124" s="105"/>
-      <c r="C124" s="102"/>
+      <c r="A124" s="92"/>
+      <c r="B124" s="95"/>
+      <c r="C124" s="90"/>
       <c r="D124" s="59" t="s">
         <v>4</v>
       </c>
@@ -3235,9 +3256,9 @@
       <c r="G124" s="24"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="90"/>
-      <c r="B125" s="105"/>
-      <c r="C125" s="103"/>
+      <c r="A125" s="92"/>
+      <c r="B125" s="95"/>
+      <c r="C125" s="96"/>
       <c r="D125" s="69" t="s">
         <v>14</v>
       </c>
@@ -3248,9 +3269,9 @@
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="90"/>
-      <c r="B126" s="105"/>
-      <c r="C126" s="101">
+      <c r="A126" s="92"/>
+      <c r="B126" s="95"/>
+      <c r="C126" s="89">
         <v>33</v>
       </c>
       <c r="D126" s="6" t="s">
@@ -3263,9 +3284,9 @@
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="90"/>
-      <c r="B127" s="105"/>
-      <c r="C127" s="102"/>
+      <c r="A127" s="92"/>
+      <c r="B127" s="95"/>
+      <c r="C127" s="90"/>
       <c r="D127" s="59" t="s">
         <v>4</v>
       </c>
@@ -3276,9 +3297,9 @@
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="91"/>
-      <c r="B128" s="106"/>
-      <c r="C128" s="103"/>
+      <c r="A128" s="102"/>
+      <c r="B128" s="109"/>
+      <c r="C128" s="96"/>
       <c r="D128" s="40" t="s">
         <v>13</v>
       </c>
@@ -3289,13 +3310,13 @@
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="89">
+      <c r="A129" s="91">
         <v>24</v>
       </c>
-      <c r="B129" s="89" t="s">
+      <c r="B129" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="C129" s="95">
+      <c r="C129" s="86">
         <v>11</v>
       </c>
       <c r="D129" s="6" t="s">
@@ -3308,9 +3329,9 @@
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="90"/>
-      <c r="B130" s="90"/>
-      <c r="C130" s="96"/>
+      <c r="A130" s="92"/>
+      <c r="B130" s="92"/>
+      <c r="C130" s="100"/>
       <c r="D130" s="6" t="s">
         <v>4</v>
       </c>
@@ -3321,9 +3342,9 @@
       <c r="G130" s="24"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="90"/>
-      <c r="B131" s="90"/>
-      <c r="C131" s="96"/>
+      <c r="A131" s="92"/>
+      <c r="B131" s="92"/>
+      <c r="C131" s="100"/>
       <c r="D131" s="5" t="s">
         <v>5</v>
       </c>
@@ -3334,9 +3355,9 @@
       <c r="G131" s="24"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="90"/>
-      <c r="B132" s="90"/>
-      <c r="C132" s="96"/>
+      <c r="A132" s="92"/>
+      <c r="B132" s="92"/>
+      <c r="C132" s="100"/>
       <c r="D132" s="5" t="s">
         <v>6</v>
       </c>
@@ -3347,9 +3368,9 @@
       <c r="G132" s="24"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="90"/>
-      <c r="B133" s="90"/>
-      <c r="C133" s="96"/>
+      <c r="A133" s="92"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="100"/>
       <c r="D133" s="5" t="s">
         <v>7</v>
       </c>
@@ -3360,9 +3381,9 @@
       <c r="G133" s="24"/>
     </row>
     <row r="134" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="90"/>
-      <c r="B134" s="90"/>
-      <c r="C134" s="96"/>
+      <c r="A134" s="92"/>
+      <c r="B134" s="92"/>
+      <c r="C134" s="100"/>
       <c r="D134" s="5" t="s">
         <v>8</v>
       </c>
@@ -3373,9 +3394,9 @@
       <c r="G134" s="24"/>
     </row>
     <row r="135" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="90"/>
-      <c r="B135" s="90"/>
-      <c r="C135" s="96"/>
+      <c r="A135" s="92"/>
+      <c r="B135" s="92"/>
+      <c r="C135" s="100"/>
       <c r="D135" s="6" t="s">
         <v>9</v>
       </c>
@@ -3386,9 +3407,9 @@
       <c r="G135" s="24"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="90"/>
-      <c r="B136" s="90"/>
-      <c r="C136" s="96"/>
+      <c r="A136" s="92"/>
+      <c r="B136" s="92"/>
+      <c r="C136" s="100"/>
       <c r="D136" s="6" t="s">
         <v>10</v>
       </c>
@@ -3399,9 +3420,9 @@
       <c r="G136" s="24"/>
     </row>
     <row r="137" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="90"/>
-      <c r="B137" s="90"/>
-      <c r="C137" s="96"/>
+      <c r="A137" s="92"/>
+      <c r="B137" s="92"/>
+      <c r="C137" s="100"/>
       <c r="D137" s="9" t="s">
         <v>13</v>
       </c>
@@ -3412,9 +3433,9 @@
       <c r="G137" s="24"/>
     </row>
     <row r="138" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="90"/>
-      <c r="B138" s="90"/>
-      <c r="C138" s="96"/>
+      <c r="A138" s="92"/>
+      <c r="B138" s="92"/>
+      <c r="C138" s="100"/>
       <c r="D138" s="5" t="s">
         <v>15</v>
       </c>
@@ -3425,9 +3446,9 @@
       <c r="G138" s="24"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="91"/>
-      <c r="B139" s="91"/>
-      <c r="C139" s="97"/>
+      <c r="A139" s="102"/>
+      <c r="B139" s="102"/>
+      <c r="C139" s="101"/>
       <c r="D139" s="8" t="s">
         <v>31</v>
       </c>
@@ -3438,13 +3459,13 @@
       <c r="G139" s="24"/>
     </row>
     <row r="140" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="89">
+      <c r="A140" s="91">
         <v>25</v>
       </c>
-      <c r="B140" s="86" t="s">
+      <c r="B140" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="C140" s="92">
+      <c r="C140" s="110">
         <v>29</v>
       </c>
       <c r="D140" s="51" t="s">
@@ -3457,9 +3478,9 @@
       <c r="G140" s="24"/>
     </row>
     <row r="141" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="90"/>
-      <c r="B141" s="87"/>
-      <c r="C141" s="93"/>
+      <c r="A141" s="92"/>
+      <c r="B141" s="84"/>
+      <c r="C141" s="111"/>
       <c r="D141" s="53" t="s">
         <v>4</v>
       </c>
@@ -3470,9 +3491,9 @@
       <c r="G141" s="24"/>
     </row>
     <row r="142" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="90"/>
-      <c r="B142" s="87"/>
-      <c r="C142" s="93"/>
+      <c r="A142" s="92"/>
+      <c r="B142" s="84"/>
+      <c r="C142" s="111"/>
       <c r="D142" s="53" t="s">
         <v>5</v>
       </c>
@@ -3483,9 +3504,9 @@
       <c r="G142" s="24"/>
     </row>
     <row r="143" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="90"/>
-      <c r="B143" s="87"/>
-      <c r="C143" s="93"/>
+      <c r="A143" s="92"/>
+      <c r="B143" s="84"/>
+      <c r="C143" s="111"/>
       <c r="D143" s="53" t="s">
         <v>6</v>
       </c>
@@ -3496,9 +3517,9 @@
       <c r="G143" s="24"/>
     </row>
     <row r="144" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="90"/>
-      <c r="B144" s="87"/>
-      <c r="C144" s="93"/>
+      <c r="A144" s="92"/>
+      <c r="B144" s="84"/>
+      <c r="C144" s="111"/>
       <c r="D144" s="59" t="s">
         <v>7</v>
       </c>
@@ -3509,9 +3530,9 @@
       <c r="G144" s="24"/>
     </row>
     <row r="145" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="90"/>
-      <c r="B145" s="87"/>
-      <c r="C145" s="93"/>
+      <c r="A145" s="92"/>
+      <c r="B145" s="84"/>
+      <c r="C145" s="111"/>
       <c r="D145" s="59" t="s">
         <v>8</v>
       </c>
@@ -3522,9 +3543,9 @@
       <c r="G145" s="24"/>
     </row>
     <row r="146" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="90"/>
-      <c r="B146" s="87"/>
-      <c r="C146" s="93"/>
+      <c r="A146" s="92"/>
+      <c r="B146" s="84"/>
+      <c r="C146" s="111"/>
       <c r="D146" s="53" t="s">
         <v>13</v>
       </c>
@@ -3535,9 +3556,9 @@
       <c r="G146" s="24"/>
     </row>
     <row r="147" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="90"/>
-      <c r="B147" s="87"/>
-      <c r="C147" s="94"/>
+      <c r="A147" s="92"/>
+      <c r="B147" s="84"/>
+      <c r="C147" s="112"/>
       <c r="D147" s="53" t="s">
         <v>14</v>
       </c>
@@ -3548,9 +3569,9 @@
       <c r="G147" s="24"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="90"/>
-      <c r="B148" s="87"/>
-      <c r="C148" s="98">
+      <c r="A148" s="92"/>
+      <c r="B148" s="84"/>
+      <c r="C148" s="115">
         <v>21</v>
       </c>
       <c r="D148" s="51" t="s">
@@ -3563,9 +3584,9 @@
       <c r="G148" s="24"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="90"/>
-      <c r="B149" s="87"/>
-      <c r="C149" s="99"/>
+      <c r="A149" s="92"/>
+      <c r="B149" s="84"/>
+      <c r="C149" s="113"/>
       <c r="D149" s="53" t="s">
         <v>4</v>
       </c>
@@ -3576,9 +3597,9 @@
       <c r="G149" s="24"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="90"/>
-      <c r="B150" s="87"/>
-      <c r="C150" s="99"/>
+      <c r="A150" s="92"/>
+      <c r="B150" s="84"/>
+      <c r="C150" s="113"/>
       <c r="D150" s="53" t="s">
         <v>5</v>
       </c>
@@ -3589,9 +3610,9 @@
       <c r="G150" s="24"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="90"/>
-      <c r="B151" s="87"/>
-      <c r="C151" s="99"/>
+      <c r="A151" s="92"/>
+      <c r="B151" s="84"/>
+      <c r="C151" s="113"/>
       <c r="D151" s="59" t="s">
         <v>6</v>
       </c>
@@ -3602,9 +3623,9 @@
       <c r="G151" s="24"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="90"/>
-      <c r="B152" s="87"/>
-      <c r="C152" s="99"/>
+      <c r="A152" s="92"/>
+      <c r="B152" s="84"/>
+      <c r="C152" s="113"/>
       <c r="D152" s="59" t="s">
         <v>7</v>
       </c>
@@ -3615,9 +3636,9 @@
       <c r="G152" s="24"/>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="90"/>
-      <c r="B153" s="87"/>
-      <c r="C153" s="99"/>
+      <c r="A153" s="92"/>
+      <c r="B153" s="84"/>
+      <c r="C153" s="113"/>
       <c r="D153" s="59" t="s">
         <v>8</v>
       </c>
@@ -3628,9 +3649,9 @@
       <c r="G153" s="24"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="90"/>
-      <c r="B154" s="87"/>
-      <c r="C154" s="99"/>
+      <c r="A154" s="92"/>
+      <c r="B154" s="84"/>
+      <c r="C154" s="113"/>
       <c r="D154" s="53" t="s">
         <v>9</v>
       </c>
@@ -3641,9 +3662,9 @@
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="90"/>
-      <c r="B155" s="87"/>
-      <c r="C155" s="99"/>
+      <c r="A155" s="92"/>
+      <c r="B155" s="84"/>
+      <c r="C155" s="113"/>
       <c r="D155" s="53" t="s">
         <v>10</v>
       </c>
@@ -3654,9 +3675,9 @@
       <c r="G155" s="24"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="90"/>
-      <c r="B156" s="87"/>
-      <c r="C156" s="99"/>
+      <c r="A156" s="92"/>
+      <c r="B156" s="84"/>
+      <c r="C156" s="113"/>
       <c r="D156" s="53" t="s">
         <v>13</v>
       </c>
@@ -3667,9 +3688,9 @@
       <c r="G156" s="24"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="90"/>
-      <c r="B157" s="87"/>
-      <c r="C157" s="100"/>
+      <c r="A157" s="92"/>
+      <c r="B157" s="84"/>
+      <c r="C157" s="114"/>
       <c r="D157" s="52" t="s">
         <v>14</v>
       </c>
@@ -3680,9 +3701,9 @@
       <c r="G157" s="24"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="90"/>
-      <c r="B158" s="87"/>
-      <c r="C158" s="99">
+      <c r="A158" s="92"/>
+      <c r="B158" s="84"/>
+      <c r="C158" s="113">
         <v>23</v>
       </c>
       <c r="D158" s="53" t="s">
@@ -3695,9 +3716,9 @@
       <c r="G158" s="24"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="90"/>
-      <c r="B159" s="87"/>
-      <c r="C159" s="99"/>
+      <c r="A159" s="92"/>
+      <c r="B159" s="84"/>
+      <c r="C159" s="113"/>
       <c r="D159" s="53" t="s">
         <v>4</v>
       </c>
@@ -3708,9 +3729,9 @@
       <c r="G159" s="24"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="90"/>
-      <c r="B160" s="87"/>
-      <c r="C160" s="99"/>
+      <c r="A160" s="92"/>
+      <c r="B160" s="84"/>
+      <c r="C160" s="113"/>
       <c r="D160" s="53" t="s">
         <v>5</v>
       </c>
@@ -3721,9 +3742,9 @@
       <c r="G160" s="24"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="90"/>
-      <c r="B161" s="87"/>
-      <c r="C161" s="99"/>
+      <c r="A161" s="92"/>
+      <c r="B161" s="84"/>
+      <c r="C161" s="113"/>
       <c r="D161" s="59" t="s">
         <v>6</v>
       </c>
@@ -3734,9 +3755,9 @@
       <c r="G161" s="24"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="90"/>
-      <c r="B162" s="87"/>
-      <c r="C162" s="99"/>
+      <c r="A162" s="92"/>
+      <c r="B162" s="84"/>
+      <c r="C162" s="113"/>
       <c r="D162" s="59" t="s">
         <v>7</v>
       </c>
@@ -3747,9 +3768,9 @@
       <c r="G162" s="24"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="90"/>
-      <c r="B163" s="87"/>
-      <c r="C163" s="99"/>
+      <c r="A163" s="92"/>
+      <c r="B163" s="84"/>
+      <c r="C163" s="113"/>
       <c r="D163" s="59" t="s">
         <v>8</v>
       </c>
@@ -3760,9 +3781,9 @@
       <c r="G163" s="24"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="90"/>
-      <c r="B164" s="87"/>
-      <c r="C164" s="99"/>
+      <c r="A164" s="92"/>
+      <c r="B164" s="84"/>
+      <c r="C164" s="113"/>
       <c r="D164" s="53" t="s">
         <v>9</v>
       </c>
@@ -3773,9 +3794,9 @@
       <c r="G164" s="24"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="90"/>
-      <c r="B165" s="87"/>
-      <c r="C165" s="99"/>
+      <c r="A165" s="92"/>
+      <c r="B165" s="84"/>
+      <c r="C165" s="113"/>
       <c r="D165" s="53" t="s">
         <v>10</v>
       </c>
@@ -3786,9 +3807,9 @@
       <c r="G165" s="24"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="90"/>
-      <c r="B166" s="87"/>
-      <c r="C166" s="99"/>
+      <c r="A166" s="92"/>
+      <c r="B166" s="84"/>
+      <c r="C166" s="113"/>
       <c r="D166" s="53" t="s">
         <v>13</v>
       </c>
@@ -3799,9 +3820,9 @@
       <c r="G166" s="24"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="90"/>
-      <c r="B167" s="87"/>
-      <c r="C167" s="100"/>
+      <c r="A167" s="92"/>
+      <c r="B167" s="84"/>
+      <c r="C167" s="114"/>
       <c r="D167" s="52" t="s">
         <v>14</v>
       </c>
@@ -3812,13 +3833,13 @@
       <c r="G167" s="24"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="89">
+      <c r="A168" s="91">
         <v>26</v>
       </c>
-      <c r="B168" s="86" t="s">
+      <c r="B168" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="C168" s="83">
+      <c r="C168" s="116">
         <v>25</v>
       </c>
       <c r="D168" s="53" t="s">
@@ -3831,9 +3852,9 @@
       <c r="G168" s="24"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="90"/>
-      <c r="B169" s="87"/>
-      <c r="C169" s="84"/>
+      <c r="A169" s="92"/>
+      <c r="B169" s="84"/>
+      <c r="C169" s="103"/>
       <c r="D169" s="53" t="s">
         <v>4</v>
       </c>
@@ -3844,9 +3865,9 @@
       <c r="G169" s="24"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="90"/>
-      <c r="B170" s="87"/>
-      <c r="C170" s="84"/>
+      <c r="A170" s="92"/>
+      <c r="B170" s="84"/>
+      <c r="C170" s="103"/>
       <c r="D170" s="63" t="s">
         <v>5</v>
       </c>
@@ -3857,9 +3878,9 @@
       <c r="G170" s="24"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="90"/>
-      <c r="B171" s="87"/>
-      <c r="C171" s="84"/>
+      <c r="A171" s="92"/>
+      <c r="B171" s="84"/>
+      <c r="C171" s="103"/>
       <c r="D171" s="63" t="s">
         <v>6</v>
       </c>
@@ -3870,9 +3891,9 @@
       <c r="G171" s="24"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="90"/>
-      <c r="B172" s="87"/>
-      <c r="C172" s="84"/>
+      <c r="A172" s="92"/>
+      <c r="B172" s="84"/>
+      <c r="C172" s="103"/>
       <c r="D172" s="63" t="s">
         <v>7</v>
       </c>
@@ -3883,9 +3904,9 @@
       <c r="G172" s="24"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="90"/>
-      <c r="B173" s="87"/>
-      <c r="C173" s="84"/>
+      <c r="A173" s="92"/>
+      <c r="B173" s="84"/>
+      <c r="C173" s="103"/>
       <c r="D173" s="63" t="s">
         <v>8</v>
       </c>
@@ -3896,9 +3917,9 @@
       <c r="G173" s="24"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="90"/>
-      <c r="B174" s="87"/>
-      <c r="C174" s="84"/>
+      <c r="A174" s="92"/>
+      <c r="B174" s="84"/>
+      <c r="C174" s="103"/>
       <c r="D174" s="59" t="s">
         <v>9</v>
       </c>
@@ -3909,9 +3930,9 @@
       <c r="G174" s="24"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="90"/>
-      <c r="B175" s="87"/>
-      <c r="C175" s="84"/>
+      <c r="A175" s="92"/>
+      <c r="B175" s="84"/>
+      <c r="C175" s="103"/>
       <c r="D175" s="59" t="s">
         <v>10</v>
       </c>
@@ -3922,9 +3943,9 @@
       <c r="G175" s="24"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="90"/>
-      <c r="B176" s="87"/>
-      <c r="C176" s="84"/>
+      <c r="A176" s="92"/>
+      <c r="B176" s="84"/>
+      <c r="C176" s="103"/>
       <c r="D176" s="59" t="s">
         <v>13</v>
       </c>
@@ -3935,9 +3956,9 @@
       <c r="G176" s="24"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="90"/>
-      <c r="B177" s="87"/>
-      <c r="C177" s="84"/>
+      <c r="A177" s="92"/>
+      <c r="B177" s="84"/>
+      <c r="C177" s="103"/>
       <c r="D177" s="63" t="s">
         <v>15</v>
       </c>
@@ -3948,9 +3969,9 @@
       <c r="G177" s="24"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="91"/>
-      <c r="B178" s="88"/>
-      <c r="C178" s="85"/>
+      <c r="A178" s="102"/>
+      <c r="B178" s="85"/>
+      <c r="C178" s="104"/>
       <c r="D178" s="78" t="s">
         <v>31</v>
       </c>
@@ -3961,13 +3982,13 @@
       <c r="G178" s="24"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="86">
+      <c r="A179" s="83">
         <v>27</v>
       </c>
-      <c r="B179" s="86" t="s">
+      <c r="B179" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="C179" s="95">
+      <c r="C179" s="86">
         <v>24</v>
       </c>
       <c r="D179" s="80" t="s">
@@ -3980,9 +4001,9 @@
       <c r="G179" s="24"/>
     </row>
     <row r="180" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="87"/>
-      <c r="B180" s="87"/>
-      <c r="C180" s="111"/>
+      <c r="A180" s="84"/>
+      <c r="B180" s="84"/>
+      <c r="C180" s="87"/>
       <c r="D180" s="81" t="s">
         <v>4</v>
       </c>
@@ -3993,9 +4014,9 @@
       <c r="G180" s="24"/>
     </row>
     <row r="181" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="87"/>
-      <c r="B181" s="87"/>
-      <c r="C181" s="111"/>
+      <c r="A181" s="84"/>
+      <c r="B181" s="84"/>
+      <c r="C181" s="87"/>
       <c r="D181" s="77" t="s">
         <v>5</v>
       </c>
@@ -4006,9 +4027,9 @@
       <c r="G181" s="24"/>
     </row>
     <row r="182" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="87"/>
-      <c r="B182" s="87"/>
-      <c r="C182" s="111"/>
+      <c r="A182" s="84"/>
+      <c r="B182" s="84"/>
+      <c r="C182" s="87"/>
       <c r="D182" s="77" t="s">
         <v>6</v>
       </c>
@@ -4019,9 +4040,9 @@
       <c r="G182" s="24"/>
     </row>
     <row r="183" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="87"/>
-      <c r="B183" s="87"/>
-      <c r="C183" s="111"/>
+      <c r="A183" s="84"/>
+      <c r="B183" s="84"/>
+      <c r="C183" s="87"/>
       <c r="D183" s="81" t="s">
         <v>7</v>
       </c>
@@ -4032,9 +4053,9 @@
       <c r="G183" s="24"/>
     </row>
     <row r="184" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="88"/>
-      <c r="B184" s="88"/>
-      <c r="C184" s="112"/>
+      <c r="A184" s="85"/>
+      <c r="B184" s="85"/>
+      <c r="C184" s="88"/>
       <c r="D184" s="82" t="s">
         <v>8</v>
       </c>
@@ -4065,6 +4086,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C168:C178"/>
+    <mergeCell ref="B168:B178"/>
+    <mergeCell ref="A168:A178"/>
+    <mergeCell ref="C140:C147"/>
+    <mergeCell ref="B140:B167"/>
+    <mergeCell ref="C129:C139"/>
+    <mergeCell ref="B129:B139"/>
+    <mergeCell ref="A129:A139"/>
+    <mergeCell ref="C148:C157"/>
+    <mergeCell ref="A140:A167"/>
+    <mergeCell ref="C158:C167"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="C115:C122"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="C108:C114"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C67:C77"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="A67:A77"/>
+    <mergeCell ref="C91:C98"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="C80:C87"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="C56:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="A56:A66"/>
     <mergeCell ref="B179:B184"/>
     <mergeCell ref="A179:A184"/>
     <mergeCell ref="C179:C184"/>
@@ -4081,51 +4147,6 @@
     <mergeCell ref="C43:C54"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="A43:A54"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="C56:C66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="A56:A66"/>
-    <mergeCell ref="C67:C77"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="A67:A77"/>
-    <mergeCell ref="C91:C98"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="C80:C87"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="C108:C114"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="C115:C122"/>
-    <mergeCell ref="C129:C139"/>
-    <mergeCell ref="B129:B139"/>
-    <mergeCell ref="A129:A139"/>
-    <mergeCell ref="C148:C157"/>
-    <mergeCell ref="A140:A167"/>
-    <mergeCell ref="C158:C167"/>
-    <mergeCell ref="C168:C178"/>
-    <mergeCell ref="B168:B178"/>
-    <mergeCell ref="A168:A178"/>
-    <mergeCell ref="C140:C147"/>
-    <mergeCell ref="B140:B167"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4135,10 +4156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4147,51 +4168,204 @@
     <col min="2" max="2" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="118"/>
+      <c r="G5" s="118"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="118"/>
+      <c r="K5" s="118"/>
+      <c r="L5" s="118"/>
+      <c r="M5" s="118"/>
+      <c r="N5" s="118"/>
+      <c r="O5" s="118"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E6" s="118" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="118"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="118" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="118"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="118" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="118"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="118" t="s">
+        <v>188</v>
+      </c>
+      <c r="O6" s="118"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E7" s="117">
+        <v>1</v>
+      </c>
+      <c r="F7" s="117">
+        <v>2</v>
+      </c>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117">
+        <v>1</v>
+      </c>
+      <c r="I7" s="117">
+        <v>2</v>
+      </c>
+      <c r="J7" s="117"/>
+      <c r="K7" s="118">
+        <v>1</v>
+      </c>
+      <c r="L7" s="118">
+        <v>2</v>
+      </c>
+      <c r="M7" s="117"/>
+      <c r="N7" s="118">
+        <v>1</v>
+      </c>
+      <c r="O7" s="118"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E8" s="117">
+        <v>3</v>
+      </c>
+      <c r="F8" s="117">
+        <v>4</v>
+      </c>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117">
+        <v>3</v>
+      </c>
+      <c r="I8" s="117">
+        <v>4</v>
+      </c>
+      <c r="J8" s="117"/>
+      <c r="K8" s="118"/>
+      <c r="L8" s="118"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="118"/>
+      <c r="O8" s="118"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E9" s="117">
+        <v>5</v>
+      </c>
+      <c r="F9" s="117">
+        <v>6</v>
+      </c>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117">
+        <v>5</v>
+      </c>
+      <c r="I9" s="117">
+        <v>6</v>
+      </c>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>120</v>
       </c>
       <c r="B10" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E10" s="117">
+        <v>7</v>
+      </c>
+      <c r="F10" s="117">
+        <v>8</v>
+      </c>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>121</v>
       </c>
       <c r="B11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -4200,6 +4374,16 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E5:O5"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="K6:L6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Robak/doc/Makra.xlsx
+++ b/Robak/doc/Makra.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Makra Przycisków" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>64_off, 65_on, 66_on</t>
   </si>
   <si>
-    <t>Kuchnia</t>
-  </si>
-  <si>
     <t>62_on, 63_off, 65_on</t>
   </si>
   <si>
@@ -104,24 +101,15 @@
     <t>Spiżarnia</t>
   </si>
   <si>
-    <t>Siłownia</t>
-  </si>
-  <si>
     <t>71_on, 72_on</t>
   </si>
   <si>
     <t>4L</t>
   </si>
   <si>
-    <t>SPA</t>
-  </si>
-  <si>
     <t>7L</t>
   </si>
   <si>
-    <t>WC Goście</t>
-  </si>
-  <si>
     <t>Gabinet</t>
   </si>
   <si>
@@ -236,9 +224,6 @@
     <t>Sypialnia Goście</t>
   </si>
   <si>
-    <t>Łazienka Mała</t>
-  </si>
-  <si>
     <t>3_off, 4_on</t>
   </si>
   <si>
@@ -272,9 +257,6 @@
     <t>10_off, 11_off, 13_off</t>
   </si>
   <si>
-    <t>Łazienka Duża</t>
-  </si>
-  <si>
     <t>Garderoba</t>
   </si>
   <si>
@@ -323,9 +305,6 @@
     <t>Pom. Gospodarcze</t>
   </si>
   <si>
-    <t>Taras/Zew.</t>
-  </si>
-  <si>
     <t>Balkon/Zew.</t>
   </si>
   <si>
@@ -585,6 +564,125 @@
   </si>
   <si>
     <t>Układy klawiatur</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Kuchnia </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(AZ-01)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">WC Goście </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(AZ-02)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Siłownia </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(AZ-03)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SPA </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(AZ-06)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Łazienka Mała      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(AZ-04)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Łazienka Duża        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(AZ-05)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Taras/Zew. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(AZ-07)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1083,110 +1181,110 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1494,8 +1592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,25 +1610,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D1" s="26" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E1" s="25" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1543,10 +1641,10 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+      <c r="A3" s="90">
         <v>1</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="106" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="70">
@@ -1556,14 +1654,14 @@
         <v>3</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" s="19"/>
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="95"/>
+      <c r="A4" s="91"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="70">
         <v>4</v>
       </c>
@@ -1571,232 +1669,232 @@
         <v>3</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F4" s="19"/>
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="92"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="90">
+      <c r="A5" s="91"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="103">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="92"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="90"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="62" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="93">
+      <c r="A7" s="105">
         <v>2</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="102">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="90"/>
+      <c r="A8" s="106"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="103"/>
       <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="95"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="90"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="103"/>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="90"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="103"/>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="90"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="103"/>
       <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="95"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="90"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="103"/>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="95"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="90"/>
+      <c r="A13" s="106"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="103"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="90"/>
+      <c r="A14" s="106"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="103"/>
       <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="95"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="90"/>
+      <c r="A15" s="106"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="59" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="F15" s="66"/>
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="95"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="90"/>
+      <c r="A16" s="106"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="103"/>
       <c r="D16" s="68" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="F16" s="66"/>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="95"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="90"/>
+      <c r="A17" s="106"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="103"/>
       <c r="D17" s="68" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F17" s="66"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="95"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="96"/>
+      <c r="A18" s="106"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="104"/>
       <c r="D18" s="62" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="95"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="89">
+      <c r="A19" s="106"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="102">
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F19" s="19"/>
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="95"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="96"/>
+      <c r="A20" s="106"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="104"/>
       <c r="D20" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="95"/>
-      <c r="B21" s="99"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="70">
         <v>17</v>
       </c>
@@ -1804,169 +1902,169 @@
         <v>3</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="91">
+      <c r="A22" s="90">
         <v>3</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="102">
         <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="31"/>
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="92"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="90"/>
+      <c r="A23" s="91"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="103"/>
       <c r="D23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="92"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="90"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="103"/>
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="92"/>
-      <c r="B25" s="94"/>
-      <c r="C25" s="90"/>
+      <c r="A25" s="91"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="103"/>
       <c r="D25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="92"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="90"/>
+      <c r="A26" s="91"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="103"/>
       <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F26" s="22"/>
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="92"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="90"/>
+      <c r="A27" s="91"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="103"/>
       <c r="D27" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="92"/>
-      <c r="B28" s="94"/>
-      <c r="C28" s="90"/>
+      <c r="A28" s="91"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F28" s="19"/>
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="92"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="90"/>
+      <c r="A29" s="91"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="103"/>
       <c r="D29" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F29" s="19"/>
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="92"/>
-      <c r="B30" s="94"/>
-      <c r="C30" s="90"/>
+      <c r="A30" s="91"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="103"/>
       <c r="D30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="92"/>
-      <c r="B31" s="94"/>
-      <c r="C31" s="90"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="103"/>
       <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="94"/>
-      <c r="C32" s="90"/>
+      <c r="A32" s="91"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="103"/>
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F32" s="67"/>
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="97">
+      <c r="A33" s="114">
         <v>4</v>
       </c>
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="89">
+      <c r="C33" s="102">
         <v>10</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -1979,9 +2077,9 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="98"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="90"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="103"/>
       <c r="D34" s="9" t="s">
         <v>4</v>
       </c>
@@ -1992,9 +2090,9 @@
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="98"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="90"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="103"/>
       <c r="D35" s="9" t="s">
         <v>5</v>
       </c>
@@ -2002,14 +2100,14 @@
         <v>21</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="98"/>
-      <c r="B36" s="98"/>
-      <c r="C36" s="90"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="103"/>
       <c r="D36" s="9" t="s">
         <v>6</v>
       </c>
@@ -2020,61 +2118,61 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="98"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="90"/>
+      <c r="A37" s="115"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="103"/>
       <c r="D37" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F37" s="19"/>
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="98"/>
-      <c r="B38" s="98"/>
-      <c r="C38" s="90"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="103"/>
       <c r="D38" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F38" s="19"/>
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="98"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="90"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="103"/>
       <c r="D39" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="98"/>
-      <c r="B40" s="98"/>
-      <c r="C40" s="90"/>
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="103"/>
       <c r="D40" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F40" s="19"/>
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="90"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="103"/>
       <c r="D41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2082,181 +2180,181 @@
         <v>19</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="96"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="104"/>
       <c r="D42" s="7" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F42" s="21"/>
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="91">
+      <c r="A43" s="90">
         <v>5</v>
       </c>
-      <c r="B43" s="83" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="86">
+      <c r="B43" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="96">
         <v>9</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F43" s="19"/>
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
-      <c r="B44" s="84"/>
-      <c r="C44" s="100"/>
+      <c r="A44" s="91"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="97"/>
       <c r="D44" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44" s="19"/>
       <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="92"/>
-      <c r="B45" s="84"/>
-      <c r="C45" s="100"/>
+      <c r="A45" s="91"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="97"/>
       <c r="D45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="92"/>
-      <c r="B46" s="84"/>
-      <c r="C46" s="100"/>
+      <c r="A46" s="91"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="97"/>
       <c r="D46" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="92"/>
-      <c r="B47" s="84"/>
-      <c r="C47" s="100"/>
+      <c r="A47" s="91"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="97"/>
       <c r="D47" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="92"/>
-      <c r="B48" s="84"/>
-      <c r="C48" s="100"/>
+      <c r="A48" s="91"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="97"/>
       <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="92"/>
-      <c r="B49" s="84"/>
-      <c r="C49" s="100"/>
+      <c r="A49" s="91"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="97"/>
       <c r="D49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="92"/>
-      <c r="B50" s="84"/>
-      <c r="C50" s="100"/>
+      <c r="A50" s="91"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="97"/>
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="92"/>
-      <c r="B51" s="84"/>
-      <c r="C51" s="100"/>
+      <c r="A51" s="91"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="97"/>
       <c r="D51" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F51" s="19"/>
       <c r="G51" s="24"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="92"/>
-      <c r="B52" s="84"/>
-      <c r="C52" s="100"/>
+      <c r="A52" s="91"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="97"/>
       <c r="D52" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F52" s="19"/>
       <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="92"/>
-      <c r="B53" s="84"/>
-      <c r="C53" s="100"/>
+      <c r="A53" s="91"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="97"/>
       <c r="D53" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="102"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="101"/>
+      <c r="A54" s="92"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="98"/>
       <c r="D54" s="65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="24"/>
@@ -2266,7 +2364,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="70">
         <v>16</v>
@@ -2275,377 +2373,377 @@
         <v>3</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F55" s="13"/>
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="91">
+      <c r="A56" s="90">
         <v>7</v>
       </c>
-      <c r="B56" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="103">
+      <c r="B56" s="87" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="85">
         <v>18</v>
       </c>
       <c r="D56" s="51" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F56" s="19"/>
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="92"/>
-      <c r="B57" s="84"/>
-      <c r="C57" s="103"/>
+      <c r="A57" s="91"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="85"/>
       <c r="D57" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="92"/>
-      <c r="B58" s="84"/>
-      <c r="C58" s="103"/>
+      <c r="A58" s="91"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="85"/>
       <c r="D58" s="63" t="s">
         <v>5</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="92"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="103"/>
+      <c r="A59" s="91"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="85"/>
       <c r="D59" s="63" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="92"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="103"/>
+      <c r="A60" s="91"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="85"/>
       <c r="D60" s="63" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="92"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="103"/>
+      <c r="A61" s="91"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="85"/>
       <c r="D61" s="63" t="s">
         <v>8</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="92"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="103"/>
+      <c r="A62" s="91"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="85"/>
       <c r="D62" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F62" s="19"/>
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="92"/>
-      <c r="B63" s="84"/>
-      <c r="C63" s="103"/>
+      <c r="A63" s="91"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="85"/>
       <c r="D63" s="59" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F63" s="19"/>
       <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="92"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="103"/>
+      <c r="A64" s="91"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="85"/>
       <c r="D64" s="59" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F64" s="19"/>
       <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="92"/>
-      <c r="B65" s="84"/>
-      <c r="C65" s="103"/>
+      <c r="A65" s="91"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="85"/>
       <c r="D65" s="63" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="102"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="104"/>
+      <c r="A66" s="92"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="86"/>
       <c r="D66" s="64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="24"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="91">
+      <c r="A67" s="90">
         <v>8</v>
       </c>
-      <c r="B67" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="105">
+      <c r="B67" s="87" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="108">
         <v>19</v>
       </c>
       <c r="D67" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F67" s="22"/>
       <c r="G67" s="24"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="92"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="106"/>
+      <c r="A68" s="91"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="109"/>
       <c r="D68" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="92"/>
-      <c r="B69" s="84"/>
-      <c r="C69" s="106"/>
+      <c r="A69" s="91"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="109"/>
       <c r="D69" s="63" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="92"/>
-      <c r="B70" s="84"/>
-      <c r="C70" s="106"/>
+      <c r="A70" s="91"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="109"/>
       <c r="D70" s="63" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F70" s="22"/>
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="92"/>
-      <c r="B71" s="84"/>
-      <c r="C71" s="106"/>
+      <c r="A71" s="91"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="109"/>
       <c r="D71" s="63" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F71" s="22"/>
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="92"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="106"/>
+      <c r="A72" s="91"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="109"/>
       <c r="D72" s="63" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="92"/>
-      <c r="B73" s="84"/>
-      <c r="C73" s="106"/>
+      <c r="A73" s="91"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="109"/>
       <c r="D73" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="24"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="92"/>
-      <c r="B74" s="84"/>
-      <c r="C74" s="106"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="109"/>
       <c r="D74" s="59" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F74" s="22"/>
       <c r="G74" s="24"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="92"/>
-      <c r="B75" s="84"/>
-      <c r="C75" s="106"/>
+      <c r="A75" s="91"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="109"/>
       <c r="D75" s="59" t="s">
         <v>14</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="92"/>
-      <c r="B76" s="84"/>
-      <c r="C76" s="106"/>
+      <c r="A76" s="91"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="109"/>
       <c r="D76" s="63" t="s">
         <v>15</v>
       </c>
       <c r="E76" s="30" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F76" s="19"/>
       <c r="G76" s="24"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="92"/>
-      <c r="B77" s="85"/>
-      <c r="C77" s="107"/>
+      <c r="A77" s="91"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="110"/>
       <c r="D77" s="64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F77" s="67"/>
       <c r="G77" s="24"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="91">
+      <c r="A78" s="90">
         <v>9</v>
       </c>
-      <c r="B78" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C78" s="113">
+      <c r="B78" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="C78" s="100">
         <v>26</v>
       </c>
       <c r="D78" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F78" s="19"/>
       <c r="G78" s="24"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="102"/>
-      <c r="B79" s="85"/>
-      <c r="C79" s="114"/>
+      <c r="A79" s="92"/>
+      <c r="B79" s="89"/>
+      <c r="C79" s="101"/>
       <c r="D79" s="52" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F79" s="21"/>
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="91">
+      <c r="A80" s="90">
         <v>10</v>
       </c>
-      <c r="B80" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="C80" s="103">
+      <c r="B80" s="87" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" s="85">
         <v>5</v>
       </c>
       <c r="D80" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F80" s="19"/>
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="92"/>
-      <c r="B81" s="84"/>
-      <c r="C81" s="103"/>
+      <c r="A81" s="91"/>
+      <c r="B81" s="88"/>
+      <c r="C81" s="85"/>
       <c r="D81" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F81" s="19"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="92"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="103"/>
+      <c r="A82" s="91"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="85"/>
       <c r="D82" s="49" t="s">
         <v>5</v>
       </c>
@@ -2656,9 +2754,9 @@
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="92"/>
-      <c r="B83" s="84"/>
-      <c r="C83" s="103"/>
+      <c r="A83" s="91"/>
+      <c r="B83" s="88"/>
+      <c r="C83" s="85"/>
       <c r="D83" s="49" t="s">
         <v>6</v>
       </c>
@@ -2669,48 +2767,48 @@
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="92"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="103"/>
+      <c r="A84" s="91"/>
+      <c r="B84" s="88"/>
+      <c r="C84" s="85"/>
       <c r="D84" s="53" t="s">
         <v>7</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="19"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="92"/>
-      <c r="B85" s="84"/>
-      <c r="C85" s="103"/>
+      <c r="A85" s="91"/>
+      <c r="B85" s="88"/>
+      <c r="C85" s="85"/>
       <c r="D85" s="53" t="s">
         <v>8</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F85" s="19"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="92"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="103"/>
+      <c r="A86" s="91"/>
+      <c r="B86" s="88"/>
+      <c r="C86" s="85"/>
       <c r="D86" s="53" t="s">
         <v>13</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F86" s="19"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="102"/>
-      <c r="B87" s="85"/>
-      <c r="C87" s="104"/>
+      <c r="A87" s="92"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="86"/>
       <c r="D87" s="50" t="s">
         <v>14</v>
       </c>
@@ -2721,112 +2819,112 @@
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="95">
+      <c r="A88" s="106">
         <v>11</v>
       </c>
-      <c r="B88" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="C88" s="110">
+      <c r="B88" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="93">
         <v>8</v>
       </c>
       <c r="D88" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E88" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F88" s="19"/>
       <c r="G88" s="24"/>
     </row>
     <row r="89" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="95"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="111"/>
+      <c r="A89" s="106"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="94"/>
       <c r="D89" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E89" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F89" s="45"/>
       <c r="G89" s="24"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="109"/>
-      <c r="B90" s="85"/>
-      <c r="C90" s="112"/>
+      <c r="A90" s="107"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="95"/>
       <c r="D90" s="52" t="s">
         <v>13</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F90" s="21"/>
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="91">
+      <c r="A91" s="90">
         <v>12</v>
       </c>
-      <c r="B91" s="95" t="s">
-        <v>41</v>
-      </c>
-      <c r="C91" s="108">
+      <c r="B91" s="106" t="s">
+        <v>37</v>
+      </c>
+      <c r="C91" s="111">
         <v>1</v>
       </c>
       <c r="D91" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="15" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F91" s="19"/>
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="92"/>
-      <c r="B92" s="95"/>
-      <c r="C92" s="87"/>
+      <c r="A92" s="91"/>
+      <c r="B92" s="106"/>
+      <c r="C92" s="112"/>
       <c r="D92" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E92" s="15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F92" s="19"/>
       <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="92"/>
-      <c r="B93" s="95"/>
-      <c r="C93" s="87"/>
+      <c r="A93" s="91"/>
+      <c r="B93" s="106"/>
+      <c r="C93" s="112"/>
       <c r="D93" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="F93" s="19"/>
       <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="92"/>
-      <c r="B94" s="95"/>
-      <c r="C94" s="87"/>
+      <c r="A94" s="91"/>
+      <c r="B94" s="106"/>
+      <c r="C94" s="112"/>
       <c r="D94" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="24"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="92"/>
-      <c r="B95" s="95"/>
-      <c r="C95" s="87"/>
+      <c r="A95" s="91"/>
+      <c r="B95" s="106"/>
+      <c r="C95" s="112"/>
       <c r="D95" s="49" t="s">
         <v>7</v>
       </c>
@@ -2837,9 +2935,9 @@
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="92"/>
-      <c r="B96" s="95"/>
-      <c r="C96" s="87"/>
+      <c r="A96" s="91"/>
+      <c r="B96" s="106"/>
+      <c r="C96" s="112"/>
       <c r="D96" s="49" t="s">
         <v>8</v>
       </c>
@@ -2850,27 +2948,27 @@
       <c r="G96" s="24"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="92"/>
-      <c r="B97" s="95"/>
-      <c r="C97" s="87"/>
+      <c r="A97" s="91"/>
+      <c r="B97" s="106"/>
+      <c r="C97" s="112"/>
       <c r="D97" s="49" t="s">
         <v>13</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F97" s="19"/>
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="102"/>
-      <c r="B98" s="109"/>
-      <c r="C98" s="88"/>
+      <c r="A98" s="92"/>
+      <c r="B98" s="107"/>
+      <c r="C98" s="113"/>
       <c r="D98" s="50" t="s">
         <v>14</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F98" s="21"/>
       <c r="G98" s="24"/>
@@ -2880,7 +2978,7 @@
         <v>13</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C99" s="12">
         <v>41</v>
@@ -2889,7 +2987,7 @@
         <v>3</v>
       </c>
       <c r="E99" s="17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F99" s="13"/>
       <c r="G99" s="24"/>
@@ -2899,7 +2997,7 @@
         <v>14</v>
       </c>
       <c r="B100" s="34" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C100" s="47" t="s">
         <v>16</v>
@@ -2918,7 +3016,7 @@
         <v>15</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>102</v>
+        <v>189</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>16</v>
@@ -2933,1134 +3031,1134 @@
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="91">
+      <c r="A102" s="90">
         <v>21</v>
       </c>
-      <c r="B102" s="93" t="s">
-        <v>68</v>
-      </c>
-      <c r="C102" s="110">
+      <c r="B102" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" s="93">
         <v>20</v>
       </c>
       <c r="D102" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E102" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F102" s="19"/>
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="92"/>
-      <c r="B103" s="95"/>
-      <c r="C103" s="112"/>
+      <c r="A103" s="91"/>
+      <c r="B103" s="106"/>
+      <c r="C103" s="95"/>
       <c r="D103" s="52" t="s">
         <v>4</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F103" s="21"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="92"/>
-      <c r="B104" s="95"/>
-      <c r="C104" s="110">
+      <c r="A104" s="91"/>
+      <c r="B104" s="106"/>
+      <c r="C104" s="93">
         <v>27</v>
       </c>
       <c r="D104" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F104" s="19"/>
       <c r="G104" s="24"/>
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="92"/>
-      <c r="B105" s="95"/>
-      <c r="C105" s="112"/>
+      <c r="A105" s="91"/>
+      <c r="B105" s="106"/>
+      <c r="C105" s="95"/>
       <c r="D105" s="52" t="s">
         <v>13</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F105" s="21"/>
       <c r="G105" s="24"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="92"/>
-      <c r="B106" s="95"/>
-      <c r="C106" s="110">
+      <c r="A106" s="91"/>
+      <c r="B106" s="106"/>
+      <c r="C106" s="93">
         <v>30</v>
       </c>
       <c r="D106" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E106" s="15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F106" s="19"/>
       <c r="G106" s="24"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="102"/>
-      <c r="B107" s="109"/>
-      <c r="C107" s="112"/>
+      <c r="A107" s="92"/>
+      <c r="B107" s="107"/>
+      <c r="C107" s="95"/>
       <c r="D107" s="52" t="s">
         <v>13</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F107" s="21"/>
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="83">
+      <c r="A108" s="87">
         <v>22</v>
       </c>
-      <c r="B108" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="C108" s="89">
+      <c r="B108" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" s="102">
         <v>28</v>
       </c>
       <c r="D108" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E108" s="15" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F108" s="19"/>
       <c r="G108" s="24"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="84"/>
-      <c r="B109" s="95"/>
-      <c r="C109" s="90"/>
+      <c r="A109" s="88"/>
+      <c r="B109" s="106"/>
+      <c r="C109" s="103"/>
       <c r="D109" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F109" s="19"/>
       <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="84"/>
-      <c r="B110" s="95"/>
-      <c r="C110" s="90"/>
+      <c r="A110" s="88"/>
+      <c r="B110" s="106"/>
+      <c r="C110" s="103"/>
       <c r="D110" s="68" t="s">
         <v>5</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="F110" s="19"/>
       <c r="G110" s="24"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="84"/>
-      <c r="B111" s="95"/>
-      <c r="C111" s="90"/>
+      <c r="A111" s="88"/>
+      <c r="B111" s="106"/>
+      <c r="C111" s="103"/>
       <c r="D111" s="68" t="s">
         <v>6</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F111" s="19"/>
       <c r="G111" s="24"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="84"/>
-      <c r="B112" s="95"/>
-      <c r="C112" s="90"/>
+      <c r="A112" s="88"/>
+      <c r="B112" s="106"/>
+      <c r="C112" s="103"/>
       <c r="D112" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F112" s="22"/>
       <c r="G112" s="24"/>
     </row>
     <row r="113" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="84"/>
-      <c r="B113" s="95"/>
-      <c r="C113" s="90"/>
+      <c r="A113" s="88"/>
+      <c r="B113" s="106"/>
+      <c r="C113" s="103"/>
       <c r="D113" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F113" s="22"/>
       <c r="G113" s="24"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="85"/>
-      <c r="B114" s="109"/>
-      <c r="C114" s="96"/>
+      <c r="A114" s="89"/>
+      <c r="B114" s="107"/>
+      <c r="C114" s="104"/>
       <c r="D114" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F114" s="38"/>
       <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="91">
+      <c r="A115" s="90">
         <v>23</v>
       </c>
-      <c r="B115" s="93" t="s">
-        <v>72</v>
-      </c>
-      <c r="C115" s="89">
+      <c r="B115" s="105" t="s">
+        <v>68</v>
+      </c>
+      <c r="C115" s="102">
         <v>31</v>
       </c>
       <c r="D115" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E115" s="15" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="92"/>
-      <c r="B116" s="95"/>
-      <c r="C116" s="90"/>
+      <c r="A116" s="91"/>
+      <c r="B116" s="106"/>
+      <c r="C116" s="103"/>
       <c r="D116" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F116" s="19"/>
       <c r="G116" s="24"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="92"/>
-      <c r="B117" s="95"/>
-      <c r="C117" s="90"/>
+      <c r="A117" s="91"/>
+      <c r="B117" s="106"/>
+      <c r="C117" s="103"/>
       <c r="D117" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="F117" s="19"/>
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="92"/>
-      <c r="B118" s="95"/>
-      <c r="C118" s="90"/>
+      <c r="A118" s="91"/>
+      <c r="B118" s="106"/>
+      <c r="C118" s="103"/>
       <c r="D118" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="24"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="92"/>
-      <c r="B119" s="95"/>
-      <c r="C119" s="90"/>
+      <c r="A119" s="91"/>
+      <c r="B119" s="106"/>
+      <c r="C119" s="103"/>
       <c r="D119" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="F119" s="19"/>
       <c r="G119" s="24"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="92"/>
-      <c r="B120" s="95"/>
-      <c r="C120" s="90"/>
+      <c r="A120" s="91"/>
+      <c r="B120" s="106"/>
+      <c r="C120" s="103"/>
       <c r="D120" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="92"/>
-      <c r="B121" s="95"/>
-      <c r="C121" s="90"/>
+      <c r="A121" s="91"/>
+      <c r="B121" s="106"/>
+      <c r="C121" s="103"/>
       <c r="D121" s="39" t="s">
         <v>13</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="92"/>
-      <c r="B122" s="95"/>
-      <c r="C122" s="96"/>
+      <c r="A122" s="91"/>
+      <c r="B122" s="106"/>
+      <c r="C122" s="104"/>
       <c r="D122" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F122" s="38"/>
       <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="92"/>
-      <c r="B123" s="95"/>
-      <c r="C123" s="89">
+      <c r="A123" s="91"/>
+      <c r="B123" s="106"/>
+      <c r="C123" s="102">
         <v>32</v>
       </c>
       <c r="D123" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E123" s="15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="F123" s="19"/>
       <c r="G123" s="24"/>
     </row>
     <row r="124" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="92"/>
-      <c r="B124" s="95"/>
-      <c r="C124" s="90"/>
+      <c r="A124" s="91"/>
+      <c r="B124" s="106"/>
+      <c r="C124" s="103"/>
       <c r="D124" s="59" t="s">
         <v>4</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F124" s="66"/>
       <c r="G124" s="24"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="92"/>
-      <c r="B125" s="95"/>
-      <c r="C125" s="96"/>
+      <c r="A125" s="91"/>
+      <c r="B125" s="106"/>
+      <c r="C125" s="104"/>
       <c r="D125" s="69" t="s">
         <v>14</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F125" s="38"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="92"/>
-      <c r="B126" s="95"/>
-      <c r="C126" s="89">
+      <c r="A126" s="91"/>
+      <c r="B126" s="106"/>
+      <c r="C126" s="102">
         <v>33</v>
       </c>
       <c r="D126" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E126" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F126" s="19"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="92"/>
-      <c r="B127" s="95"/>
-      <c r="C127" s="90"/>
+      <c r="A127" s="91"/>
+      <c r="B127" s="106"/>
+      <c r="C127" s="103"/>
       <c r="D127" s="59" t="s">
         <v>4</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F127" s="66"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="102"/>
-      <c r="B128" s="109"/>
-      <c r="C128" s="96"/>
+      <c r="A128" s="92"/>
+      <c r="B128" s="107"/>
+      <c r="C128" s="104"/>
       <c r="D128" s="40" t="s">
         <v>13</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F128" s="38"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="91">
+      <c r="A129" s="90">
         <v>24</v>
       </c>
-      <c r="B129" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="C129" s="86">
+      <c r="B129" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="C129" s="96">
         <v>11</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E129" s="15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F129" s="19"/>
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="92"/>
-      <c r="B130" s="92"/>
-      <c r="C130" s="100"/>
+      <c r="A130" s="91"/>
+      <c r="B130" s="91"/>
+      <c r="C130" s="97"/>
       <c r="D130" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E130" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F130" s="19"/>
       <c r="G130" s="24"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="92"/>
-      <c r="B131" s="92"/>
-      <c r="C131" s="100"/>
+      <c r="A131" s="91"/>
+      <c r="B131" s="91"/>
+      <c r="C131" s="97"/>
       <c r="D131" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F131" s="19"/>
       <c r="G131" s="24"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="92"/>
-      <c r="B132" s="92"/>
-      <c r="C132" s="100"/>
+      <c r="A132" s="91"/>
+      <c r="B132" s="91"/>
+      <c r="C132" s="97"/>
       <c r="D132" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F132" s="19"/>
       <c r="G132" s="24"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="92"/>
-      <c r="B133" s="92"/>
-      <c r="C133" s="100"/>
+      <c r="A133" s="91"/>
+      <c r="B133" s="91"/>
+      <c r="C133" s="97"/>
       <c r="D133" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F133" s="22"/>
       <c r="G133" s="24"/>
     </row>
     <row r="134" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="92"/>
-      <c r="B134" s="92"/>
-      <c r="C134" s="100"/>
+      <c r="A134" s="91"/>
+      <c r="B134" s="91"/>
+      <c r="C134" s="97"/>
       <c r="D134" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E134" s="30" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F134" s="22"/>
       <c r="G134" s="24"/>
     </row>
     <row r="135" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="92"/>
-      <c r="B135" s="92"/>
-      <c r="C135" s="100"/>
+      <c r="A135" s="91"/>
+      <c r="B135" s="91"/>
+      <c r="C135" s="97"/>
       <c r="D135" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E135" s="15" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="F135" s="22"/>
       <c r="G135" s="24"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="92"/>
-      <c r="B136" s="92"/>
-      <c r="C136" s="100"/>
+      <c r="A136" s="91"/>
+      <c r="B136" s="91"/>
+      <c r="C136" s="97"/>
       <c r="D136" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F136" s="22"/>
       <c r="G136" s="24"/>
     </row>
     <row r="137" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="92"/>
-      <c r="B137" s="92"/>
-      <c r="C137" s="100"/>
+      <c r="A137" s="91"/>
+      <c r="B137" s="91"/>
+      <c r="C137" s="97"/>
       <c r="D137" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F137" s="22"/>
       <c r="G137" s="24"/>
     </row>
     <row r="138" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="92"/>
-      <c r="B138" s="92"/>
-      <c r="C138" s="100"/>
+      <c r="A138" s="91"/>
+      <c r="B138" s="91"/>
+      <c r="C138" s="97"/>
       <c r="D138" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E138" s="14" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F138" s="22"/>
       <c r="G138" s="24"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="102"/>
-      <c r="B139" s="102"/>
-      <c r="C139" s="101"/>
+      <c r="A139" s="92"/>
+      <c r="B139" s="92"/>
+      <c r="C139" s="98"/>
       <c r="D139" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E139" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F139" s="21"/>
       <c r="G139" s="24"/>
     </row>
     <row r="140" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="91">
+      <c r="A140" s="90">
         <v>25</v>
       </c>
-      <c r="B140" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="C140" s="110">
+      <c r="B140" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C140" s="93">
         <v>29</v>
       </c>
       <c r="D140" s="51" t="s">
         <v>3</v>
       </c>
       <c r="E140" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F140" s="29"/>
       <c r="G140" s="24"/>
     </row>
     <row r="141" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="92"/>
-      <c r="B141" s="84"/>
-      <c r="C141" s="111"/>
+      <c r="A141" s="91"/>
+      <c r="B141" s="88"/>
+      <c r="C141" s="94"/>
       <c r="D141" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E141" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F141" s="29"/>
       <c r="G141" s="24"/>
     </row>
     <row r="142" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="92"/>
-      <c r="B142" s="84"/>
-      <c r="C142" s="111"/>
+      <c r="A142" s="91"/>
+      <c r="B142" s="88"/>
+      <c r="C142" s="94"/>
       <c r="D142" s="53" t="s">
         <v>5</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F142" s="29"/>
       <c r="G142" s="24"/>
     </row>
     <row r="143" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="92"/>
-      <c r="B143" s="84"/>
-      <c r="C143" s="111"/>
+      <c r="A143" s="91"/>
+      <c r="B143" s="88"/>
+      <c r="C143" s="94"/>
       <c r="D143" s="53" t="s">
         <v>6</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F143" s="29"/>
       <c r="G143" s="24"/>
     </row>
     <row r="144" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="92"/>
-      <c r="B144" s="84"/>
-      <c r="C144" s="111"/>
+      <c r="A144" s="91"/>
+      <c r="B144" s="88"/>
+      <c r="C144" s="94"/>
       <c r="D144" s="59" t="s">
         <v>7</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F144" s="29"/>
       <c r="G144" s="24"/>
     </row>
     <row r="145" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="92"/>
-      <c r="B145" s="84"/>
-      <c r="C145" s="111"/>
+      <c r="A145" s="91"/>
+      <c r="B145" s="88"/>
+      <c r="C145" s="94"/>
       <c r="D145" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F145" s="29"/>
       <c r="G145" s="24"/>
     </row>
     <row r="146" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="92"/>
-      <c r="B146" s="84"/>
-      <c r="C146" s="111"/>
+      <c r="A146" s="91"/>
+      <c r="B146" s="88"/>
+      <c r="C146" s="94"/>
       <c r="D146" s="53" t="s">
         <v>13</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F146" s="29"/>
       <c r="G146" s="24"/>
     </row>
     <row r="147" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="92"/>
-      <c r="B147" s="84"/>
-      <c r="C147" s="112"/>
+      <c r="A147" s="91"/>
+      <c r="B147" s="88"/>
+      <c r="C147" s="95"/>
       <c r="D147" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F147" s="29"/>
       <c r="G147" s="24"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="92"/>
-      <c r="B148" s="84"/>
-      <c r="C148" s="115">
+      <c r="A148" s="91"/>
+      <c r="B148" s="88"/>
+      <c r="C148" s="99">
         <v>21</v>
       </c>
       <c r="D148" s="51" t="s">
         <v>3</v>
       </c>
       <c r="E148" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F148" s="19"/>
       <c r="G148" s="24"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="92"/>
-      <c r="B149" s="84"/>
-      <c r="C149" s="113"/>
+      <c r="A149" s="91"/>
+      <c r="B149" s="88"/>
+      <c r="C149" s="100"/>
       <c r="D149" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F149" s="19"/>
       <c r="G149" s="24"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="92"/>
-      <c r="B150" s="84"/>
-      <c r="C150" s="113"/>
+      <c r="A150" s="91"/>
+      <c r="B150" s="88"/>
+      <c r="C150" s="100"/>
       <c r="D150" s="53" t="s">
         <v>5</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F150" s="22"/>
       <c r="G150" s="24"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="92"/>
-      <c r="B151" s="84"/>
-      <c r="C151" s="113"/>
+      <c r="A151" s="91"/>
+      <c r="B151" s="88"/>
+      <c r="C151" s="100"/>
       <c r="D151" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F151" s="22"/>
       <c r="G151" s="24"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="92"/>
-      <c r="B152" s="84"/>
-      <c r="C152" s="113"/>
+      <c r="A152" s="91"/>
+      <c r="B152" s="88"/>
+      <c r="C152" s="100"/>
       <c r="D152" s="59" t="s">
         <v>7</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F152" s="22"/>
       <c r="G152" s="24"/>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="92"/>
-      <c r="B153" s="84"/>
-      <c r="C153" s="113"/>
+      <c r="A153" s="91"/>
+      <c r="B153" s="88"/>
+      <c r="C153" s="100"/>
       <c r="D153" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F153" s="22"/>
       <c r="G153" s="24"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="92"/>
-      <c r="B154" s="84"/>
-      <c r="C154" s="113"/>
+      <c r="A154" s="91"/>
+      <c r="B154" s="88"/>
+      <c r="C154" s="100"/>
       <c r="D154" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F154" s="22"/>
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="92"/>
-      <c r="B155" s="84"/>
-      <c r="C155" s="113"/>
+      <c r="A155" s="91"/>
+      <c r="B155" s="88"/>
+      <c r="C155" s="100"/>
       <c r="D155" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F155" s="22"/>
       <c r="G155" s="24"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="92"/>
-      <c r="B156" s="84"/>
-      <c r="C156" s="113"/>
+      <c r="A156" s="91"/>
+      <c r="B156" s="88"/>
+      <c r="C156" s="100"/>
       <c r="D156" s="53" t="s">
         <v>13</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F156" s="22"/>
       <c r="G156" s="24"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="92"/>
-      <c r="B157" s="84"/>
-      <c r="C157" s="114"/>
+      <c r="A157" s="91"/>
+      <c r="B157" s="88"/>
+      <c r="C157" s="101"/>
       <c r="D157" s="52" t="s">
         <v>14</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F157" s="41"/>
       <c r="G157" s="24"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="92"/>
-      <c r="B158" s="84"/>
-      <c r="C158" s="113">
+      <c r="A158" s="91"/>
+      <c r="B158" s="88"/>
+      <c r="C158" s="100">
         <v>23</v>
       </c>
       <c r="D158" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E158" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F158" s="42"/>
       <c r="G158" s="24"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="92"/>
-      <c r="B159" s="84"/>
-      <c r="C159" s="113"/>
+      <c r="A159" s="91"/>
+      <c r="B159" s="88"/>
+      <c r="C159" s="100"/>
       <c r="D159" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E159" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F159" s="22"/>
       <c r="G159" s="24"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="92"/>
-      <c r="B160" s="84"/>
-      <c r="C160" s="113"/>
+      <c r="A160" s="91"/>
+      <c r="B160" s="88"/>
+      <c r="C160" s="100"/>
       <c r="D160" s="53" t="s">
         <v>5</v>
       </c>
       <c r="E160" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F160" s="22"/>
       <c r="G160" s="24"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="92"/>
-      <c r="B161" s="84"/>
-      <c r="C161" s="113"/>
+      <c r="A161" s="91"/>
+      <c r="B161" s="88"/>
+      <c r="C161" s="100"/>
       <c r="D161" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F161" s="19"/>
       <c r="G161" s="24"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="92"/>
-      <c r="B162" s="84"/>
-      <c r="C162" s="113"/>
+      <c r="A162" s="91"/>
+      <c r="B162" s="88"/>
+      <c r="C162" s="100"/>
       <c r="D162" s="59" t="s">
         <v>7</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F162" s="19"/>
       <c r="G162" s="24"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="92"/>
-      <c r="B163" s="84"/>
-      <c r="C163" s="113"/>
+      <c r="A163" s="91"/>
+      <c r="B163" s="88"/>
+      <c r="C163" s="100"/>
       <c r="D163" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E163" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F163" s="19"/>
       <c r="G163" s="24"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="92"/>
-      <c r="B164" s="84"/>
-      <c r="C164" s="113"/>
+      <c r="A164" s="91"/>
+      <c r="B164" s="88"/>
+      <c r="C164" s="100"/>
       <c r="D164" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F164" s="19"/>
       <c r="G164" s="24"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="92"/>
-      <c r="B165" s="84"/>
-      <c r="C165" s="113"/>
+      <c r="A165" s="91"/>
+      <c r="B165" s="88"/>
+      <c r="C165" s="100"/>
       <c r="D165" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F165" s="19"/>
       <c r="G165" s="24"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="92"/>
-      <c r="B166" s="84"/>
-      <c r="C166" s="113"/>
+      <c r="A166" s="91"/>
+      <c r="B166" s="88"/>
+      <c r="C166" s="100"/>
       <c r="D166" s="53" t="s">
         <v>13</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F166" s="19"/>
       <c r="G166" s="24"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="92"/>
-      <c r="B167" s="84"/>
-      <c r="C167" s="114"/>
+      <c r="A167" s="91"/>
+      <c r="B167" s="88"/>
+      <c r="C167" s="101"/>
       <c r="D167" s="52" t="s">
         <v>14</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F167" s="21"/>
       <c r="G167" s="24"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="91">
+      <c r="A168" s="90">
         <v>26</v>
       </c>
-      <c r="B168" s="83" t="s">
-        <v>85</v>
-      </c>
-      <c r="C168" s="116">
+      <c r="B168" s="87" t="s">
+        <v>188</v>
+      </c>
+      <c r="C168" s="84">
         <v>25</v>
       </c>
       <c r="D168" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E168" s="15" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F168" s="22"/>
       <c r="G168" s="24"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="92"/>
-      <c r="B169" s="84"/>
-      <c r="C169" s="103"/>
+      <c r="A169" s="91"/>
+      <c r="B169" s="88"/>
+      <c r="C169" s="85"/>
       <c r="D169" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E169" s="15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F169" s="19"/>
       <c r="G169" s="24"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="92"/>
-      <c r="B170" s="84"/>
-      <c r="C170" s="103"/>
+      <c r="A170" s="91"/>
+      <c r="B170" s="88"/>
+      <c r="C170" s="85"/>
       <c r="D170" s="63" t="s">
         <v>5</v>
       </c>
       <c r="E170" s="30" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F170" s="19"/>
       <c r="G170" s="24"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="92"/>
-      <c r="B171" s="84"/>
-      <c r="C171" s="103"/>
+      <c r="A171" s="91"/>
+      <c r="B171" s="88"/>
+      <c r="C171" s="85"/>
       <c r="D171" s="63" t="s">
         <v>6</v>
       </c>
       <c r="E171" s="30" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F171" s="19"/>
       <c r="G171" s="24"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="92"/>
-      <c r="B172" s="84"/>
-      <c r="C172" s="103"/>
+      <c r="A172" s="91"/>
+      <c r="B172" s="88"/>
+      <c r="C172" s="85"/>
       <c r="D172" s="63" t="s">
         <v>7</v>
       </c>
       <c r="E172" s="30" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F172" s="19"/>
       <c r="G172" s="24"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="92"/>
-      <c r="B173" s="84"/>
-      <c r="C173" s="103"/>
+      <c r="A173" s="91"/>
+      <c r="B173" s="88"/>
+      <c r="C173" s="85"/>
       <c r="D173" s="63" t="s">
         <v>8</v>
       </c>
       <c r="E173" s="30" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F173" s="19"/>
       <c r="G173" s="24"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="92"/>
-      <c r="B174" s="84"/>
-      <c r="C174" s="103"/>
+      <c r="A174" s="91"/>
+      <c r="B174" s="88"/>
+      <c r="C174" s="85"/>
       <c r="D174" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E174" s="15" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="F174" s="22"/>
       <c r="G174" s="24"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="92"/>
-      <c r="B175" s="84"/>
-      <c r="C175" s="103"/>
+      <c r="A175" s="91"/>
+      <c r="B175" s="88"/>
+      <c r="C175" s="85"/>
       <c r="D175" s="59" t="s">
         <v>10</v>
       </c>
       <c r="E175" s="15" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="F175" s="22"/>
       <c r="G175" s="24"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="92"/>
-      <c r="B176" s="84"/>
-      <c r="C176" s="103"/>
+      <c r="A176" s="91"/>
+      <c r="B176" s="88"/>
+      <c r="C176" s="85"/>
       <c r="D176" s="59" t="s">
         <v>13</v>
       </c>
       <c r="E176" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F176" s="19"/>
       <c r="G176" s="24"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="92"/>
-      <c r="B177" s="84"/>
-      <c r="C177" s="103"/>
+      <c r="A177" s="91"/>
+      <c r="B177" s="88"/>
+      <c r="C177" s="85"/>
       <c r="D177" s="63" t="s">
         <v>15</v>
       </c>
       <c r="E177" s="30" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F177" s="19"/>
       <c r="G177" s="24"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="102"/>
-      <c r="B178" s="85"/>
-      <c r="C178" s="104"/>
+      <c r="A178" s="92"/>
+      <c r="B178" s="89"/>
+      <c r="C178" s="86"/>
       <c r="D178" s="78" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E178" s="18" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F178" s="21"/>
       <c r="G178" s="24"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="83">
+      <c r="A179" s="87">
         <v>27</v>
       </c>
-      <c r="B179" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C179" s="86">
+      <c r="B179" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C179" s="96">
         <v>24</v>
       </c>
       <c r="D179" s="80" t="s">
         <v>3</v>
       </c>
       <c r="E179" s="73" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F179" s="42"/>
       <c r="G179" s="24"/>
     </row>
     <row r="180" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="84"/>
-      <c r="B180" s="84"/>
-      <c r="C180" s="87"/>
+      <c r="A180" s="88"/>
+      <c r="B180" s="88"/>
+      <c r="C180" s="112"/>
       <c r="D180" s="81" t="s">
         <v>4</v>
       </c>
       <c r="E180" s="15" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F180" s="22"/>
       <c r="G180" s="24"/>
     </row>
     <row r="181" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="84"/>
-      <c r="B181" s="84"/>
-      <c r="C181" s="87"/>
+      <c r="A181" s="88"/>
+      <c r="B181" s="88"/>
+      <c r="C181" s="112"/>
       <c r="D181" s="77" t="s">
         <v>5</v>
       </c>
       <c r="E181" s="79" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F181" s="74"/>
       <c r="G181" s="24"/>
     </row>
     <row r="182" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="84"/>
-      <c r="B182" s="84"/>
-      <c r="C182" s="87"/>
+      <c r="A182" s="88"/>
+      <c r="B182" s="88"/>
+      <c r="C182" s="112"/>
       <c r="D182" s="77" t="s">
         <v>6</v>
       </c>
       <c r="E182" s="79" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F182" s="22"/>
       <c r="G182" s="24"/>
     </row>
     <row r="183" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="84"/>
-      <c r="B183" s="84"/>
-      <c r="C183" s="87"/>
+      <c r="A183" s="88"/>
+      <c r="B183" s="88"/>
+      <c r="C183" s="112"/>
       <c r="D183" s="81" t="s">
         <v>7</v>
       </c>
       <c r="E183" s="15" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="F183" s="75"/>
       <c r="G183" s="24"/>
     </row>
     <row r="184" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="85"/>
-      <c r="B184" s="85"/>
-      <c r="C184" s="88"/>
+      <c r="A184" s="89"/>
+      <c r="B184" s="89"/>
+      <c r="C184" s="113"/>
       <c r="D184" s="82" t="s">
         <v>8</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F184" s="76"/>
       <c r="G184" s="24"/>
@@ -4070,7 +4168,7 @@
         <v>28</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C185" s="36">
         <v>14</v>
@@ -4086,51 +4184,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C168:C178"/>
-    <mergeCell ref="B168:B178"/>
-    <mergeCell ref="A168:A178"/>
-    <mergeCell ref="C140:C147"/>
-    <mergeCell ref="B140:B167"/>
-    <mergeCell ref="C129:C139"/>
-    <mergeCell ref="B129:B139"/>
-    <mergeCell ref="A129:A139"/>
-    <mergeCell ref="C148:C157"/>
-    <mergeCell ref="A140:A167"/>
-    <mergeCell ref="C158:C167"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="C115:C122"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="C108:C114"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C67:C77"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="A67:A77"/>
-    <mergeCell ref="C91:C98"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="C80:C87"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="C56:C66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="A56:A66"/>
     <mergeCell ref="B179:B184"/>
     <mergeCell ref="A179:A184"/>
     <mergeCell ref="C179:C184"/>
@@ -4147,6 +4200,51 @@
     <mergeCell ref="C43:C54"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="A43:A54"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="C56:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="A56:A66"/>
+    <mergeCell ref="C67:C77"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="A67:A77"/>
+    <mergeCell ref="C91:C98"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="C80:C87"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="C108:C114"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="C115:C122"/>
+    <mergeCell ref="C129:C139"/>
+    <mergeCell ref="B129:B139"/>
+    <mergeCell ref="A129:A139"/>
+    <mergeCell ref="C148:C157"/>
+    <mergeCell ref="A140:A167"/>
+    <mergeCell ref="C158:C167"/>
+    <mergeCell ref="C168:C178"/>
+    <mergeCell ref="B168:B178"/>
+    <mergeCell ref="A168:A178"/>
+    <mergeCell ref="C140:C147"/>
+    <mergeCell ref="B140:B167"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4158,7 +4256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -4170,12 +4268,12 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4183,15 +4281,15 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E5" s="118" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="F5" s="118"/>
       <c r="G5" s="118"/>
@@ -4206,171 +4304,171 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E6" s="118" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F6" s="118"/>
-      <c r="G6" s="117"/>
+      <c r="G6" s="83"/>
       <c r="H6" s="118" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I6" s="118"/>
-      <c r="J6" s="117"/>
+      <c r="J6" s="83"/>
       <c r="K6" s="118" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="L6" s="118"/>
-      <c r="M6" s="117"/>
+      <c r="M6" s="83"/>
       <c r="N6" s="118" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="O6" s="118"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E7" s="117">
+      <c r="E7" s="83">
         <v>1</v>
       </c>
-      <c r="F7" s="117">
+      <c r="F7" s="83">
         <v>2</v>
       </c>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117">
+      <c r="G7" s="83"/>
+      <c r="H7" s="83">
         <v>1</v>
       </c>
-      <c r="I7" s="117">
+      <c r="I7" s="83">
         <v>2</v>
       </c>
-      <c r="J7" s="117"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="118">
         <v>1</v>
       </c>
       <c r="L7" s="118">
         <v>2</v>
       </c>
-      <c r="M7" s="117"/>
+      <c r="M7" s="83"/>
       <c r="N7" s="118">
         <v>1</v>
       </c>
       <c r="O7" s="118"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E8" s="117">
+      <c r="E8" s="83">
         <v>3</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="83">
         <v>4</v>
       </c>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117">
+      <c r="G8" s="83"/>
+      <c r="H8" s="83">
         <v>3</v>
       </c>
-      <c r="I8" s="117">
+      <c r="I8" s="83">
         <v>4</v>
       </c>
-      <c r="J8" s="117"/>
+      <c r="J8" s="83"/>
       <c r="K8" s="118"/>
       <c r="L8" s="118"/>
-      <c r="M8" s="117"/>
+      <c r="M8" s="83"/>
       <c r="N8" s="118"/>
       <c r="O8" s="118"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E9" s="117">
+      <c r="E9" s="83">
         <v>5</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="83">
         <v>6</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117">
+      <c r="G9" s="83"/>
+      <c r="H9" s="83">
         <v>5</v>
       </c>
-      <c r="I9" s="117">
+      <c r="I9" s="83">
         <v>6</v>
       </c>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="117">
+        <v>115</v>
+      </c>
+      <c r="E10" s="83">
         <v>7</v>
       </c>
-      <c r="F10" s="117">
+      <c r="F10" s="83">
         <v>8</v>
       </c>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
+        <v>116</v>
+      </c>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="83"/>
+      <c r="K11" s="83"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="83"/>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="83"/>
+      <c r="K12" s="83"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>124</v>
-      </c>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
+        <v>117</v>
+      </c>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="83"/>
+      <c r="K13" s="83"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="83"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/Robak/doc/Makra.xlsx
+++ b/Robak/doc/Makra.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="191">
   <si>
     <t>Działanie</t>
   </si>
@@ -683,6 +683,9 @@
       </rPr>
       <t>(AZ-07)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1s gn_on, 1s gn_off, 1l gn_on + 77_on </t>
   </si>
 </sst>
 </file>
@@ -1184,106 +1187,106 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1592,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,10 +1644,10 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="90">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="96" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="70">
@@ -1660,8 +1663,8 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="91"/>
-      <c r="B4" s="106"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="70">
         <v>4</v>
       </c>
@@ -1675,9 +1678,9 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="103">
+      <c r="A5" s="93"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="91">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1690,9 +1693,9 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="91"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="103"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="62" t="s">
         <v>13</v>
       </c>
@@ -1703,13 +1706,13 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="105">
+      <c r="A7" s="94">
         <v>2</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="102">
+      <c r="C7" s="90">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1722,9 +1725,9 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="103"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="91"/>
       <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1735,9 +1738,9 @@
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="106"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="103"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1748,9 +1751,9 @@
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="103"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1761,9 +1764,9 @@
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="103"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1774,9 +1777,9 @@
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="103"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1787,9 +1790,9 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="103"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="91"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1800,9 +1803,9 @@
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="103"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="91"/>
       <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
@@ -1813,9 +1816,9 @@
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="103"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="59" t="s">
         <v>13</v>
       </c>
@@ -1826,9 +1829,9 @@
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="106"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="103"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="68" t="s">
         <v>14</v>
       </c>
@@ -1839,9 +1842,9 @@
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="103"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="68" t="s">
         <v>15</v>
       </c>
@@ -1852,9 +1855,9 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="104"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="97"/>
       <c r="D18" s="62" t="s">
         <v>30</v>
       </c>
@@ -1865,9 +1868,9 @@
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="106"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="102">
+      <c r="A19" s="96"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="90">
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1880,9 +1883,9 @@
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="106"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="104"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="97"/>
       <c r="D20" s="7" t="s">
         <v>4</v>
       </c>
@@ -1893,8 +1896,8 @@
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="106"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="70">
         <v>17</v>
       </c>
@@ -1908,13 +1911,13 @@
       <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="90">
+      <c r="A22" s="92">
         <v>3</v>
       </c>
-      <c r="B22" s="105" t="s">
+      <c r="B22" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="102">
+      <c r="C22" s="90">
         <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1928,9 +1931,9 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="103"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1941,9 +1944,9 @@
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="103"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1954,9 +1957,9 @@
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="103"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="6" t="s">
         <v>6</v>
       </c>
@@ -1967,9 +1970,9 @@
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="103"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="91"/>
       <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
@@ -1980,9 +1983,9 @@
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="103"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="91"/>
       <c r="D27" s="6" t="s">
         <v>8</v>
       </c>
@@ -1993,9 +1996,9 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="103"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="91"/>
       <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
@@ -2006,9 +2009,9 @@
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="103"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="91"/>
       <c r="D29" s="9" t="s">
         <v>10</v>
       </c>
@@ -2019,9 +2022,9 @@
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="103"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="91"/>
       <c r="D30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2032,9 +2035,9 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="103"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="91"/>
       <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
@@ -2045,9 +2048,9 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="103"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="91"/>
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
@@ -2058,13 +2061,13 @@
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="114">
+      <c r="A33" s="98">
         <v>4</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="102">
+      <c r="C33" s="90">
         <v>10</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -2077,9 +2080,9 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="115"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="103"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="91"/>
       <c r="D34" s="9" t="s">
         <v>4</v>
       </c>
@@ -2090,9 +2093,9 @@
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="115"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="103"/>
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="91"/>
       <c r="D35" s="9" t="s">
         <v>5</v>
       </c>
@@ -2105,9 +2108,9 @@
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="115"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="103"/>
+      <c r="A36" s="99"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="91"/>
       <c r="D36" s="9" t="s">
         <v>6</v>
       </c>
@@ -2118,9 +2121,9 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="115"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="103"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="91"/>
       <c r="D37" s="9" t="s">
         <v>7</v>
       </c>
@@ -2131,9 +2134,9 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="115"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="103"/>
+      <c r="A38" s="99"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="91"/>
       <c r="D38" s="9" t="s">
         <v>8</v>
       </c>
@@ -2144,9 +2147,9 @@
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="115"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="103"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="99"/>
+      <c r="C39" s="91"/>
       <c r="D39" s="9" t="s">
         <v>9</v>
       </c>
@@ -2157,9 +2160,9 @@
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="115"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="103"/>
+      <c r="A40" s="99"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="91"/>
       <c r="D40" s="9" t="s">
         <v>10</v>
       </c>
@@ -2170,9 +2173,9 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="115"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="103"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="99"/>
+      <c r="C41" s="91"/>
       <c r="D41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2185,9 +2188,9 @@
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="115"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="104"/>
+      <c r="A42" s="99"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="97"/>
       <c r="D42" s="7" t="s">
         <v>14</v>
       </c>
@@ -2198,13 +2201,13 @@
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="90">
+      <c r="A43" s="92">
         <v>5</v>
       </c>
-      <c r="B43" s="87" t="s">
+      <c r="B43" s="84" t="s">
         <v>183</v>
       </c>
-      <c r="C43" s="96">
+      <c r="C43" s="87">
         <v>9</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -2217,9 +2220,9 @@
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="91"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="97"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="101"/>
       <c r="D44" s="6" t="s">
         <v>4</v>
       </c>
@@ -2230,9 +2233,9 @@
       <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="91"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="97"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="101"/>
       <c r="D45" s="5" t="s">
         <v>5</v>
       </c>
@@ -2243,9 +2246,9 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="91"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="97"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="101"/>
       <c r="D46" s="5" t="s">
         <v>6</v>
       </c>
@@ -2256,9 +2259,9 @@
       <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="91"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="97"/>
+      <c r="A47" s="93"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="101"/>
       <c r="D47" s="5" t="s">
         <v>7</v>
       </c>
@@ -2269,9 +2272,9 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="91"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="97"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="101"/>
       <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
@@ -2282,9 +2285,9 @@
       <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="91"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="97"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="101"/>
       <c r="D49" s="6" t="s">
         <v>9</v>
       </c>
@@ -2295,9 +2298,9 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="91"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="97"/>
+      <c r="A50" s="93"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="101"/>
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
@@ -2308,9 +2311,9 @@
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="91"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="97"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="101"/>
       <c r="D51" s="6" t="s">
         <v>13</v>
       </c>
@@ -2321,9 +2324,9 @@
       <c r="G51" s="24"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="91"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="97"/>
+      <c r="A52" s="93"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="101"/>
       <c r="D52" s="6" t="s">
         <v>14</v>
       </c>
@@ -2334,9 +2337,9 @@
       <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="91"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="97"/>
+      <c r="A53" s="93"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="101"/>
       <c r="D53" s="5" t="s">
         <v>15</v>
       </c>
@@ -2347,9 +2350,9 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="92"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="98"/>
+      <c r="A54" s="103"/>
+      <c r="B54" s="86"/>
+      <c r="C54" s="102"/>
       <c r="D54" s="65" t="s">
         <v>29</v>
       </c>
@@ -2379,13 +2382,13 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="90">
+      <c r="A56" s="92">
         <v>7</v>
       </c>
-      <c r="B56" s="87" t="s">
+      <c r="B56" s="84" t="s">
         <v>185</v>
       </c>
-      <c r="C56" s="85">
+      <c r="C56" s="104">
         <v>18</v>
       </c>
       <c r="D56" s="51" t="s">
@@ -2398,9 +2401,9 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="91"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="85"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="104"/>
       <c r="D57" s="53" t="s">
         <v>4</v>
       </c>
@@ -2411,9 +2414,9 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="91"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="85"/>
+      <c r="A58" s="93"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="104"/>
       <c r="D58" s="63" t="s">
         <v>5</v>
       </c>
@@ -2424,9 +2427,9 @@
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="91"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="85"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="104"/>
       <c r="D59" s="63" t="s">
         <v>6</v>
       </c>
@@ -2437,9 +2440,9 @@
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="91"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="85"/>
+      <c r="A60" s="93"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="104"/>
       <c r="D60" s="63" t="s">
         <v>7</v>
       </c>
@@ -2450,9 +2453,9 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="91"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="85"/>
+      <c r="A61" s="93"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="104"/>
       <c r="D61" s="63" t="s">
         <v>8</v>
       </c>
@@ -2463,9 +2466,9 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="91"/>
-      <c r="B62" s="88"/>
-      <c r="C62" s="85"/>
+      <c r="A62" s="93"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="104"/>
       <c r="D62" s="59" t="s">
         <v>9</v>
       </c>
@@ -2476,9 +2479,9 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="91"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="85"/>
+      <c r="A63" s="93"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="104"/>
       <c r="D63" s="59" t="s">
         <v>10</v>
       </c>
@@ -2489,9 +2492,9 @@
       <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="91"/>
-      <c r="B64" s="88"/>
-      <c r="C64" s="85"/>
+      <c r="A64" s="93"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="104"/>
       <c r="D64" s="59" t="s">
         <v>13</v>
       </c>
@@ -2502,9 +2505,9 @@
       <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="91"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="85"/>
+      <c r="A65" s="93"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="104"/>
       <c r="D65" s="63" t="s">
         <v>15</v>
       </c>
@@ -2515,9 +2518,9 @@
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="92"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="86"/>
+      <c r="A66" s="103"/>
+      <c r="B66" s="86"/>
+      <c r="C66" s="105"/>
       <c r="D66" s="64" t="s">
         <v>29</v>
       </c>
@@ -2528,13 +2531,13 @@
       <c r="G66" s="24"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="90">
+      <c r="A67" s="92">
         <v>8</v>
       </c>
-      <c r="B67" s="87" t="s">
+      <c r="B67" s="84" t="s">
         <v>186</v>
       </c>
-      <c r="C67" s="108">
+      <c r="C67" s="106">
         <v>19</v>
       </c>
       <c r="D67" s="53" t="s">
@@ -2544,12 +2547,14 @@
         <v>140</v>
       </c>
       <c r="F67" s="22"/>
-      <c r="G67" s="24"/>
+      <c r="G67" s="24" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="91"/>
-      <c r="B68" s="88"/>
-      <c r="C68" s="109"/>
+      <c r="A68" s="93"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="107"/>
       <c r="D68" s="53" t="s">
         <v>4</v>
       </c>
@@ -2560,9 +2565,9 @@
       <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="91"/>
-      <c r="B69" s="88"/>
-      <c r="C69" s="109"/>
+      <c r="A69" s="93"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="107"/>
       <c r="D69" s="63" t="s">
         <v>5</v>
       </c>
@@ -2573,9 +2578,9 @@
       <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="91"/>
-      <c r="B70" s="88"/>
-      <c r="C70" s="109"/>
+      <c r="A70" s="93"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="107"/>
       <c r="D70" s="63" t="s">
         <v>6</v>
       </c>
@@ -2586,9 +2591,9 @@
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="91"/>
-      <c r="B71" s="88"/>
-      <c r="C71" s="109"/>
+      <c r="A71" s="93"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="107"/>
       <c r="D71" s="63" t="s">
         <v>7</v>
       </c>
@@ -2599,9 +2604,9 @@
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="91"/>
-      <c r="B72" s="88"/>
-      <c r="C72" s="109"/>
+      <c r="A72" s="93"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="107"/>
       <c r="D72" s="63" t="s">
         <v>8</v>
       </c>
@@ -2612,9 +2617,9 @@
       <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="91"/>
-      <c r="B73" s="88"/>
-      <c r="C73" s="109"/>
+      <c r="A73" s="93"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="107"/>
       <c r="D73" s="59" t="s">
         <v>9</v>
       </c>
@@ -2625,9 +2630,9 @@
       <c r="G73" s="24"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="91"/>
-      <c r="B74" s="88"/>
-      <c r="C74" s="109"/>
+      <c r="A74" s="93"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="107"/>
       <c r="D74" s="59" t="s">
         <v>10</v>
       </c>
@@ -2638,9 +2643,9 @@
       <c r="G74" s="24"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="91"/>
-      <c r="B75" s="88"/>
-      <c r="C75" s="109"/>
+      <c r="A75" s="93"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="107"/>
       <c r="D75" s="59" t="s">
         <v>14</v>
       </c>
@@ -2651,9 +2656,9 @@
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="91"/>
-      <c r="B76" s="88"/>
-      <c r="C76" s="109"/>
+      <c r="A76" s="93"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="107"/>
       <c r="D76" s="63" t="s">
         <v>15</v>
       </c>
@@ -2664,9 +2669,9 @@
       <c r="G76" s="24"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="91"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="110"/>
+      <c r="A77" s="93"/>
+      <c r="B77" s="86"/>
+      <c r="C77" s="108"/>
       <c r="D77" s="64" t="s">
         <v>29</v>
       </c>
@@ -2677,13 +2682,13 @@
       <c r="G77" s="24"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="90">
+      <c r="A78" s="92">
         <v>9</v>
       </c>
-      <c r="B78" s="88" t="s">
+      <c r="B78" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="C78" s="100">
+      <c r="C78" s="114">
         <v>26</v>
       </c>
       <c r="D78" s="53" t="s">
@@ -2696,9 +2701,9 @@
       <c r="G78" s="24"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="92"/>
-      <c r="B79" s="89"/>
-      <c r="C79" s="101"/>
+      <c r="A79" s="103"/>
+      <c r="B79" s="86"/>
+      <c r="C79" s="115"/>
       <c r="D79" s="52" t="s">
         <v>13</v>
       </c>
@@ -2709,13 +2714,13 @@
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="90">
+      <c r="A80" s="92">
         <v>10</v>
       </c>
-      <c r="B80" s="87" t="s">
+      <c r="B80" s="84" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="85">
+      <c r="C80" s="104">
         <v>5</v>
       </c>
       <c r="D80" s="53" t="s">
@@ -2728,9 +2733,9 @@
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="91"/>
-      <c r="B81" s="88"/>
-      <c r="C81" s="85"/>
+      <c r="A81" s="93"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="104"/>
       <c r="D81" s="53" t="s">
         <v>4</v>
       </c>
@@ -2741,9 +2746,9 @@
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="91"/>
-      <c r="B82" s="88"/>
-      <c r="C82" s="85"/>
+      <c r="A82" s="93"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="104"/>
       <c r="D82" s="49" t="s">
         <v>5</v>
       </c>
@@ -2754,9 +2759,9 @@
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="91"/>
-      <c r="B83" s="88"/>
-      <c r="C83" s="85"/>
+      <c r="A83" s="93"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="104"/>
       <c r="D83" s="49" t="s">
         <v>6</v>
       </c>
@@ -2767,9 +2772,9 @@
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="91"/>
-      <c r="B84" s="88"/>
-      <c r="C84" s="85"/>
+      <c r="A84" s="93"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="104"/>
       <c r="D84" s="53" t="s">
         <v>7</v>
       </c>
@@ -2780,9 +2785,9 @@
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="91"/>
-      <c r="B85" s="88"/>
-      <c r="C85" s="85"/>
+      <c r="A85" s="93"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="104"/>
       <c r="D85" s="53" t="s">
         <v>8</v>
       </c>
@@ -2793,9 +2798,9 @@
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="91"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="85"/>
+      <c r="A86" s="93"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="104"/>
       <c r="D86" s="53" t="s">
         <v>13</v>
       </c>
@@ -2806,9 +2811,9 @@
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="92"/>
-      <c r="B87" s="89"/>
-      <c r="C87" s="86"/>
+      <c r="A87" s="103"/>
+      <c r="B87" s="86"/>
+      <c r="C87" s="105"/>
       <c r="D87" s="50" t="s">
         <v>14</v>
       </c>
@@ -2819,13 +2824,13 @@
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="106">
+      <c r="A88" s="96">
         <v>11</v>
       </c>
-      <c r="B88" s="87" t="s">
+      <c r="B88" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="93">
+      <c r="C88" s="111">
         <v>8</v>
       </c>
       <c r="D88" s="53" t="s">
@@ -2838,9 +2843,9 @@
       <c r="G88" s="24"/>
     </row>
     <row r="89" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="106"/>
-      <c r="B89" s="88"/>
-      <c r="C89" s="94"/>
+      <c r="A89" s="96"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="112"/>
       <c r="D89" s="53" t="s">
         <v>4</v>
       </c>
@@ -2851,9 +2856,9 @@
       <c r="G89" s="24"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="107"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="95"/>
+      <c r="A90" s="110"/>
+      <c r="B90" s="86"/>
+      <c r="C90" s="113"/>
       <c r="D90" s="52" t="s">
         <v>13</v>
       </c>
@@ -2864,13 +2869,13 @@
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="90">
+      <c r="A91" s="92">
         <v>12</v>
       </c>
-      <c r="B91" s="106" t="s">
+      <c r="B91" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="111">
+      <c r="C91" s="109">
         <v>1</v>
       </c>
       <c r="D91" s="53" t="s">
@@ -2883,9 +2888,9 @@
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="91"/>
-      <c r="B92" s="106"/>
-      <c r="C92" s="112"/>
+      <c r="A92" s="93"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="88"/>
       <c r="D92" s="53" t="s">
         <v>4</v>
       </c>
@@ -2896,9 +2901,9 @@
       <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="91"/>
-      <c r="B93" s="106"/>
-      <c r="C93" s="112"/>
+      <c r="A93" s="93"/>
+      <c r="B93" s="96"/>
+      <c r="C93" s="88"/>
       <c r="D93" s="59" t="s">
         <v>5</v>
       </c>
@@ -2909,9 +2914,9 @@
       <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="91"/>
-      <c r="B94" s="106"/>
-      <c r="C94" s="112"/>
+      <c r="A94" s="93"/>
+      <c r="B94" s="96"/>
+      <c r="C94" s="88"/>
       <c r="D94" s="59" t="s">
         <v>6</v>
       </c>
@@ -2922,9 +2927,9 @@
       <c r="G94" s="24"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="91"/>
-      <c r="B95" s="106"/>
-      <c r="C95" s="112"/>
+      <c r="A95" s="93"/>
+      <c r="B95" s="96"/>
+      <c r="C95" s="88"/>
       <c r="D95" s="49" t="s">
         <v>7</v>
       </c>
@@ -2935,9 +2940,9 @@
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="91"/>
-      <c r="B96" s="106"/>
-      <c r="C96" s="112"/>
+      <c r="A96" s="93"/>
+      <c r="B96" s="96"/>
+      <c r="C96" s="88"/>
       <c r="D96" s="49" t="s">
         <v>8</v>
       </c>
@@ -2948,9 +2953,9 @@
       <c r="G96" s="24"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="91"/>
-      <c r="B97" s="106"/>
-      <c r="C97" s="112"/>
+      <c r="A97" s="93"/>
+      <c r="B97" s="96"/>
+      <c r="C97" s="88"/>
       <c r="D97" s="49" t="s">
         <v>13</v>
       </c>
@@ -2961,9 +2966,9 @@
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="92"/>
-      <c r="B98" s="107"/>
-      <c r="C98" s="113"/>
+      <c r="A98" s="103"/>
+      <c r="B98" s="110"/>
+      <c r="C98" s="89"/>
       <c r="D98" s="50" t="s">
         <v>14</v>
       </c>
@@ -3031,13 +3036,13 @@
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="90">
+      <c r="A102" s="92">
         <v>21</v>
       </c>
-      <c r="B102" s="105" t="s">
+      <c r="B102" s="94" t="s">
         <v>64</v>
       </c>
-      <c r="C102" s="93">
+      <c r="C102" s="111">
         <v>20</v>
       </c>
       <c r="D102" s="53" t="s">
@@ -3050,9 +3055,9 @@
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="91"/>
-      <c r="B103" s="106"/>
-      <c r="C103" s="95"/>
+      <c r="A103" s="93"/>
+      <c r="B103" s="96"/>
+      <c r="C103" s="113"/>
       <c r="D103" s="52" t="s">
         <v>4</v>
       </c>
@@ -3063,9 +3068,9 @@
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="91"/>
-      <c r="B104" s="106"/>
-      <c r="C104" s="93">
+      <c r="A104" s="93"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="111">
         <v>27</v>
       </c>
       <c r="D104" s="53" t="s">
@@ -3078,9 +3083,9 @@
       <c r="G104" s="24"/>
     </row>
     <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="91"/>
-      <c r="B105" s="106"/>
-      <c r="C105" s="95"/>
+      <c r="A105" s="93"/>
+      <c r="B105" s="96"/>
+      <c r="C105" s="113"/>
       <c r="D105" s="52" t="s">
         <v>13</v>
       </c>
@@ -3091,9 +3096,9 @@
       <c r="G105" s="24"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="91"/>
-      <c r="B106" s="106"/>
-      <c r="C106" s="93">
+      <c r="A106" s="93"/>
+      <c r="B106" s="96"/>
+      <c r="C106" s="111">
         <v>30</v>
       </c>
       <c r="D106" s="53" t="s">
@@ -3106,9 +3111,9 @@
       <c r="G106" s="24"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="92"/>
-      <c r="B107" s="107"/>
-      <c r="C107" s="95"/>
+      <c r="A107" s="103"/>
+      <c r="B107" s="110"/>
+      <c r="C107" s="113"/>
       <c r="D107" s="52" t="s">
         <v>13</v>
       </c>
@@ -3119,13 +3124,13 @@
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="87">
+      <c r="A108" s="84">
         <v>22</v>
       </c>
-      <c r="B108" s="105" t="s">
+      <c r="B108" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="102">
+      <c r="C108" s="90">
         <v>28</v>
       </c>
       <c r="D108" s="10" t="s">
@@ -3138,9 +3143,9 @@
       <c r="G108" s="24"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="88"/>
-      <c r="B109" s="106"/>
-      <c r="C109" s="103"/>
+      <c r="A109" s="85"/>
+      <c r="B109" s="96"/>
+      <c r="C109" s="91"/>
       <c r="D109" s="39" t="s">
         <v>4</v>
       </c>
@@ -3151,9 +3156,9 @@
       <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="88"/>
-      <c r="B110" s="106"/>
-      <c r="C110" s="103"/>
+      <c r="A110" s="85"/>
+      <c r="B110" s="96"/>
+      <c r="C110" s="91"/>
       <c r="D110" s="68" t="s">
         <v>5</v>
       </c>
@@ -3164,9 +3169,9 @@
       <c r="G110" s="24"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="88"/>
-      <c r="B111" s="106"/>
-      <c r="C111" s="103"/>
+      <c r="A111" s="85"/>
+      <c r="B111" s="96"/>
+      <c r="C111" s="91"/>
       <c r="D111" s="68" t="s">
         <v>6</v>
       </c>
@@ -3177,9 +3182,9 @@
       <c r="G111" s="24"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="88"/>
-      <c r="B112" s="106"/>
-      <c r="C112" s="103"/>
+      <c r="A112" s="85"/>
+      <c r="B112" s="96"/>
+      <c r="C112" s="91"/>
       <c r="D112" s="9" t="s">
         <v>7</v>
       </c>
@@ -3190,9 +3195,9 @@
       <c r="G112" s="24"/>
     </row>
     <row r="113" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="88"/>
-      <c r="B113" s="106"/>
-      <c r="C113" s="103"/>
+      <c r="A113" s="85"/>
+      <c r="B113" s="96"/>
+      <c r="C113" s="91"/>
       <c r="D113" s="39" t="s">
         <v>8</v>
       </c>
@@ -3203,9 +3208,9 @@
       <c r="G113" s="24"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="89"/>
-      <c r="B114" s="107"/>
-      <c r="C114" s="104"/>
+      <c r="A114" s="86"/>
+      <c r="B114" s="110"/>
+      <c r="C114" s="97"/>
       <c r="D114" s="6" t="s">
         <v>13</v>
       </c>
@@ -3216,13 +3221,13 @@
       <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="90">
+      <c r="A115" s="92">
         <v>23</v>
       </c>
-      <c r="B115" s="105" t="s">
+      <c r="B115" s="94" t="s">
         <v>68</v>
       </c>
-      <c r="C115" s="102">
+      <c r="C115" s="90">
         <v>31</v>
       </c>
       <c r="D115" s="10" t="s">
@@ -3235,9 +3240,9 @@
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="91"/>
-      <c r="B116" s="106"/>
-      <c r="C116" s="103"/>
+      <c r="A116" s="93"/>
+      <c r="B116" s="96"/>
+      <c r="C116" s="91"/>
       <c r="D116" s="39" t="s">
         <v>4</v>
       </c>
@@ -3248,9 +3253,9 @@
       <c r="G116" s="24"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="91"/>
-      <c r="B117" s="106"/>
-      <c r="C117" s="103"/>
+      <c r="A117" s="93"/>
+      <c r="B117" s="96"/>
+      <c r="C117" s="91"/>
       <c r="D117" s="39" t="s">
         <v>5</v>
       </c>
@@ -3261,9 +3266,9 @@
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="91"/>
-      <c r="B118" s="106"/>
-      <c r="C118" s="103"/>
+      <c r="A118" s="93"/>
+      <c r="B118" s="96"/>
+      <c r="C118" s="91"/>
       <c r="D118" s="39" t="s">
         <v>6</v>
       </c>
@@ -3274,9 +3279,9 @@
       <c r="G118" s="24"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="91"/>
-      <c r="B119" s="106"/>
-      <c r="C119" s="103"/>
+      <c r="A119" s="93"/>
+      <c r="B119" s="96"/>
+      <c r="C119" s="91"/>
       <c r="D119" s="39" t="s">
         <v>7</v>
       </c>
@@ -3287,9 +3292,9 @@
       <c r="G119" s="24"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="91"/>
-      <c r="B120" s="106"/>
-      <c r="C120" s="103"/>
+      <c r="A120" s="93"/>
+      <c r="B120" s="96"/>
+      <c r="C120" s="91"/>
       <c r="D120" s="39" t="s">
         <v>8</v>
       </c>
@@ -3300,9 +3305,9 @@
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="91"/>
-      <c r="B121" s="106"/>
-      <c r="C121" s="103"/>
+      <c r="A121" s="93"/>
+      <c r="B121" s="96"/>
+      <c r="C121" s="91"/>
       <c r="D121" s="39" t="s">
         <v>13</v>
       </c>
@@ -3313,9 +3318,9 @@
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="91"/>
-      <c r="B122" s="106"/>
-      <c r="C122" s="104"/>
+      <c r="A122" s="93"/>
+      <c r="B122" s="96"/>
+      <c r="C122" s="97"/>
       <c r="D122" s="40" t="s">
         <v>14</v>
       </c>
@@ -3326,9 +3331,9 @@
       <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="91"/>
-      <c r="B123" s="106"/>
-      <c r="C123" s="102">
+      <c r="A123" s="93"/>
+      <c r="B123" s="96"/>
+      <c r="C123" s="90">
         <v>32</v>
       </c>
       <c r="D123" s="6" t="s">
@@ -3341,9 +3346,9 @@
       <c r="G123" s="24"/>
     </row>
     <row r="124" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="91"/>
-      <c r="B124" s="106"/>
-      <c r="C124" s="103"/>
+      <c r="A124" s="93"/>
+      <c r="B124" s="96"/>
+      <c r="C124" s="91"/>
       <c r="D124" s="59" t="s">
         <v>4</v>
       </c>
@@ -3354,9 +3359,9 @@
       <c r="G124" s="24"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="91"/>
-      <c r="B125" s="106"/>
-      <c r="C125" s="104"/>
+      <c r="A125" s="93"/>
+      <c r="B125" s="96"/>
+      <c r="C125" s="97"/>
       <c r="D125" s="69" t="s">
         <v>14</v>
       </c>
@@ -3367,9 +3372,9 @@
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="91"/>
-      <c r="B126" s="106"/>
-      <c r="C126" s="102">
+      <c r="A126" s="93"/>
+      <c r="B126" s="96"/>
+      <c r="C126" s="90">
         <v>33</v>
       </c>
       <c r="D126" s="6" t="s">
@@ -3382,9 +3387,9 @@
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="91"/>
-      <c r="B127" s="106"/>
-      <c r="C127" s="103"/>
+      <c r="A127" s="93"/>
+      <c r="B127" s="96"/>
+      <c r="C127" s="91"/>
       <c r="D127" s="59" t="s">
         <v>4</v>
       </c>
@@ -3395,9 +3400,9 @@
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="92"/>
-      <c r="B128" s="107"/>
-      <c r="C128" s="104"/>
+      <c r="A128" s="103"/>
+      <c r="B128" s="110"/>
+      <c r="C128" s="97"/>
       <c r="D128" s="40" t="s">
         <v>13</v>
       </c>
@@ -3408,13 +3413,13 @@
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="90">
+      <c r="A129" s="92">
         <v>24</v>
       </c>
-      <c r="B129" s="90" t="s">
+      <c r="B129" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="C129" s="96">
+      <c r="C129" s="87">
         <v>11</v>
       </c>
       <c r="D129" s="6" t="s">
@@ -3427,9 +3432,9 @@
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="91"/>
-      <c r="B130" s="91"/>
-      <c r="C130" s="97"/>
+      <c r="A130" s="93"/>
+      <c r="B130" s="93"/>
+      <c r="C130" s="101"/>
       <c r="D130" s="6" t="s">
         <v>4</v>
       </c>
@@ -3440,9 +3445,9 @@
       <c r="G130" s="24"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="91"/>
-      <c r="B131" s="91"/>
-      <c r="C131" s="97"/>
+      <c r="A131" s="93"/>
+      <c r="B131" s="93"/>
+      <c r="C131" s="101"/>
       <c r="D131" s="5" t="s">
         <v>5</v>
       </c>
@@ -3453,9 +3458,9 @@
       <c r="G131" s="24"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="91"/>
-      <c r="B132" s="91"/>
-      <c r="C132" s="97"/>
+      <c r="A132" s="93"/>
+      <c r="B132" s="93"/>
+      <c r="C132" s="101"/>
       <c r="D132" s="5" t="s">
         <v>6</v>
       </c>
@@ -3466,9 +3471,9 @@
       <c r="G132" s="24"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="91"/>
-      <c r="B133" s="91"/>
-      <c r="C133" s="97"/>
+      <c r="A133" s="93"/>
+      <c r="B133" s="93"/>
+      <c r="C133" s="101"/>
       <c r="D133" s="5" t="s">
         <v>7</v>
       </c>
@@ -3479,9 +3484,9 @@
       <c r="G133" s="24"/>
     </row>
     <row r="134" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="91"/>
-      <c r="B134" s="91"/>
-      <c r="C134" s="97"/>
+      <c r="A134" s="93"/>
+      <c r="B134" s="93"/>
+      <c r="C134" s="101"/>
       <c r="D134" s="5" t="s">
         <v>8</v>
       </c>
@@ -3492,9 +3497,9 @@
       <c r="G134" s="24"/>
     </row>
     <row r="135" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="91"/>
-      <c r="B135" s="91"/>
-      <c r="C135" s="97"/>
+      <c r="A135" s="93"/>
+      <c r="B135" s="93"/>
+      <c r="C135" s="101"/>
       <c r="D135" s="6" t="s">
         <v>9</v>
       </c>
@@ -3505,9 +3510,9 @@
       <c r="G135" s="24"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="91"/>
-      <c r="B136" s="91"/>
-      <c r="C136" s="97"/>
+      <c r="A136" s="93"/>
+      <c r="B136" s="93"/>
+      <c r="C136" s="101"/>
       <c r="D136" s="6" t="s">
         <v>10</v>
       </c>
@@ -3518,9 +3523,9 @@
       <c r="G136" s="24"/>
     </row>
     <row r="137" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="91"/>
-      <c r="B137" s="91"/>
-      <c r="C137" s="97"/>
+      <c r="A137" s="93"/>
+      <c r="B137" s="93"/>
+      <c r="C137" s="101"/>
       <c r="D137" s="9" t="s">
         <v>13</v>
       </c>
@@ -3531,9 +3536,9 @@
       <c r="G137" s="24"/>
     </row>
     <row r="138" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="91"/>
-      <c r="B138" s="91"/>
-      <c r="C138" s="97"/>
+      <c r="A138" s="93"/>
+      <c r="B138" s="93"/>
+      <c r="C138" s="101"/>
       <c r="D138" s="5" t="s">
         <v>15</v>
       </c>
@@ -3544,9 +3549,9 @@
       <c r="G138" s="24"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="92"/>
-      <c r="B139" s="92"/>
-      <c r="C139" s="98"/>
+      <c r="A139" s="103"/>
+      <c r="B139" s="103"/>
+      <c r="C139" s="102"/>
       <c r="D139" s="8" t="s">
         <v>29</v>
       </c>
@@ -3557,13 +3562,13 @@
       <c r="G139" s="24"/>
     </row>
     <row r="140" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="90">
+      <c r="A140" s="92">
         <v>25</v>
       </c>
-      <c r="B140" s="87" t="s">
+      <c r="B140" s="84" t="s">
         <v>72</v>
       </c>
-      <c r="C140" s="93">
+      <c r="C140" s="111">
         <v>29</v>
       </c>
       <c r="D140" s="51" t="s">
@@ -3576,9 +3581,9 @@
       <c r="G140" s="24"/>
     </row>
     <row r="141" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="91"/>
-      <c r="B141" s="88"/>
-      <c r="C141" s="94"/>
+      <c r="A141" s="93"/>
+      <c r="B141" s="85"/>
+      <c r="C141" s="112"/>
       <c r="D141" s="53" t="s">
         <v>4</v>
       </c>
@@ -3589,9 +3594,9 @@
       <c r="G141" s="24"/>
     </row>
     <row r="142" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="91"/>
-      <c r="B142" s="88"/>
-      <c r="C142" s="94"/>
+      <c r="A142" s="93"/>
+      <c r="B142" s="85"/>
+      <c r="C142" s="112"/>
       <c r="D142" s="53" t="s">
         <v>5</v>
       </c>
@@ -3602,9 +3607,9 @@
       <c r="G142" s="24"/>
     </row>
     <row r="143" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="91"/>
-      <c r="B143" s="88"/>
-      <c r="C143" s="94"/>
+      <c r="A143" s="93"/>
+      <c r="B143" s="85"/>
+      <c r="C143" s="112"/>
       <c r="D143" s="53" t="s">
         <v>6</v>
       </c>
@@ -3615,9 +3620,9 @@
       <c r="G143" s="24"/>
     </row>
     <row r="144" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="91"/>
-      <c r="B144" s="88"/>
-      <c r="C144" s="94"/>
+      <c r="A144" s="93"/>
+      <c r="B144" s="85"/>
+      <c r="C144" s="112"/>
       <c r="D144" s="59" t="s">
         <v>7</v>
       </c>
@@ -3628,9 +3633,9 @@
       <c r="G144" s="24"/>
     </row>
     <row r="145" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="91"/>
-      <c r="B145" s="88"/>
-      <c r="C145" s="94"/>
+      <c r="A145" s="93"/>
+      <c r="B145" s="85"/>
+      <c r="C145" s="112"/>
       <c r="D145" s="59" t="s">
         <v>8</v>
       </c>
@@ -3641,9 +3646,9 @@
       <c r="G145" s="24"/>
     </row>
     <row r="146" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="91"/>
-      <c r="B146" s="88"/>
-      <c r="C146" s="94"/>
+      <c r="A146" s="93"/>
+      <c r="B146" s="85"/>
+      <c r="C146" s="112"/>
       <c r="D146" s="53" t="s">
         <v>13</v>
       </c>
@@ -3654,9 +3659,9 @@
       <c r="G146" s="24"/>
     </row>
     <row r="147" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="91"/>
-      <c r="B147" s="88"/>
-      <c r="C147" s="95"/>
+      <c r="A147" s="93"/>
+      <c r="B147" s="85"/>
+      <c r="C147" s="113"/>
       <c r="D147" s="53" t="s">
         <v>14</v>
       </c>
@@ -3667,9 +3672,9 @@
       <c r="G147" s="24"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="91"/>
-      <c r="B148" s="88"/>
-      <c r="C148" s="99">
+      <c r="A148" s="93"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="116">
         <v>21</v>
       </c>
       <c r="D148" s="51" t="s">
@@ -3682,9 +3687,9 @@
       <c r="G148" s="24"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="91"/>
-      <c r="B149" s="88"/>
-      <c r="C149" s="100"/>
+      <c r="A149" s="93"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="114"/>
       <c r="D149" s="53" t="s">
         <v>4</v>
       </c>
@@ -3695,9 +3700,9 @@
       <c r="G149" s="24"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="91"/>
-      <c r="B150" s="88"/>
-      <c r="C150" s="100"/>
+      <c r="A150" s="93"/>
+      <c r="B150" s="85"/>
+      <c r="C150" s="114"/>
       <c r="D150" s="53" t="s">
         <v>5</v>
       </c>
@@ -3708,9 +3713,9 @@
       <c r="G150" s="24"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="91"/>
-      <c r="B151" s="88"/>
-      <c r="C151" s="100"/>
+      <c r="A151" s="93"/>
+      <c r="B151" s="85"/>
+      <c r="C151" s="114"/>
       <c r="D151" s="59" t="s">
         <v>6</v>
       </c>
@@ -3721,9 +3726,9 @@
       <c r="G151" s="24"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="91"/>
-      <c r="B152" s="88"/>
-      <c r="C152" s="100"/>
+      <c r="A152" s="93"/>
+      <c r="B152" s="85"/>
+      <c r="C152" s="114"/>
       <c r="D152" s="59" t="s">
         <v>7</v>
       </c>
@@ -3734,9 +3739,9 @@
       <c r="G152" s="24"/>
     </row>
     <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="91"/>
-      <c r="B153" s="88"/>
-      <c r="C153" s="100"/>
+      <c r="A153" s="93"/>
+      <c r="B153" s="85"/>
+      <c r="C153" s="114"/>
       <c r="D153" s="59" t="s">
         <v>8</v>
       </c>
@@ -3747,9 +3752,9 @@
       <c r="G153" s="24"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="91"/>
-      <c r="B154" s="88"/>
-      <c r="C154" s="100"/>
+      <c r="A154" s="93"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="114"/>
       <c r="D154" s="53" t="s">
         <v>9</v>
       </c>
@@ -3760,9 +3765,9 @@
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="91"/>
-      <c r="B155" s="88"/>
-      <c r="C155" s="100"/>
+      <c r="A155" s="93"/>
+      <c r="B155" s="85"/>
+      <c r="C155" s="114"/>
       <c r="D155" s="53" t="s">
         <v>10</v>
       </c>
@@ -3773,9 +3778,9 @@
       <c r="G155" s="24"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="91"/>
-      <c r="B156" s="88"/>
-      <c r="C156" s="100"/>
+      <c r="A156" s="93"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="114"/>
       <c r="D156" s="53" t="s">
         <v>13</v>
       </c>
@@ -3786,9 +3791,9 @@
       <c r="G156" s="24"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="91"/>
-      <c r="B157" s="88"/>
-      <c r="C157" s="101"/>
+      <c r="A157" s="93"/>
+      <c r="B157" s="85"/>
+      <c r="C157" s="115"/>
       <c r="D157" s="52" t="s">
         <v>14</v>
       </c>
@@ -3799,9 +3804,9 @@
       <c r="G157" s="24"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="91"/>
-      <c r="B158" s="88"/>
-      <c r="C158" s="100">
+      <c r="A158" s="93"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="114">
         <v>23</v>
       </c>
       <c r="D158" s="53" t="s">
@@ -3814,9 +3819,9 @@
       <c r="G158" s="24"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="91"/>
-      <c r="B159" s="88"/>
-      <c r="C159" s="100"/>
+      <c r="A159" s="93"/>
+      <c r="B159" s="85"/>
+      <c r="C159" s="114"/>
       <c r="D159" s="53" t="s">
         <v>4</v>
       </c>
@@ -3827,9 +3832,9 @@
       <c r="G159" s="24"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="91"/>
-      <c r="B160" s="88"/>
-      <c r="C160" s="100"/>
+      <c r="A160" s="93"/>
+      <c r="B160" s="85"/>
+      <c r="C160" s="114"/>
       <c r="D160" s="53" t="s">
         <v>5</v>
       </c>
@@ -3840,9 +3845,9 @@
       <c r="G160" s="24"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="91"/>
-      <c r="B161" s="88"/>
-      <c r="C161" s="100"/>
+      <c r="A161" s="93"/>
+      <c r="B161" s="85"/>
+      <c r="C161" s="114"/>
       <c r="D161" s="59" t="s">
         <v>6</v>
       </c>
@@ -3853,9 +3858,9 @@
       <c r="G161" s="24"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="91"/>
-      <c r="B162" s="88"/>
-      <c r="C162" s="100"/>
+      <c r="A162" s="93"/>
+      <c r="B162" s="85"/>
+      <c r="C162" s="114"/>
       <c r="D162" s="59" t="s">
         <v>7</v>
       </c>
@@ -3866,9 +3871,9 @@
       <c r="G162" s="24"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="91"/>
-      <c r="B163" s="88"/>
-      <c r="C163" s="100"/>
+      <c r="A163" s="93"/>
+      <c r="B163" s="85"/>
+      <c r="C163" s="114"/>
       <c r="D163" s="59" t="s">
         <v>8</v>
       </c>
@@ -3879,9 +3884,9 @@
       <c r="G163" s="24"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="91"/>
-      <c r="B164" s="88"/>
-      <c r="C164" s="100"/>
+      <c r="A164" s="93"/>
+      <c r="B164" s="85"/>
+      <c r="C164" s="114"/>
       <c r="D164" s="53" t="s">
         <v>9</v>
       </c>
@@ -3892,9 +3897,9 @@
       <c r="G164" s="24"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="91"/>
-      <c r="B165" s="88"/>
-      <c r="C165" s="100"/>
+      <c r="A165" s="93"/>
+      <c r="B165" s="85"/>
+      <c r="C165" s="114"/>
       <c r="D165" s="53" t="s">
         <v>10</v>
       </c>
@@ -3905,9 +3910,9 @@
       <c r="G165" s="24"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="91"/>
-      <c r="B166" s="88"/>
-      <c r="C166" s="100"/>
+      <c r="A166" s="93"/>
+      <c r="B166" s="85"/>
+      <c r="C166" s="114"/>
       <c r="D166" s="53" t="s">
         <v>13</v>
       </c>
@@ -3918,9 +3923,9 @@
       <c r="G166" s="24"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="91"/>
-      <c r="B167" s="88"/>
-      <c r="C167" s="101"/>
+      <c r="A167" s="93"/>
+      <c r="B167" s="85"/>
+      <c r="C167" s="115"/>
       <c r="D167" s="52" t="s">
         <v>14</v>
       </c>
@@ -3931,13 +3936,13 @@
       <c r="G167" s="24"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="90">
+      <c r="A168" s="92">
         <v>26</v>
       </c>
-      <c r="B168" s="87" t="s">
+      <c r="B168" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="C168" s="84">
+      <c r="C168" s="117">
         <v>25</v>
       </c>
       <c r="D168" s="53" t="s">
@@ -3950,9 +3955,9 @@
       <c r="G168" s="24"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="91"/>
-      <c r="B169" s="88"/>
-      <c r="C169" s="85"/>
+      <c r="A169" s="93"/>
+      <c r="B169" s="85"/>
+      <c r="C169" s="104"/>
       <c r="D169" s="53" t="s">
         <v>4</v>
       </c>
@@ -3963,9 +3968,9 @@
       <c r="G169" s="24"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="91"/>
-      <c r="B170" s="88"/>
-      <c r="C170" s="85"/>
+      <c r="A170" s="93"/>
+      <c r="B170" s="85"/>
+      <c r="C170" s="104"/>
       <c r="D170" s="63" t="s">
         <v>5</v>
       </c>
@@ -3976,9 +3981,9 @@
       <c r="G170" s="24"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="91"/>
-      <c r="B171" s="88"/>
-      <c r="C171" s="85"/>
+      <c r="A171" s="93"/>
+      <c r="B171" s="85"/>
+      <c r="C171" s="104"/>
       <c r="D171" s="63" t="s">
         <v>6</v>
       </c>
@@ -3989,9 +3994,9 @@
       <c r="G171" s="24"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="91"/>
-      <c r="B172" s="88"/>
-      <c r="C172" s="85"/>
+      <c r="A172" s="93"/>
+      <c r="B172" s="85"/>
+      <c r="C172" s="104"/>
       <c r="D172" s="63" t="s">
         <v>7</v>
       </c>
@@ -4002,9 +4007,9 @@
       <c r="G172" s="24"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="91"/>
-      <c r="B173" s="88"/>
-      <c r="C173" s="85"/>
+      <c r="A173" s="93"/>
+      <c r="B173" s="85"/>
+      <c r="C173" s="104"/>
       <c r="D173" s="63" t="s">
         <v>8</v>
       </c>
@@ -4015,9 +4020,9 @@
       <c r="G173" s="24"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="91"/>
-      <c r="B174" s="88"/>
-      <c r="C174" s="85"/>
+      <c r="A174" s="93"/>
+      <c r="B174" s="85"/>
+      <c r="C174" s="104"/>
       <c r="D174" s="59" t="s">
         <v>9</v>
       </c>
@@ -4028,9 +4033,9 @@
       <c r="G174" s="24"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="91"/>
-      <c r="B175" s="88"/>
-      <c r="C175" s="85"/>
+      <c r="A175" s="93"/>
+      <c r="B175" s="85"/>
+      <c r="C175" s="104"/>
       <c r="D175" s="59" t="s">
         <v>10</v>
       </c>
@@ -4041,9 +4046,9 @@
       <c r="G175" s="24"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="91"/>
-      <c r="B176" s="88"/>
-      <c r="C176" s="85"/>
+      <c r="A176" s="93"/>
+      <c r="B176" s="85"/>
+      <c r="C176" s="104"/>
       <c r="D176" s="59" t="s">
         <v>13</v>
       </c>
@@ -4054,9 +4059,9 @@
       <c r="G176" s="24"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="91"/>
-      <c r="B177" s="88"/>
-      <c r="C177" s="85"/>
+      <c r="A177" s="93"/>
+      <c r="B177" s="85"/>
+      <c r="C177" s="104"/>
       <c r="D177" s="63" t="s">
         <v>15</v>
       </c>
@@ -4067,9 +4072,9 @@
       <c r="G177" s="24"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="92"/>
-      <c r="B178" s="89"/>
-      <c r="C178" s="86"/>
+      <c r="A178" s="103"/>
+      <c r="B178" s="86"/>
+      <c r="C178" s="105"/>
       <c r="D178" s="78" t="s">
         <v>29</v>
       </c>
@@ -4080,13 +4085,13 @@
       <c r="G178" s="24"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="87">
+      <c r="A179" s="84">
         <v>27</v>
       </c>
-      <c r="B179" s="87" t="s">
+      <c r="B179" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="C179" s="96">
+      <c r="C179" s="87">
         <v>24</v>
       </c>
       <c r="D179" s="80" t="s">
@@ -4099,9 +4104,9 @@
       <c r="G179" s="24"/>
     </row>
     <row r="180" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="88"/>
-      <c r="B180" s="88"/>
-      <c r="C180" s="112"/>
+      <c r="A180" s="85"/>
+      <c r="B180" s="85"/>
+      <c r="C180" s="88"/>
       <c r="D180" s="81" t="s">
         <v>4</v>
       </c>
@@ -4112,9 +4117,9 @@
       <c r="G180" s="24"/>
     </row>
     <row r="181" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="88"/>
-      <c r="B181" s="88"/>
-      <c r="C181" s="112"/>
+      <c r="A181" s="85"/>
+      <c r="B181" s="85"/>
+      <c r="C181" s="88"/>
       <c r="D181" s="77" t="s">
         <v>5</v>
       </c>
@@ -4125,9 +4130,9 @@
       <c r="G181" s="24"/>
     </row>
     <row r="182" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="88"/>
-      <c r="B182" s="88"/>
-      <c r="C182" s="112"/>
+      <c r="A182" s="85"/>
+      <c r="B182" s="85"/>
+      <c r="C182" s="88"/>
       <c r="D182" s="77" t="s">
         <v>6</v>
       </c>
@@ -4138,9 +4143,9 @@
       <c r="G182" s="24"/>
     </row>
     <row r="183" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="88"/>
-      <c r="B183" s="88"/>
-      <c r="C183" s="112"/>
+      <c r="A183" s="85"/>
+      <c r="B183" s="85"/>
+      <c r="C183" s="88"/>
       <c r="D183" s="81" t="s">
         <v>7</v>
       </c>
@@ -4151,9 +4156,9 @@
       <c r="G183" s="24"/>
     </row>
     <row r="184" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="89"/>
-      <c r="B184" s="89"/>
-      <c r="C184" s="113"/>
+      <c r="A184" s="86"/>
+      <c r="B184" s="86"/>
+      <c r="C184" s="89"/>
       <c r="D184" s="82" t="s">
         <v>8</v>
       </c>
@@ -4184,6 +4189,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C168:C178"/>
+    <mergeCell ref="B168:B178"/>
+    <mergeCell ref="A168:A178"/>
+    <mergeCell ref="C140:C147"/>
+    <mergeCell ref="B140:B167"/>
+    <mergeCell ref="C129:C139"/>
+    <mergeCell ref="B129:B139"/>
+    <mergeCell ref="A129:A139"/>
+    <mergeCell ref="C148:C157"/>
+    <mergeCell ref="A140:A167"/>
+    <mergeCell ref="C158:C167"/>
+    <mergeCell ref="C123:C125"/>
+    <mergeCell ref="C126:C128"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="C115:C122"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="B102:B107"/>
+    <mergeCell ref="A102:A107"/>
+    <mergeCell ref="C108:C114"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="A108:A114"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C67:C77"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="A67:A77"/>
+    <mergeCell ref="C91:C98"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="A91:A98"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="A88:A90"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B80:B87"/>
+    <mergeCell ref="C80:C87"/>
+    <mergeCell ref="A80:A87"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="C56:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="A56:A66"/>
     <mergeCell ref="B179:B184"/>
     <mergeCell ref="A179:A184"/>
     <mergeCell ref="C179:C184"/>
@@ -4200,51 +4250,6 @@
     <mergeCell ref="C43:C54"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="A43:A54"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="C56:C66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="A56:A66"/>
-    <mergeCell ref="C67:C77"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="A67:A77"/>
-    <mergeCell ref="C91:C98"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="C80:C87"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="C108:C114"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="C115:C122"/>
-    <mergeCell ref="C129:C139"/>
-    <mergeCell ref="B129:B139"/>
-    <mergeCell ref="A129:A139"/>
-    <mergeCell ref="C148:C157"/>
-    <mergeCell ref="A140:A167"/>
-    <mergeCell ref="C158:C167"/>
-    <mergeCell ref="C168:C178"/>
-    <mergeCell ref="B168:B178"/>
-    <mergeCell ref="A168:A178"/>
-    <mergeCell ref="C140:C147"/>
-    <mergeCell ref="B140:B167"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Robak/doc/Makra.xlsx
+++ b/Robak/doc/Makra.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="191">
   <si>
     <t>Działanie</t>
   </si>
@@ -435,9 +435,6 @@
   </si>
   <si>
     <t>12_off, 13_off</t>
-  </si>
-  <si>
-    <t>77_TOG</t>
   </si>
   <si>
     <t>rol_012_up</t>
@@ -685,7 +682,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">1s gn_on, 1s gn_off, 1l gn_on + 77_on </t>
+    <t>102_on / AllOff w SPA</t>
+  </si>
+  <si>
+    <t>77_on, 102_on</t>
   </si>
 </sst>
 </file>
@@ -936,7 +936,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1187,6 +1187,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1196,97 +1211,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1593,10 +1599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H185"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1653,7 @@
       <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="96" t="s">
+      <c r="B3" s="108" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="70">
@@ -1664,7 +1670,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="93"/>
-      <c r="B4" s="96"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="70">
         <v>4</v>
       </c>
@@ -1679,8 +1685,8 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="93"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="91">
+      <c r="B5" s="108"/>
+      <c r="C5" s="105">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1694,8 +1700,8 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="93"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="91"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="105"/>
       <c r="D6" s="62" t="s">
         <v>13</v>
       </c>
@@ -1706,145 +1712,145 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="94">
+      <c r="A7" s="107">
         <v>2</v>
       </c>
-      <c r="B7" s="98" t="s">
+      <c r="B7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="90">
+      <c r="C7" s="104">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="96"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="91"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="96"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="91"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="96"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="91"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="91"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="91"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="91"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="91"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="59" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F15" s="66"/>
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="91"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="68" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F16" s="66"/>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="68" t="s">
         <v>15</v>
       </c>
@@ -1855,22 +1861,22 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="97"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="106"/>
       <c r="D18" s="62" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="90">
+      <c r="A19" s="108"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="104">
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1883,9 +1889,9 @@
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="97"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="7" t="s">
         <v>4</v>
       </c>
@@ -1896,8 +1902,8 @@
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="100"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="70">
         <v>17</v>
       </c>
@@ -1914,17 +1920,17 @@
       <c r="A22" s="92">
         <v>3</v>
       </c>
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="90">
+      <c r="C22" s="104">
         <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="31"/>
@@ -1932,8 +1938,8 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="93"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="91"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1945,8 +1951,8 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="93"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="91"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1958,21 +1964,21 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="93"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="91"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="93"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="91"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
@@ -1984,8 +1990,8 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="93"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="91"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="6" t="s">
         <v>8</v>
       </c>
@@ -1997,8 +2003,8 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="93"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="91"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
@@ -2010,8 +2016,8 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="93"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="91"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="9" t="s">
         <v>10</v>
       </c>
@@ -2023,8 +2029,8 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="93"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="91"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="105"/>
       <c r="D30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2036,8 +2042,8 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="93"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="91"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
@@ -2049,8 +2055,8 @@
     </row>
     <row r="32" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="93"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="91"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="105"/>
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
@@ -2061,13 +2067,13 @@
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="98">
+      <c r="A33" s="116">
         <v>4</v>
       </c>
-      <c r="B33" s="98" t="s">
+      <c r="B33" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="90">
+      <c r="C33" s="104">
         <v>10</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -2080,9 +2086,9 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="99"/>
-      <c r="B34" s="99"/>
-      <c r="C34" s="91"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="105"/>
       <c r="D34" s="9" t="s">
         <v>4</v>
       </c>
@@ -2093,9 +2099,9 @@
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="99"/>
-      <c r="B35" s="99"/>
-      <c r="C35" s="91"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="9" t="s">
         <v>5</v>
       </c>
@@ -2103,14 +2109,14 @@
         <v>21</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="99"/>
-      <c r="B36" s="99"/>
-      <c r="C36" s="91"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="105"/>
       <c r="D36" s="9" t="s">
         <v>6</v>
       </c>
@@ -2121,9 +2127,9 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="99"/>
-      <c r="B37" s="99"/>
-      <c r="C37" s="91"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="9" t="s">
         <v>7</v>
       </c>
@@ -2134,9 +2140,9 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="99"/>
-      <c r="B38" s="99"/>
-      <c r="C38" s="91"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="105"/>
       <c r="D38" s="9" t="s">
         <v>8</v>
       </c>
@@ -2147,9 +2153,9 @@
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="99"/>
-      <c r="B39" s="99"/>
-      <c r="C39" s="91"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="105"/>
       <c r="D39" s="9" t="s">
         <v>9</v>
       </c>
@@ -2160,9 +2166,9 @@
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="99"/>
-      <c r="B40" s="99"/>
-      <c r="C40" s="91"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="105"/>
       <c r="D40" s="9" t="s">
         <v>10</v>
       </c>
@@ -2173,9 +2179,9 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="99"/>
-      <c r="B41" s="99"/>
-      <c r="C41" s="91"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="105"/>
       <c r="D41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2183,14 +2189,14 @@
         <v>19</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="97"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="7" t="s">
         <v>14</v>
       </c>
@@ -2204,10 +2210,10 @@
       <c r="A43" s="92">
         <v>5</v>
       </c>
-      <c r="B43" s="84" t="s">
-        <v>183</v>
-      </c>
-      <c r="C43" s="87">
+      <c r="B43" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="98">
         <v>9</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -2221,8 +2227,8 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="93"/>
-      <c r="B44" s="85"/>
-      <c r="C44" s="101"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="6" t="s">
         <v>4</v>
       </c>
@@ -2234,8 +2240,8 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="93"/>
-      <c r="B45" s="85"/>
-      <c r="C45" s="101"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="99"/>
       <c r="D45" s="5" t="s">
         <v>5</v>
       </c>
@@ -2247,8 +2253,8 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="93"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="101"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="99"/>
       <c r="D46" s="5" t="s">
         <v>6</v>
       </c>
@@ -2260,8 +2266,8 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="93"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="101"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="5" t="s">
         <v>7</v>
       </c>
@@ -2273,8 +2279,8 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="93"/>
-      <c r="B48" s="85"/>
-      <c r="C48" s="101"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="99"/>
       <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
@@ -2286,34 +2292,34 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="93"/>
-      <c r="B49" s="85"/>
-      <c r="C49" s="101"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="99"/>
       <c r="D49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="93"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="101"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="99"/>
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="93"/>
-      <c r="B51" s="85"/>
-      <c r="C51" s="101"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="99"/>
       <c r="D51" s="6" t="s">
         <v>13</v>
       </c>
@@ -2325,8 +2331,8 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="93"/>
-      <c r="B52" s="85"/>
-      <c r="C52" s="101"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="99"/>
       <c r="D52" s="6" t="s">
         <v>14</v>
       </c>
@@ -2338,8 +2344,8 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="93"/>
-      <c r="B53" s="85"/>
-      <c r="C53" s="101"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="99"/>
       <c r="D53" s="5" t="s">
         <v>15</v>
       </c>
@@ -2350,9 +2356,9 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="103"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="102"/>
+      <c r="A54" s="94"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="65" t="s">
         <v>29</v>
       </c>
@@ -2385,10 +2391,10 @@
       <c r="A56" s="92">
         <v>7</v>
       </c>
-      <c r="B56" s="84" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" s="104">
+      <c r="B56" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="87">
         <v>18</v>
       </c>
       <c r="D56" s="51" t="s">
@@ -2402,21 +2408,21 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="93"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="104"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="87"/>
       <c r="D57" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="93"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="104"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="87"/>
       <c r="D58" s="63" t="s">
         <v>5</v>
       </c>
@@ -2428,8 +2434,8 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="93"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="104"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="87"/>
       <c r="D59" s="63" t="s">
         <v>6</v>
       </c>
@@ -2441,8 +2447,8 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="93"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="104"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="87"/>
       <c r="D60" s="63" t="s">
         <v>7</v>
       </c>
@@ -2454,8 +2460,8 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="93"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="104"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="87"/>
       <c r="D61" s="63" t="s">
         <v>8</v>
       </c>
@@ -2467,8 +2473,8 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="93"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="104"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="87"/>
       <c r="D62" s="59" t="s">
         <v>9</v>
       </c>
@@ -2480,8 +2486,8 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="93"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="104"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="87"/>
       <c r="D63" s="59" t="s">
         <v>10</v>
       </c>
@@ -2493,8 +2499,8 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="93"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="104"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="87"/>
       <c r="D64" s="59" t="s">
         <v>13</v>
       </c>
@@ -2506,8 +2512,8 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="93"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="104"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="87"/>
       <c r="D65" s="63" t="s">
         <v>15</v>
       </c>
@@ -2518,9 +2524,9 @@
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="103"/>
-      <c r="B66" s="86"/>
-      <c r="C66" s="105"/>
+      <c r="A66" s="94"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="88"/>
       <c r="D66" s="64" t="s">
         <v>29</v>
       </c>
@@ -2534,40 +2540,38 @@
       <c r="A67" s="92">
         <v>8</v>
       </c>
-      <c r="B67" s="84" t="s">
-        <v>186</v>
-      </c>
-      <c r="C67" s="106">
+      <c r="B67" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="C67" s="110">
         <v>19</v>
       </c>
       <c r="D67" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>140</v>
+        <v>189</v>
       </c>
       <c r="F67" s="22"/>
-      <c r="G67" s="24" t="s">
-        <v>190</v>
-      </c>
+      <c r="G67" s="24"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="93"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="107"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="111"/>
       <c r="D68" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="93"/>
-      <c r="B69" s="85"/>
-      <c r="C69" s="107"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="111"/>
       <c r="D69" s="63" t="s">
         <v>5</v>
       </c>
@@ -2579,8 +2583,8 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="93"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="107"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="111"/>
       <c r="D70" s="63" t="s">
         <v>6</v>
       </c>
@@ -2592,8 +2596,8 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="93"/>
-      <c r="B71" s="85"/>
-      <c r="C71" s="107"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="111"/>
       <c r="D71" s="63" t="s">
         <v>7</v>
       </c>
@@ -2605,8 +2609,8 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="93"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="107"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="111"/>
       <c r="D72" s="63" t="s">
         <v>8</v>
       </c>
@@ -2618,152 +2622,152 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="93"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="107"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="111"/>
       <c r="D73" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="24"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="93"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="107"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="111"/>
       <c r="D74" s="59" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F74" s="22"/>
       <c r="G74" s="24"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="93"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="107"/>
-      <c r="D75" s="59" t="s">
-        <v>14</v>
+      <c r="B75" s="90"/>
+      <c r="C75" s="111"/>
+      <c r="D75" s="85" t="s">
+        <v>13</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="93"/>
-      <c r="B76" s="85"/>
-      <c r="C76" s="107"/>
-      <c r="D76" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F76" s="19"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F76" s="22"/>
       <c r="G76" s="24"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="93"/>
-      <c r="B77" s="86"/>
-      <c r="C77" s="108"/>
-      <c r="D77" s="64" t="s">
+      <c r="B77" s="90"/>
+      <c r="C77" s="111"/>
+      <c r="D77" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" s="19"/>
+      <c r="G77" s="24"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="93"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E78" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F77" s="67"/>
-      <c r="G77" s="24"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="92">
+      <c r="F78" s="67"/>
+      <c r="G78" s="24"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="92">
         <v>9</v>
       </c>
-      <c r="B78" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="C78" s="114">
+      <c r="B79" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="C79" s="102">
         <v>26</v>
       </c>
-      <c r="D78" s="53" t="s">
+      <c r="D79" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E79" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F78" s="19"/>
-      <c r="G78" s="24"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="103"/>
-      <c r="B79" s="86"/>
-      <c r="C79" s="115"/>
-      <c r="D79" s="52" t="s">
+      <c r="F79" s="19"/>
+      <c r="G79" s="24"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="94"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="103"/>
+      <c r="D80" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="16" t="s">
+      <c r="E80" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="F79" s="21"/>
-      <c r="G79" s="24"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="92">
+      <c r="F80" s="21"/>
+      <c r="G80" s="24"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="92">
         <v>10</v>
       </c>
-      <c r="B80" s="84" t="s">
+      <c r="B81" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C80" s="104">
+      <c r="C81" s="87">
         <v>5</v>
       </c>
-      <c r="D80" s="53" t="s">
+      <c r="D81" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E81" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="F80" s="19"/>
-      <c r="G80" s="24"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="93"/>
-      <c r="B81" s="85"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="F81" s="19"/>
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="93"/>
-      <c r="B82" s="85"/>
-      <c r="C82" s="104"/>
-      <c r="D82" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="14" t="s">
-        <v>16</v>
+      <c r="B82" s="90"/>
+      <c r="C82" s="87"/>
+      <c r="D82" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>33</v>
       </c>
       <c r="F82" s="19"/>
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="93"/>
-      <c r="B83" s="85"/>
-      <c r="C83" s="104"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="87"/>
       <c r="D83" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E83" s="14" t="s">
         <v>16</v>
@@ -2773,178 +2777,178 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="93"/>
-      <c r="B84" s="85"/>
-      <c r="C84" s="104"/>
-      <c r="D84" s="53" t="s">
-        <v>7</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>62</v>
+      <c r="B84" s="90"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="14" t="s">
+        <v>16</v>
       </c>
       <c r="F84" s="19"/>
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="93"/>
-      <c r="B85" s="85"/>
-      <c r="C85" s="104"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="87"/>
       <c r="D85" s="53" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F85" s="19"/>
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="93"/>
-      <c r="B86" s="85"/>
-      <c r="C86" s="104"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="87"/>
       <c r="D86" s="53" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F86" s="19"/>
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="103"/>
-      <c r="B87" s="86"/>
-      <c r="C87" s="105"/>
-      <c r="D87" s="50" t="s">
+      <c r="A87" s="93"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="87"/>
+      <c r="D87" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F87" s="19"/>
+      <c r="G87" s="24"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="94"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="18" t="s">
+      <c r="E88" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="21"/>
-      <c r="G87" s="24"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="96">
+      <c r="F88" s="21"/>
+      <c r="G88" s="24"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="108">
         <v>11</v>
       </c>
-      <c r="B88" s="84" t="s">
+      <c r="B89" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="111">
+      <c r="C89" s="95">
         <v>8</v>
       </c>
-      <c r="D88" s="53" t="s">
+      <c r="D89" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="15" t="s">
+      <c r="E89" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="F88" s="19"/>
-      <c r="G88" s="24"/>
-    </row>
-    <row r="89" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="96"/>
-      <c r="B89" s="85"/>
-      <c r="C89" s="112"/>
-      <c r="D89" s="53" t="s">
+      <c r="F89" s="19"/>
+      <c r="G89" s="24"/>
+    </row>
+    <row r="90" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="108"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="96"/>
+      <c r="D90" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E90" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F89" s="45"/>
-      <c r="G89" s="24"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="110"/>
-      <c r="B90" s="86"/>
-      <c r="C90" s="113"/>
-      <c r="D90" s="52" t="s">
+      <c r="F90" s="45"/>
+      <c r="G90" s="24"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="109"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="97"/>
+      <c r="D91" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E90" s="16" t="s">
+      <c r="E91" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F90" s="21"/>
-      <c r="G90" s="24"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="92">
+      <c r="F91" s="21"/>
+      <c r="G91" s="24"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="92">
         <v>12</v>
       </c>
-      <c r="B91" s="96" t="s">
+      <c r="B92" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C91" s="109">
+      <c r="C92" s="113">
         <v>1</v>
       </c>
-      <c r="D91" s="53" t="s">
+      <c r="D92" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E92" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="F91" s="19"/>
-      <c r="G91" s="24"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="93"/>
-      <c r="B92" s="96"/>
-      <c r="C92" s="88"/>
-      <c r="D92" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E92" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="F92" s="19"/>
       <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="93"/>
-      <c r="B93" s="96"/>
-      <c r="C93" s="88"/>
-      <c r="D93" s="59" t="s">
-        <v>5</v>
+      <c r="B93" s="108"/>
+      <c r="C93" s="114"/>
+      <c r="D93" s="53" t="s">
+        <v>4</v>
       </c>
       <c r="E93" s="15" t="s">
-        <v>161</v>
+        <v>39</v>
       </c>
       <c r="F93" s="19"/>
       <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="93"/>
-      <c r="B94" s="96"/>
-      <c r="C94" s="88"/>
+      <c r="B94" s="108"/>
+      <c r="C94" s="114"/>
       <c r="D94" s="59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="24"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="93"/>
-      <c r="B95" s="96"/>
-      <c r="C95" s="88"/>
-      <c r="D95" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E95" s="14" t="s">
-        <v>16</v>
+      <c r="B95" s="108"/>
+      <c r="C95" s="114"/>
+      <c r="D95" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>161</v>
       </c>
       <c r="F95" s="19"/>
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="93"/>
-      <c r="B96" s="96"/>
-      <c r="C96" s="88"/>
+      <c r="B96" s="108"/>
+      <c r="C96" s="114"/>
       <c r="D96" s="49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E96" s="14" t="s">
         <v>16</v>
@@ -2954,74 +2958,68 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="93"/>
-      <c r="B97" s="96"/>
-      <c r="C97" s="88"/>
+      <c r="B97" s="108"/>
+      <c r="C97" s="114"/>
       <c r="D97" s="49" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="F97" s="19"/>
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="103"/>
-      <c r="B98" s="110"/>
-      <c r="C98" s="89"/>
-      <c r="D98" s="50" t="s">
+      <c r="A98" s="93"/>
+      <c r="B98" s="108"/>
+      <c r="C98" s="114"/>
+      <c r="D98" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F98" s="19"/>
+      <c r="G98" s="24"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="94"/>
+      <c r="B99" s="109"/>
+      <c r="C99" s="115"/>
+      <c r="D99" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E99" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F98" s="21"/>
-      <c r="G98" s="24"/>
-    </row>
-    <row r="99" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
+      <c r="F99" s="21"/>
+      <c r="G99" s="24"/>
+    </row>
+    <row r="100" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
         <v>13</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="12">
+      <c r="C100" s="12">
         <v>41</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D100" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="17" t="s">
+      <c r="E100" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="F99" s="13"/>
-      <c r="G99" s="24"/>
-    </row>
-    <row r="100" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="33">
-        <v>14</v>
-      </c>
-      <c r="B100" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="C100" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" s="48" t="s">
-        <v>16</v>
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>16</v>
@@ -3035,411 +3033,417 @@
       <c r="F101" s="13"/>
       <c r="G101" s="24"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="92">
+    <row r="102" spans="1:7" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="33">
+        <v>15</v>
+      </c>
+      <c r="B102" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="E102" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="13"/>
+      <c r="G102" s="24"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="92">
         <v>21</v>
       </c>
-      <c r="B102" s="94" t="s">
+      <c r="B103" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C102" s="111">
+      <c r="C103" s="95">
         <v>20</v>
       </c>
-      <c r="D102" s="53" t="s">
+      <c r="D103" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="15" t="s">
+      <c r="E103" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F102" s="19"/>
-      <c r="G102" s="24"/>
-    </row>
-    <row r="103" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="93"/>
-      <c r="B103" s="96"/>
-      <c r="C103" s="113"/>
-      <c r="D103" s="52" t="s">
+      <c r="F103" s="19"/>
+      <c r="G103" s="24"/>
+    </row>
+    <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="93"/>
+      <c r="B104" s="108"/>
+      <c r="C104" s="97"/>
+      <c r="D104" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E103" s="16" t="s">
+      <c r="E104" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="F103" s="21"/>
-      <c r="G103" s="24"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="93"/>
-      <c r="B104" s="96"/>
-      <c r="C104" s="111">
+      <c r="F104" s="21"/>
+      <c r="G104" s="24"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="93"/>
+      <c r="B105" s="108"/>
+      <c r="C105" s="95">
         <v>27</v>
       </c>
-      <c r="D104" s="53" t="s">
+      <c r="D105" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="15" t="s">
+      <c r="E105" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F104" s="19"/>
-      <c r="G104" s="24"/>
-    </row>
-    <row r="105" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="93"/>
-      <c r="B105" s="96"/>
-      <c r="C105" s="113"/>
-      <c r="D105" s="52" t="s">
+      <c r="F105" s="19"/>
+      <c r="G105" s="24"/>
+    </row>
+    <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="93"/>
+      <c r="B106" s="108"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E105" s="16" t="s">
+      <c r="E106" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F105" s="21"/>
-      <c r="G105" s="24"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="93"/>
-      <c r="B106" s="96"/>
-      <c r="C106" s="111">
+      <c r="F106" s="21"/>
+      <c r="G106" s="24"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="93"/>
+      <c r="B107" s="108"/>
+      <c r="C107" s="95">
         <v>30</v>
       </c>
-      <c r="D106" s="53" t="s">
+      <c r="D107" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="15" t="s">
+      <c r="E107" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="F106" s="19"/>
-      <c r="G106" s="24"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="103"/>
-      <c r="B107" s="110"/>
-      <c r="C107" s="113"/>
-      <c r="D107" s="52" t="s">
+      <c r="F107" s="19"/>
+      <c r="G107" s="24"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="94"/>
+      <c r="B108" s="109"/>
+      <c r="C108" s="97"/>
+      <c r="D108" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="E107" s="16" t="s">
+      <c r="E108" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F107" s="21"/>
-      <c r="G107" s="24"/>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="84">
+      <c r="F108" s="21"/>
+      <c r="G108" s="24"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="89">
         <v>22</v>
       </c>
-      <c r="B108" s="94" t="s">
+      <c r="B109" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="C108" s="90">
+      <c r="C109" s="104">
         <v>28</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="D109" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="15" t="s">
+      <c r="E109" s="15" t="s">
         <v>98</v>
-      </c>
-      <c r="F108" s="19"/>
-      <c r="G108" s="24"/>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="85"/>
-      <c r="B109" s="96"/>
-      <c r="C109" s="91"/>
-      <c r="D109" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E109" s="15" t="s">
-        <v>99</v>
       </c>
       <c r="F109" s="19"/>
       <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="85"/>
-      <c r="B110" s="96"/>
-      <c r="C110" s="91"/>
-      <c r="D110" s="68" t="s">
-        <v>5</v>
+      <c r="A110" s="90"/>
+      <c r="B110" s="108"/>
+      <c r="C110" s="105"/>
+      <c r="D110" s="39" t="s">
+        <v>4</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="F110" s="19"/>
       <c r="G110" s="24"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="85"/>
-      <c r="B111" s="96"/>
-      <c r="C111" s="91"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="108"/>
+      <c r="C111" s="105"/>
       <c r="D111" s="68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F111" s="19"/>
       <c r="G111" s="24"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="85"/>
-      <c r="B112" s="96"/>
-      <c r="C112" s="91"/>
-      <c r="D112" s="9" t="s">
+      <c r="A112" s="90"/>
+      <c r="B112" s="108"/>
+      <c r="C112" s="105"/>
+      <c r="D112" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F112" s="19"/>
+      <c r="G112" s="24"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="90"/>
+      <c r="B113" s="108"/>
+      <c r="C113" s="105"/>
+      <c r="D113" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="F112" s="22"/>
-      <c r="G112" s="24"/>
-    </row>
-    <row r="113" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="85"/>
-      <c r="B113" s="96"/>
-      <c r="C113" s="91"/>
-      <c r="D113" s="39" t="s">
-        <v>8</v>
-      </c>
       <c r="E113" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F113" s="22"/>
       <c r="G113" s="24"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="86"/>
-      <c r="B114" s="110"/>
-      <c r="C114" s="97"/>
-      <c r="D114" s="6" t="s">
+    <row r="114" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="90"/>
+      <c r="B114" s="108"/>
+      <c r="C114" s="105"/>
+      <c r="D114" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F114" s="22"/>
+      <c r="G114" s="24"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="91"/>
+      <c r="B115" s="109"/>
+      <c r="C115" s="106"/>
+      <c r="D115" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E114" s="16" t="s">
+      <c r="E115" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="F114" s="38"/>
-      <c r="G114" s="24"/>
-    </row>
-    <row r="115" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="92">
+      <c r="F115" s="38"/>
+      <c r="G115" s="24"/>
+    </row>
+    <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="92">
         <v>23</v>
       </c>
-      <c r="B115" s="94" t="s">
+      <c r="B116" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C115" s="90">
+      <c r="C116" s="104">
         <v>31</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D116" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="15" t="s">
+      <c r="E116" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="F115" s="37"/>
-      <c r="G115" s="24"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="93"/>
-      <c r="B116" s="96"/>
-      <c r="C116" s="91"/>
-      <c r="D116" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="E116" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="F116" s="19"/>
+      <c r="F116" s="37"/>
       <c r="G116" s="24"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="93"/>
-      <c r="B117" s="96"/>
-      <c r="C117" s="91"/>
+      <c r="B117" s="108"/>
+      <c r="C117" s="105"/>
       <c r="D117" s="39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="F117" s="19"/>
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="93"/>
-      <c r="B118" s="96"/>
-      <c r="C118" s="91"/>
+      <c r="B118" s="108"/>
+      <c r="C118" s="105"/>
       <c r="D118" s="39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="24"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="93"/>
-      <c r="B119" s="96"/>
-      <c r="C119" s="91"/>
+      <c r="B119" s="108"/>
+      <c r="C119" s="105"/>
       <c r="D119" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F119" s="19"/>
       <c r="G119" s="24"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="93"/>
-      <c r="B120" s="96"/>
-      <c r="C120" s="91"/>
+      <c r="B120" s="108"/>
+      <c r="C120" s="105"/>
       <c r="D120" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E120" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="F120" s="19"/>
+      <c r="G120" s="24"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="93"/>
+      <c r="B121" s="108"/>
+      <c r="C121" s="105"/>
+      <c r="D121" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="E120" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F120" s="37"/>
-      <c r="G120" s="24"/>
-    </row>
-    <row r="121" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="93"/>
-      <c r="B121" s="96"/>
-      <c r="C121" s="91"/>
-      <c r="D121" s="39" t="s">
-        <v>13</v>
-      </c>
       <c r="E121" s="15" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="93"/>
-      <c r="B122" s="96"/>
-      <c r="C122" s="97"/>
-      <c r="D122" s="40" t="s">
+      <c r="B122" s="108"/>
+      <c r="C122" s="105"/>
+      <c r="D122" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F122" s="37"/>
+      <c r="G122" s="24"/>
+    </row>
+    <row r="123" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="93"/>
+      <c r="B123" s="108"/>
+      <c r="C123" s="106"/>
+      <c r="D123" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E123" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F122" s="38"/>
-      <c r="G122" s="24"/>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="93"/>
-      <c r="B123" s="96"/>
-      <c r="C123" s="90">
+      <c r="F123" s="38"/>
+      <c r="G123" s="24"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="93"/>
+      <c r="B124" s="108"/>
+      <c r="C124" s="104">
         <v>32</v>
       </c>
-      <c r="D123" s="6" t="s">
+      <c r="D124" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E123" s="15" t="s">
+      <c r="E124" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="F123" s="19"/>
-      <c r="G123" s="24"/>
-    </row>
-    <row r="124" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="93"/>
-      <c r="B124" s="96"/>
-      <c r="C124" s="91"/>
-      <c r="D124" s="59" t="s">
+      <c r="F124" s="19"/>
+      <c r="G124" s="24"/>
+    </row>
+    <row r="125" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="93"/>
+      <c r="B125" s="108"/>
+      <c r="C125" s="105"/>
+      <c r="D125" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E124" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F124" s="66"/>
-      <c r="G124" s="24"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="93"/>
-      <c r="B125" s="96"/>
-      <c r="C125" s="97"/>
-      <c r="D125" s="69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="F125" s="38"/>
+      <c r="E125" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F125" s="66"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="93"/>
-      <c r="B126" s="96"/>
-      <c r="C126" s="90">
+      <c r="B126" s="108"/>
+      <c r="C126" s="106"/>
+      <c r="D126" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F126" s="38"/>
+      <c r="G126" s="24"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="93"/>
+      <c r="B127" s="108"/>
+      <c r="C127" s="104">
         <v>33</v>
       </c>
-      <c r="D126" s="6" t="s">
+      <c r="D127" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="F126" s="19"/>
-      <c r="G126" s="24"/>
-    </row>
-    <row r="127" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="93"/>
-      <c r="B127" s="96"/>
-      <c r="C127" s="91"/>
-      <c r="D127" s="59" t="s">
+      <c r="E127" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="F127" s="19"/>
+      <c r="G127" s="24"/>
+    </row>
+    <row r="128" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="93"/>
+      <c r="B128" s="108"/>
+      <c r="C128" s="105"/>
+      <c r="D128" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="E127" s="15" t="s">
+      <c r="E128" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="F127" s="66"/>
-      <c r="G127" s="24"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="103"/>
-      <c r="B128" s="110"/>
-      <c r="C128" s="97"/>
-      <c r="D128" s="40" t="s">
+      <c r="F128" s="66"/>
+      <c r="G128" s="24"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="94"/>
+      <c r="B129" s="109"/>
+      <c r="C129" s="106"/>
+      <c r="D129" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="E128" s="16" t="s">
+      <c r="E129" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F128" s="38"/>
-      <c r="G128" s="24"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="92">
+      <c r="F129" s="38"/>
+      <c r="G129" s="24"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="92">
         <v>24</v>
       </c>
-      <c r="B129" s="92" t="s">
-        <v>187</v>
-      </c>
-      <c r="C129" s="87">
+      <c r="B130" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="C130" s="98">
         <v>11</v>
       </c>
-      <c r="D129" s="6" t="s">
+      <c r="D130" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E129" s="15" t="s">
+      <c r="E130" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="F129" s="19"/>
-      <c r="G129" s="24"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="93"/>
-      <c r="B130" s="93"/>
-      <c r="C130" s="101"/>
-      <c r="D130" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="15" t="s">
-        <v>71</v>
       </c>
       <c r="F130" s="19"/>
       <c r="G130" s="24"/>
@@ -3447,12 +3451,12 @@
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="93"/>
       <c r="B131" s="93"/>
-      <c r="C131" s="101"/>
-      <c r="D131" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E131" s="14" t="s">
-        <v>132</v>
+      <c r="C131" s="99"/>
+      <c r="D131" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="F131" s="19"/>
       <c r="G131" s="24"/>
@@ -3460,12 +3464,12 @@
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="93"/>
       <c r="B132" s="93"/>
-      <c r="C132" s="101"/>
+      <c r="C132" s="99"/>
       <c r="D132" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F132" s="19"/>
       <c r="G132" s="24"/>
@@ -3473,25 +3477,25 @@
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="93"/>
       <c r="B133" s="93"/>
-      <c r="C133" s="101"/>
+      <c r="C133" s="99"/>
       <c r="D133" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="F133" s="22"/>
+        <v>133</v>
+      </c>
+      <c r="F133" s="19"/>
       <c r="G133" s="24"/>
     </row>
-    <row r="134" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="93"/>
       <c r="B134" s="93"/>
-      <c r="C134" s="101"/>
+      <c r="C134" s="99"/>
       <c r="D134" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" s="30" t="s">
-        <v>137</v>
+        <v>7</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>136</v>
       </c>
       <c r="F134" s="22"/>
       <c r="G134" s="24"/>
@@ -3499,38 +3503,38 @@
     <row r="135" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="93"/>
       <c r="B135" s="93"/>
-      <c r="C135" s="101"/>
-      <c r="D135" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E135" s="15" t="s">
-        <v>130</v>
+      <c r="C135" s="99"/>
+      <c r="D135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="30" t="s">
+        <v>137</v>
       </c>
       <c r="F135" s="22"/>
       <c r="G135" s="24"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="93"/>
       <c r="B136" s="93"/>
-      <c r="C136" s="101"/>
+      <c r="C136" s="99"/>
       <c r="D136" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F136" s="22"/>
       <c r="G136" s="24"/>
     </row>
-    <row r="137" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="93"/>
       <c r="B137" s="93"/>
-      <c r="C137" s="101"/>
-      <c r="D137" s="9" t="s">
-        <v>13</v>
+      <c r="C137" s="99"/>
+      <c r="D137" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="F137" s="22"/>
       <c r="G137" s="24"/>
@@ -3538,705 +3542,673 @@
     <row r="138" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="93"/>
       <c r="B138" s="93"/>
-      <c r="C138" s="101"/>
-      <c r="D138" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E138" s="14" t="s">
-        <v>134</v>
+      <c r="C138" s="99"/>
+      <c r="D138" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="15" t="s">
+        <v>70</v>
       </c>
       <c r="F138" s="22"/>
       <c r="G138" s="24"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="103"/>
-      <c r="B139" s="103"/>
-      <c r="C139" s="102"/>
-      <c r="D139" s="8" t="s">
+    <row r="139" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="93"/>
+      <c r="B139" s="93"/>
+      <c r="C139" s="99"/>
+      <c r="D139" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="F139" s="22"/>
+      <c r="G139" s="24"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="94"/>
+      <c r="B140" s="94"/>
+      <c r="C140" s="100"/>
+      <c r="D140" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E140" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F139" s="21"/>
-      <c r="G139" s="24"/>
-    </row>
-    <row r="140" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="92">
+      <c r="F140" s="21"/>
+      <c r="G140" s="24"/>
+    </row>
+    <row r="141" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="92">
         <v>25</v>
       </c>
-      <c r="B140" s="84" t="s">
+      <c r="B141" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="C140" s="111">
+      <c r="C141" s="95">
         <v>29</v>
       </c>
-      <c r="D140" s="51" t="s">
+      <c r="D141" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E140" s="15" t="s">
+      <c r="E141" s="15" t="s">
         <v>73</v>
-      </c>
-      <c r="F140" s="29"/>
-      <c r="G140" s="24"/>
-    </row>
-    <row r="141" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="93"/>
-      <c r="B141" s="85"/>
-      <c r="C141" s="112"/>
-      <c r="D141" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E141" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="F141" s="29"/>
       <c r="G141" s="24"/>
     </row>
     <row r="142" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="93"/>
-      <c r="B142" s="85"/>
-      <c r="C142" s="112"/>
+      <c r="B142" s="90"/>
+      <c r="C142" s="96"/>
       <c r="D142" s="53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E142" s="15" t="s">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="F142" s="29"/>
       <c r="G142" s="24"/>
     </row>
     <row r="143" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="93"/>
-      <c r="B143" s="85"/>
-      <c r="C143" s="112"/>
+      <c r="B143" s="90"/>
+      <c r="C143" s="96"/>
       <c r="D143" s="53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F143" s="29"/>
       <c r="G143" s="24"/>
     </row>
     <row r="144" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="93"/>
-      <c r="B144" s="85"/>
-      <c r="C144" s="112"/>
-      <c r="D144" s="59" t="s">
-        <v>7</v>
+      <c r="B144" s="90"/>
+      <c r="C144" s="96"/>
+      <c r="D144" s="53" t="s">
+        <v>6</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="F144" s="29"/>
       <c r="G144" s="24"/>
     </row>
     <row r="145" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="93"/>
-      <c r="B145" s="85"/>
-      <c r="C145" s="112"/>
+      <c r="B145" s="90"/>
+      <c r="C145" s="96"/>
       <c r="D145" s="59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E145" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F145" s="29"/>
       <c r="G145" s="24"/>
     </row>
     <row r="146" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="93"/>
-      <c r="B146" s="85"/>
-      <c r="C146" s="112"/>
-      <c r="D146" s="53" t="s">
-        <v>13</v>
+      <c r="B146" s="90"/>
+      <c r="C146" s="96"/>
+      <c r="D146" s="59" t="s">
+        <v>8</v>
       </c>
       <c r="E146" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F146" s="29"/>
       <c r="G146" s="24"/>
     </row>
     <row r="147" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="93"/>
-      <c r="B147" s="85"/>
-      <c r="C147" s="113"/>
+      <c r="B147" s="90"/>
+      <c r="C147" s="96"/>
       <c r="D147" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="E147" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="F147" s="29"/>
       <c r="G147" s="24"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="93"/>
-      <c r="B148" s="85"/>
-      <c r="C148" s="116">
-        <v>21</v>
-      </c>
-      <c r="D148" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="E148" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F148" s="19"/>
+      <c r="B148" s="90"/>
+      <c r="C148" s="97"/>
+      <c r="D148" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F148" s="29"/>
       <c r="G148" s="24"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="93"/>
-      <c r="B149" s="85"/>
-      <c r="C149" s="114"/>
-      <c r="D149" s="53" t="s">
-        <v>4</v>
+      <c r="B149" s="90"/>
+      <c r="C149" s="101">
+        <v>21</v>
+      </c>
+      <c r="D149" s="51" t="s">
+        <v>3</v>
       </c>
       <c r="E149" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F149" s="19"/>
       <c r="G149" s="24"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="93"/>
-      <c r="B150" s="85"/>
-      <c r="C150" s="114"/>
+      <c r="B150" s="90"/>
+      <c r="C150" s="102"/>
       <c r="D150" s="53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E150" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="F150" s="22"/>
+        <v>74</v>
+      </c>
+      <c r="F150" s="19"/>
       <c r="G150" s="24"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="93"/>
-      <c r="B151" s="85"/>
-      <c r="C151" s="114"/>
-      <c r="D151" s="59" t="s">
-        <v>6</v>
+      <c r="B151" s="90"/>
+      <c r="C151" s="102"/>
+      <c r="D151" s="53" t="s">
+        <v>5</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="F151" s="22"/>
       <c r="G151" s="24"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="93"/>
-      <c r="B152" s="85"/>
-      <c r="C152" s="114"/>
+      <c r="B152" s="90"/>
+      <c r="C152" s="102"/>
       <c r="D152" s="59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F152" s="22"/>
       <c r="G152" s="24"/>
     </row>
-    <row r="153" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="93"/>
-      <c r="B153" s="85"/>
-      <c r="C153" s="114"/>
+      <c r="B153" s="90"/>
+      <c r="C153" s="102"/>
       <c r="D153" s="59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F153" s="22"/>
       <c r="G153" s="24"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="93"/>
-      <c r="B154" s="85"/>
-      <c r="C154" s="114"/>
-      <c r="D154" s="53" t="s">
-        <v>9</v>
+      <c r="B154" s="90"/>
+      <c r="C154" s="102"/>
+      <c r="D154" s="59" t="s">
+        <v>8</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="F154" s="22"/>
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="93"/>
-      <c r="B155" s="85"/>
-      <c r="C155" s="114"/>
+      <c r="B155" s="90"/>
+      <c r="C155" s="102"/>
       <c r="D155" s="53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E155" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F155" s="22"/>
       <c r="G155" s="24"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="93"/>
-      <c r="B156" s="85"/>
-      <c r="C156" s="114"/>
+      <c r="B156" s="90"/>
+      <c r="C156" s="102"/>
       <c r="D156" s="53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E156" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F156" s="22"/>
       <c r="G156" s="24"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="93"/>
-      <c r="B157" s="85"/>
-      <c r="C157" s="115"/>
-      <c r="D157" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F157" s="41"/>
+      <c r="B157" s="90"/>
+      <c r="C157" s="102"/>
+      <c r="D157" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F157" s="22"/>
       <c r="G157" s="24"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="93"/>
-      <c r="B158" s="85"/>
-      <c r="C158" s="114">
-        <v>23</v>
-      </c>
-      <c r="D158" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="E158" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="F158" s="42"/>
+      <c r="B158" s="90"/>
+      <c r="C158" s="103"/>
+      <c r="D158" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F158" s="41"/>
       <c r="G158" s="24"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="93"/>
-      <c r="B159" s="85"/>
-      <c r="C159" s="114"/>
+      <c r="B159" s="90"/>
+      <c r="C159" s="102">
+        <v>23</v>
+      </c>
       <c r="D159" s="53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E159" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F159" s="22"/>
+        <v>73</v>
+      </c>
+      <c r="F159" s="42"/>
       <c r="G159" s="24"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="93"/>
-      <c r="B160" s="85"/>
-      <c r="C160" s="114"/>
+      <c r="B160" s="90"/>
+      <c r="C160" s="102"/>
       <c r="D160" s="53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E160" s="15" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="F160" s="22"/>
       <c r="G160" s="24"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="93"/>
-      <c r="B161" s="85"/>
-      <c r="C161" s="114"/>
-      <c r="D161" s="59" t="s">
-        <v>6</v>
+      <c r="B161" s="90"/>
+      <c r="C161" s="102"/>
+      <c r="D161" s="53" t="s">
+        <v>5</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F161" s="19"/>
+        <v>91</v>
+      </c>
+      <c r="F161" s="22"/>
       <c r="G161" s="24"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="93"/>
-      <c r="B162" s="85"/>
-      <c r="C162" s="114"/>
+      <c r="B162" s="90"/>
+      <c r="C162" s="102"/>
       <c r="D162" s="59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F162" s="19"/>
       <c r="G162" s="24"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="93"/>
-      <c r="B163" s="85"/>
-      <c r="C163" s="114"/>
+      <c r="B163" s="90"/>
+      <c r="C163" s="102"/>
       <c r="D163" s="59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E163" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F163" s="19"/>
       <c r="G163" s="24"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="93"/>
-      <c r="B164" s="85"/>
-      <c r="C164" s="114"/>
-      <c r="D164" s="53" t="s">
-        <v>9</v>
+      <c r="B164" s="90"/>
+      <c r="C164" s="102"/>
+      <c r="D164" s="59" t="s">
+        <v>8</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="F164" s="19"/>
       <c r="G164" s="24"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="93"/>
-      <c r="B165" s="85"/>
-      <c r="C165" s="114"/>
+      <c r="B165" s="90"/>
+      <c r="C165" s="102"/>
       <c r="D165" s="53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E165" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F165" s="19"/>
       <c r="G165" s="24"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="93"/>
-      <c r="B166" s="85"/>
-      <c r="C166" s="114"/>
+      <c r="B166" s="90"/>
+      <c r="C166" s="102"/>
       <c r="D166" s="53" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E166" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F166" s="19"/>
       <c r="G166" s="24"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="93"/>
-      <c r="B167" s="85"/>
-      <c r="C167" s="115"/>
-      <c r="D167" s="52" t="s">
+      <c r="B167" s="90"/>
+      <c r="C167" s="102"/>
+      <c r="D167" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E167" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F167" s="19"/>
+      <c r="G167" s="24"/>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="93"/>
+      <c r="B168" s="90"/>
+      <c r="C168" s="103"/>
+      <c r="D168" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="E168" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F167" s="21"/>
-      <c r="G167" s="24"/>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="92">
+      <c r="F168" s="21"/>
+      <c r="G168" s="24"/>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="92">
         <v>26</v>
       </c>
-      <c r="B168" s="84" t="s">
-        <v>188</v>
-      </c>
-      <c r="C168" s="117">
+      <c r="B169" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="C169" s="86">
         <v>25</v>
       </c>
-      <c r="D168" s="53" t="s">
+      <c r="D169" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E168" s="15" t="s">
+      <c r="E169" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="F168" s="22"/>
-      <c r="G168" s="24"/>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="93"/>
-      <c r="B169" s="85"/>
-      <c r="C169" s="104"/>
-      <c r="D169" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E169" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F169" s="19"/>
+      <c r="F169" s="22"/>
       <c r="G169" s="24"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="93"/>
-      <c r="B170" s="85"/>
-      <c r="C170" s="104"/>
-      <c r="D170" s="63" t="s">
-        <v>5</v>
-      </c>
-      <c r="E170" s="30" t="s">
-        <v>132</v>
+      <c r="B170" s="90"/>
+      <c r="C170" s="87"/>
+      <c r="D170" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170" s="15" t="s">
+        <v>93</v>
       </c>
       <c r="F170" s="19"/>
       <c r="G170" s="24"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="93"/>
-      <c r="B171" s="85"/>
-      <c r="C171" s="104"/>
+      <c r="B171" s="90"/>
+      <c r="C171" s="87"/>
       <c r="D171" s="63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E171" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F171" s="19"/>
       <c r="G171" s="24"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="93"/>
-      <c r="B172" s="85"/>
-      <c r="C172" s="104"/>
+      <c r="B172" s="90"/>
+      <c r="C172" s="87"/>
       <c r="D172" s="63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E172" s="30" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F172" s="19"/>
       <c r="G172" s="24"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="93"/>
-      <c r="B173" s="85"/>
-      <c r="C173" s="104"/>
+      <c r="B173" s="90"/>
+      <c r="C173" s="87"/>
       <c r="D173" s="63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E173" s="30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F173" s="19"/>
       <c r="G173" s="24"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="93"/>
-      <c r="B174" s="85"/>
-      <c r="C174" s="104"/>
-      <c r="D174" s="59" t="s">
-        <v>9</v>
-      </c>
-      <c r="E174" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F174" s="22"/>
+      <c r="B174" s="90"/>
+      <c r="C174" s="87"/>
+      <c r="D174" s="63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F174" s="19"/>
       <c r="G174" s="24"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="93"/>
-      <c r="B175" s="85"/>
-      <c r="C175" s="104"/>
+      <c r="B175" s="90"/>
+      <c r="C175" s="87"/>
       <c r="D175" s="59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E175" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F175" s="22"/>
       <c r="G175" s="24"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="93"/>
-      <c r="B176" s="85"/>
-      <c r="C176" s="104"/>
+      <c r="B176" s="90"/>
+      <c r="C176" s="87"/>
       <c r="D176" s="59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E176" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="F176" s="19"/>
+        <v>173</v>
+      </c>
+      <c r="F176" s="22"/>
       <c r="G176" s="24"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="93"/>
-      <c r="B177" s="85"/>
-      <c r="C177" s="104"/>
-      <c r="D177" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E177" s="30" t="s">
-        <v>134</v>
+      <c r="B177" s="90"/>
+      <c r="C177" s="87"/>
+      <c r="D177" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E177" s="15" t="s">
+        <v>94</v>
       </c>
       <c r="F177" s="19"/>
       <c r="G177" s="24"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="103"/>
-      <c r="B178" s="86"/>
-      <c r="C178" s="105"/>
-      <c r="D178" s="78" t="s">
+      <c r="A178" s="93"/>
+      <c r="B178" s="90"/>
+      <c r="C178" s="87"/>
+      <c r="D178" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" s="30" t="s">
+        <v>134</v>
+      </c>
+      <c r="F178" s="19"/>
+      <c r="G178" s="24"/>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="94"/>
+      <c r="B179" s="91"/>
+      <c r="C179" s="88"/>
+      <c r="D179" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="E178" s="18" t="s">
+      <c r="E179" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="F178" s="21"/>
-      <c r="G178" s="24"/>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="84">
+      <c r="F179" s="21"/>
+      <c r="G179" s="24"/>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="89">
         <v>27</v>
       </c>
-      <c r="B179" s="84" t="s">
+      <c r="B180" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C179" s="87">
+      <c r="C180" s="98">
         <v>24</v>
       </c>
-      <c r="D179" s="80" t="s">
+      <c r="D180" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="E179" s="73" t="s">
+      <c r="E180" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="F179" s="42"/>
-      <c r="G179" s="24"/>
-    </row>
-    <row r="180" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="85"/>
-      <c r="B180" s="85"/>
-      <c r="C180" s="88"/>
-      <c r="D180" s="81" t="s">
+      <c r="F180" s="42"/>
+      <c r="G180" s="24"/>
+    </row>
+    <row r="181" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="90"/>
+      <c r="B181" s="90"/>
+      <c r="C181" s="114"/>
+      <c r="D181" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E180" s="15" t="s">
+      <c r="E181" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="F180" s="22"/>
-      <c r="G180" s="24"/>
-    </row>
-    <row r="181" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="85"/>
-      <c r="B181" s="85"/>
-      <c r="C181" s="88"/>
-      <c r="D181" s="77" t="s">
+      <c r="F181" s="22"/>
+      <c r="G181" s="24"/>
+    </row>
+    <row r="182" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="90"/>
+      <c r="B182" s="90"/>
+      <c r="C182" s="114"/>
+      <c r="D182" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E181" s="79" t="s">
+      <c r="E182" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="F181" s="74"/>
-      <c r="G181" s="24"/>
-    </row>
-    <row r="182" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="85"/>
-      <c r="B182" s="85"/>
-      <c r="C182" s="88"/>
-      <c r="D182" s="77" t="s">
+      <c r="F182" s="74"/>
+      <c r="G182" s="24"/>
+    </row>
+    <row r="183" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="90"/>
+      <c r="B183" s="90"/>
+      <c r="C183" s="114"/>
+      <c r="D183" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="E182" s="79" t="s">
+      <c r="E183" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="F182" s="22"/>
-      <c r="G182" s="24"/>
-    </row>
-    <row r="183" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="85"/>
-      <c r="B183" s="85"/>
-      <c r="C183" s="88"/>
-      <c r="D183" s="81" t="s">
+      <c r="F183" s="22"/>
+      <c r="G183" s="24"/>
+    </row>
+    <row r="184" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="90"/>
+      <c r="B184" s="90"/>
+      <c r="C184" s="114"/>
+      <c r="D184" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="E183" s="15" t="s">
+      <c r="E184" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="F183" s="75"/>
-      <c r="G183" s="24"/>
-    </row>
-    <row r="184" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="86"/>
-      <c r="B184" s="86"/>
-      <c r="C184" s="89"/>
-      <c r="D184" s="82" t="s">
+      <c r="F184" s="75"/>
+      <c r="G184" s="24"/>
+    </row>
+    <row r="185" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="91"/>
+      <c r="B185" s="91"/>
+      <c r="C185" s="115"/>
+      <c r="D185" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="E184" s="16" t="s">
+      <c r="E185" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="F184" s="76"/>
-      <c r="G184" s="24"/>
-    </row>
-    <row r="185" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="13">
+      <c r="F185" s="76"/>
+      <c r="G185" s="24"/>
+    </row>
+    <row r="186" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="13">
         <v>28</v>
       </c>
-      <c r="B185" s="13" t="s">
+      <c r="B186" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C185" s="36">
+      <c r="C186" s="36">
         <v>14</v>
       </c>
-      <c r="D185" s="50" t="s">
+      <c r="D186" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E185" s="18" t="s">
+      <c r="E186" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F185" s="41"/>
-      <c r="G185" s="24"/>
+      <c r="F186" s="41"/>
+      <c r="G186" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C168:C178"/>
-    <mergeCell ref="B168:B178"/>
-    <mergeCell ref="A168:A178"/>
-    <mergeCell ref="C140:C147"/>
-    <mergeCell ref="B140:B167"/>
-    <mergeCell ref="C129:C139"/>
-    <mergeCell ref="B129:B139"/>
-    <mergeCell ref="A129:A139"/>
-    <mergeCell ref="C148:C157"/>
-    <mergeCell ref="A140:A167"/>
-    <mergeCell ref="C158:C167"/>
-    <mergeCell ref="C123:C125"/>
-    <mergeCell ref="C126:C128"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="C115:C122"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="B102:B107"/>
-    <mergeCell ref="A102:A107"/>
-    <mergeCell ref="C108:C114"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="A108:A114"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C67:C77"/>
-    <mergeCell ref="B67:B77"/>
-    <mergeCell ref="A67:A77"/>
-    <mergeCell ref="C91:C98"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="A91:A98"/>
-    <mergeCell ref="C88:C90"/>
-    <mergeCell ref="B88:B90"/>
-    <mergeCell ref="A88:A90"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B80:B87"/>
-    <mergeCell ref="C80:C87"/>
-    <mergeCell ref="A80:A87"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="C56:C66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="A56:A66"/>
-    <mergeCell ref="B179:B184"/>
-    <mergeCell ref="A179:A184"/>
-    <mergeCell ref="C179:C184"/>
+    <mergeCell ref="B180:B185"/>
+    <mergeCell ref="A180:A185"/>
+    <mergeCell ref="C180:C185"/>
     <mergeCell ref="C22:C32"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="A22:A32"/>
@@ -4250,6 +4222,51 @@
     <mergeCell ref="C43:C54"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="A43:A54"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="C56:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="A56:A66"/>
+    <mergeCell ref="C67:C78"/>
+    <mergeCell ref="B67:B78"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="A109:A115"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="B116:B129"/>
+    <mergeCell ref="A116:A129"/>
+    <mergeCell ref="C116:C123"/>
+    <mergeCell ref="C130:C140"/>
+    <mergeCell ref="B130:B140"/>
+    <mergeCell ref="A130:A140"/>
+    <mergeCell ref="C149:C158"/>
+    <mergeCell ref="A141:A168"/>
+    <mergeCell ref="C159:C168"/>
+    <mergeCell ref="C169:C179"/>
+    <mergeCell ref="B169:B179"/>
+    <mergeCell ref="A169:A179"/>
+    <mergeCell ref="C141:C148"/>
+    <mergeCell ref="B141:B168"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4293,40 +4310,40 @@
       <c r="A5" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="118" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="118"/>
-      <c r="J5" s="118"/>
-      <c r="K5" s="118"/>
-      <c r="L5" s="118"/>
-      <c r="M5" s="118"/>
-      <c r="N5" s="118"/>
-      <c r="O5" s="118"/>
+      <c r="E5" s="120" t="s">
+        <v>181</v>
+      </c>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="120"/>
+      <c r="L5" s="120"/>
+      <c r="M5" s="120"/>
+      <c r="N5" s="120"/>
+      <c r="O5" s="120"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E6" s="118" t="s">
+      <c r="E6" s="120" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="120"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="120" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" s="120"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="118"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="118" t="s">
-        <v>178</v>
-      </c>
-      <c r="I6" s="118"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="118" t="s">
+      <c r="L6" s="120"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="120" t="s">
         <v>180</v>
       </c>
-      <c r="L6" s="118"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="118" t="s">
-        <v>181</v>
-      </c>
-      <c r="O6" s="118"/>
+      <c r="O6" s="120"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E7" s="83">
@@ -4343,17 +4360,17 @@
         <v>2</v>
       </c>
       <c r="J7" s="83"/>
-      <c r="K7" s="118">
+      <c r="K7" s="120">
         <v>1</v>
       </c>
-      <c r="L7" s="118">
+      <c r="L7" s="120">
         <v>2</v>
       </c>
       <c r="M7" s="83"/>
-      <c r="N7" s="118">
+      <c r="N7" s="120">
         <v>1</v>
       </c>
-      <c r="O7" s="118"/>
+      <c r="O7" s="120"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E8" s="83">
@@ -4370,11 +4387,11 @@
         <v>4</v>
       </c>
       <c r="J8" s="83"/>
-      <c r="K8" s="118"/>
-      <c r="L8" s="118"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
       <c r="M8" s="83"/>
-      <c r="N8" s="118"/>
-      <c r="O8" s="118"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E9" s="83">

--- a/Robak/doc/Makra.xlsx
+++ b/Robak/doc/Makra.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="190">
   <si>
     <t>Działanie</t>
   </si>
@@ -266,18 +266,12 @@
     <t>Uwagi inwestora</t>
   </si>
   <si>
-    <t>Ekran Dół</t>
-  </si>
-  <si>
     <t>60_on, 68_on, 69_on, 70_on</t>
   </si>
   <si>
     <t>60_off, 68_off, 69_off, 70_off</t>
   </si>
   <si>
-    <t>Ekran Góra</t>
-  </si>
-  <si>
     <t>76_TOG</t>
   </si>
   <si>
@@ -477,9 +471,6 @@
   </si>
   <si>
     <t>60_on, 68_on, 69_off, 70_off</t>
-  </si>
-  <si>
-    <t>70_TOG</t>
   </si>
   <si>
     <t>docelowo 64_30%</t>
@@ -686,6 +677,12 @@
   </si>
   <si>
     <t>77_on, 102_on</t>
+  </si>
+  <si>
+    <t>rol 005-009 DownAndTilt</t>
+  </si>
+  <si>
+    <t>rol 005-009 AllUp</t>
   </si>
 </sst>
 </file>
@@ -1193,106 +1190,106 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1601,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1650,10 +1647,10 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="92">
+      <c r="A3" s="94">
         <v>1</v>
       </c>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="98" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="70">
@@ -1669,8 +1666,8 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="93"/>
-      <c r="B4" s="108"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="70">
         <v>4</v>
       </c>
@@ -1684,199 +1681,199 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="105">
+      <c r="A5" s="95"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="93">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F5" s="19"/>
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="93"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="105"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="62" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="107">
+      <c r="A7" s="96">
         <v>2</v>
       </c>
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="104">
+      <c r="C7" s="92">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="19"/>
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="108"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="105"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F8" s="19"/>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="105"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="105"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="93"/>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="105"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="93"/>
       <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="108"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="105"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="108"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="105"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="93"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="105"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="105"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="59" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F15" s="66"/>
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="105"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="68" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F16" s="66"/>
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="105"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="68" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F17" s="66"/>
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="108"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="106"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="99"/>
       <c r="D18" s="62" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="108"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="104">
+      <c r="A19" s="98"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="92">
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1889,9 +1886,9 @@
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="108"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="106"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="99"/>
       <c r="D20" s="7" t="s">
         <v>4</v>
       </c>
@@ -1902,8 +1899,8 @@
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="108"/>
-      <c r="B21" s="119"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="102"/>
       <c r="C21" s="70">
         <v>17</v>
       </c>
@@ -1917,68 +1914,68 @@
       <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="92">
+      <c r="A22" s="94">
         <v>3</v>
       </c>
-      <c r="B22" s="107" t="s">
+      <c r="B22" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="104">
+      <c r="C22" s="92">
         <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F22" s="20"/>
       <c r="G22" s="31"/>
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="105"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="93"/>
       <c r="D23" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="93"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="105"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="93"/>
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>83</v>
+        <v>188</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="93"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="105"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="93"/>
       <c r="D25" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>154</v>
+        <v>49</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="93"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="105"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
@@ -1989,9 +1986,9 @@
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="93"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="105"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="6" t="s">
         <v>8</v>
       </c>
@@ -2002,9 +1999,9 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="93"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="105"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="93"/>
       <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
@@ -2015,9 +2012,9 @@
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="93"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="105"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="9" t="s">
         <v>10</v>
       </c>
@@ -2028,52 +2025,52 @@
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="93"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="105"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="93"/>
       <c r="D30" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="93"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="105"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="93"/>
       <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F31" s="19"/>
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="93"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="105"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="16" t="s">
-        <v>86</v>
+      <c r="E32" s="15" t="s">
+        <v>189</v>
       </c>
       <c r="F32" s="67"/>
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="116">
+      <c r="A33" s="100">
         <v>4</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="104">
+      <c r="C33" s="92">
         <v>10</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -2086,9 +2083,9 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="117"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="105"/>
+      <c r="A34" s="101"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="93"/>
       <c r="D34" s="9" t="s">
         <v>4</v>
       </c>
@@ -2099,9 +2096,9 @@
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="117"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="105"/>
+      <c r="A35" s="101"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="9" t="s">
         <v>5</v>
       </c>
@@ -2109,14 +2106,14 @@
         <v>21</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="117"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="105"/>
+      <c r="A36" s="101"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="93"/>
       <c r="D36" s="9" t="s">
         <v>6</v>
       </c>
@@ -2127,9 +2124,9 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="117"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="105"/>
+      <c r="A37" s="101"/>
+      <c r="B37" s="101"/>
+      <c r="C37" s="93"/>
       <c r="D37" s="9" t="s">
         <v>7</v>
       </c>
@@ -2140,9 +2137,9 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="117"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="105"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="101"/>
+      <c r="C38" s="93"/>
       <c r="D38" s="9" t="s">
         <v>8</v>
       </c>
@@ -2153,9 +2150,9 @@
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="117"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="105"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="101"/>
+      <c r="C39" s="93"/>
       <c r="D39" s="9" t="s">
         <v>9</v>
       </c>
@@ -2166,9 +2163,9 @@
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="117"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="105"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
+      <c r="C40" s="93"/>
       <c r="D40" s="9" t="s">
         <v>10</v>
       </c>
@@ -2179,9 +2176,9 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="117"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="105"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="101"/>
+      <c r="C41" s="93"/>
       <c r="D41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2189,14 +2186,14 @@
         <v>19</v>
       </c>
       <c r="F41" s="19" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="117"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="106"/>
+      <c r="A42" s="101"/>
+      <c r="B42" s="101"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="7" t="s">
         <v>14</v>
       </c>
@@ -2207,13 +2204,13 @@
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="92">
+      <c r="A43" s="94">
         <v>5</v>
       </c>
-      <c r="B43" s="89" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" s="98">
+      <c r="B43" s="86" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="89">
         <v>9</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -2226,9 +2223,9 @@
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="93"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="99"/>
+      <c r="A44" s="95"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="103"/>
       <c r="D44" s="6" t="s">
         <v>4</v>
       </c>
@@ -2239,87 +2236,87 @@
       <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="93"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="99"/>
+      <c r="A45" s="95"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="103"/>
       <c r="D45" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F45" s="19"/>
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="93"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="99"/>
+      <c r="A46" s="95"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="103"/>
       <c r="D46" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F46" s="19"/>
       <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="93"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="99"/>
+      <c r="A47" s="95"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F47" s="19"/>
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="93"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="99"/>
+      <c r="A48" s="95"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F48" s="19"/>
       <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="93"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="99"/>
+      <c r="A49" s="95"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="103"/>
       <c r="D49" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F49" s="19"/>
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="93"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="99"/>
+      <c r="A50" s="95"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="103"/>
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F50" s="19"/>
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="93"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="99"/>
+      <c r="A51" s="95"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="6" t="s">
         <v>13</v>
       </c>
@@ -2330,9 +2327,9 @@
       <c r="G51" s="24"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="93"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="99"/>
+      <c r="A52" s="95"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="6" t="s">
         <v>14</v>
       </c>
@@ -2343,27 +2340,27 @@
       <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="93"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="99"/>
+      <c r="A53" s="95"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F53" s="19"/>
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="94"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="100"/>
+      <c r="A54" s="105"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="104"/>
       <c r="D54" s="65" t="s">
         <v>29</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="24"/>
@@ -2388,13 +2385,13 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="92">
+      <c r="A56" s="94">
         <v>7</v>
       </c>
-      <c r="B56" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="C56" s="87">
+      <c r="B56" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="106">
         <v>18</v>
       </c>
       <c r="D56" s="51" t="s">
@@ -2407,74 +2404,74 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="93"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="87"/>
+      <c r="A57" s="95"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="106"/>
       <c r="D57" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F57" s="19"/>
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="93"/>
-      <c r="B58" s="90"/>
-      <c r="C58" s="87"/>
+      <c r="A58" s="95"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="106"/>
       <c r="D58" s="63" t="s">
         <v>5</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F58" s="19"/>
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="93"/>
-      <c r="B59" s="90"/>
-      <c r="C59" s="87"/>
+      <c r="A59" s="95"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="106"/>
       <c r="D59" s="63" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F59" s="19"/>
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="93"/>
-      <c r="B60" s="90"/>
-      <c r="C60" s="87"/>
+      <c r="A60" s="95"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="106"/>
       <c r="D60" s="63" t="s">
         <v>7</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F60" s="19"/>
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="93"/>
-      <c r="B61" s="90"/>
-      <c r="C61" s="87"/>
+      <c r="A61" s="95"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="106"/>
       <c r="D61" s="63" t="s">
         <v>8</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F61" s="19"/>
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="93"/>
-      <c r="B62" s="90"/>
-      <c r="C62" s="87"/>
+      <c r="A62" s="95"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="106"/>
       <c r="D62" s="59" t="s">
         <v>9</v>
       </c>
@@ -2485,9 +2482,9 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="93"/>
-      <c r="B63" s="90"/>
-      <c r="C63" s="87"/>
+      <c r="A63" s="95"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="106"/>
       <c r="D63" s="59" t="s">
         <v>10</v>
       </c>
@@ -2498,9 +2495,9 @@
       <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="93"/>
-      <c r="B64" s="90"/>
-      <c r="C64" s="87"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="106"/>
       <c r="D64" s="59" t="s">
         <v>13</v>
       </c>
@@ -2511,233 +2508,233 @@
       <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="93"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="87"/>
+      <c r="A65" s="95"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="106"/>
       <c r="D65" s="63" t="s">
         <v>15</v>
       </c>
       <c r="E65" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F65" s="19"/>
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="94"/>
-      <c r="B66" s="91"/>
-      <c r="C66" s="88"/>
+      <c r="A66" s="105"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="107"/>
       <c r="D66" s="64" t="s">
         <v>29</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F66" s="21"/>
       <c r="G66" s="24"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="92">
+      <c r="A67" s="94">
         <v>8</v>
       </c>
-      <c r="B67" s="89" t="s">
-        <v>185</v>
-      </c>
-      <c r="C67" s="110">
+      <c r="B67" s="86" t="s">
+        <v>182</v>
+      </c>
+      <c r="C67" s="108">
         <v>19</v>
       </c>
       <c r="D67" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F67" s="22"/>
       <c r="G67" s="24"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="93"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="111"/>
+      <c r="A68" s="95"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="109"/>
       <c r="D68" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="93"/>
-      <c r="B69" s="90"/>
-      <c r="C69" s="111"/>
+      <c r="A69" s="95"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="109"/>
       <c r="D69" s="63" t="s">
         <v>5</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F69" s="22"/>
       <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="93"/>
-      <c r="B70" s="90"/>
-      <c r="C70" s="111"/>
+      <c r="A70" s="95"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="109"/>
       <c r="D70" s="63" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" s="22"/>
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="93"/>
-      <c r="B71" s="90"/>
-      <c r="C71" s="111"/>
+      <c r="A71" s="95"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="109"/>
       <c r="D71" s="63" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F71" s="22"/>
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="93"/>
-      <c r="B72" s="90"/>
-      <c r="C72" s="111"/>
+      <c r="A72" s="95"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="109"/>
       <c r="D72" s="63" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" s="22"/>
       <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="93"/>
-      <c r="B73" s="90"/>
-      <c r="C73" s="111"/>
+      <c r="A73" s="95"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="109"/>
       <c r="D73" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F73" s="22"/>
       <c r="G73" s="24"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="93"/>
-      <c r="B74" s="90"/>
-      <c r="C74" s="111"/>
+      <c r="A74" s="95"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="109"/>
       <c r="D74" s="59" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" s="22"/>
       <c r="G74" s="24"/>
     </row>
     <row r="75" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="93"/>
-      <c r="B75" s="90"/>
-      <c r="C75" s="111"/>
+      <c r="A75" s="95"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="109"/>
       <c r="D75" s="85" t="s">
         <v>13</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="93"/>
-      <c r="B76" s="90"/>
-      <c r="C76" s="111"/>
+      <c r="A76" s="95"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="109"/>
       <c r="D76" s="59" t="s">
         <v>14</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F76" s="22"/>
       <c r="G76" s="24"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="93"/>
-      <c r="B77" s="90"/>
-      <c r="C77" s="111"/>
+      <c r="A77" s="95"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="109"/>
       <c r="D77" s="63" t="s">
         <v>15</v>
       </c>
       <c r="E77" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F77" s="19"/>
       <c r="G77" s="24"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="93"/>
-      <c r="B78" s="91"/>
-      <c r="C78" s="112"/>
+      <c r="A78" s="95"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="110"/>
       <c r="D78" s="64" t="s">
         <v>29</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F78" s="67"/>
       <c r="G78" s="24"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="92">
+      <c r="A79" s="94">
         <v>9</v>
       </c>
-      <c r="B79" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="C79" s="102">
+      <c r="B79" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="116">
         <v>26</v>
       </c>
       <c r="D79" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F79" s="19"/>
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="94"/>
-      <c r="B80" s="91"/>
-      <c r="C80" s="103"/>
+      <c r="A80" s="105"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="117"/>
       <c r="D80" s="52" t="s">
         <v>13</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F80" s="21"/>
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="92">
+      <c r="A81" s="94">
         <v>10</v>
       </c>
-      <c r="B81" s="89" t="s">
+      <c r="B81" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="87">
+      <c r="C81" s="106">
         <v>5</v>
       </c>
       <c r="D81" s="53" t="s">
@@ -2750,9 +2747,9 @@
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="93"/>
-      <c r="B82" s="90"/>
-      <c r="C82" s="87"/>
+      <c r="A82" s="95"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="106"/>
       <c r="D82" s="53" t="s">
         <v>4</v>
       </c>
@@ -2763,9 +2760,9 @@
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="93"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="87"/>
+      <c r="A83" s="95"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="106"/>
       <c r="D83" s="49" t="s">
         <v>5</v>
       </c>
@@ -2776,9 +2773,9 @@
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="93"/>
-      <c r="B84" s="90"/>
-      <c r="C84" s="87"/>
+      <c r="A84" s="95"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="106"/>
       <c r="D84" s="49" t="s">
         <v>6</v>
       </c>
@@ -2789,9 +2786,9 @@
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="93"/>
-      <c r="B85" s="90"/>
-      <c r="C85" s="87"/>
+      <c r="A85" s="95"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="106"/>
       <c r="D85" s="53" t="s">
         <v>7</v>
       </c>
@@ -2802,9 +2799,9 @@
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="93"/>
-      <c r="B86" s="90"/>
-      <c r="C86" s="87"/>
+      <c r="A86" s="95"/>
+      <c r="B86" s="87"/>
+      <c r="C86" s="106"/>
       <c r="D86" s="53" t="s">
         <v>8</v>
       </c>
@@ -2815,9 +2812,9 @@
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="93"/>
-      <c r="B87" s="90"/>
-      <c r="C87" s="87"/>
+      <c r="A87" s="95"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="106"/>
       <c r="D87" s="53" t="s">
         <v>13</v>
       </c>
@@ -2828,9 +2825,9 @@
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="94"/>
-      <c r="B88" s="91"/>
-      <c r="C88" s="88"/>
+      <c r="A88" s="105"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="107"/>
       <c r="D88" s="50" t="s">
         <v>14</v>
       </c>
@@ -2841,13 +2838,13 @@
       <c r="G88" s="24"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="108">
+      <c r="A89" s="98">
         <v>11</v>
       </c>
-      <c r="B89" s="89" t="s">
+      <c r="B89" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="95">
+      <c r="C89" s="113">
         <v>8</v>
       </c>
       <c r="D89" s="53" t="s">
@@ -2860,9 +2857,9 @@
       <c r="G89" s="24"/>
     </row>
     <row r="90" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="108"/>
-      <c r="B90" s="90"/>
-      <c r="C90" s="96"/>
+      <c r="A90" s="98"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="114"/>
       <c r="D90" s="53" t="s">
         <v>4</v>
       </c>
@@ -2873,26 +2870,26 @@
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="109"/>
-      <c r="B91" s="91"/>
-      <c r="C91" s="97"/>
+      <c r="A91" s="112"/>
+      <c r="B91" s="88"/>
+      <c r="C91" s="115"/>
       <c r="D91" s="52" t="s">
         <v>13</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F91" s="21"/>
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="92">
+      <c r="A92" s="94">
         <v>12</v>
       </c>
-      <c r="B92" s="108" t="s">
+      <c r="B92" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="113">
+      <c r="C92" s="111">
         <v>1</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -2905,9 +2902,9 @@
       <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="93"/>
-      <c r="B93" s="108"/>
-      <c r="C93" s="114"/>
+      <c r="A93" s="95"/>
+      <c r="B93" s="98"/>
+      <c r="C93" s="90"/>
       <c r="D93" s="53" t="s">
         <v>4</v>
       </c>
@@ -2918,35 +2915,35 @@
       <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="93"/>
-      <c r="B94" s="108"/>
-      <c r="C94" s="114"/>
+      <c r="A94" s="95"/>
+      <c r="B94" s="98"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="59" t="s">
         <v>5</v>
       </c>
       <c r="E94" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F94" s="19"/>
       <c r="G94" s="24"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="93"/>
-      <c r="B95" s="108"/>
-      <c r="C95" s="114"/>
+      <c r="A95" s="95"/>
+      <c r="B95" s="98"/>
+      <c r="C95" s="90"/>
       <c r="D95" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E95" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F95" s="19"/>
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="93"/>
-      <c r="B96" s="108"/>
-      <c r="C96" s="114"/>
+      <c r="A96" s="95"/>
+      <c r="B96" s="98"/>
+      <c r="C96" s="90"/>
       <c r="D96" s="49" t="s">
         <v>7</v>
       </c>
@@ -2957,9 +2954,9 @@
       <c r="G96" s="24"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="93"/>
-      <c r="B97" s="108"/>
-      <c r="C97" s="114"/>
+      <c r="A97" s="95"/>
+      <c r="B97" s="98"/>
+      <c r="C97" s="90"/>
       <c r="D97" s="49" t="s">
         <v>8</v>
       </c>
@@ -2970,9 +2967,9 @@
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="93"/>
-      <c r="B98" s="108"/>
-      <c r="C98" s="114"/>
+      <c r="A98" s="95"/>
+      <c r="B98" s="98"/>
+      <c r="C98" s="90"/>
       <c r="D98" s="49" t="s">
         <v>13</v>
       </c>
@@ -2983,9 +2980,9 @@
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="94"/>
-      <c r="B99" s="109"/>
-      <c r="C99" s="115"/>
+      <c r="A99" s="105"/>
+      <c r="B99" s="112"/>
+      <c r="C99" s="91"/>
       <c r="D99" s="50" t="s">
         <v>14</v>
       </c>
@@ -3009,7 +3006,7 @@
         <v>3</v>
       </c>
       <c r="E100" s="17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="24"/>
@@ -3019,7 +3016,7 @@
         <v>14</v>
       </c>
       <c r="B101" s="34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C101" s="47" t="s">
         <v>16</v>
@@ -3038,7 +3035,7 @@
         <v>15</v>
       </c>
       <c r="B102" s="34" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C102" s="47" t="s">
         <v>16</v>
@@ -3053,13 +3050,13 @@
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="92">
+      <c r="A103" s="94">
         <v>21</v>
       </c>
-      <c r="B103" s="107" t="s">
+      <c r="B103" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="C103" s="95">
+      <c r="C103" s="113">
         <v>20</v>
       </c>
       <c r="D103" s="53" t="s">
@@ -3072,9 +3069,9 @@
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="93"/>
-      <c r="B104" s="108"/>
-      <c r="C104" s="97"/>
+      <c r="A104" s="95"/>
+      <c r="B104" s="98"/>
+      <c r="C104" s="115"/>
       <c r="D104" s="52" t="s">
         <v>4</v>
       </c>
@@ -3085,9 +3082,9 @@
       <c r="G104" s="24"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="93"/>
-      <c r="B105" s="108"/>
-      <c r="C105" s="95">
+      <c r="A105" s="95"/>
+      <c r="B105" s="98"/>
+      <c r="C105" s="113">
         <v>27</v>
       </c>
       <c r="D105" s="53" t="s">
@@ -3100,22 +3097,22 @@
       <c r="G105" s="24"/>
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="93"/>
-      <c r="B106" s="108"/>
-      <c r="C106" s="97"/>
+      <c r="A106" s="95"/>
+      <c r="B106" s="98"/>
+      <c r="C106" s="115"/>
       <c r="D106" s="52" t="s">
         <v>13</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F106" s="21"/>
       <c r="G106" s="24"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="93"/>
-      <c r="B107" s="108"/>
-      <c r="C107" s="95">
+      <c r="A107" s="95"/>
+      <c r="B107" s="98"/>
+      <c r="C107" s="113">
         <v>30</v>
       </c>
       <c r="D107" s="53" t="s">
@@ -3128,315 +3125,315 @@
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="94"/>
-      <c r="B108" s="109"/>
-      <c r="C108" s="97"/>
+      <c r="A108" s="105"/>
+      <c r="B108" s="112"/>
+      <c r="C108" s="115"/>
       <c r="D108" s="52" t="s">
         <v>13</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F108" s="21"/>
       <c r="G108" s="24"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="89">
+      <c r="A109" s="86">
         <v>22</v>
       </c>
-      <c r="B109" s="107" t="s">
+      <c r="B109" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="C109" s="104">
+      <c r="C109" s="92">
         <v>28</v>
       </c>
       <c r="D109" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E109" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F109" s="19"/>
       <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="90"/>
-      <c r="B110" s="108"/>
-      <c r="C110" s="105"/>
+      <c r="A110" s="87"/>
+      <c r="B110" s="98"/>
+      <c r="C110" s="93"/>
       <c r="D110" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E110" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F110" s="19"/>
       <c r="G110" s="24"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="90"/>
-      <c r="B111" s="108"/>
-      <c r="C111" s="105"/>
+      <c r="A111" s="87"/>
+      <c r="B111" s="98"/>
+      <c r="C111" s="93"/>
       <c r="D111" s="68" t="s">
         <v>5</v>
       </c>
       <c r="E111" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F111" s="19"/>
       <c r="G111" s="24"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="90"/>
-      <c r="B112" s="108"/>
-      <c r="C112" s="105"/>
+      <c r="A112" s="87"/>
+      <c r="B112" s="98"/>
+      <c r="C112" s="93"/>
       <c r="D112" s="68" t="s">
         <v>6</v>
       </c>
       <c r="E112" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F112" s="19"/>
       <c r="G112" s="24"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="90"/>
-      <c r="B113" s="108"/>
-      <c r="C113" s="105"/>
+      <c r="A113" s="87"/>
+      <c r="B113" s="98"/>
+      <c r="C113" s="93"/>
       <c r="D113" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E113" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F113" s="22"/>
       <c r="G113" s="24"/>
     </row>
     <row r="114" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="90"/>
-      <c r="B114" s="108"/>
-      <c r="C114" s="105"/>
+      <c r="A114" s="87"/>
+      <c r="B114" s="98"/>
+      <c r="C114" s="93"/>
       <c r="D114" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E114" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F114" s="22"/>
       <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="91"/>
-      <c r="B115" s="109"/>
-      <c r="C115" s="106"/>
+      <c r="A115" s="88"/>
+      <c r="B115" s="112"/>
+      <c r="C115" s="99"/>
       <c r="D115" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F115" s="38"/>
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="92">
+      <c r="A116" s="94">
         <v>23</v>
       </c>
-      <c r="B116" s="107" t="s">
+      <c r="B116" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="C116" s="104">
+      <c r="C116" s="92">
         <v>31</v>
       </c>
       <c r="D116" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E116" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="24"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="93"/>
-      <c r="B117" s="108"/>
-      <c r="C117" s="105"/>
+      <c r="A117" s="95"/>
+      <c r="B117" s="98"/>
+      <c r="C117" s="93"/>
       <c r="D117" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E117" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F117" s="19"/>
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="93"/>
-      <c r="B118" s="108"/>
-      <c r="C118" s="105"/>
+      <c r="A118" s="95"/>
+      <c r="B118" s="98"/>
+      <c r="C118" s="93"/>
       <c r="D118" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E118" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F118" s="19"/>
       <c r="G118" s="24"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="93"/>
-      <c r="B119" s="108"/>
-      <c r="C119" s="105"/>
+      <c r="A119" s="95"/>
+      <c r="B119" s="98"/>
+      <c r="C119" s="93"/>
       <c r="D119" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E119" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F119" s="19"/>
       <c r="G119" s="24"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="93"/>
-      <c r="B120" s="108"/>
-      <c r="C120" s="105"/>
+      <c r="A120" s="95"/>
+      <c r="B120" s="98"/>
+      <c r="C120" s="93"/>
       <c r="D120" s="39" t="s">
         <v>7</v>
       </c>
       <c r="E120" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F120" s="19"/>
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="93"/>
-      <c r="B121" s="108"/>
-      <c r="C121" s="105"/>
+      <c r="A121" s="95"/>
+      <c r="B121" s="98"/>
+      <c r="C121" s="93"/>
       <c r="D121" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E121" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="93"/>
-      <c r="B122" s="108"/>
-      <c r="C122" s="105"/>
+      <c r="A122" s="95"/>
+      <c r="B122" s="98"/>
+      <c r="C122" s="93"/>
       <c r="D122" s="39" t="s">
         <v>13</v>
       </c>
       <c r="E122" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="93"/>
-      <c r="B123" s="108"/>
-      <c r="C123" s="106"/>
+      <c r="A123" s="95"/>
+      <c r="B123" s="98"/>
+      <c r="C123" s="99"/>
       <c r="D123" s="40" t="s">
         <v>14</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F123" s="38"/>
       <c r="G123" s="24"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="93"/>
-      <c r="B124" s="108"/>
-      <c r="C124" s="104">
+      <c r="A124" s="95"/>
+      <c r="B124" s="98"/>
+      <c r="C124" s="92">
         <v>32</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F124" s="19"/>
       <c r="G124" s="24"/>
     </row>
     <row r="125" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="93"/>
-      <c r="B125" s="108"/>
-      <c r="C125" s="105"/>
+      <c r="A125" s="95"/>
+      <c r="B125" s="98"/>
+      <c r="C125" s="93"/>
       <c r="D125" s="59" t="s">
         <v>4</v>
       </c>
       <c r="E125" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F125" s="66"/>
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="93"/>
-      <c r="B126" s="108"/>
-      <c r="C126" s="106"/>
+      <c r="A126" s="95"/>
+      <c r="B126" s="98"/>
+      <c r="C126" s="99"/>
       <c r="D126" s="69" t="s">
         <v>14</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="93"/>
-      <c r="B127" s="108"/>
-      <c r="C127" s="104">
+      <c r="A127" s="95"/>
+      <c r="B127" s="98"/>
+      <c r="C127" s="92">
         <v>33</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E127" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F127" s="19"/>
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="93"/>
-      <c r="B128" s="108"/>
-      <c r="C128" s="105"/>
+      <c r="A128" s="95"/>
+      <c r="B128" s="98"/>
+      <c r="C128" s="93"/>
       <c r="D128" s="59" t="s">
         <v>4</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F128" s="66"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="94"/>
-      <c r="B129" s="109"/>
-      <c r="C129" s="106"/>
+      <c r="A129" s="105"/>
+      <c r="B129" s="112"/>
+      <c r="C129" s="99"/>
       <c r="D129" s="40" t="s">
         <v>13</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F129" s="38"/>
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="92">
+      <c r="A130" s="94">
         <v>24</v>
       </c>
-      <c r="B130" s="92" t="s">
-        <v>186</v>
-      </c>
-      <c r="C130" s="98">
+      <c r="B130" s="94" t="s">
+        <v>183</v>
+      </c>
+      <c r="C130" s="89">
         <v>11</v>
       </c>
       <c r="D130" s="6" t="s">
@@ -3449,9 +3446,9 @@
       <c r="G130" s="24"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="93"/>
-      <c r="B131" s="93"/>
-      <c r="C131" s="99"/>
+      <c r="A131" s="95"/>
+      <c r="B131" s="95"/>
+      <c r="C131" s="103"/>
       <c r="D131" s="6" t="s">
         <v>4</v>
       </c>
@@ -3462,87 +3459,87 @@
       <c r="G131" s="24"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="93"/>
-      <c r="B132" s="93"/>
-      <c r="C132" s="99"/>
+      <c r="A132" s="95"/>
+      <c r="B132" s="95"/>
+      <c r="C132" s="103"/>
       <c r="D132" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E132" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F132" s="19"/>
       <c r="G132" s="24"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="93"/>
-      <c r="B133" s="93"/>
-      <c r="C133" s="99"/>
+      <c r="A133" s="95"/>
+      <c r="B133" s="95"/>
+      <c r="C133" s="103"/>
       <c r="D133" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F133" s="19"/>
       <c r="G133" s="24"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="93"/>
-      <c r="B134" s="93"/>
-      <c r="C134" s="99"/>
+      <c r="A134" s="95"/>
+      <c r="B134" s="95"/>
+      <c r="C134" s="103"/>
       <c r="D134" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E134" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F134" s="22"/>
       <c r="G134" s="24"/>
     </row>
     <row r="135" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="93"/>
-      <c r="B135" s="93"/>
-      <c r="C135" s="99"/>
+      <c r="A135" s="95"/>
+      <c r="B135" s="95"/>
+      <c r="C135" s="103"/>
       <c r="D135" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E135" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F135" s="22"/>
       <c r="G135" s="24"/>
     </row>
     <row r="136" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="93"/>
-      <c r="B136" s="93"/>
-      <c r="C136" s="99"/>
+      <c r="A136" s="95"/>
+      <c r="B136" s="95"/>
+      <c r="C136" s="103"/>
       <c r="D136" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F136" s="22"/>
       <c r="G136" s="24"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="93"/>
-      <c r="B137" s="93"/>
-      <c r="C137" s="99"/>
+      <c r="A137" s="95"/>
+      <c r="B137" s="95"/>
+      <c r="C137" s="103"/>
       <c r="D137" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E137" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F137" s="22"/>
       <c r="G137" s="24"/>
     </row>
     <row r="138" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="93"/>
-      <c r="B138" s="93"/>
-      <c r="C138" s="99"/>
+      <c r="A138" s="95"/>
+      <c r="B138" s="95"/>
+      <c r="C138" s="103"/>
       <c r="D138" s="9" t="s">
         <v>13</v>
       </c>
@@ -3553,39 +3550,39 @@
       <c r="G138" s="24"/>
     </row>
     <row r="139" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="93"/>
-      <c r="B139" s="93"/>
-      <c r="C139" s="99"/>
+      <c r="A139" s="95"/>
+      <c r="B139" s="95"/>
+      <c r="C139" s="103"/>
       <c r="D139" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F139" s="22"/>
       <c r="G139" s="24"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="94"/>
-      <c r="B140" s="94"/>
-      <c r="C140" s="100"/>
+      <c r="A140" s="105"/>
+      <c r="B140" s="105"/>
+      <c r="C140" s="104"/>
       <c r="D140" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E140" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F140" s="21"/>
       <c r="G140" s="24"/>
     </row>
     <row r="141" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="92">
+      <c r="A141" s="94">
         <v>25</v>
       </c>
-      <c r="B141" s="89" t="s">
+      <c r="B141" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="C141" s="95">
+      <c r="C141" s="113">
         <v>29</v>
       </c>
       <c r="D141" s="51" t="s">
@@ -3598,9 +3595,9 @@
       <c r="G141" s="24"/>
     </row>
     <row r="142" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="93"/>
-      <c r="B142" s="90"/>
-      <c r="C142" s="96"/>
+      <c r="A142" s="95"/>
+      <c r="B142" s="87"/>
+      <c r="C142" s="114"/>
       <c r="D142" s="53" t="s">
         <v>4</v>
       </c>
@@ -3611,35 +3608,35 @@
       <c r="G142" s="24"/>
     </row>
     <row r="143" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="93"/>
-      <c r="B143" s="90"/>
-      <c r="C143" s="96"/>
+      <c r="A143" s="95"/>
+      <c r="B143" s="87"/>
+      <c r="C143" s="114"/>
       <c r="D143" s="53" t="s">
         <v>5</v>
       </c>
       <c r="E143" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F143" s="29"/>
       <c r="G143" s="24"/>
     </row>
     <row r="144" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="93"/>
-      <c r="B144" s="90"/>
-      <c r="C144" s="96"/>
+      <c r="A144" s="95"/>
+      <c r="B144" s="87"/>
+      <c r="C144" s="114"/>
       <c r="D144" s="53" t="s">
         <v>6</v>
       </c>
       <c r="E144" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F144" s="29"/>
       <c r="G144" s="24"/>
     </row>
     <row r="145" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="93"/>
-      <c r="B145" s="90"/>
-      <c r="C145" s="96"/>
+      <c r="A145" s="95"/>
+      <c r="B145" s="87"/>
+      <c r="C145" s="114"/>
       <c r="D145" s="59" t="s">
         <v>7</v>
       </c>
@@ -3650,9 +3647,9 @@
       <c r="G145" s="24"/>
     </row>
     <row r="146" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="93"/>
-      <c r="B146" s="90"/>
-      <c r="C146" s="96"/>
+      <c r="A146" s="95"/>
+      <c r="B146" s="87"/>
+      <c r="C146" s="114"/>
       <c r="D146" s="59" t="s">
         <v>8</v>
       </c>
@@ -3663,9 +3660,9 @@
       <c r="G146" s="24"/>
     </row>
     <row r="147" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="93"/>
-      <c r="B147" s="90"/>
-      <c r="C147" s="96"/>
+      <c r="A147" s="95"/>
+      <c r="B147" s="87"/>
+      <c r="C147" s="114"/>
       <c r="D147" s="53" t="s">
         <v>13</v>
       </c>
@@ -3676,22 +3673,22 @@
       <c r="G147" s="24"/>
     </row>
     <row r="148" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="93"/>
-      <c r="B148" s="90"/>
-      <c r="C148" s="97"/>
+      <c r="A148" s="95"/>
+      <c r="B148" s="87"/>
+      <c r="C148" s="115"/>
       <c r="D148" s="53" t="s">
         <v>14</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F148" s="29"/>
       <c r="G148" s="24"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="93"/>
-      <c r="B149" s="90"/>
-      <c r="C149" s="101">
+      <c r="A149" s="95"/>
+      <c r="B149" s="87"/>
+      <c r="C149" s="118">
         <v>21</v>
       </c>
       <c r="D149" s="51" t="s">
@@ -3704,9 +3701,9 @@
       <c r="G149" s="24"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="93"/>
-      <c r="B150" s="90"/>
-      <c r="C150" s="102"/>
+      <c r="A150" s="95"/>
+      <c r="B150" s="87"/>
+      <c r="C150" s="116"/>
       <c r="D150" s="53" t="s">
         <v>4</v>
       </c>
@@ -3717,61 +3714,61 @@
       <c r="G150" s="24"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="93"/>
-      <c r="B151" s="90"/>
-      <c r="C151" s="102"/>
+      <c r="A151" s="95"/>
+      <c r="B151" s="87"/>
+      <c r="C151" s="116"/>
       <c r="D151" s="53" t="s">
         <v>5</v>
       </c>
       <c r="E151" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F151" s="22"/>
       <c r="G151" s="24"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="93"/>
-      <c r="B152" s="90"/>
-      <c r="C152" s="102"/>
+      <c r="A152" s="95"/>
+      <c r="B152" s="87"/>
+      <c r="C152" s="116"/>
       <c r="D152" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E152" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F152" s="22"/>
       <c r="G152" s="24"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="93"/>
-      <c r="B153" s="90"/>
-      <c r="C153" s="102"/>
+      <c r="A153" s="95"/>
+      <c r="B153" s="87"/>
+      <c r="C153" s="116"/>
       <c r="D153" s="59" t="s">
         <v>7</v>
       </c>
       <c r="E153" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F153" s="22"/>
       <c r="G153" s="24"/>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="93"/>
-      <c r="B154" s="90"/>
-      <c r="C154" s="102"/>
+      <c r="A154" s="95"/>
+      <c r="B154" s="87"/>
+      <c r="C154" s="116"/>
       <c r="D154" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E154" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F154" s="22"/>
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="93"/>
-      <c r="B155" s="90"/>
-      <c r="C155" s="102"/>
+      <c r="A155" s="95"/>
+      <c r="B155" s="87"/>
+      <c r="C155" s="116"/>
       <c r="D155" s="53" t="s">
         <v>9</v>
       </c>
@@ -3782,9 +3779,9 @@
       <c r="G155" s="24"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="93"/>
-      <c r="B156" s="90"/>
-      <c r="C156" s="102"/>
+      <c r="A156" s="95"/>
+      <c r="B156" s="87"/>
+      <c r="C156" s="116"/>
       <c r="D156" s="53" t="s">
         <v>10</v>
       </c>
@@ -3795,9 +3792,9 @@
       <c r="G156" s="24"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="93"/>
-      <c r="B157" s="90"/>
-      <c r="C157" s="102"/>
+      <c r="A157" s="95"/>
+      <c r="B157" s="87"/>
+      <c r="C157" s="116"/>
       <c r="D157" s="53" t="s">
         <v>13</v>
       </c>
@@ -3808,9 +3805,9 @@
       <c r="G157" s="24"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="93"/>
-      <c r="B158" s="90"/>
-      <c r="C158" s="103"/>
+      <c r="A158" s="95"/>
+      <c r="B158" s="87"/>
+      <c r="C158" s="117"/>
       <c r="D158" s="52" t="s">
         <v>14</v>
       </c>
@@ -3821,9 +3818,9 @@
       <c r="G158" s="24"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="93"/>
-      <c r="B159" s="90"/>
-      <c r="C159" s="102">
+      <c r="A159" s="95"/>
+      <c r="B159" s="87"/>
+      <c r="C159" s="116">
         <v>23</v>
       </c>
       <c r="D159" s="53" t="s">
@@ -3836,9 +3833,9 @@
       <c r="G159" s="24"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="93"/>
-      <c r="B160" s="90"/>
-      <c r="C160" s="102"/>
+      <c r="A160" s="95"/>
+      <c r="B160" s="87"/>
+      <c r="C160" s="116"/>
       <c r="D160" s="53" t="s">
         <v>4</v>
       </c>
@@ -3849,61 +3846,61 @@
       <c r="G160" s="24"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="93"/>
-      <c r="B161" s="90"/>
-      <c r="C161" s="102"/>
+      <c r="A161" s="95"/>
+      <c r="B161" s="87"/>
+      <c r="C161" s="116"/>
       <c r="D161" s="53" t="s">
         <v>5</v>
       </c>
       <c r="E161" s="15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F161" s="22"/>
       <c r="G161" s="24"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="93"/>
-      <c r="B162" s="90"/>
-      <c r="C162" s="102"/>
+      <c r="A162" s="95"/>
+      <c r="B162" s="87"/>
+      <c r="C162" s="116"/>
       <c r="D162" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E162" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F162" s="19"/>
       <c r="G162" s="24"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="93"/>
-      <c r="B163" s="90"/>
-      <c r="C163" s="102"/>
+      <c r="A163" s="95"/>
+      <c r="B163" s="87"/>
+      <c r="C163" s="116"/>
       <c r="D163" s="59" t="s">
         <v>7</v>
       </c>
       <c r="E163" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F163" s="19"/>
       <c r="G163" s="24"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="93"/>
-      <c r="B164" s="90"/>
-      <c r="C164" s="102"/>
+      <c r="A164" s="95"/>
+      <c r="B164" s="87"/>
+      <c r="C164" s="116"/>
       <c r="D164" s="59" t="s">
         <v>8</v>
       </c>
       <c r="E164" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F164" s="19"/>
       <c r="G164" s="24"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="93"/>
-      <c r="B165" s="90"/>
-      <c r="C165" s="102"/>
+      <c r="A165" s="95"/>
+      <c r="B165" s="87"/>
+      <c r="C165" s="116"/>
       <c r="D165" s="53" t="s">
         <v>9</v>
       </c>
@@ -3914,9 +3911,9 @@
       <c r="G165" s="24"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="93"/>
-      <c r="B166" s="90"/>
-      <c r="C166" s="102"/>
+      <c r="A166" s="95"/>
+      <c r="B166" s="87"/>
+      <c r="C166" s="116"/>
       <c r="D166" s="53" t="s">
         <v>10</v>
       </c>
@@ -3927,9 +3924,9 @@
       <c r="G166" s="24"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="93"/>
-      <c r="B167" s="90"/>
-      <c r="C167" s="102"/>
+      <c r="A167" s="95"/>
+      <c r="B167" s="87"/>
+      <c r="C167" s="116"/>
       <c r="D167" s="53" t="s">
         <v>13</v>
       </c>
@@ -3940,9 +3937,9 @@
       <c r="G167" s="24"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="93"/>
-      <c r="B168" s="90"/>
-      <c r="C168" s="103"/>
+      <c r="A168" s="95"/>
+      <c r="B168" s="87"/>
+      <c r="C168" s="117"/>
       <c r="D168" s="52" t="s">
         <v>14</v>
       </c>
@@ -3953,234 +3950,234 @@
       <c r="G168" s="24"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="92">
+      <c r="A169" s="94">
         <v>26</v>
       </c>
-      <c r="B169" s="89" t="s">
-        <v>187</v>
-      </c>
-      <c r="C169" s="86">
+      <c r="B169" s="86" t="s">
+        <v>184</v>
+      </c>
+      <c r="C169" s="119">
         <v>25</v>
       </c>
       <c r="D169" s="53" t="s">
         <v>3</v>
       </c>
       <c r="E169" s="15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F169" s="22"/>
       <c r="G169" s="24"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="93"/>
-      <c r="B170" s="90"/>
-      <c r="C170" s="87"/>
+      <c r="A170" s="95"/>
+      <c r="B170" s="87"/>
+      <c r="C170" s="106"/>
       <c r="D170" s="53" t="s">
         <v>4</v>
       </c>
       <c r="E170" s="15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F170" s="19"/>
       <c r="G170" s="24"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="93"/>
-      <c r="B171" s="90"/>
-      <c r="C171" s="87"/>
+      <c r="A171" s="95"/>
+      <c r="B171" s="87"/>
+      <c r="C171" s="106"/>
       <c r="D171" s="63" t="s">
         <v>5</v>
       </c>
       <c r="E171" s="30" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F171" s="19"/>
       <c r="G171" s="24"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="93"/>
-      <c r="B172" s="90"/>
-      <c r="C172" s="87"/>
+      <c r="A172" s="95"/>
+      <c r="B172" s="87"/>
+      <c r="C172" s="106"/>
       <c r="D172" s="63" t="s">
         <v>6</v>
       </c>
       <c r="E172" s="30" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F172" s="19"/>
       <c r="G172" s="24"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="93"/>
-      <c r="B173" s="90"/>
-      <c r="C173" s="87"/>
+      <c r="A173" s="95"/>
+      <c r="B173" s="87"/>
+      <c r="C173" s="106"/>
       <c r="D173" s="63" t="s">
         <v>7</v>
       </c>
       <c r="E173" s="30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F173" s="19"/>
       <c r="G173" s="24"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="93"/>
-      <c r="B174" s="90"/>
-      <c r="C174" s="87"/>
+      <c r="A174" s="95"/>
+      <c r="B174" s="87"/>
+      <c r="C174" s="106"/>
       <c r="D174" s="63" t="s">
         <v>8</v>
       </c>
       <c r="E174" s="30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F174" s="19"/>
       <c r="G174" s="24"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="93"/>
-      <c r="B175" s="90"/>
-      <c r="C175" s="87"/>
+      <c r="A175" s="95"/>
+      <c r="B175" s="87"/>
+      <c r="C175" s="106"/>
       <c r="D175" s="59" t="s">
         <v>9</v>
       </c>
       <c r="E175" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F175" s="22"/>
       <c r="G175" s="24"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="93"/>
-      <c r="B176" s="90"/>
-      <c r="C176" s="87"/>
+      <c r="A176" s="95"/>
+      <c r="B176" s="87"/>
+      <c r="C176" s="106"/>
       <c r="D176" s="59" t="s">
         <v>10</v>
       </c>
       <c r="E176" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F176" s="22"/>
       <c r="G176" s="24"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="93"/>
-      <c r="B177" s="90"/>
-      <c r="C177" s="87"/>
+      <c r="A177" s="95"/>
+      <c r="B177" s="87"/>
+      <c r="C177" s="106"/>
       <c r="D177" s="59" t="s">
         <v>13</v>
       </c>
       <c r="E177" s="15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F177" s="19"/>
       <c r="G177" s="24"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="93"/>
-      <c r="B178" s="90"/>
-      <c r="C178" s="87"/>
+      <c r="A178" s="95"/>
+      <c r="B178" s="87"/>
+      <c r="C178" s="106"/>
       <c r="D178" s="63" t="s">
         <v>15</v>
       </c>
       <c r="E178" s="30" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F178" s="19"/>
       <c r="G178" s="24"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="94"/>
-      <c r="B179" s="91"/>
-      <c r="C179" s="88"/>
+      <c r="A179" s="105"/>
+      <c r="B179" s="88"/>
+      <c r="C179" s="107"/>
       <c r="D179" s="78" t="s">
         <v>29</v>
       </c>
       <c r="E179" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F179" s="21"/>
       <c r="G179" s="24"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="89">
+      <c r="A180" s="86">
         <v>27</v>
       </c>
-      <c r="B180" s="89" t="s">
+      <c r="B180" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="C180" s="98">
+      <c r="C180" s="89">
         <v>24</v>
       </c>
       <c r="D180" s="80" t="s">
         <v>3</v>
       </c>
       <c r="E180" s="73" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F180" s="42"/>
       <c r="G180" s="24"/>
     </row>
     <row r="181" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="90"/>
-      <c r="B181" s="90"/>
-      <c r="C181" s="114"/>
+      <c r="A181" s="87"/>
+      <c r="B181" s="87"/>
+      <c r="C181" s="90"/>
       <c r="D181" s="81" t="s">
         <v>4</v>
       </c>
       <c r="E181" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F181" s="22"/>
       <c r="G181" s="24"/>
     </row>
     <row r="182" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="90"/>
-      <c r="B182" s="90"/>
-      <c r="C182" s="114"/>
+      <c r="A182" s="87"/>
+      <c r="B182" s="87"/>
+      <c r="C182" s="90"/>
       <c r="D182" s="77" t="s">
         <v>5</v>
       </c>
       <c r="E182" s="79" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F182" s="74"/>
       <c r="G182" s="24"/>
     </row>
     <row r="183" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="90"/>
-      <c r="B183" s="90"/>
-      <c r="C183" s="114"/>
+      <c r="A183" s="87"/>
+      <c r="B183" s="87"/>
+      <c r="C183" s="90"/>
       <c r="D183" s="77" t="s">
         <v>6</v>
       </c>
       <c r="E183" s="79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F183" s="22"/>
       <c r="G183" s="24"/>
     </row>
     <row r="184" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="90"/>
-      <c r="B184" s="90"/>
-      <c r="C184" s="114"/>
+      <c r="A184" s="87"/>
+      <c r="B184" s="87"/>
+      <c r="C184" s="90"/>
       <c r="D184" s="81" t="s">
         <v>7</v>
       </c>
       <c r="E184" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F184" s="75"/>
       <c r="G184" s="24"/>
     </row>
     <row r="185" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="91"/>
-      <c r="B185" s="91"/>
-      <c r="C185" s="115"/>
+      <c r="A185" s="88"/>
+      <c r="B185" s="88"/>
+      <c r="C185" s="91"/>
       <c r="D185" s="82" t="s">
         <v>8</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F185" s="76"/>
       <c r="G185" s="24"/>
@@ -4190,7 +4187,7 @@
         <v>28</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C186" s="36">
         <v>14</v>
@@ -4206,6 +4203,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="C169:C179"/>
+    <mergeCell ref="B169:B179"/>
+    <mergeCell ref="A169:A179"/>
+    <mergeCell ref="C141:C148"/>
+    <mergeCell ref="B141:B168"/>
+    <mergeCell ref="C130:C140"/>
+    <mergeCell ref="B130:B140"/>
+    <mergeCell ref="A130:A140"/>
+    <mergeCell ref="C149:C158"/>
+    <mergeCell ref="A141:A168"/>
+    <mergeCell ref="C159:C168"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="B116:B129"/>
+    <mergeCell ref="A116:A129"/>
+    <mergeCell ref="C116:C123"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="A109:A115"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C67:C78"/>
+    <mergeCell ref="B67:B78"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="C56:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="A56:A66"/>
     <mergeCell ref="B180:B185"/>
     <mergeCell ref="A180:A185"/>
     <mergeCell ref="C180:C185"/>
@@ -4222,51 +4264,6 @@
     <mergeCell ref="C43:C54"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="A43:A54"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="C56:C66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="A56:A66"/>
-    <mergeCell ref="C67:C78"/>
-    <mergeCell ref="B67:B78"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="C81:C88"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="B116:B129"/>
-    <mergeCell ref="A116:A129"/>
-    <mergeCell ref="C116:C123"/>
-    <mergeCell ref="C130:C140"/>
-    <mergeCell ref="B130:B140"/>
-    <mergeCell ref="A130:A140"/>
-    <mergeCell ref="C149:C158"/>
-    <mergeCell ref="A141:A168"/>
-    <mergeCell ref="C159:C168"/>
-    <mergeCell ref="C169:C179"/>
-    <mergeCell ref="B169:B179"/>
-    <mergeCell ref="A169:A179"/>
-    <mergeCell ref="C141:C148"/>
-    <mergeCell ref="B141:B168"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4290,12 +4287,12 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -4303,15 +4300,15 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5" s="120" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F5" s="120"/>
       <c r="G5" s="120"/>
@@ -4326,22 +4323,22 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E6" s="120" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F6" s="120"/>
       <c r="G6" s="83"/>
       <c r="H6" s="120" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I6" s="120"/>
       <c r="J6" s="83"/>
       <c r="K6" s="120" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="L6" s="120"/>
       <c r="M6" s="83"/>
       <c r="N6" s="120" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O6" s="120"/>
     </row>
@@ -4416,10 +4413,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
         <v>113</v>
-      </c>
-      <c r="B10" t="s">
-        <v>115</v>
       </c>
       <c r="E10" s="83">
         <v>7</v>
@@ -4439,10 +4436,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
         <v>114</v>
-      </c>
-      <c r="B11" t="s">
-        <v>116</v>
       </c>
       <c r="E11" s="83"/>
       <c r="F11" s="83"/>
@@ -4471,7 +4468,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13" s="83"/>
       <c r="F13" s="83"/>
@@ -4487,10 +4484,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Robak/doc/Makra.xlsx
+++ b/Robak/doc/Makra.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B0470AE-A874-4C77-B6A3-458D59B8F883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Makra Przycisków" sheetId="1" r:id="rId1"/>
@@ -688,7 +689,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1190,6 +1191,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1199,97 +1209,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1304,6 +1305,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1352,7 +1356,7 @@
     </a:clrScheme>
     <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1385,9 +1389,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1420,6 +1441,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Pakiet Office">
@@ -1595,11 +1633,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,10 +1685,10 @@
       <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="94">
+      <c r="A3" s="92">
         <v>1</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="108" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="70">
@@ -1666,8 +1704,8 @@
       <c r="G3" s="24"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="95"/>
-      <c r="B4" s="98"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="70">
         <v>4</v>
       </c>
@@ -1681,9 +1719,9 @@
       <c r="G4" s="24"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="93">
+      <c r="A5" s="93"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="105">
         <v>2</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1696,9 +1734,9 @@
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="95"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="93"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="105"/>
       <c r="D6" s="62" t="s">
         <v>13</v>
       </c>
@@ -1709,13 +1747,13 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="96">
+      <c r="A7" s="107">
         <v>2</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="116" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="104">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1728,9 +1766,9 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="93"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
@@ -1741,9 +1779,9 @@
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="93"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="105"/>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
@@ -1754,9 +1792,9 @@
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="93"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="6" t="s">
         <v>6</v>
       </c>
@@ -1767,9 +1805,9 @@
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="93"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="105"/>
       <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1780,9 +1818,9 @@
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="93"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="105"/>
       <c r="D12" s="6" t="s">
         <v>8</v>
       </c>
@@ -1793,9 +1831,9 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="93"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1806,9 +1844,9 @@
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="101"/>
-      <c r="C14" s="93"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="105"/>
       <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
@@ -1819,9 +1857,9 @@
       <c r="G14" s="24"/>
     </row>
     <row r="15" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="93"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="59" t="s">
         <v>13</v>
       </c>
@@ -1832,9 +1870,9 @@
       <c r="G15" s="24"/>
     </row>
     <row r="16" spans="1:7" s="61" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="101"/>
-      <c r="C16" s="93"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="105"/>
       <c r="D16" s="68" t="s">
         <v>14</v>
       </c>
@@ -1845,9 +1883,9 @@
       <c r="G16" s="24"/>
     </row>
     <row r="17" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="101"/>
-      <c r="C17" s="93"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="68" t="s">
         <v>15</v>
       </c>
@@ -1858,9 +1896,9 @@
       <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="99"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="106"/>
       <c r="D18" s="62" t="s">
         <v>30</v>
       </c>
@@ -1871,9 +1909,9 @@
       <c r="G18" s="24"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="101"/>
-      <c r="C19" s="92">
+      <c r="A19" s="108"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="104">
         <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1886,9 +1924,9 @@
       <c r="G19" s="24"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="99"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="106"/>
       <c r="D20" s="7" t="s">
         <v>4</v>
       </c>
@@ -1899,8 +1937,8 @@
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
-      <c r="B21" s="102"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="70">
         <v>17</v>
       </c>
@@ -1914,13 +1952,13 @@
       <c r="G21" s="43"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="94">
+      <c r="A22" s="92">
         <v>3</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="B22" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="92">
+      <c r="C22" s="104">
         <v>12</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1934,9 +1972,9 @@
       <c r="H22" s="44"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="93"/>
+      <c r="A23" s="93"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="6" t="s">
         <v>4</v>
       </c>
@@ -1947,9 +1985,9 @@
       <c r="G23" s="24"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="93"/>
+      <c r="A24" s="93"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="105"/>
       <c r="D24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1960,9 +1998,9 @@
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="93"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="6" t="s">
         <v>6</v>
       </c>
@@ -1973,9 +2011,9 @@
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="95"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="93"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="105"/>
       <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
@@ -1986,9 +2024,9 @@
       <c r="G26" s="24"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="93"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="6" t="s">
         <v>8</v>
       </c>
@@ -1999,9 +2037,9 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="95"/>
-      <c r="B28" s="97"/>
-      <c r="C28" s="93"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="105"/>
       <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
@@ -2012,9 +2050,9 @@
       <c r="G28" s="24"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="95"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="93"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="9" t="s">
         <v>10</v>
       </c>
@@ -2025,9 +2063,9 @@
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="95"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="93"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="105"/>
       <c r="D30" s="6" t="s">
         <v>13</v>
       </c>
@@ -2038,9 +2076,9 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="95"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="93"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="6" t="s">
         <v>14</v>
       </c>
@@ -2051,9 +2089,9 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
-      <c r="B32" s="97"/>
-      <c r="C32" s="93"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="105"/>
       <c r="D32" s="6" t="s">
         <v>15</v>
       </c>
@@ -2064,13 +2102,13 @@
       <c r="G32" s="24"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="100">
+      <c r="A33" s="116">
         <v>4</v>
       </c>
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="92">
+      <c r="C33" s="104">
         <v>10</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -2083,9 +2121,9 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="93"/>
+      <c r="A34" s="117"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="105"/>
       <c r="D34" s="9" t="s">
         <v>4</v>
       </c>
@@ -2096,9 +2134,9 @@
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="101"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="93"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="117"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="9" t="s">
         <v>5</v>
       </c>
@@ -2111,9 +2149,9 @@
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="101"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="93"/>
+      <c r="A36" s="117"/>
+      <c r="B36" s="117"/>
+      <c r="C36" s="105"/>
       <c r="D36" s="9" t="s">
         <v>6</v>
       </c>
@@ -2124,9 +2162,9 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="101"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="93"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="117"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="9" t="s">
         <v>7</v>
       </c>
@@ -2137,9 +2175,9 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="101"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="93"/>
+      <c r="A38" s="117"/>
+      <c r="B38" s="117"/>
+      <c r="C38" s="105"/>
       <c r="D38" s="9" t="s">
         <v>8</v>
       </c>
@@ -2150,9 +2188,9 @@
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="101"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="93"/>
+      <c r="A39" s="117"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="105"/>
       <c r="D39" s="9" t="s">
         <v>9</v>
       </c>
@@ -2163,9 +2201,9 @@
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="101"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="93"/>
+      <c r="A40" s="117"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="105"/>
       <c r="D40" s="9" t="s">
         <v>10</v>
       </c>
@@ -2176,9 +2214,9 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="101"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="93"/>
+      <c r="A41" s="117"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="105"/>
       <c r="D41" s="9" t="s">
         <v>13</v>
       </c>
@@ -2191,9 +2229,9 @@
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="101"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="99"/>
+      <c r="A42" s="117"/>
+      <c r="B42" s="117"/>
+      <c r="C42" s="106"/>
       <c r="D42" s="7" t="s">
         <v>14</v>
       </c>
@@ -2204,13 +2242,13 @@
       <c r="G42" s="24"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="94">
+      <c r="A43" s="92">
         <v>5</v>
       </c>
-      <c r="B43" s="86" t="s">
+      <c r="B43" s="89" t="s">
         <v>179</v>
       </c>
-      <c r="C43" s="89">
+      <c r="C43" s="98">
         <v>9</v>
       </c>
       <c r="D43" s="6" t="s">
@@ -2223,9 +2261,9 @@
       <c r="G43" s="24"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="95"/>
-      <c r="B44" s="87"/>
-      <c r="C44" s="103"/>
+      <c r="A44" s="93"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="6" t="s">
         <v>4</v>
       </c>
@@ -2236,9 +2274,9 @@
       <c r="G44" s="24"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="103"/>
+      <c r="A45" s="93"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="99"/>
       <c r="D45" s="5" t="s">
         <v>5</v>
       </c>
@@ -2249,9 +2287,9 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="95"/>
-      <c r="B46" s="87"/>
-      <c r="C46" s="103"/>
+      <c r="A46" s="93"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="99"/>
       <c r="D46" s="5" t="s">
         <v>6</v>
       </c>
@@ -2262,9 +2300,9 @@
       <c r="G46" s="24"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="103"/>
+      <c r="A47" s="93"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="5" t="s">
         <v>7</v>
       </c>
@@ -2275,9 +2313,9 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="103"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="99"/>
       <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
@@ -2288,9 +2326,9 @@
       <c r="G48" s="24"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="103"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="90"/>
+      <c r="C49" s="99"/>
       <c r="D49" s="6" t="s">
         <v>9</v>
       </c>
@@ -2301,9 +2339,9 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="95"/>
-      <c r="B50" s="87"/>
-      <c r="C50" s="103"/>
+      <c r="A50" s="93"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="99"/>
       <c r="D50" s="9" t="s">
         <v>10</v>
       </c>
@@ -2314,9 +2352,9 @@
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="95"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="103"/>
+      <c r="A51" s="93"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="99"/>
       <c r="D51" s="6" t="s">
         <v>13</v>
       </c>
@@ -2327,9 +2365,9 @@
       <c r="G51" s="24"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="95"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="103"/>
+      <c r="A52" s="93"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="99"/>
       <c r="D52" s="6" t="s">
         <v>14</v>
       </c>
@@ -2340,9 +2378,9 @@
       <c r="G52" s="24"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="95"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="103"/>
+      <c r="A53" s="93"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="99"/>
       <c r="D53" s="5" t="s">
         <v>15</v>
       </c>
@@ -2353,9 +2391,9 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="105"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="104"/>
+      <c r="A54" s="94"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="100"/>
       <c r="D54" s="65" t="s">
         <v>29</v>
       </c>
@@ -2385,13 +2423,13 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="94">
+      <c r="A56" s="92">
         <v>7</v>
       </c>
-      <c r="B56" s="86" t="s">
+      <c r="B56" s="89" t="s">
         <v>181</v>
       </c>
-      <c r="C56" s="106">
+      <c r="C56" s="87">
         <v>18</v>
       </c>
       <c r="D56" s="51" t="s">
@@ -2404,9 +2442,9 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="95"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="106"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="87"/>
       <c r="D57" s="53" t="s">
         <v>4</v>
       </c>
@@ -2417,9 +2455,9 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="95"/>
-      <c r="B58" s="87"/>
-      <c r="C58" s="106"/>
+      <c r="A58" s="93"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="87"/>
       <c r="D58" s="63" t="s">
         <v>5</v>
       </c>
@@ -2430,9 +2468,9 @@
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="95"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="106"/>
+      <c r="A59" s="93"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="87"/>
       <c r="D59" s="63" t="s">
         <v>6</v>
       </c>
@@ -2443,9 +2481,9 @@
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="95"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="106"/>
+      <c r="A60" s="93"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="87"/>
       <c r="D60" s="63" t="s">
         <v>7</v>
       </c>
@@ -2456,9 +2494,9 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="95"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="106"/>
+      <c r="A61" s="93"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="87"/>
       <c r="D61" s="63" t="s">
         <v>8</v>
       </c>
@@ -2469,9 +2507,9 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="95"/>
-      <c r="B62" s="87"/>
-      <c r="C62" s="106"/>
+      <c r="A62" s="93"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="87"/>
       <c r="D62" s="59" t="s">
         <v>9</v>
       </c>
@@ -2482,9 +2520,9 @@
       <c r="G62" s="24"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="95"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="106"/>
+      <c r="A63" s="93"/>
+      <c r="B63" s="90"/>
+      <c r="C63" s="87"/>
       <c r="D63" s="59" t="s">
         <v>10</v>
       </c>
@@ -2495,9 +2533,9 @@
       <c r="G63" s="24"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="95"/>
-      <c r="B64" s="87"/>
-      <c r="C64" s="106"/>
+      <c r="A64" s="93"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="87"/>
       <c r="D64" s="59" t="s">
         <v>13</v>
       </c>
@@ -2508,9 +2546,9 @@
       <c r="G64" s="24"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="95"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="106"/>
+      <c r="A65" s="93"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="87"/>
       <c r="D65" s="63" t="s">
         <v>15</v>
       </c>
@@ -2521,9 +2559,9 @@
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="105"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="107"/>
+      <c r="A66" s="94"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="88"/>
       <c r="D66" s="64" t="s">
         <v>29</v>
       </c>
@@ -2534,13 +2572,13 @@
       <c r="G66" s="24"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="94">
+      <c r="A67" s="92">
         <v>8</v>
       </c>
-      <c r="B67" s="86" t="s">
+      <c r="B67" s="89" t="s">
         <v>182</v>
       </c>
-      <c r="C67" s="108">
+      <c r="C67" s="110">
         <v>19</v>
       </c>
       <c r="D67" s="53" t="s">
@@ -2553,9 +2591,9 @@
       <c r="G67" s="24"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="95"/>
-      <c r="B68" s="87"/>
-      <c r="C68" s="109"/>
+      <c r="A68" s="93"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="111"/>
       <c r="D68" s="53" t="s">
         <v>4</v>
       </c>
@@ -2566,9 +2604,9 @@
       <c r="G68" s="24"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="95"/>
-      <c r="B69" s="87"/>
-      <c r="C69" s="109"/>
+      <c r="A69" s="93"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="111"/>
       <c r="D69" s="63" t="s">
         <v>5</v>
       </c>
@@ -2579,9 +2617,9 @@
       <c r="G69" s="24"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="95"/>
-      <c r="B70" s="87"/>
-      <c r="C70" s="109"/>
+      <c r="A70" s="93"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="111"/>
       <c r="D70" s="63" t="s">
         <v>6</v>
       </c>
@@ -2592,9 +2630,9 @@
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="95"/>
-      <c r="B71" s="87"/>
-      <c r="C71" s="109"/>
+      <c r="A71" s="93"/>
+      <c r="B71" s="90"/>
+      <c r="C71" s="111"/>
       <c r="D71" s="63" t="s">
         <v>7</v>
       </c>
@@ -2605,9 +2643,9 @@
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="95"/>
-      <c r="B72" s="87"/>
-      <c r="C72" s="109"/>
+      <c r="A72" s="93"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="111"/>
       <c r="D72" s="63" t="s">
         <v>8</v>
       </c>
@@ -2618,9 +2656,9 @@
       <c r="G72" s="24"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="95"/>
-      <c r="B73" s="87"/>
-      <c r="C73" s="109"/>
+      <c r="A73" s="93"/>
+      <c r="B73" s="90"/>
+      <c r="C73" s="111"/>
       <c r="D73" s="59" t="s">
         <v>9</v>
       </c>
@@ -2631,9 +2669,9 @@
       <c r="G73" s="24"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="95"/>
-      <c r="B74" s="87"/>
-      <c r="C74" s="109"/>
+      <c r="A74" s="93"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="111"/>
       <c r="D74" s="59" t="s">
         <v>10</v>
       </c>
@@ -2644,9 +2682,9 @@
       <c r="G74" s="24"/>
     </row>
     <row r="75" spans="1:7" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="95"/>
-      <c r="B75" s="87"/>
-      <c r="C75" s="109"/>
+      <c r="A75" s="93"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="111"/>
       <c r="D75" s="85" t="s">
         <v>13</v>
       </c>
@@ -2657,9 +2695,9 @@
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="95"/>
-      <c r="B76" s="87"/>
-      <c r="C76" s="109"/>
+      <c r="A76" s="93"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="111"/>
       <c r="D76" s="59" t="s">
         <v>14</v>
       </c>
@@ -2670,9 +2708,9 @@
       <c r="G76" s="24"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="95"/>
-      <c r="B77" s="87"/>
-      <c r="C77" s="109"/>
+      <c r="A77" s="93"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="111"/>
       <c r="D77" s="63" t="s">
         <v>15</v>
       </c>
@@ -2683,9 +2721,9 @@
       <c r="G77" s="24"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="95"/>
-      <c r="B78" s="88"/>
-      <c r="C78" s="110"/>
+      <c r="A78" s="93"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="112"/>
       <c r="D78" s="64" t="s">
         <v>29</v>
       </c>
@@ -2696,13 +2734,13 @@
       <c r="G78" s="24"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="94">
+      <c r="A79" s="92">
         <v>9</v>
       </c>
-      <c r="B79" s="87" t="s">
+      <c r="B79" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="116">
+      <c r="C79" s="102">
         <v>26</v>
       </c>
       <c r="D79" s="53" t="s">
@@ -2715,9 +2753,9 @@
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="105"/>
-      <c r="B80" s="88"/>
-      <c r="C80" s="117"/>
+      <c r="A80" s="94"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="103"/>
       <c r="D80" s="52" t="s">
         <v>13</v>
       </c>
@@ -2728,13 +2766,13 @@
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="94">
+      <c r="A81" s="92">
         <v>10</v>
       </c>
-      <c r="B81" s="86" t="s">
+      <c r="B81" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="C81" s="106">
+      <c r="C81" s="87">
         <v>5</v>
       </c>
       <c r="D81" s="53" t="s">
@@ -2747,9 +2785,9 @@
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="95"/>
-      <c r="B82" s="87"/>
-      <c r="C82" s="106"/>
+      <c r="A82" s="93"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="87"/>
       <c r="D82" s="53" t="s">
         <v>4</v>
       </c>
@@ -2760,9 +2798,9 @@
       <c r="G82" s="24"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="95"/>
-      <c r="B83" s="87"/>
-      <c r="C83" s="106"/>
+      <c r="A83" s="93"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="87"/>
       <c r="D83" s="49" t="s">
         <v>5</v>
       </c>
@@ -2773,9 +2811,9 @@
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="95"/>
-      <c r="B84" s="87"/>
-      <c r="C84" s="106"/>
+      <c r="A84" s="93"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="87"/>
       <c r="D84" s="49" t="s">
         <v>6</v>
       </c>
@@ -2786,9 +2824,9 @@
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="95"/>
-      <c r="B85" s="87"/>
-      <c r="C85" s="106"/>
+      <c r="A85" s="93"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="87"/>
       <c r="D85" s="53" t="s">
         <v>7</v>
       </c>
@@ -2799,9 +2837,9 @@
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="95"/>
-      <c r="B86" s="87"/>
-      <c r="C86" s="106"/>
+      <c r="A86" s="93"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="87"/>
       <c r="D86" s="53" t="s">
         <v>8</v>
       </c>
@@ -2812,9 +2850,9 @@
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="95"/>
-      <c r="B87" s="87"/>
-      <c r="C87" s="106"/>
+      <c r="A87" s="93"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="87"/>
       <c r="D87" s="53" t="s">
         <v>13</v>
       </c>
@@ -2825,9 +2863,9 @@
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="105"/>
-      <c r="B88" s="88"/>
-      <c r="C88" s="107"/>
+      <c r="A88" s="94"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="88"/>
       <c r="D88" s="50" t="s">
         <v>14</v>
       </c>
@@ -2838,13 +2876,13 @@
       <c r="G88" s="24"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="98">
+      <c r="A89" s="108">
         <v>11</v>
       </c>
-      <c r="B89" s="86" t="s">
+      <c r="B89" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="C89" s="113">
+      <c r="C89" s="95">
         <v>8</v>
       </c>
       <c r="D89" s="53" t="s">
@@ -2857,9 +2895,9 @@
       <c r="G89" s="24"/>
     </row>
     <row r="90" spans="1:7" s="46" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="98"/>
-      <c r="B90" s="87"/>
-      <c r="C90" s="114"/>
+      <c r="A90" s="108"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="96"/>
       <c r="D90" s="53" t="s">
         <v>4</v>
       </c>
@@ -2870,9 +2908,9 @@
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="112"/>
-      <c r="B91" s="88"/>
-      <c r="C91" s="115"/>
+      <c r="A91" s="109"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="97"/>
       <c r="D91" s="52" t="s">
         <v>13</v>
       </c>
@@ -2883,13 +2921,13 @@
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="94">
+      <c r="A92" s="92">
         <v>12</v>
       </c>
-      <c r="B92" s="98" t="s">
+      <c r="B92" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="C92" s="111">
+      <c r="C92" s="113">
         <v>1</v>
       </c>
       <c r="D92" s="53" t="s">
@@ -2902,9 +2940,9 @@
       <c r="G92" s="24"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="95"/>
-      <c r="B93" s="98"/>
-      <c r="C93" s="90"/>
+      <c r="A93" s="93"/>
+      <c r="B93" s="108"/>
+      <c r="C93" s="114"/>
       <c r="D93" s="53" t="s">
         <v>4</v>
       </c>
@@ -2915,9 +2953,9 @@
       <c r="G93" s="24"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="95"/>
-      <c r="B94" s="98"/>
-      <c r="C94" s="90"/>
+      <c r="A94" s="93"/>
+      <c r="B94" s="108"/>
+      <c r="C94" s="114"/>
       <c r="D94" s="59" t="s">
         <v>5</v>
       </c>
@@ -2928,9 +2966,9 @@
       <c r="G94" s="24"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="95"/>
-      <c r="B95" s="98"/>
-      <c r="C95" s="90"/>
+      <c r="A95" s="93"/>
+      <c r="B95" s="108"/>
+      <c r="C95" s="114"/>
       <c r="D95" s="59" t="s">
         <v>6</v>
       </c>
@@ -2941,9 +2979,9 @@
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="95"/>
-      <c r="B96" s="98"/>
-      <c r="C96" s="90"/>
+      <c r="A96" s="93"/>
+      <c r="B96" s="108"/>
+      <c r="C96" s="114"/>
       <c r="D96" s="49" t="s">
         <v>7</v>
       </c>
@@ -2954,9 +2992,9 @@
       <c r="G96" s="24"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="95"/>
-      <c r="B97" s="98"/>
-      <c r="C97" s="90"/>
+      <c r="A97" s="93"/>
+      <c r="B97" s="108"/>
+      <c r="C97" s="114"/>
       <c r="D97" s="49" t="s">
         <v>8</v>
       </c>
@@ -2967,9 +3005,9 @@
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="95"/>
-      <c r="B98" s="98"/>
-      <c r="C98" s="90"/>
+      <c r="A98" s="93"/>
+      <c r="B98" s="108"/>
+      <c r="C98" s="114"/>
       <c r="D98" s="49" t="s">
         <v>13</v>
       </c>
@@ -2980,9 +3018,9 @@
       <c r="G98" s="24"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="105"/>
-      <c r="B99" s="112"/>
-      <c r="C99" s="91"/>
+      <c r="A99" s="94"/>
+      <c r="B99" s="109"/>
+      <c r="C99" s="115"/>
       <c r="D99" s="50" t="s">
         <v>14</v>
       </c>
@@ -3050,13 +3088,13 @@
       <c r="G102" s="24"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="94">
+      <c r="A103" s="92">
         <v>21</v>
       </c>
-      <c r="B103" s="96" t="s">
+      <c r="B103" s="107" t="s">
         <v>64</v>
       </c>
-      <c r="C103" s="113">
+      <c r="C103" s="95">
         <v>20</v>
       </c>
       <c r="D103" s="53" t="s">
@@ -3069,9 +3107,9 @@
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="95"/>
-      <c r="B104" s="98"/>
-      <c r="C104" s="115"/>
+      <c r="A104" s="93"/>
+      <c r="B104" s="108"/>
+      <c r="C104" s="97"/>
       <c r="D104" s="52" t="s">
         <v>4</v>
       </c>
@@ -3082,9 +3120,9 @@
       <c r="G104" s="24"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="95"/>
-      <c r="B105" s="98"/>
-      <c r="C105" s="113">
+      <c r="A105" s="93"/>
+      <c r="B105" s="108"/>
+      <c r="C105" s="95">
         <v>27</v>
       </c>
       <c r="D105" s="53" t="s">
@@ -3097,9 +3135,9 @@
       <c r="G105" s="24"/>
     </row>
     <row r="106" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="95"/>
-      <c r="B106" s="98"/>
-      <c r="C106" s="115"/>
+      <c r="A106" s="93"/>
+      <c r="B106" s="108"/>
+      <c r="C106" s="97"/>
       <c r="D106" s="52" t="s">
         <v>13</v>
       </c>
@@ -3110,9 +3148,9 @@
       <c r="G106" s="24"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="95"/>
-      <c r="B107" s="98"/>
-      <c r="C107" s="113">
+      <c r="A107" s="93"/>
+      <c r="B107" s="108"/>
+      <c r="C107" s="95">
         <v>30</v>
       </c>
       <c r="D107" s="53" t="s">
@@ -3125,9 +3163,9 @@
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="105"/>
-      <c r="B108" s="112"/>
-      <c r="C108" s="115"/>
+      <c r="A108" s="94"/>
+      <c r="B108" s="109"/>
+      <c r="C108" s="97"/>
       <c r="D108" s="52" t="s">
         <v>13</v>
       </c>
@@ -3138,13 +3176,13 @@
       <c r="G108" s="24"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="86">
+      <c r="A109" s="89">
         <v>22</v>
       </c>
-      <c r="B109" s="96" t="s">
+      <c r="B109" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="C109" s="92">
+      <c r="C109" s="104">
         <v>28</v>
       </c>
       <c r="D109" s="10" t="s">
@@ -3157,9 +3195,9 @@
       <c r="G109" s="24"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="87"/>
-      <c r="B110" s="98"/>
-      <c r="C110" s="93"/>
+      <c r="A110" s="90"/>
+      <c r="B110" s="108"/>
+      <c r="C110" s="105"/>
       <c r="D110" s="39" t="s">
         <v>4</v>
       </c>
@@ -3170,9 +3208,9 @@
       <c r="G110" s="24"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="87"/>
-      <c r="B111" s="98"/>
-      <c r="C111" s="93"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="108"/>
+      <c r="C111" s="105"/>
       <c r="D111" s="68" t="s">
         <v>5</v>
       </c>
@@ -3183,9 +3221,9 @@
       <c r="G111" s="24"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="87"/>
-      <c r="B112" s="98"/>
-      <c r="C112" s="93"/>
+      <c r="A112" s="90"/>
+      <c r="B112" s="108"/>
+      <c r="C112" s="105"/>
       <c r="D112" s="68" t="s">
         <v>6</v>
       </c>
@@ -3196,9 +3234,9 @@
       <c r="G112" s="24"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="87"/>
-      <c r="B113" s="98"/>
-      <c r="C113" s="93"/>
+      <c r="A113" s="90"/>
+      <c r="B113" s="108"/>
+      <c r="C113" s="105"/>
       <c r="D113" s="9" t="s">
         <v>7</v>
       </c>
@@ -3209,9 +3247,9 @@
       <c r="G113" s="24"/>
     </row>
     <row r="114" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="87"/>
-      <c r="B114" s="98"/>
-      <c r="C114" s="93"/>
+      <c r="A114" s="90"/>
+      <c r="B114" s="108"/>
+      <c r="C114" s="105"/>
       <c r="D114" s="39" t="s">
         <v>8</v>
       </c>
@@ -3222,9 +3260,9 @@
       <c r="G114" s="24"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="88"/>
-      <c r="B115" s="112"/>
-      <c r="C115" s="99"/>
+      <c r="A115" s="91"/>
+      <c r="B115" s="109"/>
+      <c r="C115" s="106"/>
       <c r="D115" s="6" t="s">
         <v>13</v>
       </c>
@@ -3235,13 +3273,13 @@
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="94">
+      <c r="A116" s="92">
         <v>23</v>
       </c>
-      <c r="B116" s="96" t="s">
+      <c r="B116" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C116" s="92">
+      <c r="C116" s="104">
         <v>31</v>
       </c>
       <c r="D116" s="10" t="s">
@@ -3254,9 +3292,9 @@
       <c r="G116" s="24"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="95"/>
-      <c r="B117" s="98"/>
-      <c r="C117" s="93"/>
+      <c r="A117" s="93"/>
+      <c r="B117" s="108"/>
+      <c r="C117" s="105"/>
       <c r="D117" s="39" t="s">
         <v>4</v>
       </c>
@@ -3267,9 +3305,9 @@
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="95"/>
-      <c r="B118" s="98"/>
-      <c r="C118" s="93"/>
+      <c r="A118" s="93"/>
+      <c r="B118" s="108"/>
+      <c r="C118" s="105"/>
       <c r="D118" s="39" t="s">
         <v>5</v>
       </c>
@@ -3280,9 +3318,9 @@
       <c r="G118" s="24"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="95"/>
-      <c r="B119" s="98"/>
-      <c r="C119" s="93"/>
+      <c r="A119" s="93"/>
+      <c r="B119" s="108"/>
+      <c r="C119" s="105"/>
       <c r="D119" s="39" t="s">
         <v>6</v>
       </c>
@@ -3293,9 +3331,9 @@
       <c r="G119" s="24"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="95"/>
-      <c r="B120" s="98"/>
-      <c r="C120" s="93"/>
+      <c r="A120" s="93"/>
+      <c r="B120" s="108"/>
+      <c r="C120" s="105"/>
       <c r="D120" s="39" t="s">
         <v>7</v>
       </c>
@@ -3306,9 +3344,9 @@
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="95"/>
-      <c r="B121" s="98"/>
-      <c r="C121" s="93"/>
+      <c r="A121" s="93"/>
+      <c r="B121" s="108"/>
+      <c r="C121" s="105"/>
       <c r="D121" s="39" t="s">
         <v>8</v>
       </c>
@@ -3319,9 +3357,9 @@
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="95"/>
-      <c r="B122" s="98"/>
-      <c r="C122" s="93"/>
+      <c r="A122" s="93"/>
+      <c r="B122" s="108"/>
+      <c r="C122" s="105"/>
       <c r="D122" s="39" t="s">
         <v>13</v>
       </c>
@@ -3332,9 +3370,9 @@
       <c r="G122" s="24"/>
     </row>
     <row r="123" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="95"/>
-      <c r="B123" s="98"/>
-      <c r="C123" s="99"/>
+      <c r="A123" s="93"/>
+      <c r="B123" s="108"/>
+      <c r="C123" s="106"/>
       <c r="D123" s="40" t="s">
         <v>14</v>
       </c>
@@ -3345,24 +3383,24 @@
       <c r="G123" s="24"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="95"/>
-      <c r="B124" s="98"/>
-      <c r="C124" s="92">
+      <c r="A124" s="93"/>
+      <c r="B124" s="108"/>
+      <c r="C124" s="104">
         <v>32</v>
       </c>
       <c r="D124" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F124" s="19"/>
       <c r="G124" s="24"/>
     </row>
     <row r="125" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="95"/>
-      <c r="B125" s="98"/>
-      <c r="C125" s="93"/>
+      <c r="A125" s="93"/>
+      <c r="B125" s="108"/>
+      <c r="C125" s="105"/>
       <c r="D125" s="59" t="s">
         <v>4</v>
       </c>
@@ -3373,9 +3411,9 @@
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="95"/>
-      <c r="B126" s="98"/>
-      <c r="C126" s="99"/>
+      <c r="A126" s="93"/>
+      <c r="B126" s="108"/>
+      <c r="C126" s="106"/>
       <c r="D126" s="69" t="s">
         <v>14</v>
       </c>
@@ -3386,9 +3424,9 @@
       <c r="G126" s="24"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="95"/>
-      <c r="B127" s="98"/>
-      <c r="C127" s="92">
+      <c r="A127" s="93"/>
+      <c r="B127" s="108"/>
+      <c r="C127" s="104">
         <v>33</v>
       </c>
       <c r="D127" s="6" t="s">
@@ -3401,22 +3439,22 @@
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="95"/>
-      <c r="B128" s="98"/>
-      <c r="C128" s="93"/>
+      <c r="A128" s="93"/>
+      <c r="B128" s="108"/>
+      <c r="C128" s="105"/>
       <c r="D128" s="59" t="s">
         <v>4</v>
       </c>
       <c r="E128" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F128" s="66"/>
       <c r="G128" s="24"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="105"/>
-      <c r="B129" s="112"/>
-      <c r="C129" s="99"/>
+      <c r="A129" s="94"/>
+      <c r="B129" s="109"/>
+      <c r="C129" s="106"/>
       <c r="D129" s="40" t="s">
         <v>13</v>
       </c>
@@ -3427,13 +3465,13 @@
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="94">
+      <c r="A130" s="92">
         <v>24</v>
       </c>
-      <c r="B130" s="94" t="s">
+      <c r="B130" s="92" t="s">
         <v>183</v>
       </c>
-      <c r="C130" s="89">
+      <c r="C130" s="98">
         <v>11</v>
       </c>
       <c r="D130" s="6" t="s">
@@ -3446,9 +3484,9 @@
       <c r="G130" s="24"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="95"/>
-      <c r="B131" s="95"/>
-      <c r="C131" s="103"/>
+      <c r="A131" s="93"/>
+      <c r="B131" s="93"/>
+      <c r="C131" s="99"/>
       <c r="D131" s="6" t="s">
         <v>4</v>
       </c>
@@ -3459,9 +3497,9 @@
       <c r="G131" s="24"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="95"/>
-      <c r="B132" s="95"/>
-      <c r="C132" s="103"/>
+      <c r="A132" s="93"/>
+      <c r="B132" s="93"/>
+      <c r="C132" s="99"/>
       <c r="D132" s="5" t="s">
         <v>5</v>
       </c>
@@ -3472,9 +3510,9 @@
       <c r="G132" s="24"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="95"/>
-      <c r="B133" s="95"/>
-      <c r="C133" s="103"/>
+      <c r="A133" s="93"/>
+      <c r="B133" s="93"/>
+      <c r="C133" s="99"/>
       <c r="D133" s="5" t="s">
         <v>6</v>
       </c>
@@ -3485,9 +3523,9 @@
       <c r="G133" s="24"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="95"/>
-      <c r="B134" s="95"/>
-      <c r="C134" s="103"/>
+      <c r="A134" s="93"/>
+      <c r="B134" s="93"/>
+      <c r="C134" s="99"/>
       <c r="D134" s="5" t="s">
         <v>7</v>
       </c>
@@ -3498,9 +3536,9 @@
       <c r="G134" s="24"/>
     </row>
     <row r="135" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="95"/>
-      <c r="B135" s="95"/>
-      <c r="C135" s="103"/>
+      <c r="A135" s="93"/>
+      <c r="B135" s="93"/>
+      <c r="C135" s="99"/>
       <c r="D135" s="5" t="s">
         <v>8</v>
       </c>
@@ -3511,9 +3549,9 @@
       <c r="G135" s="24"/>
     </row>
     <row r="136" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="95"/>
-      <c r="B136" s="95"/>
-      <c r="C136" s="103"/>
+      <c r="A136" s="93"/>
+      <c r="B136" s="93"/>
+      <c r="C136" s="99"/>
       <c r="D136" s="6" t="s">
         <v>9</v>
       </c>
@@ -3524,9 +3562,9 @@
       <c r="G136" s="24"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="95"/>
-      <c r="B137" s="95"/>
-      <c r="C137" s="103"/>
+      <c r="A137" s="93"/>
+      <c r="B137" s="93"/>
+      <c r="C137" s="99"/>
       <c r="D137" s="6" t="s">
         <v>10</v>
       </c>
@@ -3537,9 +3575,9 @@
       <c r="G137" s="24"/>
     </row>
     <row r="138" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="95"/>
-      <c r="B138" s="95"/>
-      <c r="C138" s="103"/>
+      <c r="A138" s="93"/>
+      <c r="B138" s="93"/>
+      <c r="C138" s="99"/>
       <c r="D138" s="9" t="s">
         <v>13</v>
       </c>
@@ -3550,9 +3588,9 @@
       <c r="G138" s="24"/>
     </row>
     <row r="139" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="95"/>
-      <c r="B139" s="95"/>
-      <c r="C139" s="103"/>
+      <c r="A139" s="93"/>
+      <c r="B139" s="93"/>
+      <c r="C139" s="99"/>
       <c r="D139" s="5" t="s">
         <v>15</v>
       </c>
@@ -3563,9 +3601,9 @@
       <c r="G139" s="24"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="105"/>
-      <c r="B140" s="105"/>
-      <c r="C140" s="104"/>
+      <c r="A140" s="94"/>
+      <c r="B140" s="94"/>
+      <c r="C140" s="100"/>
       <c r="D140" s="8" t="s">
         <v>29</v>
       </c>
@@ -3576,13 +3614,13 @@
       <c r="G140" s="24"/>
     </row>
     <row r="141" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="94">
+      <c r="A141" s="92">
         <v>25</v>
       </c>
-      <c r="B141" s="86" t="s">
+      <c r="B141" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="C141" s="113">
+      <c r="C141" s="95">
         <v>29</v>
       </c>
       <c r="D141" s="51" t="s">
@@ -3595,9 +3633,9 @@
       <c r="G141" s="24"/>
     </row>
     <row r="142" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="95"/>
-      <c r="B142" s="87"/>
-      <c r="C142" s="114"/>
+      <c r="A142" s="93"/>
+      <c r="B142" s="90"/>
+      <c r="C142" s="96"/>
       <c r="D142" s="53" t="s">
         <v>4</v>
       </c>
@@ -3608,9 +3646,9 @@
       <c r="G142" s="24"/>
     </row>
     <row r="143" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="95"/>
-      <c r="B143" s="87"/>
-      <c r="C143" s="114"/>
+      <c r="A143" s="93"/>
+      <c r="B143" s="90"/>
+      <c r="C143" s="96"/>
       <c r="D143" s="53" t="s">
         <v>5</v>
       </c>
@@ -3621,9 +3659,9 @@
       <c r="G143" s="24"/>
     </row>
     <row r="144" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="95"/>
-      <c r="B144" s="87"/>
-      <c r="C144" s="114"/>
+      <c r="A144" s="93"/>
+      <c r="B144" s="90"/>
+      <c r="C144" s="96"/>
       <c r="D144" s="53" t="s">
         <v>6</v>
       </c>
@@ -3634,9 +3672,9 @@
       <c r="G144" s="24"/>
     </row>
     <row r="145" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="95"/>
-      <c r="B145" s="87"/>
-      <c r="C145" s="114"/>
+      <c r="A145" s="93"/>
+      <c r="B145" s="90"/>
+      <c r="C145" s="96"/>
       <c r="D145" s="59" t="s">
         <v>7</v>
       </c>
@@ -3647,9 +3685,9 @@
       <c r="G145" s="24"/>
     </row>
     <row r="146" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="95"/>
-      <c r="B146" s="87"/>
-      <c r="C146" s="114"/>
+      <c r="A146" s="93"/>
+      <c r="B146" s="90"/>
+      <c r="C146" s="96"/>
       <c r="D146" s="59" t="s">
         <v>8</v>
       </c>
@@ -3660,9 +3698,9 @@
       <c r="G146" s="24"/>
     </row>
     <row r="147" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="95"/>
-      <c r="B147" s="87"/>
-      <c r="C147" s="114"/>
+      <c r="A147" s="93"/>
+      <c r="B147" s="90"/>
+      <c r="C147" s="96"/>
       <c r="D147" s="53" t="s">
         <v>13</v>
       </c>
@@ -3673,9 +3711,9 @@
       <c r="G147" s="24"/>
     </row>
     <row r="148" spans="1:7" s="32" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="95"/>
-      <c r="B148" s="87"/>
-      <c r="C148" s="115"/>
+      <c r="A148" s="93"/>
+      <c r="B148" s="90"/>
+      <c r="C148" s="97"/>
       <c r="D148" s="53" t="s">
         <v>14</v>
       </c>
@@ -3686,9 +3724,9 @@
       <c r="G148" s="24"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="95"/>
-      <c r="B149" s="87"/>
-      <c r="C149" s="118">
+      <c r="A149" s="93"/>
+      <c r="B149" s="90"/>
+      <c r="C149" s="101">
         <v>21</v>
       </c>
       <c r="D149" s="51" t="s">
@@ -3701,9 +3739,9 @@
       <c r="G149" s="24"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="95"/>
-      <c r="B150" s="87"/>
-      <c r="C150" s="116"/>
+      <c r="A150" s="93"/>
+      <c r="B150" s="90"/>
+      <c r="C150" s="102"/>
       <c r="D150" s="53" t="s">
         <v>4</v>
       </c>
@@ -3714,9 +3752,9 @@
       <c r="G150" s="24"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="95"/>
-      <c r="B151" s="87"/>
-      <c r="C151" s="116"/>
+      <c r="A151" s="93"/>
+      <c r="B151" s="90"/>
+      <c r="C151" s="102"/>
       <c r="D151" s="53" t="s">
         <v>5</v>
       </c>
@@ -3727,9 +3765,9 @@
       <c r="G151" s="24"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="95"/>
-      <c r="B152" s="87"/>
-      <c r="C152" s="116"/>
+      <c r="A152" s="93"/>
+      <c r="B152" s="90"/>
+      <c r="C152" s="102"/>
       <c r="D152" s="59" t="s">
         <v>6</v>
       </c>
@@ -3740,9 +3778,9 @@
       <c r="G152" s="24"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="95"/>
-      <c r="B153" s="87"/>
-      <c r="C153" s="116"/>
+      <c r="A153" s="93"/>
+      <c r="B153" s="90"/>
+      <c r="C153" s="102"/>
       <c r="D153" s="59" t="s">
         <v>7</v>
       </c>
@@ -3753,9 +3791,9 @@
       <c r="G153" s="24"/>
     </row>
     <row r="154" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="95"/>
-      <c r="B154" s="87"/>
-      <c r="C154" s="116"/>
+      <c r="A154" s="93"/>
+      <c r="B154" s="90"/>
+      <c r="C154" s="102"/>
       <c r="D154" s="59" t="s">
         <v>8</v>
       </c>
@@ -3766,9 +3804,9 @@
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="95"/>
-      <c r="B155" s="87"/>
-      <c r="C155" s="116"/>
+      <c r="A155" s="93"/>
+      <c r="B155" s="90"/>
+      <c r="C155" s="102"/>
       <c r="D155" s="53" t="s">
         <v>9</v>
       </c>
@@ -3779,9 +3817,9 @@
       <c r="G155" s="24"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="95"/>
-      <c r="B156" s="87"/>
-      <c r="C156" s="116"/>
+      <c r="A156" s="93"/>
+      <c r="B156" s="90"/>
+      <c r="C156" s="102"/>
       <c r="D156" s="53" t="s">
         <v>10</v>
       </c>
@@ -3792,9 +3830,9 @@
       <c r="G156" s="24"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="95"/>
-      <c r="B157" s="87"/>
-      <c r="C157" s="116"/>
+      <c r="A157" s="93"/>
+      <c r="B157" s="90"/>
+      <c r="C157" s="102"/>
       <c r="D157" s="53" t="s">
         <v>13</v>
       </c>
@@ -3805,9 +3843,9 @@
       <c r="G157" s="24"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="95"/>
-      <c r="B158" s="87"/>
-      <c r="C158" s="117"/>
+      <c r="A158" s="93"/>
+      <c r="B158" s="90"/>
+      <c r="C158" s="103"/>
       <c r="D158" s="52" t="s">
         <v>14</v>
       </c>
@@ -3818,9 +3856,9 @@
       <c r="G158" s="24"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="95"/>
-      <c r="B159" s="87"/>
-      <c r="C159" s="116">
+      <c r="A159" s="93"/>
+      <c r="B159" s="90"/>
+      <c r="C159" s="102">
         <v>23</v>
       </c>
       <c r="D159" s="53" t="s">
@@ -3833,9 +3871,9 @@
       <c r="G159" s="24"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="95"/>
-      <c r="B160" s="87"/>
-      <c r="C160" s="116"/>
+      <c r="A160" s="93"/>
+      <c r="B160" s="90"/>
+      <c r="C160" s="102"/>
       <c r="D160" s="53" t="s">
         <v>4</v>
       </c>
@@ -3846,9 +3884,9 @@
       <c r="G160" s="24"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="95"/>
-      <c r="B161" s="87"/>
-      <c r="C161" s="116"/>
+      <c r="A161" s="93"/>
+      <c r="B161" s="90"/>
+      <c r="C161" s="102"/>
       <c r="D161" s="53" t="s">
         <v>5</v>
       </c>
@@ -3859,9 +3897,9 @@
       <c r="G161" s="24"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="95"/>
-      <c r="B162" s="87"/>
-      <c r="C162" s="116"/>
+      <c r="A162" s="93"/>
+      <c r="B162" s="90"/>
+      <c r="C162" s="102"/>
       <c r="D162" s="59" t="s">
         <v>6</v>
       </c>
@@ -3872,9 +3910,9 @@
       <c r="G162" s="24"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="95"/>
-      <c r="B163" s="87"/>
-      <c r="C163" s="116"/>
+      <c r="A163" s="93"/>
+      <c r="B163" s="90"/>
+      <c r="C163" s="102"/>
       <c r="D163" s="59" t="s">
         <v>7</v>
       </c>
@@ -3885,9 +3923,9 @@
       <c r="G163" s="24"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="95"/>
-      <c r="B164" s="87"/>
-      <c r="C164" s="116"/>
+      <c r="A164" s="93"/>
+      <c r="B164" s="90"/>
+      <c r="C164" s="102"/>
       <c r="D164" s="59" t="s">
         <v>8</v>
       </c>
@@ -3898,9 +3936,9 @@
       <c r="G164" s="24"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="95"/>
-      <c r="B165" s="87"/>
-      <c r="C165" s="116"/>
+      <c r="A165" s="93"/>
+      <c r="B165" s="90"/>
+      <c r="C165" s="102"/>
       <c r="D165" s="53" t="s">
         <v>9</v>
       </c>
@@ -3911,9 +3949,9 @@
       <c r="G165" s="24"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="95"/>
-      <c r="B166" s="87"/>
-      <c r="C166" s="116"/>
+      <c r="A166" s="93"/>
+      <c r="B166" s="90"/>
+      <c r="C166" s="102"/>
       <c r="D166" s="53" t="s">
         <v>10</v>
       </c>
@@ -3924,9 +3962,9 @@
       <c r="G166" s="24"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="95"/>
-      <c r="B167" s="87"/>
-      <c r="C167" s="116"/>
+      <c r="A167" s="93"/>
+      <c r="B167" s="90"/>
+      <c r="C167" s="102"/>
       <c r="D167" s="53" t="s">
         <v>13</v>
       </c>
@@ -3937,9 +3975,9 @@
       <c r="G167" s="24"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="95"/>
-      <c r="B168" s="87"/>
-      <c r="C168" s="117"/>
+      <c r="A168" s="93"/>
+      <c r="B168" s="90"/>
+      <c r="C168" s="103"/>
       <c r="D168" s="52" t="s">
         <v>14</v>
       </c>
@@ -3950,13 +3988,13 @@
       <c r="G168" s="24"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="94">
+      <c r="A169" s="92">
         <v>26</v>
       </c>
-      <c r="B169" s="86" t="s">
+      <c r="B169" s="89" t="s">
         <v>184</v>
       </c>
-      <c r="C169" s="119">
+      <c r="C169" s="86">
         <v>25</v>
       </c>
       <c r="D169" s="53" t="s">
@@ -3969,9 +4007,9 @@
       <c r="G169" s="24"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="95"/>
-      <c r="B170" s="87"/>
-      <c r="C170" s="106"/>
+      <c r="A170" s="93"/>
+      <c r="B170" s="90"/>
+      <c r="C170" s="87"/>
       <c r="D170" s="53" t="s">
         <v>4</v>
       </c>
@@ -3982,9 +4020,9 @@
       <c r="G170" s="24"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="95"/>
-      <c r="B171" s="87"/>
-      <c r="C171" s="106"/>
+      <c r="A171" s="93"/>
+      <c r="B171" s="90"/>
+      <c r="C171" s="87"/>
       <c r="D171" s="63" t="s">
         <v>5</v>
       </c>
@@ -3995,9 +4033,9 @@
       <c r="G171" s="24"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="95"/>
-      <c r="B172" s="87"/>
-      <c r="C172" s="106"/>
+      <c r="A172" s="93"/>
+      <c r="B172" s="90"/>
+      <c r="C172" s="87"/>
       <c r="D172" s="63" t="s">
         <v>6</v>
       </c>
@@ -4008,9 +4046,9 @@
       <c r="G172" s="24"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="95"/>
-      <c r="B173" s="87"/>
-      <c r="C173" s="106"/>
+      <c r="A173" s="93"/>
+      <c r="B173" s="90"/>
+      <c r="C173" s="87"/>
       <c r="D173" s="63" t="s">
         <v>7</v>
       </c>
@@ -4021,9 +4059,9 @@
       <c r="G173" s="24"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="95"/>
-      <c r="B174" s="87"/>
-      <c r="C174" s="106"/>
+      <c r="A174" s="93"/>
+      <c r="B174" s="90"/>
+      <c r="C174" s="87"/>
       <c r="D174" s="63" t="s">
         <v>8</v>
       </c>
@@ -4034,9 +4072,9 @@
       <c r="G174" s="24"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="95"/>
-      <c r="B175" s="87"/>
-      <c r="C175" s="106"/>
+      <c r="A175" s="93"/>
+      <c r="B175" s="90"/>
+      <c r="C175" s="87"/>
       <c r="D175" s="59" t="s">
         <v>9</v>
       </c>
@@ -4047,9 +4085,9 @@
       <c r="G175" s="24"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="95"/>
-      <c r="B176" s="87"/>
-      <c r="C176" s="106"/>
+      <c r="A176" s="93"/>
+      <c r="B176" s="90"/>
+      <c r="C176" s="87"/>
       <c r="D176" s="59" t="s">
         <v>10</v>
       </c>
@@ -4060,9 +4098,9 @@
       <c r="G176" s="24"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="95"/>
-      <c r="B177" s="87"/>
-      <c r="C177" s="106"/>
+      <c r="A177" s="93"/>
+      <c r="B177" s="90"/>
+      <c r="C177" s="87"/>
       <c r="D177" s="59" t="s">
         <v>13</v>
       </c>
@@ -4073,9 +4111,9 @@
       <c r="G177" s="24"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="95"/>
-      <c r="B178" s="87"/>
-      <c r="C178" s="106"/>
+      <c r="A178" s="93"/>
+      <c r="B178" s="90"/>
+      <c r="C178" s="87"/>
       <c r="D178" s="63" t="s">
         <v>15</v>
       </c>
@@ -4086,9 +4124,9 @@
       <c r="G178" s="24"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="105"/>
-      <c r="B179" s="88"/>
-      <c r="C179" s="107"/>
+      <c r="A179" s="94"/>
+      <c r="B179" s="91"/>
+      <c r="C179" s="88"/>
       <c r="D179" s="78" t="s">
         <v>29</v>
       </c>
@@ -4099,13 +4137,13 @@
       <c r="G179" s="24"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="86">
+      <c r="A180" s="89">
         <v>27</v>
       </c>
-      <c r="B180" s="86" t="s">
+      <c r="B180" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C180" s="89">
+      <c r="C180" s="98">
         <v>24</v>
       </c>
       <c r="D180" s="80" t="s">
@@ -4118,9 +4156,9 @@
       <c r="G180" s="24"/>
     </row>
     <row r="181" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="87"/>
-      <c r="B181" s="87"/>
-      <c r="C181" s="90"/>
+      <c r="A181" s="90"/>
+      <c r="B181" s="90"/>
+      <c r="C181" s="114"/>
       <c r="D181" s="81" t="s">
         <v>4</v>
       </c>
@@ -4131,9 +4169,9 @@
       <c r="G181" s="24"/>
     </row>
     <row r="182" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="87"/>
-      <c r="B182" s="87"/>
-      <c r="C182" s="90"/>
+      <c r="A182" s="90"/>
+      <c r="B182" s="90"/>
+      <c r="C182" s="114"/>
       <c r="D182" s="77" t="s">
         <v>5</v>
       </c>
@@ -4144,9 +4182,9 @@
       <c r="G182" s="24"/>
     </row>
     <row r="183" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="87"/>
-      <c r="B183" s="87"/>
-      <c r="C183" s="90"/>
+      <c r="A183" s="90"/>
+      <c r="B183" s="90"/>
+      <c r="C183" s="114"/>
       <c r="D183" s="77" t="s">
         <v>6</v>
       </c>
@@ -4157,9 +4195,9 @@
       <c r="G183" s="24"/>
     </row>
     <row r="184" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="87"/>
-      <c r="B184" s="87"/>
-      <c r="C184" s="90"/>
+      <c r="A184" s="90"/>
+      <c r="B184" s="90"/>
+      <c r="C184" s="114"/>
       <c r="D184" s="81" t="s">
         <v>7</v>
       </c>
@@ -4170,9 +4208,9 @@
       <c r="G184" s="24"/>
     </row>
     <row r="185" spans="1:7" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="88"/>
-      <c r="B185" s="88"/>
-      <c r="C185" s="91"/>
+      <c r="A185" s="91"/>
+      <c r="B185" s="91"/>
+      <c r="C185" s="115"/>
       <c r="D185" s="82" t="s">
         <v>8</v>
       </c>
@@ -4203,51 +4241,6 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C169:C179"/>
-    <mergeCell ref="B169:B179"/>
-    <mergeCell ref="A169:A179"/>
-    <mergeCell ref="C141:C148"/>
-    <mergeCell ref="B141:B168"/>
-    <mergeCell ref="C130:C140"/>
-    <mergeCell ref="B130:B140"/>
-    <mergeCell ref="A130:A140"/>
-    <mergeCell ref="C149:C158"/>
-    <mergeCell ref="A141:A168"/>
-    <mergeCell ref="C159:C168"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="B116:B129"/>
-    <mergeCell ref="A116:A129"/>
-    <mergeCell ref="C116:C123"/>
-    <mergeCell ref="C105:C106"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="B103:B108"/>
-    <mergeCell ref="A103:A108"/>
-    <mergeCell ref="C109:C115"/>
-    <mergeCell ref="B109:B115"/>
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="C67:C78"/>
-    <mergeCell ref="B67:B78"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="C92:C99"/>
-    <mergeCell ref="B92:B99"/>
-    <mergeCell ref="A92:A99"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B81:B88"/>
-    <mergeCell ref="C81:C88"/>
-    <mergeCell ref="A81:A88"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="C56:C66"/>
-    <mergeCell ref="B56:B66"/>
-    <mergeCell ref="A56:A66"/>
     <mergeCell ref="B180:B185"/>
     <mergeCell ref="A180:A185"/>
     <mergeCell ref="C180:C185"/>
@@ -4264,6 +4257,51 @@
     <mergeCell ref="C43:C54"/>
     <mergeCell ref="B43:B54"/>
     <mergeCell ref="A43:A54"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="A33:A42"/>
+    <mergeCell ref="C56:C66"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="A56:A66"/>
+    <mergeCell ref="C67:C78"/>
+    <mergeCell ref="B67:B78"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="C92:C99"/>
+    <mergeCell ref="B92:B99"/>
+    <mergeCell ref="A92:A99"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B81:B88"/>
+    <mergeCell ref="C81:C88"/>
+    <mergeCell ref="A81:A88"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="B103:B108"/>
+    <mergeCell ref="A103:A108"/>
+    <mergeCell ref="C109:C115"/>
+    <mergeCell ref="B109:B115"/>
+    <mergeCell ref="A109:A115"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="B116:B129"/>
+    <mergeCell ref="A116:A129"/>
+    <mergeCell ref="C116:C123"/>
+    <mergeCell ref="C130:C140"/>
+    <mergeCell ref="B130:B140"/>
+    <mergeCell ref="A130:A140"/>
+    <mergeCell ref="C149:C158"/>
+    <mergeCell ref="A141:A168"/>
+    <mergeCell ref="C159:C168"/>
+    <mergeCell ref="C169:C179"/>
+    <mergeCell ref="B169:B179"/>
+    <mergeCell ref="A169:A179"/>
+    <mergeCell ref="C141:C148"/>
+    <mergeCell ref="B141:B168"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4272,7 +4310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
